--- a/Índice de Tablas (16-01-2017).xlsx
+++ b/Índice de Tablas (16-01-2017).xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Felipe Mc\Dropbox\Observatorio Laboral\Web OLN\Documentos entregados a Austranet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pedro\Documents\GitHub\OLN-ISN\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -69,12 +69,12 @@
     <definedName name="_ftn1" localSheetId="5">'1.4'!#REF!</definedName>
     <definedName name="_ftnref1" localSheetId="5">'1.4'!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1018" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1019" uniqueCount="427">
   <si>
     <t>Tramo de edad</t>
   </si>
@@ -1401,25 +1401,35 @@
   <si>
     <t>5.11. Características generales de las principales ocupaciones ejercidas en el sector Administración Pública, 2015</t>
   </si>
+  <si>
+    <t>Esta Tabla es idéntica a la Tabla 5.3</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="8">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="165" formatCode="#,##0.0"/>
-    <numFmt numFmtId="166" formatCode="0.0%"/>
-    <numFmt numFmtId="167" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="#,##0.0"/>
+    <numFmt numFmtId="167" formatCode="0.0%"/>
     <numFmt numFmtId="168" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="169" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
     <numFmt numFmtId="170" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
   </numFmts>
-  <fonts count="54" x14ac:knownFonts="1">
+  <fonts count="55" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2128,807 +2138,807 @@
   </borders>
   <cellStyleXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="24"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="24"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="24"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24"/>
+    <xf numFmtId="43" fontId="40" fillId="0" borderId="24" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="24"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="24"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24"/>
-    <xf numFmtId="167" fontId="39" fillId="0" borderId="24" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="39" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="24"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="24" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="24" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="24"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="24" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="24" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="399">
+  <cellXfs count="400">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="8" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="8" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="3" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="3" fontId="19" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="20" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="3" fontId="21" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="21" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="3" fontId="22" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="22" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="3" fontId="23" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="23" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="3" fontId="24" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="24" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="3" fontId="25" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="28" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="3" fontId="29" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="29" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="3" fontId="30" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="30" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="3" fontId="31" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="31" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="3" fontId="32" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="8" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="15" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="2" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="24" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="15" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="2" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="15" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="14" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="11" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="15" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="15" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="15" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="165" fontId="8" fillId="2" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="2" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="24" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="14" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="24" xfId="4" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="41" fillId="2" borderId="24" xfId="4" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="42" fillId="2" borderId="24" xfId="5" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="42" fillId="2" borderId="25" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="14" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="14" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="14" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="14" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="24" xfId="4" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="40" fillId="2" borderId="24" xfId="4" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="41" fillId="2" borderId="24" xfId="5" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="41" fillId="2" borderId="25" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="42" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="2" borderId="21" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="2" borderId="24" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="2" borderId="24" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="41" fillId="2" borderId="24" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="41" fillId="2" borderId="24" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="2" borderId="24" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="2" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="41" fillId="2" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="24" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="24" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="24" xfId="4" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="46" fillId="2" borderId="24" xfId="4" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="41" fillId="2" borderId="25" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="41" fillId="2" borderId="25" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="41" fillId="2" borderId="24" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="42" fillId="2" borderId="24" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="2" borderId="24" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="24" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="2" borderId="25" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="2" borderId="24" xfId="4" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="42" fillId="2" borderId="24" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="41" fillId="2" borderId="24" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="42" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="41" fillId="2" borderId="24" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="41" fillId="2" borderId="25" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="2" borderId="24" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="2" borderId="24" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="41" fillId="2" borderId="24" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="24" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="24" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="2" borderId="24" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="42" fillId="2" borderId="21" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="2" borderId="21" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="41" fillId="2" borderId="24" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="24" xfId="5" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="24" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="41" fillId="0" borderId="24" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="41" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="2" borderId="24" xfId="5" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="24" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="24" xfId="4" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="41" fillId="2" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="2" borderId="24" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="2" borderId="25" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="21" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="44" fillId="2" borderId="24" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="2" borderId="24" xfId="8" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="24" xfId="9" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="24" xfId="9" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="9" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="24" xfId="9" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="2" borderId="24" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="42" fillId="2" borderId="24" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="42" fillId="2" borderId="24" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="2" borderId="24" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="2" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="42" fillId="2" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="24" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="24" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="24" xfId="4" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="47" fillId="2" borderId="24" xfId="4" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="42" fillId="2" borderId="25" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="42" fillId="2" borderId="25" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="42" fillId="2" borderId="24" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="24" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="2" borderId="24" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="24" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="2" borderId="25" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="2" borderId="24" xfId="4" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="24" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="42" fillId="2" borderId="24" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="42" fillId="2" borderId="24" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="42" fillId="2" borderId="25" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="2" borderId="24" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="2" borderId="24" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="42" fillId="2" borderId="24" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="24" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="24" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="2" borderId="24" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="21" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="2" borderId="21" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="42" fillId="2" borderId="24" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="24" xfId="5" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="24" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="42" fillId="0" borderId="24" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="42" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="24" xfId="5" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="24" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" xfId="4" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="42" fillId="2" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="2" borderId="24" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="2" borderId="25" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="2" borderId="24" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="2" borderId="24" xfId="8" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="24" xfId="9" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="24" xfId="9" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="9" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="24" xfId="9" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="30" xfId="9" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="30" xfId="9" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="30" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="30" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="30" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="30" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="24" xfId="9" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="24" xfId="9" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="18" fillId="2" borderId="24" xfId="9" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="19" fillId="2" borderId="24" xfId="9" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="18" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="19" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="9" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="6" xfId="9" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="18" fillId="2" borderId="24" xfId="10" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="18" fillId="2" borderId="24" xfId="9" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="11" fontId="18" fillId="2" borderId="24" xfId="9" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="49" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="44" fillId="2" borderId="24" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="19" fillId="2" borderId="24" xfId="10" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="19" fillId="2" borderId="24" xfId="9" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="19" fillId="2" borderId="24" xfId="9" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="50" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="45" fillId="2" borderId="24" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="41" fillId="2" borderId="24" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="42" fillId="2" borderId="24" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="41" fillId="2" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="42" fillId="2" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="41" fillId="2" borderId="25" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="42" fillId="2" borderId="25" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="8" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="8" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="8" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="8" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="8" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="8" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="8" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="8" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="8" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="8" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="8" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="8" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="8" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="8" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="24" xfId="8" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="24" xfId="8" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="8" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="8" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="8" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="1" xfId="8" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="24" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="8" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="8" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="24" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="8" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="8" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="2" borderId="25" xfId="8" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="8" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="50" fillId="2" borderId="25" xfId="8" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="8" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="24" xfId="8" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="24" xfId="8" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="8" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="8" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="24" xfId="8" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="24" xfId="8" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="8" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="1" xfId="8" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="8" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="8" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="8" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="8" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="8" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="8" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="24" xfId="8" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="24" xfId="8" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="8" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="24" xfId="8" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="24" xfId="8" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="1" xfId="8" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="1" xfId="8" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="2" borderId="25" xfId="8" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="2" borderId="25" xfId="8" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="2" borderId="24" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="52" fillId="2" borderId="24" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="8" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="8" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="24" xfId="8" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="15" fontId="2" fillId="2" borderId="24" xfId="8" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="3" xfId="8" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="24" xfId="8" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="15" fontId="3" fillId="2" borderId="24" xfId="8" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="3" xfId="8" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="8" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="8" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="8" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="8" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="2" borderId="24" xfId="8" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="50" fillId="2" borderId="24" xfId="8" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="2" borderId="24" xfId="8" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="54" fillId="2" borderId="24" xfId="8" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="32" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="8" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="8" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="8" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="34" xfId="8" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="8" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="8" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="8" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="36" xfId="8" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="34" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="8"/>
-    <xf numFmtId="164" fontId="41" fillId="2" borderId="24" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="41" fillId="2" borderId="24" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="41" fillId="2" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="8"/>
+    <xf numFmtId="165" fontId="42" fillId="2" borderId="24" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="42" fillId="2" borderId="24" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="42" fillId="2" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="41" fillId="2" borderId="24" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="42" fillId="2" borderId="24" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="7" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="8" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="8" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="8" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="8" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="8" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="8" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="25" xfId="8" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="25" xfId="8" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="170" fontId="0" fillId="2" borderId="1" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="10" fillId="2" borderId="24" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="11" fillId="2" borderId="24" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="10" fillId="2" borderId="25" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="11" fillId="2" borderId="25" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="8" fillId="2" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="11" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="7" fillId="2" borderId="24" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="8" fillId="2" borderId="24" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="7" fillId="2" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="8" fillId="2" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="7" fillId="2" borderId="25" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="8" fillId="2" borderId="25" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="24" xfId="8" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="24" xfId="8" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="24" xfId="8" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="24" xfId="8" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="24" xfId="8" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="24" xfId="8" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="3" xfId="8" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="3" xfId="8" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="8" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="8" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="8" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="8" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="8" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="8" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="36" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="8" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="8" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="8" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="8" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="41" fillId="2" borderId="24" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="42" fillId="2" borderId="24" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="2" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="8" fillId="2" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="2" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="8" fillId="2" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="8" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="170" fontId="0" fillId="2" borderId="6" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2940,243 +2950,246 @@
     <xf numFmtId="170" fontId="0" fillId="2" borderId="3" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="8" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="8" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="8" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="8" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="50" fillId="2" borderId="31" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="2" borderId="4" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="2" borderId="35" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="2" borderId="25" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="2" borderId="33" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="2" borderId="24" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="2" borderId="24" xfId="8" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="2" borderId="24" xfId="8" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="2" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="2" borderId="24" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="2" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="2" borderId="25" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="2" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="2" borderId="24" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="2" borderId="25" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="2" borderId="24" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="24" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="24" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="24" xfId="9" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="6" xfId="9" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="9" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="24" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="2" borderId="4" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="2" borderId="24" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="8" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="8" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="8" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="8" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="8" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="8" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="8" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="24" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="8" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="8" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="8" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="49" fillId="2" borderId="31" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="2" borderId="4" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="2" borderId="35" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="2" borderId="25" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="2" borderId="33" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="2" borderId="24" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="2" borderId="24" xfId="8" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="2" borderId="24" xfId="8" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="2" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="2" borderId="24" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="2" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="2" borderId="25" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="2" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="2" borderId="24" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="2" borderId="25" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="2" borderId="24" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="24" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="24" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="24" xfId="9" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="9" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="9" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="24" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="2" borderId="4" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="2" borderId="24" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="8" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="8" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="8" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="8" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="8" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="8" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="8" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="24" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="8" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="12">
@@ -3207,7 +3220,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -3267,352 +3280,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000000-C7F3-4075-AF0B-47F14120D6A7}"/>
                 </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-              </c:extLst>
-            </c:dLbl>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1"/>
-                    </a:solidFill>
-                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="es-CL"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>'1.1'!$A$4:$B$35</c:f>
-              <c:multiLvlStrCache>
-                <c:ptCount val="32"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>ene-mar</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>abr-jun</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>jul-sep</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>oct-dic</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>ene-mar</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>abr-jun</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>jul-sep</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>oct-dic</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>ene-mar</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>abr-jun</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>jul-sep</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>oct-dic</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>ene-mar</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>abr-jun</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>jul-sep</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>oct-dic</c:v>
-                  </c:pt>
-                  <c:pt idx="16">
-                    <c:v>ene-mar</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>abr-jun</c:v>
-                  </c:pt>
-                  <c:pt idx="18">
-                    <c:v>jul-sep</c:v>
-                  </c:pt>
-                  <c:pt idx="19">
-                    <c:v>oct-dic</c:v>
-                  </c:pt>
-                  <c:pt idx="20">
-                    <c:v>ene-mar</c:v>
-                  </c:pt>
-                  <c:pt idx="21">
-                    <c:v>abr-jun</c:v>
-                  </c:pt>
-                  <c:pt idx="22">
-                    <c:v>jul-sep</c:v>
-                  </c:pt>
-                  <c:pt idx="23">
-                    <c:v>oct-dic</c:v>
-                  </c:pt>
-                  <c:pt idx="24">
-                    <c:v>ene-mar</c:v>
-                  </c:pt>
-                  <c:pt idx="25">
-                    <c:v>abr-jun</c:v>
-                  </c:pt>
-                  <c:pt idx="26">
-                    <c:v>jul-sep</c:v>
-                  </c:pt>
-                  <c:pt idx="27">
-                    <c:v>oct-dic</c:v>
-                  </c:pt>
-                  <c:pt idx="28">
-                    <c:v>ene-mar</c:v>
-                  </c:pt>
-                  <c:pt idx="29">
-                    <c:v>abr-jun</c:v>
-                  </c:pt>
-                  <c:pt idx="30">
-                    <c:v>jul-sep</c:v>
-                  </c:pt>
-                  <c:pt idx="31">
-                    <c:v>oct-dic</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>2008</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>2009</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>2010</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>2011</c:v>
-                  </c:pt>
-                  <c:pt idx="16">
-                    <c:v>2012</c:v>
-                  </c:pt>
-                  <c:pt idx="20">
-                    <c:v>2013</c:v>
-                  </c:pt>
-                  <c:pt idx="24">
-                    <c:v>2014</c:v>
-                  </c:pt>
-                  <c:pt idx="28">
-                    <c:v>2015</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'1.1'!$C$4:$C$35</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="32"/>
-                <c:pt idx="0">
-                  <c:v>930988</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>949145</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>960924</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>966741</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>988157</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1003511</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1024038</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1042444</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1042123</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1041683</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1037373</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1049336</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1026206</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1041077</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1063841</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1068151</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1076860</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1087318</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1087370</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1097139</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1115966</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1126388</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1135544</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1136701</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1147536</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1157390</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1163379</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1200825</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1188514</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1207023</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>1216764</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>1234072</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-EF1C-4F04-8CD0-D2DB9DE10874}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'1.1'!$D$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Tendencia PIB</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="C00000"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="0"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-1.3888888888888867E-2"/>
-                  <c:y val="-8.7962962962962965E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -3801,6 +3473,350 @@
           </c:cat>
           <c:val>
             <c:numRef>
+              <c:f>'1.1'!$C$4:$C$35</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>930988</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>949145</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>960924</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>966741</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>988157</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1003511</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1024038</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1042444</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1042123</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1041683</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1037373</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1049336</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1026206</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1041077</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1063841</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1068151</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1076860</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1087318</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1087370</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1097139</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1115966</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1126388</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1135544</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1136701</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1147536</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1157390</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1163379</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1200825</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1188514</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1207023</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1216764</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1234072</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-EF1C-4F04-8CD0-D2DB9DE10874}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'1.1'!$D$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tendencia PIB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.3888888888888867E-2"/>
+                  <c:y val="-8.7962962962962965E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-AC65-471B-A188-5C9249C09DE6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-CL"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'1.1'!$A$4:$B$35</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="32"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>ene-mar</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>abr-jun</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>jul-sep</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>oct-dic</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>ene-mar</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>abr-jun</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>jul-sep</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>oct-dic</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>ene-mar</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>abr-jun</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>jul-sep</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>oct-dic</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>ene-mar</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>abr-jun</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>jul-sep</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>oct-dic</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>ene-mar</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>abr-jun</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>jul-sep</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>oct-dic</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>ene-mar</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>abr-jun</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>jul-sep</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>oct-dic</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>ene-mar</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>abr-jun</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>jul-sep</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>oct-dic</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>ene-mar</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>abr-jun</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>jul-sep</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>oct-dic</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>2008</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2009</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>2010</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>2011</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>2012</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>2013</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>2014</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>2015</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
               <c:f>'1.1'!$D$4:$D$35</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
@@ -3905,7 +3921,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-EF1C-4F04-8CD0-D2DB9DE10874}"/>
             </c:ext>
@@ -4183,7 +4199,7 @@
 </file>
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -4255,6 +4271,9 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-ECB9-4BC2-B512-C249D808C270}"/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -4271,372 +4290,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000000-6F91-433F-B0F7-225471647FA9}"/>
                 </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-              </c:extLst>
-            </c:dLbl>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1"/>
-                    </a:solidFill>
-                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="es-CL"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>'1.10'!$A$4:$B$35</c:f>
-              <c:multiLvlStrCache>
-                <c:ptCount val="32"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>ene-mar</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>abr-jun</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>jul-sep</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>oct-dic</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>ene-mar</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>abr-jun</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>jul-sep</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>oct-dic</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>ene-mar</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>abr-jun</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>jul-sep</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>oct-dic</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>ene-mar</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>abr-jun</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>jul-sep</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>oct-dic</c:v>
-                  </c:pt>
-                  <c:pt idx="16">
-                    <c:v>ene-mar</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>abr-jun</c:v>
-                  </c:pt>
-                  <c:pt idx="18">
-                    <c:v>jul-sep</c:v>
-                  </c:pt>
-                  <c:pt idx="19">
-                    <c:v>oct-dic</c:v>
-                  </c:pt>
-                  <c:pt idx="20">
-                    <c:v>ene-mar</c:v>
-                  </c:pt>
-                  <c:pt idx="21">
-                    <c:v>abr-jun</c:v>
-                  </c:pt>
-                  <c:pt idx="22">
-                    <c:v>jul-sep</c:v>
-                  </c:pt>
-                  <c:pt idx="23">
-                    <c:v>oct-dic</c:v>
-                  </c:pt>
-                  <c:pt idx="24">
-                    <c:v>ene-mar</c:v>
-                  </c:pt>
-                  <c:pt idx="25">
-                    <c:v>abr-jun</c:v>
-                  </c:pt>
-                  <c:pt idx="26">
-                    <c:v>jul-sep</c:v>
-                  </c:pt>
-                  <c:pt idx="27">
-                    <c:v>oct-dic</c:v>
-                  </c:pt>
-                  <c:pt idx="28">
-                    <c:v>ene-mar</c:v>
-                  </c:pt>
-                  <c:pt idx="29">
-                    <c:v>abr-jun</c:v>
-                  </c:pt>
-                  <c:pt idx="30">
-                    <c:v>jul-sep</c:v>
-                  </c:pt>
-                  <c:pt idx="31">
-                    <c:v>oct-dic</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>2008</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>2009</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>2010</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>2011</c:v>
-                  </c:pt>
-                  <c:pt idx="16">
-                    <c:v>2012</c:v>
-                  </c:pt>
-                  <c:pt idx="20">
-                    <c:v>2013</c:v>
-                  </c:pt>
-                  <c:pt idx="24">
-                    <c:v>2014</c:v>
-                  </c:pt>
-                  <c:pt idx="28">
-                    <c:v>2015</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'1.10'!$C$4:$C$35</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="32"/>
-                <c:pt idx="0">
-                  <c:v>6705</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6412</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5350</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4113</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3985</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4583</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4839</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6005</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5465</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>5740</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>6464</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>7219</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>7075</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>7480</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>6746</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>7203</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>6931</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>6889</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>6069</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>7338</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>6483</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>7012</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>6502</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>6739</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>6630</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>6887</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>6247</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>6459</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>5925</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>5585</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>5060</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>5211</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-6F91-433F-B0F7-225471647FA9}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'1.10'!$D$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Exportaciones nacional</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="tx2">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="0"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="0"/>
-                  <c:y val="-2.3148148148148147E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="31"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-4.6296296296296294E-3"/>
-                  <c:y val="-6.0185185185185182E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -4825,6 +4483,373 @@
           </c:cat>
           <c:val>
             <c:numRef>
+              <c:f>'1.10'!$C$4:$C$35</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>6705</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6412</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5350</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4113</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3985</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4583</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4839</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5465</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5740</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6464</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7219</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7075</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7480</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6746</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7203</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6931</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6889</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6069</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7338</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6483</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7012</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6502</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6739</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6630</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6887</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6247</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>6459</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5925</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5585</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5060</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5211</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6F91-433F-B0F7-225471647FA9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'1.10'!$D$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Exportaciones nacional</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="-2.3148148148148147E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-ECB9-4BC2-B512-C249D808C270}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="31"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.6296296296296294E-3"/>
+                  <c:y val="-6.0185185185185182E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-ECB9-4BC2-B512-C249D808C270}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-CL"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'1.10'!$A$4:$B$35</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="32"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>ene-mar</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>abr-jun</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>jul-sep</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>oct-dic</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>ene-mar</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>abr-jun</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>jul-sep</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>oct-dic</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>ene-mar</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>abr-jun</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>jul-sep</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>oct-dic</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>ene-mar</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>abr-jun</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>jul-sep</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>oct-dic</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>ene-mar</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>abr-jun</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>jul-sep</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>oct-dic</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>ene-mar</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>abr-jun</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>jul-sep</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>oct-dic</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>ene-mar</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>abr-jun</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>jul-sep</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>oct-dic</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>ene-mar</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>abr-jun</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>jul-sep</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>oct-dic</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>2008</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2009</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>2010</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>2011</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>2012</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>2013</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>2014</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>2015</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
               <c:f>'1.10'!$D$4:$D$35</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
@@ -4929,7 +4954,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-6F91-433F-B0F7-225471647FA9}"/>
             </c:ext>
@@ -5207,7 +5232,7 @@
 </file>
 
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -5300,7 +5325,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-E219-4903-9369-9923C4CADD19}"/>
             </c:ext>
@@ -5379,7 +5404,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-E219-4903-9369-9923C4CADD19}"/>
             </c:ext>
@@ -5459,7 +5484,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-E219-4903-9369-9923C4CADD19}"/>
             </c:ext>
@@ -5664,7 +5689,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -5725,6 +5750,9 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-20FF-47DB-9DFA-7115141D0778}"/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -5742,11 +5770,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000000-4D4A-41DA-B063-473E218C36A7}"/>
                 </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -5763,7 +5791,7 @@
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
               </c:ext>
@@ -5980,7 +6008,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-4D4A-41DA-B063-473E218C36A7}"/>
             </c:ext>
@@ -6026,11 +6054,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000002-4D4A-41DA-B063-473E218C36A7}"/>
                 </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -6046,7 +6074,7 @@
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
               </c:ext>
@@ -6263,7 +6291,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-4D4A-41DA-B063-473E218C36A7}"/>
             </c:ext>
@@ -6464,7 +6492,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -6521,6 +6549,9 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-01E4-41E4-BA38-2DA5FA76DE3F}"/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -6540,6 +6571,9 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-01E4-41E4-BA38-2DA5FA76DE3F}"/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -6557,11 +6591,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000000-F799-4D45-8023-71906DCD1A01}"/>
                 </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -6595,7 +6629,7 @@
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -7075,7 +7109,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-F799-4D45-8023-71906DCD1A01}"/>
             </c:ext>
@@ -7125,6 +7159,9 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-01E4-41E4-BA38-2DA5FA76DE3F}"/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -7144,6 +7181,9 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-01E4-41E4-BA38-2DA5FA76DE3F}"/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -7161,11 +7201,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000002-F799-4D45-8023-71906DCD1A01}"/>
                 </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -7199,7 +7239,7 @@
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -7679,7 +7719,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-F799-4D45-8023-71906DCD1A01}"/>
             </c:ext>
@@ -7956,7 +7996,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -8020,11 +8060,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000000-4BB4-4C09-9B1C-74ACCD587F01}"/>
                 </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -8042,11 +8082,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000001-4BB4-4C09-9B1C-74ACCD587F01}"/>
                 </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -8064,11 +8104,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000002-1D6C-45B4-8D3A-C8446736DB81}"/>
                 </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -8086,11 +8126,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000002-4BB4-4C09-9B1C-74ACCD587F01}"/>
                 </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -8108,11 +8148,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000003-4BB4-4C09-9B1C-74ACCD587F01}"/>
                 </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -8130,11 +8170,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000004-4BB4-4C09-9B1C-74ACCD587F01}"/>
                 </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -8152,11 +8192,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000001-546C-490C-8E61-E19246E19C70}"/>
                 </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -8174,11 +8214,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000004-A66B-4897-82B0-8A4105D49D08}"/>
                 </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -8196,11 +8236,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000003-1D6C-45B4-8D3A-C8446736DB81}"/>
                 </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -8218,11 +8258,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000006-4BB4-4C09-9B1C-74ACCD587F01}"/>
                 </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -8240,11 +8280,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000002-546C-490C-8E61-E19246E19C70}"/>
                 </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -8262,11 +8302,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000007-4BB4-4C09-9B1C-74ACCD587F01}"/>
                 </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -8284,11 +8324,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000005-A66B-4897-82B0-8A4105D49D08}"/>
                 </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -8325,7 +8365,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -8446,7 +8486,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-546C-490C-8E61-E19246E19C70}"/>
             </c:ext>
@@ -8492,11 +8532,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000004-546C-490C-8E61-E19246E19C70}"/>
                 </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -8514,11 +8554,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000000-A66B-4897-82B0-8A4105D49D08}"/>
                 </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -8536,11 +8576,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000001-A66B-4897-82B0-8A4105D49D08}"/>
                 </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -8558,11 +8598,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000002-A66B-4897-82B0-8A4105D49D08}"/>
                 </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -8580,11 +8620,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000003-A66B-4897-82B0-8A4105D49D08}"/>
                 </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -8602,11 +8642,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000005-4BB4-4C09-9B1C-74ACCD587F01}"/>
                 </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -8624,11 +8664,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000001-1D6C-45B4-8D3A-C8446736DB81}"/>
                 </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -8646,11 +8686,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000004-1D6C-45B4-8D3A-C8446736DB81}"/>
                 </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -8668,11 +8708,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000008-A66B-4897-82B0-8A4105D49D08}"/>
                 </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -8690,11 +8730,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000007-A66B-4897-82B0-8A4105D49D08}"/>
                 </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -8712,11 +8752,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000006-A66B-4897-82B0-8A4105D49D08}"/>
                 </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -8734,11 +8774,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000008-4BB4-4C09-9B1C-74ACCD587F01}"/>
                 </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -8775,7 +8815,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -8896,7 +8936,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-546C-490C-8E61-E19246E19C70}"/>
             </c:ext>
@@ -9079,7 +9119,7 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -9157,7 +9197,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -9284,7 +9324,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-CDBA-4733-8F40-157E6E04C41A}"/>
             </c:ext>
@@ -9348,7 +9388,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -9475,7 +9515,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-CDBA-4733-8F40-157E6E04C41A}"/>
             </c:ext>
@@ -9629,7 +9669,7 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -9690,11 +9730,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000000-0941-4DB5-AFC2-9F89D448D28B}"/>
                 </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -9728,7 +9768,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -9855,7 +9895,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-8CDB-42F3-95D3-4D77344A87C1}"/>
             </c:ext>
@@ -9919,7 +9959,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -10046,7 +10086,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-8CDB-42F3-95D3-4D77344A87C1}"/>
             </c:ext>
@@ -10200,7 +10240,7 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -10263,6 +10303,9 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-F34D-4BB8-AA23-8586C0F0FC60}"/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -10274,11 +10317,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000000-FF8E-4BC1-BBDE-B4C7DB2E9B33}"/>
                 </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -10312,7 +10355,7 @@
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -10798,7 +10841,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-FF8E-4BC1-BBDE-B4C7DB2E9B33}"/>
             </c:ext>
@@ -10864,6 +10907,9 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-F34D-4BB8-AA23-8586C0F0FC60}"/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -10881,11 +10927,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000002-FF8E-4BC1-BBDE-B4C7DB2E9B33}"/>
                 </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -10919,7 +10965,7 @@
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -11405,7 +11451,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-FF8E-4BC1-BBDE-B4C7DB2E9B33}"/>
             </c:ext>
@@ -11798,7 +11844,7 @@
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -11861,6 +11907,9 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-6D31-476C-83EC-8D80978B0702}"/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -11880,6 +11929,9 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-6D31-476C-83EC-8D80978B0702}"/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -11897,11 +11949,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000000-1B29-4021-9722-81A68F07E856}"/>
                 </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -11913,11 +11965,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000001-1B29-4021-9722-81A68F07E856}"/>
                 </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -11951,7 +12003,7 @@
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -12356,7 +12408,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-1B29-4021-9722-81A68F07E856}"/>
             </c:ext>
@@ -12422,6 +12474,9 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-6D31-476C-83EC-8D80978B0702}"/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -12441,6 +12496,9 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-6D31-476C-83EC-8D80978B0702}"/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -12452,11 +12510,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000003-1B29-4021-9722-81A68F07E856}"/>
                 </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -12468,11 +12526,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000004-1B29-4021-9722-81A68F07E856}"/>
                 </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -12506,7 +12564,7 @@
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -12911,7 +12969,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-1B29-4021-9722-81A68F07E856}"/>
             </c:ext>
@@ -13329,7 +13387,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000006-1B29-4021-9722-81A68F07E856}"/>
             </c:ext>
@@ -13640,7 +13698,7 @@
 </file>
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -13706,6 +13764,9 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-C1EB-4D6B-BCFF-7F7392F05B29}"/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -13718,6 +13779,9 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-C1EB-4D6B-BCFF-7F7392F05B29}"/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -14232,7 +14296,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-B50F-4186-8AED-015C5530EA29}"/>
             </c:ext>
@@ -14275,6 +14339,9 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-C1EB-4D6B-BCFF-7F7392F05B29}"/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -14287,6 +14354,9 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-C1EB-4D6B-BCFF-7F7392F05B29}"/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -14801,6 +14871,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-C1EB-4D6B-BCFF-7F7392F05B29}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -14845,6 +14920,9 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-C1EB-4D6B-BCFF-7F7392F05B29}"/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -14863,6 +14941,9 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-C1EB-4D6B-BCFF-7F7392F05B29}"/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -15377,6 +15458,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-C1EB-4D6B-BCFF-7F7392F05B29}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -15421,6 +15507,9 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-C1EB-4D6B-BCFF-7F7392F05B29}"/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -15439,6 +15528,9 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-C1EB-4D6B-BCFF-7F7392F05B29}"/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -15953,6 +16045,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-C1EB-4D6B-BCFF-7F7392F05B29}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -27009,43 +27106,43 @@
       <c r="I2" s="50"/>
     </row>
     <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="351" t="s">
+      <c r="A3" s="349" t="s">
         <v>401</v>
       </c>
-      <c r="B3" s="349" t="s">
+      <c r="B3" s="352" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="349"/>
-      <c r="D3" s="349"/>
-      <c r="E3" s="349"/>
-      <c r="F3" s="349" t="s">
+      <c r="C3" s="352"/>
+      <c r="D3" s="352"/>
+      <c r="E3" s="352"/>
+      <c r="F3" s="352" t="s">
         <v>64</v>
       </c>
-      <c r="G3" s="349"/>
-      <c r="H3" s="349"/>
-      <c r="I3" s="349"/>
+      <c r="G3" s="352"/>
+      <c r="H3" s="352"/>
+      <c r="I3" s="352"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="352"/>
-      <c r="B4" s="350" t="s">
+      <c r="A4" s="350"/>
+      <c r="B4" s="353" t="s">
         <v>298</v>
       </c>
-      <c r="C4" s="350"/>
-      <c r="D4" s="350" t="s">
+      <c r="C4" s="353"/>
+      <c r="D4" s="353" t="s">
         <v>329</v>
       </c>
-      <c r="E4" s="350"/>
-      <c r="F4" s="350" t="s">
+      <c r="E4" s="353"/>
+      <c r="F4" s="353" t="s">
         <v>298</v>
       </c>
-      <c r="G4" s="350"/>
-      <c r="H4" s="350" t="s">
+      <c r="G4" s="353"/>
+      <c r="H4" s="353" t="s">
         <v>329</v>
       </c>
-      <c r="I4" s="350"/>
+      <c r="I4" s="353"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="353"/>
+      <c r="A5" s="351"/>
       <c r="B5" s="86" t="s">
         <v>397</v>
       </c>
@@ -27321,45 +27418,45 @@
       <c r="J2" s="314"/>
     </row>
     <row r="3" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="351" t="s">
+      <c r="A3" s="349" t="s">
         <v>401</v>
       </c>
-      <c r="B3" s="349" t="s">
+      <c r="B3" s="352" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="349"/>
-      <c r="D3" s="349"/>
-      <c r="E3" s="349"/>
-      <c r="F3" s="349" t="s">
+      <c r="C3" s="352"/>
+      <c r="D3" s="352"/>
+      <c r="E3" s="352"/>
+      <c r="F3" s="352" t="s">
         <v>64</v>
       </c>
-      <c r="G3" s="349"/>
-      <c r="H3" s="349"/>
-      <c r="I3" s="349"/>
+      <c r="G3" s="352"/>
+      <c r="H3" s="352"/>
+      <c r="I3" s="352"/>
       <c r="J3" s="195"/>
     </row>
     <row r="4" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="352"/>
-      <c r="B4" s="350" t="s">
+      <c r="A4" s="350"/>
+      <c r="B4" s="353" t="s">
         <v>298</v>
       </c>
-      <c r="C4" s="350"/>
-      <c r="D4" s="350" t="s">
+      <c r="C4" s="353"/>
+      <c r="D4" s="353" t="s">
         <v>329</v>
       </c>
-      <c r="E4" s="350"/>
-      <c r="F4" s="350" t="s">
+      <c r="E4" s="353"/>
+      <c r="F4" s="353" t="s">
         <v>298</v>
       </c>
-      <c r="G4" s="350"/>
-      <c r="H4" s="350" t="s">
+      <c r="G4" s="353"/>
+      <c r="H4" s="353" t="s">
         <v>329</v>
       </c>
-      <c r="I4" s="350"/>
+      <c r="I4" s="353"/>
       <c r="J4" s="195"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="353"/>
+      <c r="A5" s="351"/>
       <c r="B5" s="86" t="s">
         <v>397</v>
       </c>
@@ -28344,7 +28441,7 @@
   <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD12"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28873,7 +28970,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29117,8 +29214,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AV45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:F1"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29504,7 +29601,9 @@
       <c r="E22" s="262" t="s">
         <v>198</v>
       </c>
-      <c r="F22" s="257"/>
+      <c r="F22" s="399" t="s">
+        <v>426</v>
+      </c>
       <c r="G22" s="257"/>
       <c r="H22" s="257"/>
       <c r="I22" s="257"/>
@@ -30971,7 +31070,7 @@
         <v>13.558567047119141</v>
       </c>
       <c r="C5" s="12">
-        <v>11.851516723632812</v>
+        <v>11.851516723632813</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -33501,20 +33600,20 @@
     </row>
     <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="351" t="s">
+      <c r="A3" s="349" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="349" t="s">
+      <c r="B3" s="352" t="s">
         <v>152</v>
       </c>
-      <c r="C3" s="349"/>
-      <c r="D3" s="349" t="s">
+      <c r="C3" s="352"/>
+      <c r="D3" s="352" t="s">
         <v>64</v>
       </c>
-      <c r="E3" s="349"/>
+      <c r="E3" s="352"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="353"/>
+      <c r="A4" s="351"/>
       <c r="B4" s="86">
         <v>2010</v>
       </c>
@@ -35704,7 +35803,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>43.162033081054687</v>
+        <v>43.162033081054688</v>
       </c>
       <c r="B2">
         <v>10.663600921630859</v>
@@ -35721,7 +35820,7 @@
         <v>43.212192535400391</v>
       </c>
       <c r="B3">
-        <v>11.851516723632812</v>
+        <v>11.851516723632813</v>
       </c>
       <c r="C3">
         <v>59.183235168457031</v>
@@ -35736,7 +35835,7 @@
         <v>(mean) edad</v>
       </c>
       <c r="B5">
-        <v>43.162033081054687</v>
+        <v>43.162033081054688</v>
       </c>
       <c r="C5">
         <v>43.212192535400391</v>
@@ -35750,7 +35849,7 @@
         <v>10.663600921630859</v>
       </c>
       <c r="C6">
-        <v>11.851516723632812</v>
+        <v>11.851516723632813</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -35826,7 +35925,7 @@
         <v>43.212192535400391</v>
       </c>
       <c r="B3">
-        <v>11.851516723632812</v>
+        <v>11.851516723632813</v>
       </c>
       <c r="C3">
         <v>59.183235168457031</v>
@@ -35849,7 +35948,7 @@
         <v>13.558567047119141</v>
       </c>
       <c r="B6">
-        <v>11.851516723632812</v>
+        <v>11.851516723632813</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -36516,7 +36615,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="27">
-        <v>185.75167846679687</v>
+        <v>185.75167846679688</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -36905,7 +37004,7 @@
         <v>48.159530639648438</v>
       </c>
       <c r="D7">
-        <v>50.662826538085937</v>
+        <v>50.662826538085938</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -41026,15 +41125,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010063FB1B1D25CB0745A389690B2E2CDE7A" ma:contentTypeVersion="2" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="717befc8328f7bdf6318d82e9e4a8783">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9ed0e8e1-aabc-4adb-a3c5-52e6530bbe04" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5a3e0ec156252a05b79e2b1081ddaf85" ns2:_="">
     <xsd:import namespace="9ed0e8e1-aabc-4adb-a3c5-52e6530bbe04"/>
@@ -41182,6 +41272,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E1B02A05-038E-43EB-BB87-BC2D44E0F4BD}">
   <ds:schemaRefs>
@@ -41199,14 +41298,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84E9B3FC-BC50-47F1-889E-FFC0E53B90F3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FF39A78A-68AF-4FF2-9292-3FF7CB02F03A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -41222,4 +41313,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84E9B3FC-BC50-47F1-889E-FFC0E53B90F3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Índice de Tablas (16-01-2017).xlsx
+++ b/Índice de Tablas (16-01-2017).xlsx
@@ -70,6 +70,7 @@
     <definedName name="_ftnref1" localSheetId="5">'1.4'!#REF!</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -1754,7 +1755,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1770,6 +1771,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2150,7 +2157,7 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="24" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="169" fontId="3" fillId="0" borderId="24" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="400">
+  <cellXfs count="403">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2963,6 +2970,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="8" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="50" fillId="2" borderId="31" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3188,7 +3198,13 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="8" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="8" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="24" xfId="8" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="8" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="25" xfId="8" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -23512,9 +23528,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q62"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="S12" sqref="S12"/>
-    </sheetView>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -23579,7 +23593,7 @@
       <c r="Q3" s="150"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A4" s="336">
+      <c r="A4" s="337">
         <v>2011</v>
       </c>
       <c r="B4" s="164" t="s">
@@ -23608,7 +23622,7 @@
       <c r="Q4" s="150"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A5" s="337"/>
+      <c r="A5" s="338"/>
       <c r="B5" s="164" t="s">
         <v>265</v>
       </c>
@@ -23635,7 +23649,7 @@
       <c r="Q5" s="150"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A6" s="337"/>
+      <c r="A6" s="338"/>
       <c r="B6" s="164" t="s">
         <v>266</v>
       </c>
@@ -23662,7 +23676,7 @@
       <c r="Q6" s="150"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A7" s="337"/>
+      <c r="A7" s="338"/>
       <c r="B7" s="164" t="s">
         <v>258</v>
       </c>
@@ -23689,7 +23703,7 @@
       <c r="Q7" s="150"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A8" s="337"/>
+      <c r="A8" s="338"/>
       <c r="B8" s="164" t="s">
         <v>267</v>
       </c>
@@ -23716,7 +23730,7 @@
       <c r="Q8" s="150"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A9" s="337"/>
+      <c r="A9" s="338"/>
       <c r="B9" s="164" t="s">
         <v>268</v>
       </c>
@@ -23743,7 +23757,7 @@
       <c r="Q9" s="150"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A10" s="337"/>
+      <c r="A10" s="338"/>
       <c r="B10" s="164" t="s">
         <v>259</v>
       </c>
@@ -23770,7 +23784,7 @@
       <c r="Q10" s="150"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A11" s="337"/>
+      <c r="A11" s="338"/>
       <c r="B11" s="164" t="s">
         <v>269</v>
       </c>
@@ -23797,7 +23811,7 @@
       <c r="Q11" s="150"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A12" s="337"/>
+      <c r="A12" s="338"/>
       <c r="B12" s="164" t="s">
         <v>270</v>
       </c>
@@ -23824,7 +23838,7 @@
       <c r="Q12" s="150"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A13" s="337"/>
+      <c r="A13" s="338"/>
       <c r="B13" s="164" t="s">
         <v>260</v>
       </c>
@@ -23851,7 +23865,7 @@
       <c r="Q13" s="150"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A14" s="338"/>
+      <c r="A14" s="339"/>
       <c r="B14" s="165" t="s">
         <v>271</v>
       </c>
@@ -23878,7 +23892,7 @@
       <c r="Q14" s="150"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A15" s="336">
+      <c r="A15" s="337">
         <v>2012</v>
       </c>
       <c r="B15" s="164" t="s">
@@ -23907,7 +23921,7 @@
       <c r="Q15" s="150"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A16" s="337"/>
+      <c r="A16" s="338"/>
       <c r="B16" s="164" t="s">
         <v>257</v>
       </c>
@@ -23934,7 +23948,7 @@
       <c r="Q16" s="150"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A17" s="337"/>
+      <c r="A17" s="338"/>
       <c r="B17" s="164" t="s">
         <v>265</v>
       </c>
@@ -23961,7 +23975,7 @@
       <c r="Q17" s="150"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A18" s="337"/>
+      <c r="A18" s="338"/>
       <c r="B18" s="164" t="s">
         <v>266</v>
       </c>
@@ -23988,7 +24002,7 @@
       <c r="Q18" s="150"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A19" s="337"/>
+      <c r="A19" s="338"/>
       <c r="B19" s="164" t="s">
         <v>258</v>
       </c>
@@ -24015,7 +24029,7 @@
       <c r="Q19" s="150"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A20" s="337"/>
+      <c r="A20" s="338"/>
       <c r="B20" s="164" t="s">
         <v>267</v>
       </c>
@@ -24042,7 +24056,7 @@
       <c r="Q20" s="150"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A21" s="337"/>
+      <c r="A21" s="338"/>
       <c r="B21" s="164" t="s">
         <v>268</v>
       </c>
@@ -24069,7 +24083,7 @@
       <c r="Q21" s="150"/>
     </row>
     <row r="22" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="337"/>
+      <c r="A22" s="338"/>
       <c r="B22" s="164" t="s">
         <v>259</v>
       </c>
@@ -24098,7 +24112,7 @@
       <c r="Q22" s="150"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A23" s="337"/>
+      <c r="A23" s="338"/>
       <c r="B23" s="164" t="s">
         <v>269</v>
       </c>
@@ -24127,7 +24141,7 @@
       <c r="Q23" s="150"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A24" s="337"/>
+      <c r="A24" s="338"/>
       <c r="B24" s="164" t="s">
         <v>270</v>
       </c>
@@ -24154,7 +24168,7 @@
       <c r="Q24" s="150"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A25" s="337"/>
+      <c r="A25" s="338"/>
       <c r="B25" s="164" t="s">
         <v>260</v>
       </c>
@@ -24181,7 +24195,7 @@
       <c r="Q25" s="150"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A26" s="338"/>
+      <c r="A26" s="339"/>
       <c r="B26" s="165" t="s">
         <v>271</v>
       </c>
@@ -24208,7 +24222,7 @@
       <c r="Q26" s="150"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A27" s="336">
+      <c r="A27" s="337">
         <v>2013</v>
       </c>
       <c r="B27" s="164" t="s">
@@ -24237,7 +24251,7 @@
       <c r="Q27" s="150"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A28" s="337"/>
+      <c r="A28" s="338"/>
       <c r="B28" s="164" t="s">
         <v>257</v>
       </c>
@@ -24264,7 +24278,7 @@
       <c r="Q28" s="150"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A29" s="337"/>
+      <c r="A29" s="338"/>
       <c r="B29" s="164" t="s">
         <v>265</v>
       </c>
@@ -24291,7 +24305,7 @@
       <c r="Q29" s="150"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A30" s="337"/>
+      <c r="A30" s="338"/>
       <c r="B30" s="164" t="s">
         <v>266</v>
       </c>
@@ -24318,7 +24332,7 @@
       <c r="Q30" s="150"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A31" s="337"/>
+      <c r="A31" s="338"/>
       <c r="B31" s="164" t="s">
         <v>258</v>
       </c>
@@ -24345,7 +24359,7 @@
       <c r="Q31" s="150"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A32" s="337"/>
+      <c r="A32" s="338"/>
       <c r="B32" s="164" t="s">
         <v>267</v>
       </c>
@@ -24372,7 +24386,7 @@
       <c r="Q32" s="150"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A33" s="337"/>
+      <c r="A33" s="338"/>
       <c r="B33" s="164" t="s">
         <v>268</v>
       </c>
@@ -24399,7 +24413,7 @@
       <c r="Q33" s="150"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A34" s="337"/>
+      <c r="A34" s="338"/>
       <c r="B34" s="164" t="s">
         <v>259</v>
       </c>
@@ -24426,7 +24440,7 @@
       <c r="Q34" s="150"/>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A35" s="337"/>
+      <c r="A35" s="338"/>
       <c r="B35" s="164" t="s">
         <v>269</v>
       </c>
@@ -24453,7 +24467,7 @@
       <c r="Q35" s="150"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A36" s="337"/>
+      <c r="A36" s="338"/>
       <c r="B36" s="164" t="s">
         <v>270</v>
       </c>
@@ -24480,7 +24494,7 @@
       <c r="Q36" s="150"/>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A37" s="337"/>
+      <c r="A37" s="338"/>
       <c r="B37" s="164" t="s">
         <v>260</v>
       </c>
@@ -24507,7 +24521,7 @@
       <c r="Q37" s="150"/>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A38" s="338"/>
+      <c r="A38" s="339"/>
       <c r="B38" s="165" t="s">
         <v>271</v>
       </c>
@@ -24534,7 +24548,7 @@
       <c r="Q38" s="150"/>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A39" s="336">
+      <c r="A39" s="337">
         <v>2014</v>
       </c>
       <c r="B39" s="164" t="s">
@@ -24563,7 +24577,7 @@
       <c r="Q39" s="150"/>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A40" s="337"/>
+      <c r="A40" s="338"/>
       <c r="B40" s="164" t="s">
         <v>257</v>
       </c>
@@ -24590,7 +24604,7 @@
       <c r="Q40" s="150"/>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A41" s="337"/>
+      <c r="A41" s="338"/>
       <c r="B41" s="164" t="s">
         <v>265</v>
       </c>
@@ -24617,7 +24631,7 @@
       <c r="Q41" s="150"/>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A42" s="337"/>
+      <c r="A42" s="338"/>
       <c r="B42" s="164" t="s">
         <v>266</v>
       </c>
@@ -24644,7 +24658,7 @@
       <c r="Q42" s="150"/>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A43" s="337"/>
+      <c r="A43" s="338"/>
       <c r="B43" s="164" t="s">
         <v>258</v>
       </c>
@@ -24671,7 +24685,7 @@
       <c r="Q43" s="150"/>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A44" s="337"/>
+      <c r="A44" s="338"/>
       <c r="B44" s="164" t="s">
         <v>267</v>
       </c>
@@ -24698,7 +24712,7 @@
       <c r="Q44" s="150"/>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A45" s="337"/>
+      <c r="A45" s="338"/>
       <c r="B45" s="164" t="s">
         <v>268</v>
       </c>
@@ -24725,7 +24739,7 @@
       <c r="Q45" s="150"/>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A46" s="337"/>
+      <c r="A46" s="338"/>
       <c r="B46" s="164" t="s">
         <v>259</v>
       </c>
@@ -24752,7 +24766,7 @@
       <c r="Q46" s="150"/>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A47" s="337"/>
+      <c r="A47" s="338"/>
       <c r="B47" s="164" t="s">
         <v>269</v>
       </c>
@@ -24779,7 +24793,7 @@
       <c r="Q47" s="150"/>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A48" s="337"/>
+      <c r="A48" s="338"/>
       <c r="B48" s="164" t="s">
         <v>270</v>
       </c>
@@ -24806,7 +24820,7 @@
       <c r="Q48" s="150"/>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A49" s="337"/>
+      <c r="A49" s="338"/>
       <c r="B49" s="164" t="s">
         <v>260</v>
       </c>
@@ -24833,7 +24847,7 @@
       <c r="Q49" s="150"/>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A50" s="338"/>
+      <c r="A50" s="339"/>
       <c r="B50" s="165" t="s">
         <v>271</v>
       </c>
@@ -24860,7 +24874,7 @@
       <c r="Q50" s="150"/>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A51" s="336">
+      <c r="A51" s="337">
         <v>2015</v>
       </c>
       <c r="B51" s="192" t="s">
@@ -24882,7 +24896,7 @@
       <c r="P51" s="150"/>
     </row>
     <row r="52" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="337"/>
+      <c r="A52" s="338"/>
       <c r="B52" s="193" t="s">
         <v>257</v>
       </c>
@@ -24901,7 +24915,7 @@
       <c r="O52" s="150"/>
     </row>
     <row r="53" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="337"/>
+      <c r="A53" s="338"/>
       <c r="B53" s="193" t="s">
         <v>265</v>
       </c>
@@ -24920,7 +24934,7 @@
       <c r="O53" s="150"/>
     </row>
     <row r="54" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="337"/>
+      <c r="A54" s="338"/>
       <c r="B54" s="193" t="s">
         <v>266</v>
       </c>
@@ -24939,7 +24953,7 @@
       <c r="O54" s="150"/>
     </row>
     <row r="55" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="337"/>
+      <c r="A55" s="338"/>
       <c r="B55" s="193" t="s">
         <v>258</v>
       </c>
@@ -24958,7 +24972,7 @@
       <c r="O55" s="150"/>
     </row>
     <row r="56" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="337"/>
+      <c r="A56" s="338"/>
       <c r="B56" s="193" t="s">
         <v>267</v>
       </c>
@@ -24977,7 +24991,7 @@
       <c r="O56" s="150"/>
     </row>
     <row r="57" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="337"/>
+      <c r="A57" s="338"/>
       <c r="B57" s="193" t="s">
         <v>268</v>
       </c>
@@ -24996,7 +25010,7 @@
       <c r="O57" s="150"/>
     </row>
     <row r="58" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="337"/>
+      <c r="A58" s="338"/>
       <c r="B58" s="193" t="s">
         <v>259</v>
       </c>
@@ -25015,7 +25029,7 @@
       <c r="O58" s="150"/>
     </row>
     <row r="59" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="337"/>
+      <c r="A59" s="338"/>
       <c r="B59" s="193" t="s">
         <v>269</v>
       </c>
@@ -25034,7 +25048,7 @@
       <c r="O59" s="150"/>
     </row>
     <row r="60" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="337"/>
+      <c r="A60" s="338"/>
       <c r="B60" s="193" t="s">
         <v>270</v>
       </c>
@@ -25053,7 +25067,7 @@
       <c r="M60" s="150"/>
     </row>
     <row r="61" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="339"/>
+      <c r="A61" s="340"/>
       <c r="B61" s="194" t="s">
         <v>260</v>
       </c>
@@ -25143,7 +25157,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="346">
+      <c r="A5" s="347">
         <f>[2]_01!A2</f>
         <v>2010</v>
       </c>
@@ -25165,7 +25179,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="345"/>
+      <c r="A6" s="346"/>
       <c r="B6" s="207" t="s">
         <v>265</v>
       </c>
@@ -25184,7 +25198,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="345"/>
+      <c r="A7" s="346"/>
       <c r="B7" s="207" t="s">
         <v>266</v>
       </c>
@@ -25203,7 +25217,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="345"/>
+      <c r="A8" s="346"/>
       <c r="B8" s="207" t="s">
         <v>258</v>
       </c>
@@ -25222,7 +25236,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="345"/>
+      <c r="A9" s="346"/>
       <c r="B9" s="207" t="s">
         <v>267</v>
       </c>
@@ -25241,7 +25255,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="345"/>
+      <c r="A10" s="346"/>
       <c r="B10" s="207" t="s">
         <v>268</v>
       </c>
@@ -25260,7 +25274,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="345"/>
+      <c r="A11" s="346"/>
       <c r="B11" s="207" t="s">
         <v>259</v>
       </c>
@@ -25279,7 +25293,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="345"/>
+      <c r="A12" s="346"/>
       <c r="B12" s="207" t="s">
         <v>269</v>
       </c>
@@ -25298,7 +25312,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="345"/>
+      <c r="A13" s="346"/>
       <c r="B13" s="207" t="s">
         <v>270</v>
       </c>
@@ -25317,7 +25331,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="345"/>
+      <c r="A14" s="346"/>
       <c r="B14" s="207" t="s">
         <v>260</v>
       </c>
@@ -25336,7 +25350,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="347"/>
+      <c r="A15" s="348"/>
       <c r="B15" s="207" t="s">
         <v>271</v>
       </c>
@@ -25355,7 +25369,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="345">
+      <c r="A16" s="346">
         <f>[2]_01!A13</f>
         <v>2011</v>
       </c>
@@ -25376,7 +25390,7 @@
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="345"/>
+      <c r="A17" s="346"/>
       <c r="B17" s="207" t="s">
         <v>257</v>
       </c>
@@ -25394,7 +25408,7 @@
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="345"/>
+      <c r="A18" s="346"/>
       <c r="B18" s="207" t="s">
         <v>265</v>
       </c>
@@ -25410,16 +25424,16 @@
       <c r="F18" s="208">
         <v>16.799999999999997</v>
       </c>
-      <c r="I18" s="348" t="s">
+      <c r="I18" s="349" t="s">
         <v>273</v>
       </c>
-      <c r="J18" s="348"/>
-      <c r="K18" s="348"/>
-      <c r="L18" s="348"/>
-      <c r="M18" s="348"/>
+      <c r="J18" s="349"/>
+      <c r="K18" s="349"/>
+      <c r="L18" s="349"/>
+      <c r="M18" s="349"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="345"/>
+      <c r="A19" s="346"/>
       <c r="B19" s="207" t="s">
         <v>266</v>
       </c>
@@ -25437,7 +25451,7 @@
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="345"/>
+      <c r="A20" s="346"/>
       <c r="B20" s="207" t="s">
         <v>258</v>
       </c>
@@ -25455,7 +25469,7 @@
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="345"/>
+      <c r="A21" s="346"/>
       <c r="B21" s="207" t="s">
         <v>267</v>
       </c>
@@ -25473,7 +25487,7 @@
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="345"/>
+      <c r="A22" s="346"/>
       <c r="B22" s="207" t="s">
         <v>268</v>
       </c>
@@ -25491,7 +25505,7 @@
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="345"/>
+      <c r="A23" s="346"/>
       <c r="B23" s="207" t="s">
         <v>259</v>
       </c>
@@ -25509,7 +25523,7 @@
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="345"/>
+      <c r="A24" s="346"/>
       <c r="B24" s="207" t="s">
         <v>269</v>
       </c>
@@ -25527,7 +25541,7 @@
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="345"/>
+      <c r="A25" s="346"/>
       <c r="B25" s="207" t="s">
         <v>270</v>
       </c>
@@ -25545,7 +25559,7 @@
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="345"/>
+      <c r="A26" s="346"/>
       <c r="B26" s="207" t="s">
         <v>260</v>
       </c>
@@ -25563,7 +25577,7 @@
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="347"/>
+      <c r="A27" s="348"/>
       <c r="B27" s="207" t="s">
         <v>271</v>
       </c>
@@ -25581,7 +25595,7 @@
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="345">
+      <c r="A28" s="346">
         <f>[2]_01!A25</f>
         <v>2012</v>
       </c>
@@ -25602,7 +25616,7 @@
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="345"/>
+      <c r="A29" s="346"/>
       <c r="B29" s="207" t="s">
         <v>257</v>
       </c>
@@ -25620,7 +25634,7 @@
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="345"/>
+      <c r="A30" s="346"/>
       <c r="B30" s="207" t="s">
         <v>265</v>
       </c>
@@ -25638,7 +25652,7 @@
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="345"/>
+      <c r="A31" s="346"/>
       <c r="B31" s="207" t="s">
         <v>266</v>
       </c>
@@ -25656,7 +25670,7 @@
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="345"/>
+      <c r="A32" s="346"/>
       <c r="B32" s="207" t="s">
         <v>258</v>
       </c>
@@ -25674,7 +25688,7 @@
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="345"/>
+      <c r="A33" s="346"/>
       <c r="B33" s="207" t="s">
         <v>267</v>
       </c>
@@ -25692,7 +25706,7 @@
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="345"/>
+      <c r="A34" s="346"/>
       <c r="B34" s="207" t="s">
         <v>268</v>
       </c>
@@ -25710,7 +25724,7 @@
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="345"/>
+      <c r="A35" s="346"/>
       <c r="B35" s="207" t="s">
         <v>259</v>
       </c>
@@ -25730,7 +25744,7 @@
       <c r="N35" s="212"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="345"/>
+      <c r="A36" s="346"/>
       <c r="B36" s="207" t="s">
         <v>269</v>
       </c>
@@ -25748,7 +25762,7 @@
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="345"/>
+      <c r="A37" s="346"/>
       <c r="B37" s="207" t="s">
         <v>270</v>
       </c>
@@ -25766,7 +25780,7 @@
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="345"/>
+      <c r="A38" s="346"/>
       <c r="B38" s="207" t="s">
         <v>260</v>
       </c>
@@ -25784,7 +25798,7 @@
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" s="347"/>
+      <c r="A39" s="348"/>
       <c r="B39" s="207" t="s">
         <v>271</v>
       </c>
@@ -25802,7 +25816,7 @@
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40" s="345">
+      <c r="A40" s="346">
         <f>[2]_01!A37</f>
         <v>2013</v>
       </c>
@@ -25823,7 +25837,7 @@
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41" s="345"/>
+      <c r="A41" s="346"/>
       <c r="B41" s="207" t="s">
         <v>257</v>
       </c>
@@ -25841,7 +25855,7 @@
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42" s="345"/>
+      <c r="A42" s="346"/>
       <c r="B42" s="207" t="s">
         <v>265</v>
       </c>
@@ -25860,7 +25874,7 @@
       <c r="N42" s="213"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" s="345"/>
+      <c r="A43" s="346"/>
       <c r="B43" s="207" t="s">
         <v>266</v>
       </c>
@@ -25879,7 +25893,7 @@
       <c r="N43" s="212"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44" s="345"/>
+      <c r="A44" s="346"/>
       <c r="B44" s="207" t="s">
         <v>258</v>
       </c>
@@ -25897,7 +25911,7 @@
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A45" s="345"/>
+      <c r="A45" s="346"/>
       <c r="B45" s="207" t="s">
         <v>267</v>
       </c>
@@ -25915,7 +25929,7 @@
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" s="345"/>
+      <c r="A46" s="346"/>
       <c r="B46" s="207" t="s">
         <v>268</v>
       </c>
@@ -25933,7 +25947,7 @@
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A47" s="345"/>
+      <c r="A47" s="346"/>
       <c r="B47" s="207" t="s">
         <v>259</v>
       </c>
@@ -25951,7 +25965,7 @@
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A48" s="345"/>
+      <c r="A48" s="346"/>
       <c r="B48" s="207" t="s">
         <v>269</v>
       </c>
@@ -25969,7 +25983,7 @@
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="345"/>
+      <c r="A49" s="346"/>
       <c r="B49" s="207" t="s">
         <v>270</v>
       </c>
@@ -25987,7 +26001,7 @@
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="345"/>
+      <c r="A50" s="346"/>
       <c r="B50" s="207" t="s">
         <v>260</v>
       </c>
@@ -26005,7 +26019,7 @@
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="347"/>
+      <c r="A51" s="348"/>
       <c r="B51" s="207" t="s">
         <v>271</v>
       </c>
@@ -26023,7 +26037,7 @@
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="345">
+      <c r="A52" s="346">
         <f>[2]_01!A49</f>
         <v>2014</v>
       </c>
@@ -26044,7 +26058,7 @@
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="345"/>
+      <c r="A53" s="346"/>
       <c r="B53" s="207" t="s">
         <v>257</v>
       </c>
@@ -26062,7 +26076,7 @@
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="345"/>
+      <c r="A54" s="346"/>
       <c r="B54" s="207" t="s">
         <v>265</v>
       </c>
@@ -26080,7 +26094,7 @@
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="345"/>
+      <c r="A55" s="346"/>
       <c r="B55" s="207" t="s">
         <v>266</v>
       </c>
@@ -26098,7 +26112,7 @@
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="345"/>
+      <c r="A56" s="346"/>
       <c r="B56" s="207" t="s">
         <v>258</v>
       </c>
@@ -26116,7 +26130,7 @@
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="345"/>
+      <c r="A57" s="346"/>
       <c r="B57" s="207" t="s">
         <v>267</v>
       </c>
@@ -26134,7 +26148,7 @@
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="345"/>
+      <c r="A58" s="346"/>
       <c r="B58" s="207" t="s">
         <v>268</v>
       </c>
@@ -26152,7 +26166,7 @@
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="345"/>
+      <c r="A59" s="346"/>
       <c r="B59" s="207" t="s">
         <v>259</v>
       </c>
@@ -26170,7 +26184,7 @@
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="345"/>
+      <c r="A60" s="346"/>
       <c r="B60" s="207" t="s">
         <v>269</v>
       </c>
@@ -26188,7 +26202,7 @@
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="345"/>
+      <c r="A61" s="346"/>
       <c r="B61" s="207" t="s">
         <v>270</v>
       </c>
@@ -26206,7 +26220,7 @@
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="345"/>
+      <c r="A62" s="346"/>
       <c r="B62" s="207" t="s">
         <v>260</v>
       </c>
@@ -26224,7 +26238,7 @@
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="347"/>
+      <c r="A63" s="348"/>
       <c r="B63" s="207" t="s">
         <v>271</v>
       </c>
@@ -26242,7 +26256,7 @@
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="345">
+      <c r="A64" s="346">
         <f>[2]_01!A61</f>
         <v>2015</v>
       </c>
@@ -26263,7 +26277,7 @@
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="345"/>
+      <c r="A65" s="346"/>
       <c r="B65" s="207" t="s">
         <v>257</v>
       </c>
@@ -26281,7 +26295,7 @@
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="345"/>
+      <c r="A66" s="346"/>
       <c r="B66" s="207" t="s">
         <v>265</v>
       </c>
@@ -26299,7 +26313,7 @@
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="345"/>
+      <c r="A67" s="346"/>
       <c r="B67" s="207" t="s">
         <v>266</v>
       </c>
@@ -26317,7 +26331,7 @@
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="345"/>
+      <c r="A68" s="346"/>
       <c r="B68" s="207" t="s">
         <v>258</v>
       </c>
@@ -26335,7 +26349,7 @@
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="345"/>
+      <c r="A69" s="346"/>
       <c r="B69" s="207" t="s">
         <v>267</v>
       </c>
@@ -26353,7 +26367,7 @@
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="345"/>
+      <c r="A70" s="346"/>
       <c r="B70" s="207" t="s">
         <v>268</v>
       </c>
@@ -26371,7 +26385,7 @@
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="345"/>
+      <c r="A71" s="346"/>
       <c r="B71" s="207" t="s">
         <v>259</v>
       </c>
@@ -26389,7 +26403,7 @@
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="345"/>
+      <c r="A72" s="346"/>
       <c r="B72" s="207" t="s">
         <v>269</v>
       </c>
@@ -26407,7 +26421,7 @@
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="345"/>
+      <c r="A73" s="346"/>
       <c r="B73" s="207" t="s">
         <v>270</v>
       </c>
@@ -26425,7 +26439,7 @@
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="345"/>
+      <c r="A74" s="346"/>
       <c r="B74" s="207" t="s">
         <v>260</v>
       </c>
@@ -26530,7 +26544,7 @@
       <c r="H3" s="150"/>
     </row>
     <row r="4" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="332">
+      <c r="A4" s="333">
         <f>'[1]Hoja 01'!A2</f>
         <v>2008</v>
       </c>
@@ -26545,18 +26559,18 @@
       </c>
       <c r="E4" s="268"/>
       <c r="F4" s="268"/>
-      <c r="O4" s="340"/>
-      <c r="P4" s="340"/>
-      <c r="Q4" s="340"/>
-      <c r="R4" s="340"/>
-      <c r="S4" s="340"/>
-      <c r="T4" s="340"/>
-      <c r="U4" s="340"/>
-      <c r="V4" s="340"/>
-      <c r="W4" s="340"/>
+      <c r="O4" s="341"/>
+      <c r="P4" s="341"/>
+      <c r="Q4" s="341"/>
+      <c r="R4" s="341"/>
+      <c r="S4" s="341"/>
+      <c r="T4" s="341"/>
+      <c r="U4" s="341"/>
+      <c r="V4" s="341"/>
+      <c r="W4" s="341"/>
     </row>
     <row r="5" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="333"/>
+      <c r="A5" s="334"/>
       <c r="B5" s="151" t="s">
         <v>258</v>
       </c>
@@ -26572,7 +26586,7 @@
       <c r="Q5" s="150"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A6" s="333"/>
+      <c r="A6" s="334"/>
       <c r="B6" s="151" t="s">
         <v>259</v>
       </c>
@@ -26587,7 +26601,7 @@
       <c r="Q6" s="150"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A7" s="334"/>
+      <c r="A7" s="335"/>
       <c r="B7" s="154" t="s">
         <v>260</v>
       </c>
@@ -26602,7 +26616,7 @@
       <c r="Q7" s="150"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A8" s="332">
+      <c r="A8" s="333">
         <f>'[1]Hoja 01'!A6</f>
         <v>2009</v>
       </c>
@@ -26620,7 +26634,7 @@
       <c r="Q8" s="150"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A9" s="333"/>
+      <c r="A9" s="334"/>
       <c r="B9" s="151" t="s">
         <v>258</v>
       </c>
@@ -26635,7 +26649,7 @@
       <c r="Q9" s="150"/>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A10" s="333"/>
+      <c r="A10" s="334"/>
       <c r="B10" s="151" t="s">
         <v>259</v>
       </c>
@@ -26649,7 +26663,7 @@
       <c r="F10" s="268"/>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A11" s="334"/>
+      <c r="A11" s="335"/>
       <c r="B11" s="154" t="s">
         <v>260</v>
       </c>
@@ -26663,7 +26677,7 @@
       <c r="F11" s="268"/>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A12" s="332">
+      <c r="A12" s="333">
         <f>'[1]Hoja 01'!A10</f>
         <v>2010</v>
       </c>
@@ -26680,7 +26694,7 @@
       <c r="F12" s="268"/>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A13" s="333"/>
+      <c r="A13" s="334"/>
       <c r="B13" s="151" t="s">
         <v>258</v>
       </c>
@@ -26694,7 +26708,7 @@
       <c r="F13" s="268"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A14" s="333"/>
+      <c r="A14" s="334"/>
       <c r="B14" s="151" t="s">
         <v>259</v>
       </c>
@@ -26708,7 +26722,7 @@
       <c r="F14" s="268"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A15" s="334"/>
+      <c r="A15" s="335"/>
       <c r="B15" s="154" t="s">
         <v>260</v>
       </c>
@@ -26722,7 +26736,7 @@
       <c r="F15" s="268"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A16" s="332">
+      <c r="A16" s="333">
         <f>'[1]Hoja 01'!A14</f>
         <v>2011</v>
       </c>
@@ -26739,7 +26753,7 @@
       <c r="F16" s="268"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A17" s="333"/>
+      <c r="A17" s="334"/>
       <c r="B17" s="151" t="s">
         <v>258</v>
       </c>
@@ -26753,7 +26767,7 @@
       <c r="F17" s="268"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A18" s="333"/>
+      <c r="A18" s="334"/>
       <c r="B18" s="151" t="s">
         <v>259</v>
       </c>
@@ -26767,7 +26781,7 @@
       <c r="F18" s="268"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A19" s="334"/>
+      <c r="A19" s="335"/>
       <c r="B19" s="154" t="s">
         <v>260</v>
       </c>
@@ -26789,7 +26803,7 @@
       <c r="N19" s="157"/>
     </row>
     <row r="20" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="332">
+      <c r="A20" s="333">
         <f>'[1]Hoja 01'!A18</f>
         <v>2012</v>
       </c>
@@ -26815,7 +26829,7 @@
       <c r="N20" s="157"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A21" s="333"/>
+      <c r="A21" s="334"/>
       <c r="B21" s="151" t="s">
         <v>258</v>
       </c>
@@ -26837,7 +26851,7 @@
       <c r="M21" s="159"/>
     </row>
     <row r="22" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="333"/>
+      <c r="A22" s="334"/>
       <c r="B22" s="151" t="s">
         <v>259</v>
       </c>
@@ -26859,7 +26873,7 @@
       <c r="M22" s="159"/>
     </row>
     <row r="23" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="334"/>
+      <c r="A23" s="335"/>
       <c r="B23" s="154" t="s">
         <v>260</v>
       </c>
@@ -26873,7 +26887,7 @@
       <c r="F23" s="268"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A24" s="332">
+      <c r="A24" s="333">
         <f>'[1]Hoja 01'!A22</f>
         <v>2013</v>
       </c>
@@ -26890,7 +26904,7 @@
       <c r="F24" s="268"/>
     </row>
     <row r="25" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="333"/>
+      <c r="A25" s="334"/>
       <c r="B25" s="151" t="s">
         <v>258</v>
       </c>
@@ -26904,7 +26918,7 @@
       <c r="F25" s="268"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A26" s="333"/>
+      <c r="A26" s="334"/>
       <c r="B26" s="151" t="s">
         <v>259</v>
       </c>
@@ -26918,7 +26932,7 @@
       <c r="F26" s="268"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A27" s="334"/>
+      <c r="A27" s="335"/>
       <c r="B27" s="154" t="s">
         <v>260</v>
       </c>
@@ -26932,7 +26946,7 @@
       <c r="F27" s="268"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A28" s="332">
+      <c r="A28" s="333">
         <f>'[1]Hoja 01'!A26</f>
         <v>2014</v>
       </c>
@@ -26949,7 +26963,7 @@
       <c r="F28" s="268"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A29" s="333"/>
+      <c r="A29" s="334"/>
       <c r="B29" s="151" t="s">
         <v>258</v>
       </c>
@@ -26963,7 +26977,7 @@
       <c r="F29" s="268"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A30" s="333"/>
+      <c r="A30" s="334"/>
       <c r="B30" s="151" t="s">
         <v>259</v>
       </c>
@@ -26977,7 +26991,7 @@
       <c r="F30" s="268"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A31" s="334"/>
+      <c r="A31" s="335"/>
       <c r="B31" s="154" t="s">
         <v>260</v>
       </c>
@@ -26991,7 +27005,7 @@
       <c r="F31" s="268"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A32" s="332">
+      <c r="A32" s="333">
         <f>'[1]Hoja 01'!A30</f>
         <v>2015</v>
       </c>
@@ -27008,7 +27022,7 @@
       <c r="F32" s="268"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="333"/>
+      <c r="A33" s="334"/>
       <c r="B33" s="151" t="s">
         <v>258</v>
       </c>
@@ -27022,7 +27036,7 @@
       <c r="F33" s="268"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="333"/>
+      <c r="A34" s="334"/>
       <c r="B34" s="151" t="s">
         <v>259</v>
       </c>
@@ -27036,7 +27050,7 @@
       <c r="F34" s="268"/>
     </row>
     <row r="35" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="335"/>
+      <c r="A35" s="336"/>
       <c r="B35" s="160" t="s">
         <v>260</v>
       </c>
@@ -27106,43 +27120,43 @@
       <c r="I2" s="50"/>
     </row>
     <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="349" t="s">
+      <c r="A3" s="350" t="s">
         <v>401</v>
       </c>
-      <c r="B3" s="352" t="s">
+      <c r="B3" s="353" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="352"/>
-      <c r="D3" s="352"/>
-      <c r="E3" s="352"/>
-      <c r="F3" s="352" t="s">
+      <c r="C3" s="353"/>
+      <c r="D3" s="353"/>
+      <c r="E3" s="353"/>
+      <c r="F3" s="353" t="s">
         <v>64</v>
       </c>
-      <c r="G3" s="352"/>
-      <c r="H3" s="352"/>
-      <c r="I3" s="352"/>
+      <c r="G3" s="353"/>
+      <c r="H3" s="353"/>
+      <c r="I3" s="353"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="350"/>
-      <c r="B4" s="353" t="s">
+      <c r="A4" s="351"/>
+      <c r="B4" s="354" t="s">
         <v>298</v>
       </c>
-      <c r="C4" s="353"/>
-      <c r="D4" s="353" t="s">
+      <c r="C4" s="354"/>
+      <c r="D4" s="354" t="s">
         <v>329</v>
       </c>
-      <c r="E4" s="353"/>
-      <c r="F4" s="353" t="s">
+      <c r="E4" s="354"/>
+      <c r="F4" s="354" t="s">
         <v>298</v>
       </c>
-      <c r="G4" s="353"/>
-      <c r="H4" s="353" t="s">
+      <c r="G4" s="354"/>
+      <c r="H4" s="354" t="s">
         <v>329</v>
       </c>
-      <c r="I4" s="353"/>
+      <c r="I4" s="354"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="351"/>
+      <c r="A5" s="352"/>
       <c r="B5" s="86" t="s">
         <v>397</v>
       </c>
@@ -27406,57 +27420,57 @@
       </c>
     </row>
     <row r="2" spans="1:15" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="356"/>
-      <c r="B2" s="356"/>
-      <c r="C2" s="356"/>
-      <c r="D2" s="356"/>
-      <c r="E2" s="356"/>
-      <c r="F2" s="356"/>
-      <c r="G2" s="356"/>
-      <c r="H2" s="356"/>
-      <c r="I2" s="356"/>
+      <c r="A2" s="357"/>
+      <c r="B2" s="357"/>
+      <c r="C2" s="357"/>
+      <c r="D2" s="357"/>
+      <c r="E2" s="357"/>
+      <c r="F2" s="357"/>
+      <c r="G2" s="357"/>
+      <c r="H2" s="357"/>
+      <c r="I2" s="357"/>
       <c r="J2" s="314"/>
     </row>
     <row r="3" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="349" t="s">
+      <c r="A3" s="350" t="s">
         <v>401</v>
       </c>
-      <c r="B3" s="352" t="s">
+      <c r="B3" s="353" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="352"/>
-      <c r="D3" s="352"/>
-      <c r="E3" s="352"/>
-      <c r="F3" s="352" t="s">
+      <c r="C3" s="353"/>
+      <c r="D3" s="353"/>
+      <c r="E3" s="353"/>
+      <c r="F3" s="353" t="s">
         <v>64</v>
       </c>
-      <c r="G3" s="352"/>
-      <c r="H3" s="352"/>
-      <c r="I3" s="352"/>
+      <c r="G3" s="353"/>
+      <c r="H3" s="353"/>
+      <c r="I3" s="353"/>
       <c r="J3" s="195"/>
     </row>
     <row r="4" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="350"/>
-      <c r="B4" s="353" t="s">
+      <c r="A4" s="351"/>
+      <c r="B4" s="354" t="s">
         <v>298</v>
       </c>
-      <c r="C4" s="353"/>
-      <c r="D4" s="353" t="s">
+      <c r="C4" s="354"/>
+      <c r="D4" s="354" t="s">
         <v>329</v>
       </c>
-      <c r="E4" s="353"/>
-      <c r="F4" s="353" t="s">
+      <c r="E4" s="354"/>
+      <c r="F4" s="354" t="s">
         <v>298</v>
       </c>
-      <c r="G4" s="353"/>
-      <c r="H4" s="353" t="s">
+      <c r="G4" s="354"/>
+      <c r="H4" s="354" t="s">
         <v>329</v>
       </c>
-      <c r="I4" s="353"/>
+      <c r="I4" s="354"/>
       <c r="J4" s="195"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="351"/>
+      <c r="A5" s="352"/>
       <c r="B5" s="86" t="s">
         <v>397</v>
       </c>
@@ -27686,17 +27700,17 @@
       <c r="O11" s="6"/>
     </row>
     <row r="12" spans="1:15" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="354" t="s">
+      <c r="A12" s="355" t="s">
         <v>195</v>
       </c>
-      <c r="B12" s="354"/>
-      <c r="C12" s="355"/>
-      <c r="D12" s="354"/>
-      <c r="E12" s="355"/>
-      <c r="F12" s="354"/>
-      <c r="G12" s="355"/>
-      <c r="H12" s="355"/>
-      <c r="I12" s="354"/>
+      <c r="B12" s="355"/>
+      <c r="C12" s="356"/>
+      <c r="D12" s="355"/>
+      <c r="E12" s="356"/>
+      <c r="F12" s="355"/>
+      <c r="G12" s="356"/>
+      <c r="H12" s="356"/>
+      <c r="I12" s="355"/>
       <c r="J12" s="274"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
@@ -27941,15 +27955,15 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="357" t="s">
+      <c r="A10" s="358" t="s">
         <v>403</v>
       </c>
-      <c r="B10" s="357"/>
-      <c r="C10" s="357"/>
-      <c r="D10" s="357"/>
-      <c r="E10" s="357"/>
-      <c r="F10" s="357"/>
-      <c r="G10" s="357"/>
+      <c r="B10" s="358"/>
+      <c r="C10" s="358"/>
+      <c r="D10" s="358"/>
+      <c r="E10" s="358"/>
+      <c r="F10" s="358"/>
+      <c r="G10" s="358"/>
     </row>
     <row r="11" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
@@ -27958,13 +27972,13 @@
       <c r="B11" s="271"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="358" t="s">
+      <c r="A12" s="359" t="s">
         <v>273</v>
       </c>
-      <c r="B12" s="358"/>
-      <c r="C12" s="358"/>
-      <c r="D12" s="358"/>
-      <c r="E12" s="358"/>
+      <c r="B12" s="359"/>
+      <c r="C12" s="359"/>
+      <c r="D12" s="359"/>
+      <c r="E12" s="359"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -28402,15 +28416,15 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="357" t="s">
+      <c r="A20" s="358" t="s">
         <v>403</v>
       </c>
-      <c r="B20" s="357"/>
-      <c r="C20" s="357"/>
-      <c r="D20" s="357"/>
-      <c r="E20" s="357"/>
-      <c r="F20" s="357"/>
-      <c r="G20" s="357"/>
+      <c r="B20" s="358"/>
+      <c r="C20" s="358"/>
+      <c r="D20" s="358"/>
+      <c r="E20" s="358"/>
+      <c r="F20" s="358"/>
+      <c r="G20" s="358"/>
     </row>
     <row r="21" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="17" t="s">
@@ -28419,13 +28433,13 @@
       <c r="B21" s="271"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="358" t="s">
+      <c r="A22" s="359" t="s">
         <v>273</v>
       </c>
-      <c r="B22" s="358"/>
-      <c r="C22" s="358"/>
-      <c r="D22" s="358"/>
-      <c r="E22" s="358"/>
+      <c r="B22" s="359"/>
+      <c r="C22" s="359"/>
+      <c r="D22" s="359"/>
+      <c r="E22" s="359"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -28470,20 +28484,20 @@
       <c r="F2" s="222"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="359" t="s">
+      <c r="A3" s="360" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="361" t="s">
+      <c r="B3" s="362" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="361"/>
-      <c r="D3" s="361"/>
-      <c r="E3" s="361"/>
-      <c r="F3" s="361"/>
-      <c r="G3" s="361"/>
+      <c r="C3" s="362"/>
+      <c r="D3" s="362"/>
+      <c r="E3" s="362"/>
+      <c r="F3" s="362"/>
+      <c r="G3" s="362"/>
     </row>
     <row r="4" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="360"/>
+      <c r="A4" s="361"/>
       <c r="B4" s="277" t="s">
         <v>287</v>
       </c>
@@ -28647,15 +28661,15 @@
       </c>
     </row>
     <row r="11" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="358" t="s">
+      <c r="A11" s="359" t="s">
         <v>402</v>
       </c>
-      <c r="B11" s="358"/>
-      <c r="C11" s="358"/>
-      <c r="D11" s="358"/>
-      <c r="E11" s="358"/>
-      <c r="F11" s="358"/>
-      <c r="G11" s="358"/>
+      <c r="B11" s="359"/>
+      <c r="C11" s="359"/>
+      <c r="D11" s="359"/>
+      <c r="E11" s="359"/>
+      <c r="F11" s="359"/>
+      <c r="G11" s="359"/>
     </row>
     <row r="12" spans="1:13" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
@@ -28664,24 +28678,24 @@
       <c r="B12" s="271"/>
     </row>
     <row r="13" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="358" t="s">
+      <c r="A13" s="359" t="s">
         <v>399</v>
       </c>
-      <c r="B13" s="358"/>
-      <c r="C13" s="358"/>
-      <c r="D13" s="358"/>
-      <c r="E13" s="358"/>
-      <c r="F13" s="358"/>
-      <c r="G13" s="358"/>
+      <c r="B13" s="359"/>
+      <c r="C13" s="359"/>
+      <c r="D13" s="359"/>
+      <c r="E13" s="359"/>
+      <c r="F13" s="359"/>
+      <c r="G13" s="359"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="358" t="s">
+      <c r="A14" s="359" t="s">
         <v>273</v>
       </c>
-      <c r="B14" s="358"/>
-      <c r="C14" s="358"/>
-      <c r="D14" s="358"/>
-      <c r="E14" s="358"/>
+      <c r="B14" s="359"/>
+      <c r="C14" s="359"/>
+      <c r="D14" s="359"/>
+      <c r="E14" s="359"/>
     </row>
     <row r="15" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
@@ -28731,28 +28745,28 @@
       <c r="G2" s="222"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="359" t="s">
+      <c r="A3" s="360" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="359" t="s">
+      <c r="B3" s="360" t="s">
         <v>107</v>
       </c>
-      <c r="C3" s="359" t="s">
+      <c r="C3" s="360" t="s">
         <v>121</v>
       </c>
-      <c r="D3" s="359" t="s">
+      <c r="D3" s="360" t="s">
         <v>280</v>
       </c>
-      <c r="E3" s="359"/>
-      <c r="F3" s="359"/>
-      <c r="G3" s="362" t="s">
+      <c r="E3" s="360"/>
+      <c r="F3" s="360"/>
+      <c r="G3" s="363" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="360"/>
-      <c r="B4" s="360"/>
-      <c r="C4" s="360"/>
+      <c r="A4" s="361"/>
+      <c r="B4" s="361"/>
+      <c r="C4" s="361"/>
       <c r="D4" s="234" t="s">
         <v>281</v>
       </c>
@@ -28762,7 +28776,7 @@
       <c r="F4" s="234" t="s">
         <v>126</v>
       </c>
-      <c r="G4" s="360"/>
+      <c r="G4" s="361"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="221" t="s">
@@ -28907,15 +28921,15 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="358" t="s">
+      <c r="A11" s="359" t="s">
         <v>403</v>
       </c>
-      <c r="B11" s="358"/>
-      <c r="C11" s="358"/>
-      <c r="D11" s="358"/>
-      <c r="E11" s="358"/>
-      <c r="F11" s="358"/>
-      <c r="G11" s="358"/>
+      <c r="B11" s="359"/>
+      <c r="C11" s="359"/>
+      <c r="D11" s="359"/>
+      <c r="E11" s="359"/>
+      <c r="F11" s="359"/>
+      <c r="G11" s="359"/>
     </row>
     <row r="12" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
@@ -28924,13 +28938,13 @@
       <c r="B12" s="271"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="358" t="s">
+      <c r="A13" s="359" t="s">
         <v>273</v>
       </c>
-      <c r="B13" s="358"/>
-      <c r="C13" s="358"/>
-      <c r="D13" s="358"/>
-      <c r="E13" s="358"/>
+      <c r="B13" s="359"/>
+      <c r="C13" s="359"/>
+      <c r="D13" s="359"/>
+      <c r="E13" s="359"/>
       <c r="G13" s="236"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -28999,28 +29013,28 @@
       <c r="G2" s="222"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="359" t="s">
+      <c r="A3" s="360" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="359" t="s">
+      <c r="B3" s="360" t="s">
         <v>107</v>
       </c>
-      <c r="C3" s="359" t="s">
+      <c r="C3" s="360" t="s">
         <v>121</v>
       </c>
-      <c r="D3" s="359" t="s">
+      <c r="D3" s="360" t="s">
         <v>280</v>
       </c>
-      <c r="E3" s="359"/>
-      <c r="F3" s="359"/>
-      <c r="G3" s="359" t="s">
+      <c r="E3" s="360"/>
+      <c r="F3" s="360"/>
+      <c r="G3" s="360" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="360"/>
-      <c r="B4" s="360"/>
-      <c r="C4" s="360"/>
+      <c r="A4" s="361"/>
+      <c r="B4" s="361"/>
+      <c r="C4" s="361"/>
       <c r="D4" s="234" t="s">
         <v>281</v>
       </c>
@@ -29030,7 +29044,7 @@
       <c r="F4" s="234" t="s">
         <v>126</v>
       </c>
-      <c r="G4" s="360"/>
+      <c r="G4" s="361"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="221" t="s">
@@ -29171,15 +29185,15 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="358" t="s">
+      <c r="A11" s="359" t="s">
         <v>403</v>
       </c>
-      <c r="B11" s="358"/>
-      <c r="C11" s="358"/>
-      <c r="D11" s="358"/>
-      <c r="E11" s="358"/>
-      <c r="F11" s="358"/>
-      <c r="G11" s="358"/>
+      <c r="B11" s="359"/>
+      <c r="C11" s="359"/>
+      <c r="D11" s="359"/>
+      <c r="E11" s="359"/>
+      <c r="F11" s="359"/>
+      <c r="G11" s="359"/>
     </row>
     <row r="12" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
@@ -29188,13 +29202,13 @@
       <c r="B12" s="271"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="358" t="s">
+      <c r="A13" s="359" t="s">
         <v>331</v>
       </c>
-      <c r="B13" s="358"/>
-      <c r="C13" s="358"/>
-      <c r="D13" s="358"/>
-      <c r="E13" s="358"/>
+      <c r="B13" s="359"/>
+      <c r="C13" s="359"/>
+      <c r="D13" s="359"/>
+      <c r="E13" s="359"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -29214,8 +29228,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AV45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29235,13 +29249,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="248.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="330" t="s">
+      <c r="B1" s="331" t="s">
         <v>382</v>
       </c>
-      <c r="C1" s="330"/>
-      <c r="D1" s="330"/>
-      <c r="E1" s="330"/>
-      <c r="F1" s="330"/>
+      <c r="C1" s="331"/>
+      <c r="D1" s="331"/>
+      <c r="E1" s="331"/>
+      <c r="F1" s="331"/>
     </row>
     <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D2" s="258"/>
@@ -29249,10 +29263,10 @@
     </row>
     <row r="3" spans="1:12" s="240" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="256"/>
-      <c r="B3" s="331" t="s">
+      <c r="B3" s="332" t="s">
         <v>294</v>
       </c>
-      <c r="C3" s="331"/>
+      <c r="C3" s="332"/>
       <c r="D3" s="259" t="s">
         <v>295</v>
       </c>
@@ -29269,11 +29283,11 @@
     </row>
     <row r="4" spans="1:12" s="240" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="256"/>
-      <c r="B4" s="324" t="s">
+      <c r="B4" s="325" t="s">
         <v>314</v>
       </c>
-      <c r="C4" s="325"/>
-      <c r="D4" s="308" t="s">
+      <c r="C4" s="326"/>
+      <c r="D4" s="401" t="s">
         <v>186</v>
       </c>
       <c r="E4" s="260" t="s">
@@ -29289,8 +29303,8 @@
     </row>
     <row r="5" spans="1:12" s="240" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="256"/>
-      <c r="B5" s="328"/>
-      <c r="C5" s="329"/>
+      <c r="B5" s="329"/>
+      <c r="C5" s="330"/>
       <c r="D5" s="261" t="s">
         <v>187</v>
       </c>
@@ -29307,9 +29321,9 @@
     </row>
     <row r="6" spans="1:12" s="240" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="256"/>
-      <c r="B6" s="328"/>
-      <c r="C6" s="329"/>
-      <c r="D6" s="309" t="s">
+      <c r="B6" s="329"/>
+      <c r="C6" s="330"/>
+      <c r="D6" s="400" t="s">
         <v>188</v>
       </c>
       <c r="E6" s="262" t="s">
@@ -29325,8 +29339,8 @@
     </row>
     <row r="7" spans="1:12" s="240" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="256"/>
-      <c r="B7" s="328"/>
-      <c r="C7" s="329"/>
+      <c r="B7" s="329"/>
+      <c r="C7" s="330"/>
       <c r="D7" s="261" t="s">
         <v>189</v>
       </c>
@@ -29343,8 +29357,8 @@
     </row>
     <row r="8" spans="1:12" s="240" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="256"/>
-      <c r="B8" s="328"/>
-      <c r="C8" s="329"/>
+      <c r="B8" s="329"/>
+      <c r="C8" s="330"/>
       <c r="D8" s="261" t="s">
         <v>190</v>
       </c>
@@ -29361,9 +29375,9 @@
     </row>
     <row r="9" spans="1:12" s="240" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="256"/>
-      <c r="B9" s="328"/>
-      <c r="C9" s="329"/>
-      <c r="D9" s="309" t="s">
+      <c r="B9" s="329"/>
+      <c r="C9" s="330"/>
+      <c r="D9" s="400" t="s">
         <v>191</v>
       </c>
       <c r="E9" s="311" t="s">
@@ -29379,8 +29393,8 @@
     </row>
     <row r="10" spans="1:12" s="240" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="256"/>
-      <c r="B10" s="328"/>
-      <c r="C10" s="329"/>
+      <c r="B10" s="329"/>
+      <c r="C10" s="330"/>
       <c r="D10" s="309" t="s">
         <v>192</v>
       </c>
@@ -29397,8 +29411,8 @@
     </row>
     <row r="11" spans="1:12" s="240" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="256"/>
-      <c r="B11" s="328"/>
-      <c r="C11" s="329"/>
+      <c r="B11" s="329"/>
+      <c r="C11" s="330"/>
       <c r="D11" s="261" t="s">
         <v>193</v>
       </c>
@@ -29415,8 +29429,8 @@
     </row>
     <row r="12" spans="1:12" s="240" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="256"/>
-      <c r="B12" s="328"/>
-      <c r="C12" s="329"/>
+      <c r="B12" s="329"/>
+      <c r="C12" s="330"/>
       <c r="D12" s="309" t="s">
         <v>296</v>
       </c>
@@ -29433,8 +29447,8 @@
     </row>
     <row r="13" spans="1:12" s="240" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="256"/>
-      <c r="B13" s="326"/>
-      <c r="C13" s="327"/>
+      <c r="B13" s="327"/>
+      <c r="C13" s="328"/>
       <c r="D13" s="300" t="s">
         <v>297</v>
       </c>
@@ -29465,10 +29479,10 @@
     </row>
     <row r="15" spans="1:12" s="240" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="256"/>
-      <c r="B15" s="324" t="s">
+      <c r="B15" s="325" t="s">
         <v>298</v>
       </c>
-      <c r="C15" s="325"/>
+      <c r="C15" s="326"/>
       <c r="D15" s="263" t="s">
         <v>200</v>
       </c>
@@ -29485,8 +29499,8 @@
     </row>
     <row r="16" spans="1:12" s="240" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="256"/>
-      <c r="B16" s="328"/>
-      <c r="C16" s="329"/>
+      <c r="B16" s="329"/>
+      <c r="C16" s="330"/>
       <c r="D16" s="309" t="s">
         <v>299</v>
       </c>
@@ -29503,8 +29517,8 @@
     </row>
     <row r="17" spans="1:12" s="240" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="256"/>
-      <c r="B17" s="328"/>
-      <c r="C17" s="329"/>
+      <c r="B17" s="329"/>
+      <c r="C17" s="330"/>
       <c r="D17" s="261" t="s">
         <v>300</v>
       </c>
@@ -29521,8 +29535,8 @@
     </row>
     <row r="18" spans="1:12" s="240" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="256"/>
-      <c r="B18" s="328"/>
-      <c r="C18" s="329"/>
+      <c r="B18" s="329"/>
+      <c r="C18" s="330"/>
       <c r="D18" s="261" t="s">
         <v>301</v>
       </c>
@@ -29539,9 +29553,9 @@
     </row>
     <row r="19" spans="1:12" s="240" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="256"/>
-      <c r="B19" s="328"/>
-      <c r="C19" s="329"/>
-      <c r="D19" s="309" t="s">
+      <c r="B19" s="329"/>
+      <c r="C19" s="330"/>
+      <c r="D19" s="400" t="s">
         <v>302</v>
       </c>
       <c r="E19" s="262" t="s">
@@ -29557,8 +29571,8 @@
     </row>
     <row r="20" spans="1:12" s="240" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="256"/>
-      <c r="B20" s="328"/>
-      <c r="C20" s="329"/>
+      <c r="B20" s="329"/>
+      <c r="C20" s="330"/>
       <c r="D20" s="309" t="s">
         <v>303</v>
       </c>
@@ -29575,8 +29589,8 @@
     </row>
     <row r="21" spans="1:12" s="240" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="256"/>
-      <c r="B21" s="328"/>
-      <c r="C21" s="329"/>
+      <c r="B21" s="329"/>
+      <c r="C21" s="330"/>
       <c r="D21" s="261" t="s">
         <v>304</v>
       </c>
@@ -29593,15 +29607,15 @@
     </row>
     <row r="22" spans="1:12" s="240" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="256"/>
-      <c r="B22" s="328"/>
-      <c r="C22" s="329"/>
+      <c r="B22" s="329"/>
+      <c r="C22" s="330"/>
       <c r="D22" s="309" t="s">
         <v>305</v>
       </c>
       <c r="E22" s="262" t="s">
         <v>198</v>
       </c>
-      <c r="F22" s="399" t="s">
+      <c r="F22" s="324" t="s">
         <v>426</v>
       </c>
       <c r="G22" s="257"/>
@@ -29613,8 +29627,8 @@
     </row>
     <row r="23" spans="1:12" s="240" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="256"/>
-      <c r="B23" s="328"/>
-      <c r="C23" s="329"/>
+      <c r="B23" s="329"/>
+      <c r="C23" s="330"/>
       <c r="D23" s="261" t="s">
         <v>307</v>
       </c>
@@ -29631,8 +29645,8 @@
     </row>
     <row r="24" spans="1:12" s="240" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="256"/>
-      <c r="B24" s="326"/>
-      <c r="C24" s="327"/>
+      <c r="B24" s="327"/>
+      <c r="C24" s="328"/>
       <c r="D24" s="300" t="s">
         <v>359</v>
       </c>
@@ -29663,10 +29677,10 @@
     </row>
     <row r="26" spans="1:12" s="240" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="256"/>
-      <c r="B26" s="324" t="s">
+      <c r="B26" s="325" t="s">
         <v>361</v>
       </c>
-      <c r="C26" s="325"/>
+      <c r="C26" s="326"/>
       <c r="D26" s="308" t="s">
         <v>213</v>
       </c>
@@ -29685,8 +29699,8 @@
     </row>
     <row r="27" spans="1:12" s="240" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="256"/>
-      <c r="B27" s="326"/>
-      <c r="C27" s="327"/>
+      <c r="B27" s="327"/>
+      <c r="C27" s="328"/>
       <c r="D27" s="319" t="s">
         <v>214</v>
       </c>
@@ -29719,11 +29733,11 @@
     </row>
     <row r="29" spans="1:12" s="240" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="256"/>
-      <c r="B29" s="324" t="s">
+      <c r="B29" s="325" t="s">
         <v>329</v>
       </c>
-      <c r="C29" s="325"/>
-      <c r="D29" s="308" t="s">
+      <c r="C29" s="326"/>
+      <c r="D29" s="401" t="s">
         <v>218</v>
       </c>
       <c r="E29" s="260" t="s">
@@ -29739,8 +29753,8 @@
     </row>
     <row r="30" spans="1:12" s="240" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="256"/>
-      <c r="B30" s="328"/>
-      <c r="C30" s="329"/>
+      <c r="B30" s="329"/>
+      <c r="C30" s="330"/>
       <c r="D30" s="309" t="s">
         <v>219</v>
       </c>
@@ -29757,9 +29771,9 @@
     </row>
     <row r="31" spans="1:12" s="240" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="256"/>
-      <c r="B31" s="328"/>
-      <c r="C31" s="329"/>
-      <c r="D31" s="309" t="s">
+      <c r="B31" s="329"/>
+      <c r="C31" s="330"/>
+      <c r="D31" s="400" t="s">
         <v>220</v>
       </c>
       <c r="E31" s="265" t="s">
@@ -29775,8 +29789,8 @@
     </row>
     <row r="32" spans="1:12" s="240" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="256"/>
-      <c r="B32" s="326"/>
-      <c r="C32" s="327"/>
+      <c r="B32" s="327"/>
+      <c r="C32" s="328"/>
       <c r="D32" s="300" t="s">
         <v>221</v>
       </c>
@@ -29807,10 +29821,10 @@
     </row>
     <row r="34" spans="1:12" s="240" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="256"/>
-      <c r="B34" s="324" t="s">
+      <c r="B34" s="325" t="s">
         <v>366</v>
       </c>
-      <c r="C34" s="325"/>
+      <c r="C34" s="326"/>
       <c r="D34" s="308" t="s">
         <v>228</v>
       </c>
@@ -29827,9 +29841,9 @@
     </row>
     <row r="35" spans="1:12" s="240" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="256"/>
-      <c r="B35" s="328"/>
-      <c r="C35" s="329"/>
-      <c r="D35" s="309" t="s">
+      <c r="B35" s="329"/>
+      <c r="C35" s="330"/>
+      <c r="D35" s="400" t="s">
         <v>229</v>
       </c>
       <c r="E35" s="262" t="s">
@@ -29845,8 +29859,8 @@
     </row>
     <row r="36" spans="1:12" s="240" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="256"/>
-      <c r="B36" s="328"/>
-      <c r="C36" s="329"/>
+      <c r="B36" s="329"/>
+      <c r="C36" s="330"/>
       <c r="D36" s="309" t="s">
         <v>231</v>
       </c>
@@ -29863,8 +29877,8 @@
     </row>
     <row r="37" spans="1:12" s="240" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="256"/>
-      <c r="B37" s="328"/>
-      <c r="C37" s="329"/>
+      <c r="B37" s="329"/>
+      <c r="C37" s="330"/>
       <c r="D37" s="261" t="s">
         <v>309</v>
       </c>
@@ -29881,9 +29895,9 @@
     </row>
     <row r="38" spans="1:12" s="240" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="256"/>
-      <c r="B38" s="328"/>
-      <c r="C38" s="329"/>
-      <c r="D38" s="309" t="s">
+      <c r="B38" s="329"/>
+      <c r="C38" s="330"/>
+      <c r="D38" s="400" t="s">
         <v>310</v>
       </c>
       <c r="E38" s="262" t="s">
@@ -29899,8 +29913,8 @@
     </row>
     <row r="39" spans="1:12" s="240" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="256"/>
-      <c r="B39" s="328"/>
-      <c r="C39" s="329"/>
+      <c r="B39" s="329"/>
+      <c r="C39" s="330"/>
       <c r="D39" s="261" t="s">
         <v>311</v>
       </c>
@@ -29917,9 +29931,9 @@
     </row>
     <row r="40" spans="1:12" s="240" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="256"/>
-      <c r="B40" s="328"/>
-      <c r="C40" s="329"/>
-      <c r="D40" s="309" t="s">
+      <c r="B40" s="329"/>
+      <c r="C40" s="330"/>
+      <c r="D40" s="400" t="s">
         <v>312</v>
       </c>
       <c r="E40" s="265" t="s">
@@ -29935,9 +29949,9 @@
     </row>
     <row r="41" spans="1:12" s="240" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="256"/>
-      <c r="B41" s="328"/>
-      <c r="C41" s="329"/>
-      <c r="D41" s="309" t="s">
+      <c r="B41" s="329"/>
+      <c r="C41" s="330"/>
+      <c r="D41" s="400" t="s">
         <v>313</v>
       </c>
       <c r="E41" s="265" t="s">
@@ -29953,8 +29967,8 @@
     </row>
     <row r="42" spans="1:12" s="240" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="256"/>
-      <c r="B42" s="328"/>
-      <c r="C42" s="329"/>
+      <c r="B42" s="329"/>
+      <c r="C42" s="330"/>
       <c r="D42" s="261" t="s">
         <v>367</v>
       </c>
@@ -29971,8 +29985,8 @@
     </row>
     <row r="43" spans="1:12" s="240" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="256"/>
-      <c r="B43" s="328"/>
-      <c r="C43" s="329"/>
+      <c r="B43" s="329"/>
+      <c r="C43" s="330"/>
       <c r="D43" s="261" t="s">
         <v>368</v>
       </c>
@@ -29989,9 +30003,9 @@
     </row>
     <row r="44" spans="1:12" s="240" customFormat="1" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="256"/>
-      <c r="B44" s="326"/>
-      <c r="C44" s="327"/>
-      <c r="D44" s="319" t="s">
+      <c r="B44" s="327"/>
+      <c r="C44" s="328"/>
+      <c r="D44" s="402" t="s">
         <v>369</v>
       </c>
       <c r="E44" s="264" t="s">
@@ -30063,22 +30077,22 @@
       <c r="B2" s="96"/>
     </row>
     <row r="3" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="365" t="s">
+      <c r="A3" s="366" t="s">
         <v>337</v>
       </c>
-      <c r="B3" s="367" t="s">
+      <c r="B3" s="368" t="s">
         <v>341</v>
       </c>
-      <c r="C3" s="367"/>
-      <c r="D3" s="367"/>
-      <c r="E3" s="367"/>
-      <c r="F3" s="363" t="s">
+      <c r="C3" s="368"/>
+      <c r="D3" s="368"/>
+      <c r="E3" s="368"/>
+      <c r="F3" s="364" t="s">
         <v>11</v>
       </c>
       <c r="G3" s="130"/>
     </row>
     <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="366"/>
+      <c r="A4" s="367"/>
       <c r="B4" s="138" t="s">
         <v>340</v>
       </c>
@@ -30091,7 +30105,7 @@
       <c r="E4" s="275" t="s">
         <v>51</v>
       </c>
-      <c r="F4" s="364"/>
+      <c r="F4" s="365"/>
       <c r="G4" s="55"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -30236,14 +30250,14 @@
       <c r="G11" s="96"/>
     </row>
     <row r="12" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="357" t="s">
+      <c r="A12" s="358" t="s">
         <v>403</v>
       </c>
-      <c r="B12" s="357"/>
-      <c r="C12" s="357"/>
-      <c r="D12" s="357"/>
-      <c r="E12" s="357"/>
-      <c r="F12" s="357"/>
+      <c r="B12" s="358"/>
+      <c r="C12" s="358"/>
+      <c r="D12" s="358"/>
+      <c r="E12" s="358"/>
+      <c r="F12" s="358"/>
       <c r="G12" s="250"/>
     </row>
     <row r="13" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -30313,29 +30327,29 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="369"/>
-      <c r="B2" s="369"/>
-      <c r="C2" s="369"/>
-      <c r="D2" s="369"/>
-      <c r="E2" s="369"/>
-      <c r="F2" s="369"/>
+      <c r="A2" s="370"/>
+      <c r="B2" s="370"/>
+      <c r="C2" s="370"/>
+      <c r="D2" s="370"/>
+      <c r="E2" s="370"/>
+      <c r="F2" s="370"/>
       <c r="J2" s="56"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="365" t="s">
+      <c r="A3" s="366" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="243"/>
-      <c r="C3" s="367" t="s">
+      <c r="C3" s="368" t="s">
         <v>151</v>
       </c>
-      <c r="D3" s="367"/>
-      <c r="E3" s="367"/>
-      <c r="F3" s="367"/>
+      <c r="D3" s="368"/>
+      <c r="E3" s="368"/>
+      <c r="F3" s="368"/>
       <c r="J3" s="56"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="366"/>
+      <c r="A4" s="367"/>
       <c r="B4" s="129" t="s">
         <v>47</v>
       </c>
@@ -30393,34 +30407,34 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="357" t="s">
+      <c r="A7" s="358" t="s">
         <v>403</v>
       </c>
-      <c r="B7" s="357"/>
-      <c r="C7" s="357"/>
-      <c r="D7" s="357"/>
-      <c r="E7" s="357"/>
-      <c r="F7" s="357"/>
+      <c r="B7" s="358"/>
+      <c r="C7" s="358"/>
+      <c r="D7" s="358"/>
+      <c r="E7" s="358"/>
+      <c r="F7" s="358"/>
     </row>
     <row r="8" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="368" t="s">
+      <c r="A8" s="369" t="s">
         <v>131</v>
       </c>
-      <c r="B8" s="368"/>
-      <c r="C8" s="368"/>
-      <c r="D8" s="368"/>
-      <c r="E8" s="368"/>
-      <c r="F8" s="368"/>
+      <c r="B8" s="369"/>
+      <c r="C8" s="369"/>
+      <c r="D8" s="369"/>
+      <c r="E8" s="369"/>
+      <c r="F8" s="369"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="368" t="s">
+      <c r="A9" s="369" t="s">
         <v>130</v>
       </c>
-      <c r="B9" s="368"/>
-      <c r="C9" s="368"/>
-      <c r="D9" s="368"/>
-      <c r="E9" s="368"/>
-      <c r="F9" s="368"/>
+      <c r="B9" s="369"/>
+      <c r="C9" s="369"/>
+      <c r="D9" s="369"/>
+      <c r="E9" s="369"/>
+      <c r="F9" s="369"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -30461,39 +30475,39 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="371"/>
-      <c r="B2" s="371"/>
-      <c r="C2" s="371"/>
-      <c r="D2" s="371"/>
-      <c r="E2" s="371"/>
-      <c r="F2" s="371"/>
-      <c r="G2" s="371"/>
-      <c r="H2" s="371"/>
-      <c r="I2" s="371"/>
+      <c r="A2" s="372"/>
+      <c r="B2" s="372"/>
+      <c r="C2" s="372"/>
+      <c r="D2" s="372"/>
+      <c r="E2" s="372"/>
+      <c r="F2" s="372"/>
+      <c r="G2" s="372"/>
+      <c r="H2" s="372"/>
+      <c r="I2" s="372"/>
     </row>
     <row r="3" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="370" t="s">
+      <c r="A3" s="371" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="370" t="s">
+      <c r="B3" s="371" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="370"/>
-      <c r="D3" s="370"/>
-      <c r="E3" s="370"/>
-      <c r="F3" s="370" t="s">
+      <c r="C3" s="371"/>
+      <c r="D3" s="371"/>
+      <c r="E3" s="371"/>
+      <c r="F3" s="371" t="s">
         <v>64</v>
       </c>
-      <c r="G3" s="370"/>
-      <c r="H3" s="370"/>
-      <c r="I3" s="370"/>
+      <c r="G3" s="371"/>
+      <c r="H3" s="371"/>
+      <c r="I3" s="371"/>
       <c r="K3" s="96"/>
       <c r="L3" s="96"/>
       <c r="M3" s="96"/>
       <c r="N3" s="96"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="370"/>
+      <c r="A4" s="371"/>
       <c r="B4" s="77" t="s">
         <v>340</v>
       </c>
@@ -30524,7 +30538,7 @@
       <c r="N4" s="55"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="372"/>
+      <c r="A5" s="373"/>
       <c r="B5" s="66" t="s">
         <v>124</v>
       </c>
@@ -30835,37 +30849,37 @@
     </row>
     <row r="17" spans="1:7" ht="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="368" t="s">
+      <c r="A18" s="369" t="s">
         <v>212</v>
       </c>
-      <c r="B18" s="368"/>
-      <c r="C18" s="368"/>
-      <c r="D18" s="368"/>
-      <c r="E18" s="368"/>
-      <c r="F18" s="368"/>
-      <c r="G18" s="368"/>
+      <c r="B18" s="369"/>
+      <c r="C18" s="369"/>
+      <c r="D18" s="369"/>
+      <c r="E18" s="369"/>
+      <c r="F18" s="369"/>
+      <c r="G18" s="369"/>
     </row>
     <row r="19" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="373" t="s">
+      <c r="A19" s="374" t="s">
         <v>209</v>
       </c>
-      <c r="B19" s="373"/>
-      <c r="C19" s="373"/>
-      <c r="D19" s="373"/>
-      <c r="E19" s="373"/>
-      <c r="F19" s="373"/>
-      <c r="G19" s="373"/>
+      <c r="B19" s="374"/>
+      <c r="C19" s="374"/>
+      <c r="D19" s="374"/>
+      <c r="E19" s="374"/>
+      <c r="F19" s="374"/>
+      <c r="G19" s="374"/>
     </row>
     <row r="20" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="373" t="s">
+      <c r="A20" s="374" t="s">
         <v>210</v>
       </c>
-      <c r="B20" s="373"/>
-      <c r="C20" s="373"/>
-      <c r="D20" s="373"/>
-      <c r="E20" s="373"/>
-      <c r="F20" s="373"/>
-      <c r="G20" s="373"/>
+      <c r="B20" s="374"/>
+      <c r="C20" s="374"/>
+      <c r="D20" s="374"/>
+      <c r="E20" s="374"/>
+      <c r="F20" s="374"/>
+      <c r="G20" s="374"/>
     </row>
     <row r="21" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="101"/>
@@ -30997,15 +31011,15 @@
       <c r="A2" s="302"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="368" t="s">
+      <c r="A26" s="369" t="s">
         <v>409</v>
       </c>
-      <c r="B26" s="368"/>
-      <c r="C26" s="368"/>
-      <c r="D26" s="368"/>
-      <c r="E26" s="368"/>
-      <c r="F26" s="368"/>
-      <c r="G26" s="368"/>
+      <c r="B26" s="369"/>
+      <c r="C26" s="369"/>
+      <c r="D26" s="369"/>
+      <c r="E26" s="369"/>
+      <c r="F26" s="369"/>
+      <c r="G26" s="369"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -31143,20 +31157,20 @@
       <c r="D2" s="75"/>
       <c r="E2" s="75"/>
       <c r="F2" s="3"/>
-      <c r="G2" s="374"/>
-      <c r="H2" s="374"/>
+      <c r="G2" s="375"/>
+      <c r="H2" s="375"/>
       <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="107"/>
-      <c r="B3" s="375" t="s">
+      <c r="B3" s="376" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="375"/>
-      <c r="D3" s="376" t="s">
+      <c r="C3" s="376"/>
+      <c r="D3" s="377" t="s">
         <v>64</v>
       </c>
-      <c r="E3" s="376"/>
+      <c r="E3" s="377"/>
       <c r="F3" s="72"/>
       <c r="G3" s="73"/>
       <c r="H3" s="73"/>
@@ -31353,20 +31367,20 @@
       <c r="E2" s="222"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="362" t="s">
+      <c r="A3" s="363" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="377" t="s">
+      <c r="B3" s="378" t="s">
         <v>152</v>
       </c>
-      <c r="C3" s="377"/>
-      <c r="D3" s="377" t="s">
+      <c r="C3" s="378"/>
+      <c r="D3" s="378" t="s">
         <v>64</v>
       </c>
-      <c r="E3" s="377"/>
+      <c r="E3" s="378"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="360"/>
+      <c r="A4" s="361"/>
       <c r="B4" s="251">
         <v>2010</v>
       </c>
@@ -31518,11 +31532,11 @@
       <c r="E13" s="54"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="358"/>
-      <c r="B14" s="358"/>
-      <c r="C14" s="358"/>
-      <c r="D14" s="358"/>
-      <c r="E14" s="358"/>
+      <c r="A14" s="359"/>
+      <c r="B14" s="359"/>
+      <c r="C14" s="359"/>
+      <c r="D14" s="359"/>
+      <c r="E14" s="359"/>
       <c r="F14" s="225"/>
       <c r="G14" s="225"/>
     </row>
@@ -31566,16 +31580,16 @@
     </row>
     <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="365" t="s">
+      <c r="A3" s="366" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="367" t="s">
+      <c r="B3" s="368" t="s">
         <v>217</v>
       </c>
-      <c r="C3" s="367"/>
+      <c r="C3" s="368"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="366"/>
+      <c r="A4" s="367"/>
       <c r="B4" s="131">
         <v>2010</v>
       </c>
@@ -31738,16 +31752,16 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="378" t="s">
+      <c r="A19" s="379" t="s">
         <v>130</v>
       </c>
-      <c r="B19" s="378"/>
-      <c r="C19" s="378"/>
+      <c r="B19" s="379"/>
+      <c r="C19" s="379"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="368"/>
-      <c r="B20" s="368"/>
-      <c r="C20" s="368"/>
+      <c r="A20" s="369"/>
+      <c r="B20" s="369"/>
+      <c r="C20" s="369"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -31787,52 +31801,52 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="379"/>
-      <c r="B2" s="379"/>
-      <c r="C2" s="379"/>
-      <c r="D2" s="379"/>
-      <c r="E2" s="379"/>
-      <c r="F2" s="379"/>
-      <c r="G2" s="379"/>
-      <c r="H2" s="379"/>
+      <c r="A2" s="380"/>
+      <c r="B2" s="380"/>
+      <c r="C2" s="380"/>
+      <c r="D2" s="380"/>
+      <c r="E2" s="380"/>
+      <c r="F2" s="380"/>
+      <c r="G2" s="380"/>
+      <c r="H2" s="380"/>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="388" t="s">
+      <c r="A3" s="389" t="s">
         <v>153</v>
       </c>
       <c r="B3" s="140"/>
-      <c r="C3" s="387" t="s">
+      <c r="C3" s="388" t="s">
         <v>167</v>
       </c>
-      <c r="D3" s="387"/>
-      <c r="E3" s="387"/>
-      <c r="F3" s="387"/>
-      <c r="G3" s="387"/>
-      <c r="H3" s="384" t="s">
+      <c r="D3" s="388"/>
+      <c r="E3" s="388"/>
+      <c r="F3" s="388"/>
+      <c r="G3" s="388"/>
+      <c r="H3" s="385" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="376"/>
+      <c r="A4" s="377"/>
       <c r="B4" s="135"/>
-      <c r="C4" s="382" t="s">
+      <c r="C4" s="383" t="s">
         <v>107</v>
       </c>
-      <c r="D4" s="382" t="s">
+      <c r="D4" s="383" t="s">
         <v>121</v>
       </c>
-      <c r="E4" s="382" t="s">
+      <c r="E4" s="383" t="s">
         <v>168</v>
       </c>
-      <c r="F4" s="382"/>
-      <c r="G4" s="382"/>
-      <c r="H4" s="385"/>
+      <c r="F4" s="383"/>
+      <c r="G4" s="383"/>
+      <c r="H4" s="386"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="389"/>
+      <c r="A5" s="390"/>
       <c r="B5" s="133"/>
-      <c r="C5" s="383"/>
-      <c r="D5" s="383"/>
+      <c r="C5" s="384"/>
+      <c r="D5" s="384"/>
       <c r="E5" s="138" t="s">
         <v>123</v>
       </c>
@@ -31842,10 +31856,10 @@
       <c r="G5" s="138" t="s">
         <v>126</v>
       </c>
-      <c r="H5" s="386"/>
+      <c r="H5" s="387"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="390">
+      <c r="A6" s="391">
         <v>2010</v>
       </c>
       <c r="B6" s="135" t="s">
@@ -31871,7 +31885,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="376"/>
+      <c r="A7" s="377"/>
       <c r="B7" s="135" t="s">
         <v>64</v>
       </c>
@@ -31895,7 +31909,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="376">
+      <c r="A8" s="377">
         <v>2015</v>
       </c>
       <c r="B8" s="135" t="s">
@@ -31921,7 +31935,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="391"/>
+      <c r="A9" s="392"/>
       <c r="B9" s="135" t="s">
         <v>64</v>
       </c>
@@ -31945,26 +31959,26 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="381" t="s">
+      <c r="A10" s="382" t="s">
         <v>173</v>
       </c>
-      <c r="B10" s="381"/>
-      <c r="C10" s="381"/>
-      <c r="D10" s="381"/>
-      <c r="E10" s="381"/>
-      <c r="F10" s="381"/>
-      <c r="G10" s="381"/>
-      <c r="H10" s="381"/>
+      <c r="B10" s="382"/>
+      <c r="C10" s="382"/>
+      <c r="D10" s="382"/>
+      <c r="E10" s="382"/>
+      <c r="F10" s="382"/>
+      <c r="G10" s="382"/>
+      <c r="H10" s="382"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="380"/>
-      <c r="B11" s="380"/>
-      <c r="C11" s="380"/>
-      <c r="D11" s="380"/>
-      <c r="E11" s="380"/>
-      <c r="F11" s="380"/>
-      <c r="G11" s="380"/>
-      <c r="H11" s="380"/>
+      <c r="A11" s="381"/>
+      <c r="B11" s="381"/>
+      <c r="C11" s="381"/>
+      <c r="D11" s="381"/>
+      <c r="E11" s="381"/>
+      <c r="F11" s="381"/>
+      <c r="G11" s="381"/>
+      <c r="H11" s="381"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -32036,7 +32050,7 @@
       <c r="H3" s="150"/>
     </row>
     <row r="4" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="332">
+      <c r="A4" s="333">
         <v>2008</v>
       </c>
       <c r="B4" s="151" t="str">
@@ -32058,7 +32072,7 @@
       <c r="U4" s="198"/>
     </row>
     <row r="5" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="333"/>
+      <c r="A5" s="334"/>
       <c r="B5" s="151" t="str">
         <f>'[1]Hoja 01'!B3</f>
         <v>abr-jun</v>
@@ -32071,7 +32085,7 @@
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A6" s="333"/>
+      <c r="A6" s="334"/>
       <c r="B6" s="151" t="str">
         <f>'[1]Hoja 01'!B4</f>
         <v>jul-sep</v>
@@ -32084,7 +32098,7 @@
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A7" s="334"/>
+      <c r="A7" s="335"/>
       <c r="B7" s="154" t="str">
         <f>'[1]Hoja 01'!B5</f>
         <v>oct-dic</v>
@@ -32097,7 +32111,7 @@
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A8" s="332">
+      <c r="A8" s="333">
         <v>2009</v>
       </c>
       <c r="B8" s="151" t="str">
@@ -32112,7 +32126,7 @@
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A9" s="333"/>
+      <c r="A9" s="334"/>
       <c r="B9" s="151" t="str">
         <f>'[1]Hoja 01'!B7</f>
         <v>abr-jun</v>
@@ -32125,7 +32139,7 @@
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A10" s="333"/>
+      <c r="A10" s="334"/>
       <c r="B10" s="151" t="str">
         <f>'[1]Hoja 01'!B8</f>
         <v>jul-sep</v>
@@ -32138,7 +32152,7 @@
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A11" s="334"/>
+      <c r="A11" s="335"/>
       <c r="B11" s="154" t="str">
         <f>'[1]Hoja 01'!B9</f>
         <v>oct-dic</v>
@@ -32151,7 +32165,7 @@
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A12" s="332">
+      <c r="A12" s="333">
         <v>2010</v>
       </c>
       <c r="B12" s="151" t="str">
@@ -32166,7 +32180,7 @@
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A13" s="333"/>
+      <c r="A13" s="334"/>
       <c r="B13" s="151" t="str">
         <f>'[1]Hoja 01'!B11</f>
         <v>abr-jun</v>
@@ -32179,7 +32193,7 @@
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A14" s="333"/>
+      <c r="A14" s="334"/>
       <c r="B14" s="151" t="str">
         <f>'[1]Hoja 01'!B12</f>
         <v>jul-sep</v>
@@ -32192,7 +32206,7 @@
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A15" s="334"/>
+      <c r="A15" s="335"/>
       <c r="B15" s="154" t="str">
         <f>'[1]Hoja 01'!B13</f>
         <v>oct-dic</v>
@@ -32205,7 +32219,7 @@
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A16" s="332">
+      <c r="A16" s="333">
         <v>2011</v>
       </c>
       <c r="B16" s="151" t="str">
@@ -32220,7 +32234,7 @@
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A17" s="333"/>
+      <c r="A17" s="334"/>
       <c r="B17" s="151" t="str">
         <f>'[1]Hoja 01'!B15</f>
         <v>abr-jun</v>
@@ -32233,7 +32247,7 @@
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A18" s="333"/>
+      <c r="A18" s="334"/>
       <c r="B18" s="151" t="str">
         <f>'[1]Hoja 01'!B16</f>
         <v>jul-sep</v>
@@ -32246,7 +32260,7 @@
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A19" s="334"/>
+      <c r="A19" s="335"/>
       <c r="B19" s="154" t="str">
         <f>'[1]Hoja 01'!B17</f>
         <v>oct-dic</v>
@@ -32269,7 +32283,7 @@
       <c r="N19" s="157"/>
     </row>
     <row r="20" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="332">
+      <c r="A20" s="333">
         <v>2012</v>
       </c>
       <c r="B20" s="151" t="str">
@@ -32295,7 +32309,7 @@
       <c r="N20" s="157"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A21" s="333"/>
+      <c r="A21" s="334"/>
       <c r="B21" s="151" t="str">
         <f>'[1]Hoja 01'!B19</f>
         <v>abr-jun</v>
@@ -32318,7 +32332,7 @@
       <c r="M21" s="159"/>
     </row>
     <row r="22" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="333"/>
+      <c r="A22" s="334"/>
       <c r="B22" s="151" t="str">
         <f>'[1]Hoja 01'!B20</f>
         <v>jul-sep</v>
@@ -32341,7 +32355,7 @@
       <c r="M22" s="159"/>
     </row>
     <row r="23" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="334"/>
+      <c r="A23" s="335"/>
       <c r="B23" s="154" t="str">
         <f>'[1]Hoja 01'!B21</f>
         <v>oct-dic</v>
@@ -32354,7 +32368,7 @@
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A24" s="332">
+      <c r="A24" s="333">
         <v>2013</v>
       </c>
       <c r="B24" s="151" t="str">
@@ -32369,7 +32383,7 @@
       </c>
     </row>
     <row r="25" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="333"/>
+      <c r="A25" s="334"/>
       <c r="B25" s="151" t="str">
         <f>'[1]Hoja 01'!B23</f>
         <v>abr-jun</v>
@@ -32382,7 +32396,7 @@
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A26" s="333"/>
+      <c r="A26" s="334"/>
       <c r="B26" s="151" t="str">
         <f>'[1]Hoja 01'!B24</f>
         <v>jul-sep</v>
@@ -32395,7 +32409,7 @@
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A27" s="334"/>
+      <c r="A27" s="335"/>
       <c r="B27" s="154" t="str">
         <f>'[1]Hoja 01'!B25</f>
         <v>oct-dic</v>
@@ -32408,7 +32422,7 @@
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A28" s="332">
+      <c r="A28" s="333">
         <v>2014</v>
       </c>
       <c r="B28" s="151" t="str">
@@ -32423,7 +32437,7 @@
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A29" s="333"/>
+      <c r="A29" s="334"/>
       <c r="B29" s="151" t="str">
         <f>'[1]Hoja 01'!B27</f>
         <v>abr-jun</v>
@@ -32436,7 +32450,7 @@
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A30" s="333"/>
+      <c r="A30" s="334"/>
       <c r="B30" s="151" t="str">
         <f>'[1]Hoja 01'!B28</f>
         <v>jul-sep</v>
@@ -32449,7 +32463,7 @@
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A31" s="334"/>
+      <c r="A31" s="335"/>
       <c r="B31" s="154" t="str">
         <f>'[1]Hoja 01'!B29</f>
         <v>oct-dic</v>
@@ -32462,7 +32476,7 @@
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A32" s="332">
+      <c r="A32" s="333">
         <v>2015</v>
       </c>
       <c r="B32" s="151" t="str">
@@ -32477,7 +32491,7 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="333"/>
+      <c r="A33" s="334"/>
       <c r="B33" s="151" t="str">
         <f>'[1]Hoja 01'!B31</f>
         <v>abr-jun</v>
@@ -32490,7 +32504,7 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="333"/>
+      <c r="A34" s="334"/>
       <c r="B34" s="151" t="str">
         <f>'[1]Hoja 01'!B32</f>
         <v>jul-sep</v>
@@ -32503,7 +32517,7 @@
       </c>
     </row>
     <row r="35" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="335"/>
+      <c r="A35" s="336"/>
       <c r="B35" s="160" t="str">
         <f>'[1]Hoja 01'!B33</f>
         <v>oct-dic</v>
@@ -32572,42 +32586,42 @@
       <c r="H2" s="245"/>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="393"/>
-      <c r="B3" s="382" t="s">
+      <c r="A3" s="394"/>
+      <c r="B3" s="383" t="s">
         <v>153</v>
       </c>
-      <c r="C3" s="382" t="s">
+      <c r="C3" s="383" t="s">
         <v>167</v>
       </c>
-      <c r="D3" s="382"/>
-      <c r="E3" s="382"/>
-      <c r="F3" s="382"/>
-      <c r="G3" s="382"/>
-      <c r="H3" s="385" t="s">
+      <c r="D3" s="383"/>
+      <c r="E3" s="383"/>
+      <c r="F3" s="383"/>
+      <c r="G3" s="383"/>
+      <c r="H3" s="386" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="393"/>
-      <c r="B4" s="382"/>
-      <c r="C4" s="382" t="s">
+      <c r="A4" s="394"/>
+      <c r="B4" s="383"/>
+      <c r="C4" s="383" t="s">
         <v>107</v>
       </c>
-      <c r="D4" s="382" t="s">
+      <c r="D4" s="383" t="s">
         <v>121</v>
       </c>
-      <c r="E4" s="382" t="s">
+      <c r="E4" s="383" t="s">
         <v>168</v>
       </c>
-      <c r="F4" s="382"/>
-      <c r="G4" s="382"/>
-      <c r="H4" s="385"/>
+      <c r="F4" s="383"/>
+      <c r="G4" s="383"/>
+      <c r="H4" s="386"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="393"/>
-      <c r="B5" s="382"/>
-      <c r="C5" s="382"/>
-      <c r="D5" s="382"/>
+      <c r="A5" s="394"/>
+      <c r="B5" s="383"/>
+      <c r="C5" s="383"/>
+      <c r="D5" s="383"/>
       <c r="E5" s="81" t="s">
         <v>123</v>
       </c>
@@ -32617,11 +32631,11 @@
       <c r="G5" s="81" t="s">
         <v>126</v>
       </c>
-      <c r="H5" s="385"/>
+      <c r="H5" s="386"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="393"/>
-      <c r="B6" s="382"/>
+      <c r="A6" s="394"/>
+      <c r="B6" s="383"/>
       <c r="C6" s="136" t="s">
         <v>169</v>
       </c>
@@ -32642,7 +32656,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="390" t="s">
+      <c r="A7" s="391" t="s">
         <v>152</v>
       </c>
       <c r="B7" s="139">
@@ -32668,7 +32682,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="376"/>
+      <c r="A8" s="377"/>
       <c r="B8" s="136">
         <v>2015</v>
       </c>
@@ -32692,7 +32706,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="376" t="s">
+      <c r="A9" s="377" t="s">
         <v>64</v>
       </c>
       <c r="B9" s="136">
@@ -32718,7 +32732,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="376"/>
+      <c r="A10" s="377"/>
       <c r="B10" s="136">
         <v>2015</v>
       </c>
@@ -32742,28 +32756,28 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="381" t="s">
+      <c r="A11" s="382" t="s">
         <v>414</v>
       </c>
-      <c r="B11" s="381"/>
-      <c r="C11" s="381"/>
-      <c r="D11" s="381"/>
-      <c r="E11" s="381"/>
-      <c r="F11" s="381"/>
-      <c r="G11" s="381"/>
-      <c r="H11" s="381"/>
+      <c r="B11" s="382"/>
+      <c r="C11" s="382"/>
+      <c r="D11" s="382"/>
+      <c r="E11" s="382"/>
+      <c r="F11" s="382"/>
+      <c r="G11" s="382"/>
+      <c r="H11" s="382"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="392" t="s">
+      <c r="A12" s="393" t="s">
         <v>174</v>
       </c>
-      <c r="B12" s="392"/>
-      <c r="C12" s="392"/>
-      <c r="D12" s="392"/>
-      <c r="E12" s="392"/>
-      <c r="F12" s="392"/>
-      <c r="G12" s="392"/>
-      <c r="H12" s="392"/>
+      <c r="B12" s="393"/>
+      <c r="C12" s="393"/>
+      <c r="D12" s="393"/>
+      <c r="E12" s="393"/>
+      <c r="F12" s="393"/>
+      <c r="G12" s="393"/>
+      <c r="H12" s="393"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -32807,24 +32821,24 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="369"/>
-      <c r="B2" s="369"/>
-      <c r="C2" s="369"/>
-      <c r="D2" s="369"/>
-      <c r="E2" s="369"/>
+      <c r="A2" s="370"/>
+      <c r="B2" s="370"/>
+      <c r="C2" s="370"/>
+      <c r="D2" s="370"/>
+      <c r="E2" s="370"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="116" t="s">
         <v>133</v>
       </c>
-      <c r="B3" s="387" t="s">
+      <c r="B3" s="388" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="387"/>
-      <c r="D3" s="387" t="s">
+      <c r="C3" s="388"/>
+      <c r="D3" s="388" t="s">
         <v>64</v>
       </c>
-      <c r="E3" s="387"/>
+      <c r="E3" s="388"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="109"/>
@@ -32961,20 +32975,20 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="378" t="s">
+      <c r="A12" s="379" t="s">
         <v>134</v>
       </c>
-      <c r="B12" s="378"/>
-      <c r="C12" s="378"/>
-      <c r="D12" s="378"/>
-      <c r="E12" s="378"/>
+      <c r="B12" s="379"/>
+      <c r="C12" s="379"/>
+      <c r="D12" s="379"/>
+      <c r="E12" s="379"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="368"/>
-      <c r="B13" s="368"/>
-      <c r="C13" s="368"/>
-      <c r="D13" s="368"/>
-      <c r="E13" s="368"/>
+      <c r="A13" s="369"/>
+      <c r="B13" s="369"/>
+      <c r="C13" s="369"/>
+      <c r="D13" s="369"/>
+      <c r="E13" s="369"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="10"/>
@@ -33056,29 +33070,29 @@
     </row>
     <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="384" t="s">
+      <c r="A3" s="385" t="s">
         <v>176</v>
       </c>
-      <c r="B3" s="387" t="s">
+      <c r="B3" s="388" t="s">
         <v>167</v>
       </c>
-      <c r="C3" s="387"/>
-      <c r="D3" s="387"/>
-      <c r="E3" s="387"/>
+      <c r="C3" s="388"/>
+      <c r="D3" s="388"/>
+      <c r="E3" s="388"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="385"/>
-      <c r="B4" s="393" t="s">
+      <c r="A4" s="386"/>
+      <c r="B4" s="394" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="393"/>
-      <c r="D4" s="382" t="s">
+      <c r="C4" s="394"/>
+      <c r="D4" s="383" t="s">
         <v>64</v>
       </c>
-      <c r="E4" s="382"/>
+      <c r="E4" s="383"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="386"/>
+      <c r="A5" s="387"/>
       <c r="B5" s="138" t="s">
         <v>107</v>
       </c>
@@ -33216,15 +33230,15 @@
       <c r="I3" s="285" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="394"/>
-      <c r="L3" s="394"/>
-      <c r="M3" s="394"/>
-      <c r="N3" s="394"/>
-      <c r="O3" s="394"/>
-      <c r="P3" s="394"/>
+      <c r="K3" s="395"/>
+      <c r="L3" s="395"/>
+      <c r="M3" s="395"/>
+      <c r="N3" s="395"/>
+      <c r="O3" s="395"/>
+      <c r="P3" s="395"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="376" t="s">
+      <c r="A4" s="377" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="111">
@@ -33253,7 +33267,7 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="376"/>
+      <c r="A5" s="377"/>
       <c r="B5" s="111">
         <v>2015</v>
       </c>
@@ -33280,7 +33294,7 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="376" t="s">
+      <c r="A6" s="377" t="s">
         <v>64</v>
       </c>
       <c r="B6" s="111">
@@ -33309,7 +33323,7 @@
       </c>
     </row>
     <row r="7" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="391"/>
+      <c r="A7" s="392"/>
       <c r="B7" s="286">
         <v>2015</v>
       </c>
@@ -33390,22 +33404,22 @@
       <c r="B2" s="245"/>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="388"/>
-      <c r="B3" s="384"/>
-      <c r="C3" s="387" t="s">
+      <c r="A3" s="389"/>
+      <c r="B3" s="385"/>
+      <c r="C3" s="388" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="387"/>
-      <c r="E3" s="387"/>
-      <c r="F3" s="387" t="s">
+      <c r="D3" s="388"/>
+      <c r="E3" s="388"/>
+      <c r="F3" s="388" t="s">
         <v>64</v>
       </c>
-      <c r="G3" s="387"/>
-      <c r="H3" s="387"/>
+      <c r="G3" s="388"/>
+      <c r="H3" s="388"/>
     </row>
     <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="389"/>
-      <c r="B4" s="386"/>
+      <c r="A4" s="390"/>
+      <c r="B4" s="387"/>
       <c r="C4" s="131" t="s">
         <v>121</v>
       </c>
@@ -33426,7 +33440,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="390">
+      <c r="A5" s="391">
         <v>2010</v>
       </c>
       <c r="B5" s="255" t="s">
@@ -33452,7 +33466,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="376"/>
+      <c r="A6" s="377"/>
       <c r="B6" s="119" t="s">
         <v>180</v>
       </c>
@@ -33476,7 +33490,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="376">
+      <c r="A7" s="377">
         <v>2015</v>
       </c>
       <c r="B7" s="111" t="s">
@@ -33502,7 +33516,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="391"/>
+      <c r="A8" s="392"/>
       <c r="B8" s="283" t="s">
         <v>180</v>
       </c>
@@ -33526,40 +33540,40 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="392" t="s">
+      <c r="A9" s="393" t="s">
         <v>226</v>
       </c>
-      <c r="B9" s="392"/>
-      <c r="C9" s="392"/>
-      <c r="D9" s="392"/>
-      <c r="E9" s="392"/>
-      <c r="F9" s="392"/>
-      <c r="G9" s="392"/>
-      <c r="H9" s="392"/>
+      <c r="B9" s="393"/>
+      <c r="C9" s="393"/>
+      <c r="D9" s="393"/>
+      <c r="E9" s="393"/>
+      <c r="F9" s="393"/>
+      <c r="G9" s="393"/>
+      <c r="H9" s="393"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="392" t="s">
+      <c r="A10" s="393" t="s">
         <v>227</v>
       </c>
-      <c r="B10" s="392"/>
-      <c r="C10" s="392"/>
-      <c r="D10" s="392"/>
-      <c r="E10" s="392"/>
-      <c r="F10" s="392"/>
-      <c r="G10" s="392"/>
-      <c r="H10" s="392"/>
+      <c r="B10" s="393"/>
+      <c r="C10" s="393"/>
+      <c r="D10" s="393"/>
+      <c r="E10" s="393"/>
+      <c r="F10" s="393"/>
+      <c r="G10" s="393"/>
+      <c r="H10" s="393"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="392" t="s">
+      <c r="A11" s="393" t="s">
         <v>173</v>
       </c>
-      <c r="B11" s="392"/>
-      <c r="C11" s="392"/>
-      <c r="D11" s="392"/>
-      <c r="E11" s="392"/>
-      <c r="F11" s="392"/>
-      <c r="G11" s="392"/>
-      <c r="H11" s="392"/>
+      <c r="B11" s="393"/>
+      <c r="C11" s="393"/>
+      <c r="D11" s="393"/>
+      <c r="E11" s="393"/>
+      <c r="F11" s="393"/>
+      <c r="G11" s="393"/>
+      <c r="H11" s="393"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -33600,20 +33614,20 @@
     </row>
     <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="349" t="s">
+      <c r="A3" s="350" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="352" t="s">
+      <c r="B3" s="353" t="s">
         <v>152</v>
       </c>
-      <c r="C3" s="352"/>
-      <c r="D3" s="352" t="s">
+      <c r="C3" s="353"/>
+      <c r="D3" s="353" t="s">
         <v>64</v>
       </c>
-      <c r="E3" s="352"/>
+      <c r="E3" s="353"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="351"/>
+      <c r="A4" s="352"/>
       <c r="B4" s="86">
         <v>2010</v>
       </c>
@@ -33881,9 +33895,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -34249,21 +34261,21 @@
       <c r="H2" s="222"/>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="395" t="s">
+      <c r="A3" s="396" t="s">
         <v>342</v>
       </c>
-      <c r="B3" s="361" t="s">
+      <c r="B3" s="362" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="361"/>
-      <c r="D3" s="361"/>
-      <c r="E3" s="361"/>
-      <c r="F3" s="361"/>
-      <c r="G3" s="361"/>
-      <c r="H3" s="361"/>
+      <c r="C3" s="362"/>
+      <c r="D3" s="362"/>
+      <c r="E3" s="362"/>
+      <c r="F3" s="362"/>
+      <c r="G3" s="362"/>
+      <c r="H3" s="362"/>
     </row>
     <row r="4" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="396"/>
+      <c r="A4" s="397"/>
       <c r="B4" s="298" t="s">
         <v>287</v>
       </c>
@@ -34548,28 +34560,28 @@
       </c>
     </row>
     <row r="15" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="357" t="s">
+      <c r="A15" s="358" t="s">
         <v>345</v>
       </c>
-      <c r="B15" s="357"/>
-      <c r="C15" s="357"/>
-      <c r="D15" s="357"/>
-      <c r="E15" s="357"/>
-      <c r="F15" s="357"/>
-      <c r="G15" s="357"/>
-      <c r="H15" s="357"/>
+      <c r="B15" s="358"/>
+      <c r="C15" s="358"/>
+      <c r="D15" s="358"/>
+      <c r="E15" s="358"/>
+      <c r="F15" s="358"/>
+      <c r="G15" s="358"/>
+      <c r="H15" s="358"/>
     </row>
     <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="397" t="s">
+      <c r="A16" s="398" t="s">
         <v>283</v>
       </c>
-      <c r="B16" s="397"/>
-      <c r="C16" s="397"/>
-      <c r="D16" s="397"/>
-      <c r="E16" s="397"/>
-      <c r="F16" s="397"/>
-      <c r="G16" s="397"/>
-      <c r="H16" s="397"/>
+      <c r="B16" s="398"/>
+      <c r="C16" s="398"/>
+      <c r="D16" s="398"/>
+      <c r="E16" s="398"/>
+      <c r="F16" s="398"/>
+      <c r="G16" s="398"/>
+      <c r="H16" s="398"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -34587,7 +34599,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34617,7 +34629,7 @@
       <c r="G2" s="228"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="398" t="s">
+      <c r="A3" s="399" t="s">
         <v>342</v>
       </c>
       <c r="B3" s="241" t="s">
@@ -34626,17 +34638,17 @@
       <c r="C3" s="241" t="s">
         <v>121</v>
       </c>
-      <c r="D3" s="359" t="s">
+      <c r="D3" s="360" t="s">
         <v>280</v>
       </c>
-      <c r="E3" s="359"/>
-      <c r="F3" s="359"/>
+      <c r="E3" s="360"/>
+      <c r="F3" s="360"/>
       <c r="G3" s="241" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="396"/>
+      <c r="A4" s="397"/>
       <c r="B4" s="234"/>
       <c r="C4" s="234"/>
       <c r="D4" s="234" t="s">
@@ -34881,13 +34893,13 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="397" t="s">
+      <c r="A15" s="398" t="s">
         <v>283</v>
       </c>
-      <c r="B15" s="397"/>
-      <c r="C15" s="397"/>
-      <c r="D15" s="397"/>
-      <c r="E15" s="397"/>
+      <c r="B15" s="398"/>
+      <c r="C15" s="398"/>
+      <c r="D15" s="398"/>
+      <c r="E15" s="398"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -34903,9 +34915,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -35235,7 +35245,7 @@
       <c r="X3" s="215"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A4" s="336">
+      <c r="A4" s="337">
         <f>'[1]Hoja 02'!A2</f>
         <v>2009</v>
       </c>
@@ -35255,7 +35265,7 @@
       <c r="P4" s="150"/>
     </row>
     <row r="5" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="337"/>
+      <c r="A5" s="338"/>
       <c r="B5" s="164" t="str">
         <f>'[1]Hoja 02'!B3</f>
         <v>abr-jun</v>
@@ -35272,7 +35282,7 @@
       <c r="P5" s="150"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A6" s="337"/>
+      <c r="A6" s="338"/>
       <c r="B6" s="164" t="str">
         <f>'[1]Hoja 02'!B4</f>
         <v>jul-sep</v>
@@ -35289,7 +35299,7 @@
       <c r="P6" s="150"/>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A7" s="338"/>
+      <c r="A7" s="339"/>
       <c r="B7" s="165" t="str">
         <f>'[1]Hoja 02'!B5</f>
         <v>oct-dic</v>
@@ -35306,7 +35316,7 @@
       <c r="P7" s="150"/>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A8" s="336">
+      <c r="A8" s="337">
         <f>'[1]Hoja 02'!A6</f>
         <v>2010</v>
       </c>
@@ -35326,7 +35336,7 @@
       <c r="P8" s="150"/>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A9" s="337"/>
+      <c r="A9" s="338"/>
       <c r="B9" s="164" t="str">
         <f>'[1]Hoja 02'!B7</f>
         <v>abr-jun</v>
@@ -35343,7 +35353,7 @@
       <c r="P9" s="150"/>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A10" s="337"/>
+      <c r="A10" s="338"/>
       <c r="B10" s="164" t="str">
         <f>'[1]Hoja 02'!B8</f>
         <v>jul-sep</v>
@@ -35360,7 +35370,7 @@
       <c r="P10" s="150"/>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A11" s="338"/>
+      <c r="A11" s="339"/>
       <c r="B11" s="165" t="str">
         <f>'[1]Hoja 02'!B9</f>
         <v>oct-dic</v>
@@ -35377,7 +35387,7 @@
       <c r="P11" s="150"/>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A12" s="336">
+      <c r="A12" s="337">
         <f>'[1]Hoja 02'!A10</f>
         <v>2011</v>
       </c>
@@ -35397,7 +35407,7 @@
       <c r="P12" s="150"/>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A13" s="337"/>
+      <c r="A13" s="338"/>
       <c r="B13" s="164" t="str">
         <f>'[1]Hoja 02'!B11</f>
         <v>abr-jun</v>
@@ -35414,7 +35424,7 @@
       <c r="P13" s="150"/>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A14" s="337"/>
+      <c r="A14" s="338"/>
       <c r="B14" s="164" t="str">
         <f>'[1]Hoja 02'!B12</f>
         <v>jul-sep</v>
@@ -35431,7 +35441,7 @@
       <c r="P14" s="150"/>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A15" s="338"/>
+      <c r="A15" s="339"/>
       <c r="B15" s="165" t="str">
         <f>'[1]Hoja 02'!B13</f>
         <v>oct-dic</v>
@@ -35448,7 +35458,7 @@
       <c r="P15" s="150"/>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A16" s="336">
+      <c r="A16" s="337">
         <f>'[1]Hoja 02'!A14</f>
         <v>2012</v>
       </c>
@@ -35468,7 +35478,7 @@
       <c r="P16" s="150"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A17" s="337"/>
+      <c r="A17" s="338"/>
       <c r="B17" s="164" t="str">
         <f>'[1]Hoja 02'!B15</f>
         <v>abr-jun</v>
@@ -35485,7 +35495,7 @@
       <c r="P17" s="150"/>
     </row>
     <row r="18" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="337"/>
+      <c r="A18" s="338"/>
       <c r="B18" s="164" t="str">
         <f>'[1]Hoja 02'!B16</f>
         <v>jul-sep</v>
@@ -35511,7 +35521,7 @@
       <c r="P18" s="150"/>
     </row>
     <row r="19" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="338"/>
+      <c r="A19" s="339"/>
       <c r="B19" s="165" t="str">
         <f>'[1]Hoja 02'!B17</f>
         <v>oct-dic</v>
@@ -35536,7 +35546,7 @@
       <c r="P19" s="150"/>
     </row>
     <row r="20" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="336">
+      <c r="A20" s="337">
         <f>'[1]Hoja 02'!A18</f>
         <v>2013</v>
       </c>
@@ -35563,7 +35573,7 @@
       <c r="N20" s="159"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A21" s="337"/>
+      <c r="A21" s="338"/>
       <c r="B21" s="164" t="str">
         <f>'[1]Hoja 02'!B19</f>
         <v>abr-jun</v>
@@ -35580,7 +35590,7 @@
       <c r="P21" s="150"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A22" s="337"/>
+      <c r="A22" s="338"/>
       <c r="B22" s="164" t="str">
         <f>'[1]Hoja 02'!B20</f>
         <v>jul-sep</v>
@@ -35597,7 +35607,7 @@
       <c r="P22" s="150"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A23" s="338"/>
+      <c r="A23" s="339"/>
       <c r="B23" s="165" t="str">
         <f>'[1]Hoja 02'!B21</f>
         <v>oct-dic</v>
@@ -35619,7 +35629,7 @@
       <c r="P23" s="150"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A24" s="336">
+      <c r="A24" s="337">
         <f>'[1]Hoja 02'!A22</f>
         <v>2014</v>
       </c>
@@ -35646,7 +35656,7 @@
       <c r="P24" s="150"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A25" s="337"/>
+      <c r="A25" s="338"/>
       <c r="B25" s="164" t="str">
         <f>'[1]Hoja 02'!B23</f>
         <v>abr-jun</v>
@@ -35663,7 +35673,7 @@
       <c r="P25" s="150"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A26" s="337"/>
+      <c r="A26" s="338"/>
       <c r="B26" s="164" t="str">
         <f>'[1]Hoja 02'!B24</f>
         <v>jul-sep</v>
@@ -35677,7 +35687,7 @@
       <c r="P26" s="150"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A27" s="338"/>
+      <c r="A27" s="339"/>
       <c r="B27" s="165" t="str">
         <f>'[1]Hoja 02'!B25</f>
         <v>oct-dic</v>
@@ -35691,7 +35701,7 @@
       <c r="P27" s="150"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A28" s="336">
+      <c r="A28" s="337">
         <f>'[1]Hoja 02'!A26</f>
         <v>2015</v>
       </c>
@@ -35708,7 +35718,7 @@
       <c r="P28" s="150"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A29" s="337"/>
+      <c r="A29" s="338"/>
       <c r="B29" s="164" t="str">
         <f>'[1]Hoja 02'!B27</f>
         <v>abr-jun</v>
@@ -35722,7 +35732,7 @@
       <c r="P29" s="150"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A30" s="337"/>
+      <c r="A30" s="338"/>
       <c r="B30" s="164" t="str">
         <f>'[1]Hoja 02'!B28</f>
         <v>jul-sep</v>
@@ -35735,7 +35745,7 @@
       </c>
     </row>
     <row r="31" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="339"/>
+      <c r="A31" s="340"/>
       <c r="B31" s="167" t="str">
         <f>'[1]Hoja 02'!B29</f>
         <v>oct-dic</v>
@@ -37160,7 +37170,7 @@
       <c r="P3" s="150"/>
     </row>
     <row r="4" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="336">
+      <c r="A4" s="337">
         <f>'[1]Hoja 03'!A2</f>
         <v>2010</v>
       </c>
@@ -37188,7 +37198,7 @@
       <c r="P4" s="150"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A5" s="337"/>
+      <c r="A5" s="338"/>
       <c r="B5" s="164" t="str">
         <f>'[1]Hoja 03'!B3</f>
         <v>feb-abr</v>
@@ -37213,7 +37223,7 @@
       <c r="P5" s="150"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A6" s="337"/>
+      <c r="A6" s="338"/>
       <c r="B6" s="164" t="str">
         <f>'[1]Hoja 03'!B4</f>
         <v>mar-may</v>
@@ -37238,7 +37248,7 @@
       <c r="P6" s="150"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A7" s="337"/>
+      <c r="A7" s="338"/>
       <c r="B7" s="164" t="str">
         <f>'[1]Hoja 03'!B5</f>
         <v>abr-jun</v>
@@ -37263,7 +37273,7 @@
       <c r="P7" s="150"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A8" s="337"/>
+      <c r="A8" s="338"/>
       <c r="B8" s="164" t="str">
         <f>'[1]Hoja 03'!B6</f>
         <v>may-jul</v>
@@ -37288,7 +37298,7 @@
       <c r="P8" s="150"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A9" s="337"/>
+      <c r="A9" s="338"/>
       <c r="B9" s="164" t="str">
         <f>'[1]Hoja 03'!B7</f>
         <v>jun-ago</v>
@@ -37313,7 +37323,7 @@
       <c r="P9" s="150"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A10" s="337"/>
+      <c r="A10" s="338"/>
       <c r="B10" s="164" t="str">
         <f>'[1]Hoja 03'!B8</f>
         <v>jul-sep</v>
@@ -37338,7 +37348,7 @@
       <c r="P10" s="150"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A11" s="337"/>
+      <c r="A11" s="338"/>
       <c r="B11" s="164" t="str">
         <f>'[1]Hoja 03'!B9</f>
         <v>ago-oct</v>
@@ -37363,7 +37373,7 @@
       <c r="P11" s="150"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A12" s="337"/>
+      <c r="A12" s="338"/>
       <c r="B12" s="164" t="str">
         <f>'[1]Hoja 03'!B10</f>
         <v>sep-nov</v>
@@ -37388,7 +37398,7 @@
       <c r="P12" s="150"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A13" s="337"/>
+      <c r="A13" s="338"/>
       <c r="B13" s="164" t="str">
         <f>'[1]Hoja 03'!B11</f>
         <v>oct-dic</v>
@@ -37413,7 +37423,7 @@
       <c r="P13" s="150"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A14" s="338"/>
+      <c r="A14" s="339"/>
       <c r="B14" s="165" t="str">
         <f>'[1]Hoja 03'!B12</f>
         <v>nov-ene</v>
@@ -37438,7 +37448,7 @@
       <c r="P14" s="150"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A15" s="336">
+      <c r="A15" s="337">
         <f>'[1]Hoja 03'!A13</f>
         <v>2011</v>
       </c>
@@ -37466,7 +37476,7 @@
       <c r="P15" s="150"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A16" s="337"/>
+      <c r="A16" s="338"/>
       <c r="B16" s="164" t="str">
         <f>'[1]Hoja 03'!B14</f>
         <v>ene-mar</v>
@@ -37491,7 +37501,7 @@
       <c r="P16" s="150"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A17" s="337"/>
+      <c r="A17" s="338"/>
       <c r="B17" s="164" t="str">
         <f>'[1]Hoja 03'!B15</f>
         <v>feb-abr</v>
@@ -37516,7 +37526,7 @@
       <c r="P17" s="150"/>
     </row>
     <row r="18" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="337"/>
+      <c r="A18" s="338"/>
       <c r="B18" s="164" t="str">
         <f>'[1]Hoja 03'!B16</f>
         <v>mar-may</v>
@@ -37533,7 +37543,7 @@
       <c r="P18" s="150"/>
     </row>
     <row r="19" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="337"/>
+      <c r="A19" s="338"/>
       <c r="B19" s="164" t="str">
         <f>'[1]Hoja 03'!B17</f>
         <v>abr-jun</v>
@@ -37557,7 +37567,7 @@
       <c r="P19" s="150"/>
     </row>
     <row r="20" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="337"/>
+      <c r="A20" s="338"/>
       <c r="B20" s="164" t="str">
         <f>'[1]Hoja 03'!B18</f>
         <v>may-jul</v>
@@ -37583,7 +37593,7 @@
       <c r="P20" s="150"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A21" s="337"/>
+      <c r="A21" s="338"/>
       <c r="B21" s="164" t="str">
         <f>'[1]Hoja 03'!B19</f>
         <v>jun-ago</v>
@@ -37610,7 +37620,7 @@
       <c r="P21" s="150"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A22" s="337"/>
+      <c r="A22" s="338"/>
       <c r="B22" s="164" t="str">
         <f>'[1]Hoja 03'!B20</f>
         <v>jul-sep</v>
@@ -37635,7 +37645,7 @@
       <c r="P22" s="150"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A23" s="337"/>
+      <c r="A23" s="338"/>
       <c r="B23" s="164" t="str">
         <f>'[1]Hoja 03'!B21</f>
         <v>ago-oct</v>
@@ -37660,7 +37670,7 @@
       <c r="P23" s="150"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A24" s="337"/>
+      <c r="A24" s="338"/>
       <c r="B24" s="164" t="str">
         <f>'[1]Hoja 03'!B22</f>
         <v>sep-nov</v>
@@ -37685,7 +37695,7 @@
       <c r="P24" s="150"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A25" s="337"/>
+      <c r="A25" s="338"/>
       <c r="B25" s="164" t="str">
         <f>'[1]Hoja 03'!B23</f>
         <v>oct-dic</v>
@@ -37710,7 +37720,7 @@
       <c r="P25" s="150"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A26" s="338"/>
+      <c r="A26" s="339"/>
       <c r="B26" s="165" t="str">
         <f>'[1]Hoja 03'!B24</f>
         <v>nov-ene</v>
@@ -37733,7 +37743,7 @@
       <c r="N26" s="150"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A27" s="336">
+      <c r="A27" s="337">
         <f>'[1]Hoja 03'!A25</f>
         <v>2012</v>
       </c>
@@ -37751,7 +37761,7 @@
       <c r="F27" s="267"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A28" s="337"/>
+      <c r="A28" s="338"/>
       <c r="B28" s="164" t="str">
         <f>'[1]Hoja 03'!B26</f>
         <v>ene-mar</v>
@@ -37766,7 +37776,7 @@
       <c r="F28" s="267"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A29" s="337"/>
+      <c r="A29" s="338"/>
       <c r="B29" s="164" t="str">
         <f>'[1]Hoja 03'!B27</f>
         <v>feb-abr</v>
@@ -37781,7 +37791,7 @@
       <c r="F29" s="267"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A30" s="337"/>
+      <c r="A30" s="338"/>
       <c r="B30" s="164" t="str">
         <f>'[1]Hoja 03'!B28</f>
         <v>mar-may</v>
@@ -37796,7 +37806,7 @@
       <c r="F30" s="267"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A31" s="337"/>
+      <c r="A31" s="338"/>
       <c r="B31" s="164" t="str">
         <f>'[1]Hoja 03'!B29</f>
         <v>abr-jun</v>
@@ -37811,7 +37821,7 @@
       <c r="F31" s="267"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A32" s="337"/>
+      <c r="A32" s="338"/>
       <c r="B32" s="164" t="str">
         <f>'[1]Hoja 03'!B30</f>
         <v>may-jul</v>
@@ -37826,7 +37836,7 @@
       <c r="F32" s="267"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="337"/>
+      <c r="A33" s="338"/>
       <c r="B33" s="164" t="str">
         <f>'[1]Hoja 03'!B31</f>
         <v>jun-ago</v>
@@ -37841,7 +37851,7 @@
       <c r="F33" s="267"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="337"/>
+      <c r="A34" s="338"/>
       <c r="B34" s="164" t="str">
         <f>'[1]Hoja 03'!B32</f>
         <v>jul-sep</v>
@@ -37856,7 +37866,7 @@
       <c r="F34" s="267"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="337"/>
+      <c r="A35" s="338"/>
       <c r="B35" s="164" t="str">
         <f>'[1]Hoja 03'!B33</f>
         <v>ago-oct</v>
@@ -37871,7 +37881,7 @@
       <c r="F35" s="267"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="337"/>
+      <c r="A36" s="338"/>
       <c r="B36" s="164" t="str">
         <f>'[1]Hoja 03'!B34</f>
         <v>sep-nov</v>
@@ -37886,7 +37896,7 @@
       <c r="F36" s="267"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="337"/>
+      <c r="A37" s="338"/>
       <c r="B37" s="164" t="str">
         <f>'[1]Hoja 03'!B35</f>
         <v>oct-dic</v>
@@ -37901,7 +37911,7 @@
       <c r="F37" s="267"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="338"/>
+      <c r="A38" s="339"/>
       <c r="B38" s="165" t="str">
         <f>'[1]Hoja 03'!B36</f>
         <v>nov-ene</v>
@@ -37916,7 +37926,7 @@
       <c r="F38" s="267"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="336">
+      <c r="A39" s="337">
         <f>'[1]Hoja 03'!A37</f>
         <v>2013</v>
       </c>
@@ -37934,7 +37944,7 @@
       <c r="F39" s="267"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" s="337"/>
+      <c r="A40" s="338"/>
       <c r="B40" s="164" t="str">
         <f>'[1]Hoja 03'!B38</f>
         <v>ene-mar</v>
@@ -37949,7 +37959,7 @@
       <c r="F40" s="267"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" s="337"/>
+      <c r="A41" s="338"/>
       <c r="B41" s="164" t="str">
         <f>'[1]Hoja 03'!B39</f>
         <v>feb-abr</v>
@@ -37964,7 +37974,7 @@
       <c r="F41" s="267"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" s="337"/>
+      <c r="A42" s="338"/>
       <c r="B42" s="164" t="str">
         <f>'[1]Hoja 03'!B40</f>
         <v>mar-may</v>
@@ -37979,7 +37989,7 @@
       <c r="F42" s="267"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" s="337"/>
+      <c r="A43" s="338"/>
       <c r="B43" s="164" t="str">
         <f>'[1]Hoja 03'!B41</f>
         <v>abr-jun</v>
@@ -37994,7 +38004,7 @@
       <c r="F43" s="267"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" s="337"/>
+      <c r="A44" s="338"/>
       <c r="B44" s="164" t="str">
         <f>'[1]Hoja 03'!B42</f>
         <v>may-jul</v>
@@ -38009,7 +38019,7 @@
       <c r="F44" s="267"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45" s="337"/>
+      <c r="A45" s="338"/>
       <c r="B45" s="164" t="str">
         <f>'[1]Hoja 03'!B43</f>
         <v>jun-ago</v>
@@ -38024,7 +38034,7 @@
       <c r="F45" s="267"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46" s="337"/>
+      <c r="A46" s="338"/>
       <c r="B46" s="164" t="str">
         <f>'[1]Hoja 03'!B44</f>
         <v>jul-sep</v>
@@ -38039,7 +38049,7 @@
       <c r="F46" s="267"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47" s="337"/>
+      <c r="A47" s="338"/>
       <c r="B47" s="164" t="str">
         <f>'[1]Hoja 03'!B45</f>
         <v>ago-oct</v>
@@ -38054,7 +38064,7 @@
       <c r="F47" s="267"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48" s="337"/>
+      <c r="A48" s="338"/>
       <c r="B48" s="164" t="str">
         <f>'[1]Hoja 03'!B46</f>
         <v>sep-nov</v>
@@ -38069,7 +38079,7 @@
       <c r="F48" s="267"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A49" s="337"/>
+      <c r="A49" s="338"/>
       <c r="B49" s="164" t="str">
         <f>'[1]Hoja 03'!B47</f>
         <v>oct-dic</v>
@@ -38084,7 +38094,7 @@
       <c r="F49" s="267"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A50" s="338"/>
+      <c r="A50" s="339"/>
       <c r="B50" s="165" t="str">
         <f>'[1]Hoja 03'!B48</f>
         <v>nov-ene</v>
@@ -38099,7 +38109,7 @@
       <c r="F50" s="267"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A51" s="336">
+      <c r="A51" s="337">
         <f>'[1]Hoja 03'!A49</f>
         <v>2014</v>
       </c>
@@ -38117,7 +38127,7 @@
       <c r="F51" s="267"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A52" s="337"/>
+      <c r="A52" s="338"/>
       <c r="B52" s="164" t="str">
         <f>'[1]Hoja 03'!B50</f>
         <v>ene-mar</v>
@@ -38132,7 +38142,7 @@
       <c r="F52" s="267"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A53" s="337"/>
+      <c r="A53" s="338"/>
       <c r="B53" s="164" t="str">
         <f>'[1]Hoja 03'!B51</f>
         <v>feb-abr</v>
@@ -38147,7 +38157,7 @@
       <c r="F53" s="267"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A54" s="337"/>
+      <c r="A54" s="338"/>
       <c r="B54" s="164" t="str">
         <f>'[1]Hoja 03'!B52</f>
         <v>mar-may</v>
@@ -38162,7 +38172,7 @@
       <c r="F54" s="267"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A55" s="337"/>
+      <c r="A55" s="338"/>
       <c r="B55" s="164" t="str">
         <f>'[1]Hoja 03'!B53</f>
         <v>abr-jun</v>
@@ -38177,7 +38187,7 @@
       <c r="F55" s="267"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A56" s="337"/>
+      <c r="A56" s="338"/>
       <c r="B56" s="164" t="str">
         <f>'[1]Hoja 03'!B54</f>
         <v>may-jul</v>
@@ -38192,7 +38202,7 @@
       <c r="F56" s="267"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A57" s="337"/>
+      <c r="A57" s="338"/>
       <c r="B57" s="164" t="str">
         <f>'[1]Hoja 03'!B55</f>
         <v>jun-ago</v>
@@ -38207,7 +38217,7 @@
       <c r="F57" s="267"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A58" s="337"/>
+      <c r="A58" s="338"/>
       <c r="B58" s="164" t="str">
         <f>'[1]Hoja 03'!B56</f>
         <v>jul-sep</v>
@@ -38222,7 +38232,7 @@
       <c r="F58" s="267"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A59" s="337"/>
+      <c r="A59" s="338"/>
       <c r="B59" s="164" t="str">
         <f>'[1]Hoja 03'!B57</f>
         <v>ago-oct</v>
@@ -38237,7 +38247,7 @@
       <c r="F59" s="267"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A60" s="337"/>
+      <c r="A60" s="338"/>
       <c r="B60" s="164" t="str">
         <f>'[1]Hoja 03'!B58</f>
         <v>sep-nov</v>
@@ -38252,7 +38262,7 @@
       <c r="F60" s="267"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A61" s="337"/>
+      <c r="A61" s="338"/>
       <c r="B61" s="164" t="str">
         <f>'[1]Hoja 03'!B59</f>
         <v>oct-dic</v>
@@ -38267,7 +38277,7 @@
       <c r="F61" s="267"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A62" s="338"/>
+      <c r="A62" s="339"/>
       <c r="B62" s="165" t="str">
         <f>'[1]Hoja 03'!B60</f>
         <v>nov-ene</v>
@@ -38282,7 +38292,7 @@
       <c r="F62" s="267"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A63" s="336">
+      <c r="A63" s="337">
         <f>'[1]Hoja 03'!A61</f>
         <v>2015</v>
       </c>
@@ -38300,7 +38310,7 @@
       <c r="F63" s="267"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A64" s="337"/>
+      <c r="A64" s="338"/>
       <c r="B64" s="164" t="str">
         <f>'[1]Hoja 03'!B62</f>
         <v>ene-mar</v>
@@ -38315,7 +38325,7 @@
       <c r="F64" s="267"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A65" s="337"/>
+      <c r="A65" s="338"/>
       <c r="B65" s="164" t="str">
         <f>'[1]Hoja 03'!B63</f>
         <v>feb-abr</v>
@@ -38330,7 +38340,7 @@
       <c r="F65" s="267"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A66" s="337"/>
+      <c r="A66" s="338"/>
       <c r="B66" s="164" t="str">
         <f>'[1]Hoja 03'!B64</f>
         <v>mar-may</v>
@@ -38345,7 +38355,7 @@
       <c r="F66" s="267"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A67" s="337"/>
+      <c r="A67" s="338"/>
       <c r="B67" s="164" t="str">
         <f>'[1]Hoja 03'!B65</f>
         <v>abr-jun</v>
@@ -38360,7 +38370,7 @@
       <c r="F67" s="267"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A68" s="337"/>
+      <c r="A68" s="338"/>
       <c r="B68" s="164" t="str">
         <f>'[1]Hoja 03'!B66</f>
         <v>may-jul</v>
@@ -38375,7 +38385,7 @@
       <c r="F68" s="267"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A69" s="337"/>
+      <c r="A69" s="338"/>
       <c r="B69" s="164" t="str">
         <f>'[1]Hoja 03'!B67</f>
         <v>jun-ago</v>
@@ -38390,7 +38400,7 @@
       <c r="F69" s="267"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A70" s="337"/>
+      <c r="A70" s="338"/>
       <c r="B70" s="164" t="str">
         <f>'[1]Hoja 03'!B68</f>
         <v>jul-sep</v>
@@ -38405,7 +38415,7 @@
       <c r="F70" s="267"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A71" s="337"/>
+      <c r="A71" s="338"/>
       <c r="B71" s="164" t="str">
         <f>'[1]Hoja 03'!B69</f>
         <v>ago-oct</v>
@@ -38420,7 +38430,7 @@
       <c r="F71" s="267"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A72" s="337"/>
+      <c r="A72" s="338"/>
       <c r="B72" s="164" t="str">
         <f>'[1]Hoja 03'!B70</f>
         <v>sep-nov</v>
@@ -38435,7 +38445,7 @@
       <c r="F72" s="267"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A73" s="337"/>
+      <c r="A73" s="338"/>
       <c r="B73" s="164" t="str">
         <f>'[1]Hoja 03'!B71</f>
         <v>oct-dic</v>
@@ -38472,9 +38482,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X26"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -38593,15 +38601,15 @@
       </c>
       <c r="D9" s="267"/>
       <c r="E9" s="267"/>
-      <c r="P9" s="340"/>
-      <c r="Q9" s="340"/>
-      <c r="R9" s="340"/>
-      <c r="S9" s="340"/>
-      <c r="T9" s="340"/>
-      <c r="U9" s="340"/>
-      <c r="V9" s="340"/>
-      <c r="W9" s="340"/>
-      <c r="X9" s="340"/>
+      <c r="P9" s="341"/>
+      <c r="Q9" s="341"/>
+      <c r="R9" s="341"/>
+      <c r="S9" s="341"/>
+      <c r="T9" s="341"/>
+      <c r="U9" s="341"/>
+      <c r="V9" s="341"/>
+      <c r="W9" s="341"/>
+      <c r="X9" s="341"/>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10" s="172" t="s">
@@ -39194,15 +39202,15 @@
     <row r="37" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C37" s="177"/>
       <c r="E37" s="180"/>
-      <c r="F37" s="341"/>
-      <c r="G37" s="341"/>
-      <c r="H37" s="341"/>
-      <c r="I37" s="341"/>
-      <c r="J37" s="341"/>
-      <c r="K37" s="341"/>
-      <c r="L37" s="341"/>
-      <c r="M37" s="341"/>
-      <c r="N37" s="341"/>
+      <c r="F37" s="342"/>
+      <c r="G37" s="342"/>
+      <c r="H37" s="342"/>
+      <c r="I37" s="342"/>
+      <c r="J37" s="342"/>
+      <c r="K37" s="342"/>
+      <c r="L37" s="342"/>
+      <c r="M37" s="342"/>
+      <c r="N37" s="342"/>
     </row>
     <row r="38" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C38" s="177"/>
@@ -39428,7 +39436,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N37"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -39754,7 +39764,7 @@
       <c r="P3" s="150"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A4" s="336">
+      <c r="A4" s="337">
         <v>2010</v>
       </c>
       <c r="B4" s="164" t="s">
@@ -39780,7 +39790,7 @@
       <c r="P4" s="150"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A5" s="337"/>
+      <c r="A5" s="338"/>
       <c r="B5" s="164" t="s">
         <v>265</v>
       </c>
@@ -39803,7 +39813,7 @@
       <c r="O5" s="150"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A6" s="337"/>
+      <c r="A6" s="338"/>
       <c r="B6" s="164" t="s">
         <v>266</v>
       </c>
@@ -39827,7 +39837,7 @@
       <c r="P6" s="150"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A7" s="337"/>
+      <c r="A7" s="338"/>
       <c r="B7" s="164" t="s">
         <v>258</v>
       </c>
@@ -39851,7 +39861,7 @@
       <c r="P7" s="150"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A8" s="337"/>
+      <c r="A8" s="338"/>
       <c r="B8" s="164" t="s">
         <v>267</v>
       </c>
@@ -39875,7 +39885,7 @@
       <c r="P8" s="150"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A9" s="337"/>
+      <c r="A9" s="338"/>
       <c r="B9" s="164" t="s">
         <v>268</v>
       </c>
@@ -39899,7 +39909,7 @@
       <c r="P9" s="150"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A10" s="337"/>
+      <c r="A10" s="338"/>
       <c r="B10" s="164" t="s">
         <v>259</v>
       </c>
@@ -39923,7 +39933,7 @@
       <c r="P10" s="150"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A11" s="337"/>
+      <c r="A11" s="338"/>
       <c r="B11" s="164" t="s">
         <v>269</v>
       </c>
@@ -39947,7 +39957,7 @@
       <c r="P11" s="150"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A12" s="337"/>
+      <c r="A12" s="338"/>
       <c r="B12" s="164" t="s">
         <v>270</v>
       </c>
@@ -39971,7 +39981,7 @@
       <c r="P12" s="150"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A13" s="337"/>
+      <c r="A13" s="338"/>
       <c r="B13" s="164" t="s">
         <v>260</v>
       </c>
@@ -39995,7 +40005,7 @@
       <c r="P13" s="150"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A14" s="338"/>
+      <c r="A14" s="339"/>
       <c r="B14" s="165" t="s">
         <v>271</v>
       </c>
@@ -40019,7 +40029,7 @@
       <c r="P14" s="150"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A15" s="342">
+      <c r="A15" s="343">
         <v>2011</v>
       </c>
       <c r="B15" s="185" t="s">
@@ -40045,7 +40055,7 @@
       <c r="P15" s="150"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A16" s="343"/>
+      <c r="A16" s="344"/>
       <c r="B16" s="185" t="s">
         <v>257</v>
       </c>
@@ -40069,7 +40079,7 @@
       <c r="P16" s="150"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A17" s="343"/>
+      <c r="A17" s="344"/>
       <c r="B17" s="185" t="s">
         <v>265</v>
       </c>
@@ -40093,7 +40103,7 @@
       <c r="P17" s="150"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A18" s="343"/>
+      <c r="A18" s="344"/>
       <c r="B18" s="185" t="s">
         <v>266</v>
       </c>
@@ -40108,7 +40118,7 @@
       <c r="G18" s="150"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A19" s="343"/>
+      <c r="A19" s="344"/>
       <c r="B19" s="185" t="s">
         <v>258</v>
       </c>
@@ -40123,7 +40133,7 @@
       <c r="G19" s="150"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A20" s="343"/>
+      <c r="A20" s="344"/>
       <c r="B20" s="185" t="s">
         <v>267</v>
       </c>
@@ -40138,7 +40148,7 @@
       <c r="G20" s="150"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A21" s="343"/>
+      <c r="A21" s="344"/>
       <c r="B21" s="185" t="s">
         <v>268</v>
       </c>
@@ -40153,7 +40163,7 @@
       <c r="G21" s="150"/>
     </row>
     <row r="22" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="343"/>
+      <c r="A22" s="344"/>
       <c r="B22" s="185" t="s">
         <v>259</v>
       </c>
@@ -40177,7 +40187,7 @@
       <c r="N22" s="144"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A23" s="343"/>
+      <c r="A23" s="344"/>
       <c r="B23" s="185" t="s">
         <v>269</v>
       </c>
@@ -40201,7 +40211,7 @@
       <c r="N23" s="159"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A24" s="343"/>
+      <c r="A24" s="344"/>
       <c r="B24" s="185" t="s">
         <v>270</v>
       </c>
@@ -40216,7 +40226,7 @@
       <c r="G24" s="150"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A25" s="343"/>
+      <c r="A25" s="344"/>
       <c r="B25" s="185" t="s">
         <v>260</v>
       </c>
@@ -40231,7 +40241,7 @@
       <c r="G25" s="150"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A26" s="344"/>
+      <c r="A26" s="345"/>
       <c r="B26" s="187" t="s">
         <v>271</v>
       </c>
@@ -40246,7 +40256,7 @@
       <c r="G26" s="150"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A27" s="342">
+      <c r="A27" s="343">
         <v>2012</v>
       </c>
       <c r="B27" s="185" t="s">
@@ -40263,7 +40273,7 @@
       <c r="G27" s="150"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A28" s="343"/>
+      <c r="A28" s="344"/>
       <c r="B28" s="185" t="s">
         <v>257</v>
       </c>
@@ -40278,7 +40288,7 @@
       <c r="G28" s="150"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A29" s="343"/>
+      <c r="A29" s="344"/>
       <c r="B29" s="185" t="s">
         <v>265</v>
       </c>
@@ -40293,7 +40303,7 @@
       <c r="G29" s="150"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A30" s="343"/>
+      <c r="A30" s="344"/>
       <c r="B30" s="185" t="s">
         <v>266</v>
       </c>
@@ -40308,7 +40318,7 @@
       <c r="G30" s="150"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A31" s="343"/>
+      <c r="A31" s="344"/>
       <c r="B31" s="185" t="s">
         <v>258</v>
       </c>
@@ -40323,7 +40333,7 @@
       <c r="G31" s="150"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A32" s="343"/>
+      <c r="A32" s="344"/>
       <c r="B32" s="185" t="s">
         <v>267</v>
       </c>
@@ -40338,7 +40348,7 @@
       <c r="G32" s="150"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A33" s="343"/>
+      <c r="A33" s="344"/>
       <c r="B33" s="185" t="s">
         <v>268</v>
       </c>
@@ -40353,7 +40363,7 @@
       <c r="G33" s="150"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A34" s="343"/>
+      <c r="A34" s="344"/>
       <c r="B34" s="185" t="s">
         <v>259</v>
       </c>
@@ -40368,7 +40378,7 @@
       <c r="G34" s="150"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A35" s="343"/>
+      <c r="A35" s="344"/>
       <c r="B35" s="185" t="s">
         <v>269</v>
       </c>
@@ -40383,7 +40393,7 @@
       <c r="G35" s="150"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A36" s="343"/>
+      <c r="A36" s="344"/>
       <c r="B36" s="185" t="s">
         <v>270</v>
       </c>
@@ -40407,7 +40417,7 @@
       <c r="P36" s="150"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A37" s="343"/>
+      <c r="A37" s="344"/>
       <c r="B37" s="185" t="s">
         <v>260</v>
       </c>
@@ -40431,7 +40441,7 @@
       <c r="P37" s="150"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A38" s="344"/>
+      <c r="A38" s="345"/>
       <c r="B38" s="187" t="s">
         <v>271</v>
       </c>
@@ -40455,7 +40465,7 @@
       <c r="P38" s="150"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A39" s="336">
+      <c r="A39" s="337">
         <v>2013</v>
       </c>
       <c r="B39" s="164" t="s">
@@ -40481,7 +40491,7 @@
       <c r="P39" s="150"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A40" s="337"/>
+      <c r="A40" s="338"/>
       <c r="B40" s="164" t="s">
         <v>257</v>
       </c>
@@ -40505,7 +40515,7 @@
       <c r="P40" s="150"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A41" s="337"/>
+      <c r="A41" s="338"/>
       <c r="B41" s="164" t="s">
         <v>265</v>
       </c>
@@ -40529,7 +40539,7 @@
       <c r="P41" s="150"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A42" s="337"/>
+      <c r="A42" s="338"/>
       <c r="B42" s="164" t="s">
         <v>266</v>
       </c>
@@ -40553,7 +40563,7 @@
       <c r="P42" s="150"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A43" s="337"/>
+      <c r="A43" s="338"/>
       <c r="B43" s="164" t="s">
         <v>258</v>
       </c>
@@ -40577,7 +40587,7 @@
       <c r="P43" s="150"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A44" s="337"/>
+      <c r="A44" s="338"/>
       <c r="B44" s="164" t="s">
         <v>267</v>
       </c>
@@ -40601,7 +40611,7 @@
       <c r="P44" s="150"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A45" s="337"/>
+      <c r="A45" s="338"/>
       <c r="B45" s="164" t="s">
         <v>268</v>
       </c>
@@ -40625,7 +40635,7 @@
       <c r="P45" s="150"/>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A46" s="337"/>
+      <c r="A46" s="338"/>
       <c r="B46" s="164" t="s">
         <v>259</v>
       </c>
@@ -40649,7 +40659,7 @@
       <c r="P46" s="150"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A47" s="337"/>
+      <c r="A47" s="338"/>
       <c r="B47" s="164" t="s">
         <v>269</v>
       </c>
@@ -40673,7 +40683,7 @@
       <c r="P47" s="150"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A48" s="337"/>
+      <c r="A48" s="338"/>
       <c r="B48" s="164" t="s">
         <v>270</v>
       </c>
@@ -40697,7 +40707,7 @@
       <c r="P48" s="150"/>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A49" s="337"/>
+      <c r="A49" s="338"/>
       <c r="B49" s="164" t="s">
         <v>260</v>
       </c>
@@ -40721,7 +40731,7 @@
       <c r="P49" s="150"/>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A50" s="338"/>
+      <c r="A50" s="339"/>
       <c r="B50" s="165" t="s">
         <v>271</v>
       </c>
@@ -40745,7 +40755,7 @@
       <c r="P50" s="150"/>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A51" s="336">
+      <c r="A51" s="337">
         <v>2014</v>
       </c>
       <c r="B51" s="164" t="s">
@@ -40770,7 +40780,7 @@
       <c r="O51" s="150"/>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A52" s="337"/>
+      <c r="A52" s="338"/>
       <c r="B52" s="164" t="s">
         <v>257</v>
       </c>
@@ -40784,7 +40794,7 @@
       <c r="F52" s="268"/>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A53" s="337"/>
+      <c r="A53" s="338"/>
       <c r="B53" s="164" t="s">
         <v>265</v>
       </c>
@@ -40798,7 +40808,7 @@
       <c r="F53" s="268"/>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A54" s="337"/>
+      <c r="A54" s="338"/>
       <c r="B54" s="164" t="s">
         <v>266</v>
       </c>
@@ -40812,7 +40822,7 @@
       <c r="F54" s="268"/>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A55" s="337"/>
+      <c r="A55" s="338"/>
       <c r="B55" s="164" t="s">
         <v>258</v>
       </c>
@@ -40826,7 +40836,7 @@
       <c r="F55" s="268"/>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A56" s="337"/>
+      <c r="A56" s="338"/>
       <c r="B56" s="164" t="s">
         <v>267</v>
       </c>
@@ -40840,7 +40850,7 @@
       <c r="F56" s="268"/>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A57" s="337"/>
+      <c r="A57" s="338"/>
       <c r="B57" s="164" t="s">
         <v>268</v>
       </c>
@@ -40854,7 +40864,7 @@
       <c r="F57" s="268"/>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A58" s="337"/>
+      <c r="A58" s="338"/>
       <c r="B58" s="164" t="s">
         <v>259</v>
       </c>
@@ -40868,7 +40878,7 @@
       <c r="F58" s="268"/>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A59" s="337"/>
+      <c r="A59" s="338"/>
       <c r="B59" s="164" t="s">
         <v>269</v>
       </c>
@@ -40882,7 +40892,7 @@
       <c r="F59" s="268"/>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A60" s="337"/>
+      <c r="A60" s="338"/>
       <c r="B60" s="164" t="s">
         <v>270</v>
       </c>
@@ -40896,7 +40906,7 @@
       <c r="F60" s="268"/>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A61" s="337"/>
+      <c r="A61" s="338"/>
       <c r="B61" s="164" t="s">
         <v>260</v>
       </c>
@@ -40910,7 +40920,7 @@
       <c r="F61" s="268"/>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A62" s="338"/>
+      <c r="A62" s="339"/>
       <c r="B62" s="165" t="s">
         <v>271</v>
       </c>
@@ -40924,7 +40934,7 @@
       <c r="F62" s="268"/>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A63" s="336">
+      <c r="A63" s="337">
         <v>2015</v>
       </c>
       <c r="B63" s="164" t="s">
@@ -40940,7 +40950,7 @@
       <c r="F63" s="268"/>
     </row>
     <row r="64" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="337"/>
+      <c r="A64" s="338"/>
       <c r="B64" s="164" t="s">
         <v>257</v>
       </c>
@@ -40954,7 +40964,7 @@
       <c r="F64" s="268"/>
     </row>
     <row r="65" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="337"/>
+      <c r="A65" s="338"/>
       <c r="B65" s="164" t="s">
         <v>265</v>
       </c>
@@ -40968,7 +40978,7 @@
       <c r="F65" s="268"/>
     </row>
     <row r="66" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="337"/>
+      <c r="A66" s="338"/>
       <c r="B66" s="164" t="s">
         <v>266</v>
       </c>
@@ -40982,7 +40992,7 @@
       <c r="F66" s="268"/>
     </row>
     <row r="67" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="337"/>
+      <c r="A67" s="338"/>
       <c r="B67" s="164" t="s">
         <v>258</v>
       </c>
@@ -40996,7 +41006,7 @@
       <c r="F67" s="268"/>
     </row>
     <row r="68" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="337"/>
+      <c r="A68" s="338"/>
       <c r="B68" s="164" t="s">
         <v>267</v>
       </c>
@@ -41010,7 +41020,7 @@
       <c r="F68" s="268"/>
     </row>
     <row r="69" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="337"/>
+      <c r="A69" s="338"/>
       <c r="B69" s="164" t="s">
         <v>268</v>
       </c>
@@ -41024,7 +41034,7 @@
       <c r="F69" s="268"/>
     </row>
     <row r="70" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="337"/>
+      <c r="A70" s="338"/>
       <c r="B70" s="164" t="s">
         <v>259</v>
       </c>
@@ -41038,7 +41048,7 @@
       <c r="F70" s="268"/>
     </row>
     <row r="71" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="337"/>
+      <c r="A71" s="338"/>
       <c r="B71" s="164" t="s">
         <v>269</v>
       </c>
@@ -41052,7 +41062,7 @@
       <c r="F71" s="268"/>
     </row>
     <row r="72" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="337"/>
+      <c r="A72" s="338"/>
       <c r="B72" s="164" t="s">
         <v>270</v>
       </c>
@@ -41066,7 +41076,7 @@
       <c r="F72" s="268"/>
     </row>
     <row r="73" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="337"/>
+      <c r="A73" s="338"/>
       <c r="B73" s="164" t="s">
         <v>260</v>
       </c>
@@ -41080,7 +41090,7 @@
       <c r="F73" s="268"/>
     </row>
     <row r="74" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="339"/>
+      <c r="A74" s="340"/>
       <c r="B74" s="167" t="s">
         <v>271</v>
       </c>
@@ -41125,6 +41135,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010063FB1B1D25CB0745A389690B2E2CDE7A" ma:contentTypeVersion="2" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="717befc8328f7bdf6318d82e9e4a8783">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9ed0e8e1-aabc-4adb-a3c5-52e6530bbe04" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5a3e0ec156252a05b79e2b1081ddaf85" ns2:_="">
     <xsd:import namespace="9ed0e8e1-aabc-4adb-a3c5-52e6530bbe04"/>
@@ -41272,15 +41291,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E1B02A05-038E-43EB-BB87-BC2D44E0F4BD}">
   <ds:schemaRefs>
@@ -41298,6 +41308,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84E9B3FC-BC50-47F1-889E-FFC0E53B90F3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FF39A78A-68AF-4FF2-9292-3FF7CB02F03A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -41313,12 +41331,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84E9B3FC-BC50-47F1-889E-FFC0E53B90F3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Índice de Tablas (16-01-2017).xlsx
+++ b/Índice de Tablas (16-01-2017).xlsx
@@ -70,7 +70,6 @@
     <definedName name="_ftnref1" localSheetId="5">'1.4'!#REF!</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -1420,7 +1419,7 @@
     <numFmt numFmtId="169" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
     <numFmt numFmtId="170" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
   </numFmts>
-  <fonts count="55" x14ac:knownFonts="1">
+  <fonts count="56" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -1754,6 +1753,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1770,13 +1775,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFC00000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC00000"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2157,7 +2162,7 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="24" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="169" fontId="3" fillId="0" borderId="24" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="403">
+  <cellXfs count="402">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2924,12 +2929,6 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="8" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="8" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="42" fillId="2" borderId="24" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2957,12 +2956,6 @@
     <xf numFmtId="170" fontId="0" fillId="2" borderId="3" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="8" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="8" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="8" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2970,7 +2963,22 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="8" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="8" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="24" xfId="8" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="8" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="25" xfId="8" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="24" xfId="8" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="8" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="50" fillId="2" borderId="31" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3198,13 +3206,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="8" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="24" xfId="8" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="8" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="25" xfId="8" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="55" fillId="3" borderId="24" xfId="8" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -23593,7 +23595,7 @@
       <c r="Q3" s="150"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A4" s="337">
+      <c r="A4" s="338">
         <v>2011</v>
       </c>
       <c r="B4" s="164" t="s">
@@ -23622,7 +23624,7 @@
       <c r="Q4" s="150"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A5" s="338"/>
+      <c r="A5" s="339"/>
       <c r="B5" s="164" t="s">
         <v>265</v>
       </c>
@@ -23649,7 +23651,7 @@
       <c r="Q5" s="150"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A6" s="338"/>
+      <c r="A6" s="339"/>
       <c r="B6" s="164" t="s">
         <v>266</v>
       </c>
@@ -23676,7 +23678,7 @@
       <c r="Q6" s="150"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A7" s="338"/>
+      <c r="A7" s="339"/>
       <c r="B7" s="164" t="s">
         <v>258</v>
       </c>
@@ -23703,7 +23705,7 @@
       <c r="Q7" s="150"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A8" s="338"/>
+      <c r="A8" s="339"/>
       <c r="B8" s="164" t="s">
         <v>267</v>
       </c>
@@ -23730,7 +23732,7 @@
       <c r="Q8" s="150"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A9" s="338"/>
+      <c r="A9" s="339"/>
       <c r="B9" s="164" t="s">
         <v>268</v>
       </c>
@@ -23757,7 +23759,7 @@
       <c r="Q9" s="150"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A10" s="338"/>
+      <c r="A10" s="339"/>
       <c r="B10" s="164" t="s">
         <v>259</v>
       </c>
@@ -23784,7 +23786,7 @@
       <c r="Q10" s="150"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A11" s="338"/>
+      <c r="A11" s="339"/>
       <c r="B11" s="164" t="s">
         <v>269</v>
       </c>
@@ -23811,7 +23813,7 @@
       <c r="Q11" s="150"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A12" s="338"/>
+      <c r="A12" s="339"/>
       <c r="B12" s="164" t="s">
         <v>270</v>
       </c>
@@ -23838,7 +23840,7 @@
       <c r="Q12" s="150"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A13" s="338"/>
+      <c r="A13" s="339"/>
       <c r="B13" s="164" t="s">
         <v>260</v>
       </c>
@@ -23865,7 +23867,7 @@
       <c r="Q13" s="150"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A14" s="339"/>
+      <c r="A14" s="340"/>
       <c r="B14" s="165" t="s">
         <v>271</v>
       </c>
@@ -23892,7 +23894,7 @@
       <c r="Q14" s="150"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A15" s="337">
+      <c r="A15" s="338">
         <v>2012</v>
       </c>
       <c r="B15" s="164" t="s">
@@ -23921,7 +23923,7 @@
       <c r="Q15" s="150"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A16" s="338"/>
+      <c r="A16" s="339"/>
       <c r="B16" s="164" t="s">
         <v>257</v>
       </c>
@@ -23948,7 +23950,7 @@
       <c r="Q16" s="150"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A17" s="338"/>
+      <c r="A17" s="339"/>
       <c r="B17" s="164" t="s">
         <v>265</v>
       </c>
@@ -23975,7 +23977,7 @@
       <c r="Q17" s="150"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A18" s="338"/>
+      <c r="A18" s="339"/>
       <c r="B18" s="164" t="s">
         <v>266</v>
       </c>
@@ -24002,7 +24004,7 @@
       <c r="Q18" s="150"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A19" s="338"/>
+      <c r="A19" s="339"/>
       <c r="B19" s="164" t="s">
         <v>258</v>
       </c>
@@ -24029,7 +24031,7 @@
       <c r="Q19" s="150"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A20" s="338"/>
+      <c r="A20" s="339"/>
       <c r="B20" s="164" t="s">
         <v>267</v>
       </c>
@@ -24056,7 +24058,7 @@
       <c r="Q20" s="150"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A21" s="338"/>
+      <c r="A21" s="339"/>
       <c r="B21" s="164" t="s">
         <v>268</v>
       </c>
@@ -24083,7 +24085,7 @@
       <c r="Q21" s="150"/>
     </row>
     <row r="22" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="338"/>
+      <c r="A22" s="339"/>
       <c r="B22" s="164" t="s">
         <v>259</v>
       </c>
@@ -24112,7 +24114,7 @@
       <c r="Q22" s="150"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A23" s="338"/>
+      <c r="A23" s="339"/>
       <c r="B23" s="164" t="s">
         <v>269</v>
       </c>
@@ -24141,7 +24143,7 @@
       <c r="Q23" s="150"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A24" s="338"/>
+      <c r="A24" s="339"/>
       <c r="B24" s="164" t="s">
         <v>270</v>
       </c>
@@ -24168,7 +24170,7 @@
       <c r="Q24" s="150"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A25" s="338"/>
+      <c r="A25" s="339"/>
       <c r="B25" s="164" t="s">
         <v>260</v>
       </c>
@@ -24195,7 +24197,7 @@
       <c r="Q25" s="150"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A26" s="339"/>
+      <c r="A26" s="340"/>
       <c r="B26" s="165" t="s">
         <v>271</v>
       </c>
@@ -24222,7 +24224,7 @@
       <c r="Q26" s="150"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A27" s="337">
+      <c r="A27" s="338">
         <v>2013</v>
       </c>
       <c r="B27" s="164" t="s">
@@ -24251,7 +24253,7 @@
       <c r="Q27" s="150"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A28" s="338"/>
+      <c r="A28" s="339"/>
       <c r="B28" s="164" t="s">
         <v>257</v>
       </c>
@@ -24278,7 +24280,7 @@
       <c r="Q28" s="150"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A29" s="338"/>
+      <c r="A29" s="339"/>
       <c r="B29" s="164" t="s">
         <v>265</v>
       </c>
@@ -24305,7 +24307,7 @@
       <c r="Q29" s="150"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A30" s="338"/>
+      <c r="A30" s="339"/>
       <c r="B30" s="164" t="s">
         <v>266</v>
       </c>
@@ -24332,7 +24334,7 @@
       <c r="Q30" s="150"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A31" s="338"/>
+      <c r="A31" s="339"/>
       <c r="B31" s="164" t="s">
         <v>258</v>
       </c>
@@ -24359,7 +24361,7 @@
       <c r="Q31" s="150"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A32" s="338"/>
+      <c r="A32" s="339"/>
       <c r="B32" s="164" t="s">
         <v>267</v>
       </c>
@@ -24386,7 +24388,7 @@
       <c r="Q32" s="150"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A33" s="338"/>
+      <c r="A33" s="339"/>
       <c r="B33" s="164" t="s">
         <v>268</v>
       </c>
@@ -24413,7 +24415,7 @@
       <c r="Q33" s="150"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A34" s="338"/>
+      <c r="A34" s="339"/>
       <c r="B34" s="164" t="s">
         <v>259</v>
       </c>
@@ -24440,7 +24442,7 @@
       <c r="Q34" s="150"/>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A35" s="338"/>
+      <c r="A35" s="339"/>
       <c r="B35" s="164" t="s">
         <v>269</v>
       </c>
@@ -24467,7 +24469,7 @@
       <c r="Q35" s="150"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A36" s="338"/>
+      <c r="A36" s="339"/>
       <c r="B36" s="164" t="s">
         <v>270</v>
       </c>
@@ -24494,7 +24496,7 @@
       <c r="Q36" s="150"/>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A37" s="338"/>
+      <c r="A37" s="339"/>
       <c r="B37" s="164" t="s">
         <v>260</v>
       </c>
@@ -24521,7 +24523,7 @@
       <c r="Q37" s="150"/>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A38" s="339"/>
+      <c r="A38" s="340"/>
       <c r="B38" s="165" t="s">
         <v>271</v>
       </c>
@@ -24548,7 +24550,7 @@
       <c r="Q38" s="150"/>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A39" s="337">
+      <c r="A39" s="338">
         <v>2014</v>
       </c>
       <c r="B39" s="164" t="s">
@@ -24577,7 +24579,7 @@
       <c r="Q39" s="150"/>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A40" s="338"/>
+      <c r="A40" s="339"/>
       <c r="B40" s="164" t="s">
         <v>257</v>
       </c>
@@ -24604,7 +24606,7 @@
       <c r="Q40" s="150"/>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A41" s="338"/>
+      <c r="A41" s="339"/>
       <c r="B41" s="164" t="s">
         <v>265</v>
       </c>
@@ -24631,7 +24633,7 @@
       <c r="Q41" s="150"/>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A42" s="338"/>
+      <c r="A42" s="339"/>
       <c r="B42" s="164" t="s">
         <v>266</v>
       </c>
@@ -24658,7 +24660,7 @@
       <c r="Q42" s="150"/>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A43" s="338"/>
+      <c r="A43" s="339"/>
       <c r="B43" s="164" t="s">
         <v>258</v>
       </c>
@@ -24685,7 +24687,7 @@
       <c r="Q43" s="150"/>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A44" s="338"/>
+      <c r="A44" s="339"/>
       <c r="B44" s="164" t="s">
         <v>267</v>
       </c>
@@ -24712,7 +24714,7 @@
       <c r="Q44" s="150"/>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A45" s="338"/>
+      <c r="A45" s="339"/>
       <c r="B45" s="164" t="s">
         <v>268</v>
       </c>
@@ -24739,7 +24741,7 @@
       <c r="Q45" s="150"/>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A46" s="338"/>
+      <c r="A46" s="339"/>
       <c r="B46" s="164" t="s">
         <v>259</v>
       </c>
@@ -24766,7 +24768,7 @@
       <c r="Q46" s="150"/>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A47" s="338"/>
+      <c r="A47" s="339"/>
       <c r="B47" s="164" t="s">
         <v>269</v>
       </c>
@@ -24793,7 +24795,7 @@
       <c r="Q47" s="150"/>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A48" s="338"/>
+      <c r="A48" s="339"/>
       <c r="B48" s="164" t="s">
         <v>270</v>
       </c>
@@ -24820,7 +24822,7 @@
       <c r="Q48" s="150"/>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A49" s="338"/>
+      <c r="A49" s="339"/>
       <c r="B49" s="164" t="s">
         <v>260</v>
       </c>
@@ -24847,7 +24849,7 @@
       <c r="Q49" s="150"/>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A50" s="339"/>
+      <c r="A50" s="340"/>
       <c r="B50" s="165" t="s">
         <v>271</v>
       </c>
@@ -24874,7 +24876,7 @@
       <c r="Q50" s="150"/>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A51" s="337">
+      <c r="A51" s="338">
         <v>2015</v>
       </c>
       <c r="B51" s="192" t="s">
@@ -24896,7 +24898,7 @@
       <c r="P51" s="150"/>
     </row>
     <row r="52" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="338"/>
+      <c r="A52" s="339"/>
       <c r="B52" s="193" t="s">
         <v>257</v>
       </c>
@@ -24915,7 +24917,7 @@
       <c r="O52" s="150"/>
     </row>
     <row r="53" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="338"/>
+      <c r="A53" s="339"/>
       <c r="B53" s="193" t="s">
         <v>265</v>
       </c>
@@ -24934,7 +24936,7 @@
       <c r="O53" s="150"/>
     </row>
     <row r="54" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="338"/>
+      <c r="A54" s="339"/>
       <c r="B54" s="193" t="s">
         <v>266</v>
       </c>
@@ -24953,7 +24955,7 @@
       <c r="O54" s="150"/>
     </row>
     <row r="55" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="338"/>
+      <c r="A55" s="339"/>
       <c r="B55" s="193" t="s">
         <v>258</v>
       </c>
@@ -24972,7 +24974,7 @@
       <c r="O55" s="150"/>
     </row>
     <row r="56" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="338"/>
+      <c r="A56" s="339"/>
       <c r="B56" s="193" t="s">
         <v>267</v>
       </c>
@@ -24991,7 +24993,7 @@
       <c r="O56" s="150"/>
     </row>
     <row r="57" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="338"/>
+      <c r="A57" s="339"/>
       <c r="B57" s="193" t="s">
         <v>268</v>
       </c>
@@ -25010,7 +25012,7 @@
       <c r="O57" s="150"/>
     </row>
     <row r="58" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="338"/>
+      <c r="A58" s="339"/>
       <c r="B58" s="193" t="s">
         <v>259</v>
       </c>
@@ -25029,7 +25031,7 @@
       <c r="O58" s="150"/>
     </row>
     <row r="59" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="338"/>
+      <c r="A59" s="339"/>
       <c r="B59" s="193" t="s">
         <v>269</v>
       </c>
@@ -25048,7 +25050,7 @@
       <c r="O59" s="150"/>
     </row>
     <row r="60" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="338"/>
+      <c r="A60" s="339"/>
       <c r="B60" s="193" t="s">
         <v>270</v>
       </c>
@@ -25067,7 +25069,7 @@
       <c r="M60" s="150"/>
     </row>
     <row r="61" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="340"/>
+      <c r="A61" s="341"/>
       <c r="B61" s="194" t="s">
         <v>260</v>
       </c>
@@ -25157,7 +25159,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="347">
+      <c r="A5" s="348">
         <f>[2]_01!A2</f>
         <v>2010</v>
       </c>
@@ -25179,7 +25181,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="346"/>
+      <c r="A6" s="347"/>
       <c r="B6" s="207" t="s">
         <v>265</v>
       </c>
@@ -25198,7 +25200,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="346"/>
+      <c r="A7" s="347"/>
       <c r="B7" s="207" t="s">
         <v>266</v>
       </c>
@@ -25217,7 +25219,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="346"/>
+      <c r="A8" s="347"/>
       <c r="B8" s="207" t="s">
         <v>258</v>
       </c>
@@ -25236,7 +25238,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="346"/>
+      <c r="A9" s="347"/>
       <c r="B9" s="207" t="s">
         <v>267</v>
       </c>
@@ -25255,7 +25257,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="346"/>
+      <c r="A10" s="347"/>
       <c r="B10" s="207" t="s">
         <v>268</v>
       </c>
@@ -25274,7 +25276,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="346"/>
+      <c r="A11" s="347"/>
       <c r="B11" s="207" t="s">
         <v>259</v>
       </c>
@@ -25293,7 +25295,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="346"/>
+      <c r="A12" s="347"/>
       <c r="B12" s="207" t="s">
         <v>269</v>
       </c>
@@ -25312,7 +25314,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="346"/>
+      <c r="A13" s="347"/>
       <c r="B13" s="207" t="s">
         <v>270</v>
       </c>
@@ -25331,7 +25333,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="346"/>
+      <c r="A14" s="347"/>
       <c r="B14" s="207" t="s">
         <v>260</v>
       </c>
@@ -25350,7 +25352,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="348"/>
+      <c r="A15" s="349"/>
       <c r="B15" s="207" t="s">
         <v>271</v>
       </c>
@@ -25369,7 +25371,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="346">
+      <c r="A16" s="347">
         <f>[2]_01!A13</f>
         <v>2011</v>
       </c>
@@ -25390,7 +25392,7 @@
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="346"/>
+      <c r="A17" s="347"/>
       <c r="B17" s="207" t="s">
         <v>257</v>
       </c>
@@ -25408,7 +25410,7 @@
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="346"/>
+      <c r="A18" s="347"/>
       <c r="B18" s="207" t="s">
         <v>265</v>
       </c>
@@ -25424,16 +25426,16 @@
       <c r="F18" s="208">
         <v>16.799999999999997</v>
       </c>
-      <c r="I18" s="349" t="s">
+      <c r="I18" s="350" t="s">
         <v>273</v>
       </c>
-      <c r="J18" s="349"/>
-      <c r="K18" s="349"/>
-      <c r="L18" s="349"/>
-      <c r="M18" s="349"/>
+      <c r="J18" s="350"/>
+      <c r="K18" s="350"/>
+      <c r="L18" s="350"/>
+      <c r="M18" s="350"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="346"/>
+      <c r="A19" s="347"/>
       <c r="B19" s="207" t="s">
         <v>266</v>
       </c>
@@ -25451,7 +25453,7 @@
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="346"/>
+      <c r="A20" s="347"/>
       <c r="B20" s="207" t="s">
         <v>258</v>
       </c>
@@ -25469,7 +25471,7 @@
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="346"/>
+      <c r="A21" s="347"/>
       <c r="B21" s="207" t="s">
         <v>267</v>
       </c>
@@ -25487,7 +25489,7 @@
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="346"/>
+      <c r="A22" s="347"/>
       <c r="B22" s="207" t="s">
         <v>268</v>
       </c>
@@ -25505,7 +25507,7 @@
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="346"/>
+      <c r="A23" s="347"/>
       <c r="B23" s="207" t="s">
         <v>259</v>
       </c>
@@ -25523,7 +25525,7 @@
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="346"/>
+      <c r="A24" s="347"/>
       <c r="B24" s="207" t="s">
         <v>269</v>
       </c>
@@ -25541,7 +25543,7 @@
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="346"/>
+      <c r="A25" s="347"/>
       <c r="B25" s="207" t="s">
         <v>270</v>
       </c>
@@ -25559,7 +25561,7 @@
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="346"/>
+      <c r="A26" s="347"/>
       <c r="B26" s="207" t="s">
         <v>260</v>
       </c>
@@ -25577,7 +25579,7 @@
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="348"/>
+      <c r="A27" s="349"/>
       <c r="B27" s="207" t="s">
         <v>271</v>
       </c>
@@ -25595,7 +25597,7 @@
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="346">
+      <c r="A28" s="347">
         <f>[2]_01!A25</f>
         <v>2012</v>
       </c>
@@ -25616,7 +25618,7 @@
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="346"/>
+      <c r="A29" s="347"/>
       <c r="B29" s="207" t="s">
         <v>257</v>
       </c>
@@ -25634,7 +25636,7 @@
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="346"/>
+      <c r="A30" s="347"/>
       <c r="B30" s="207" t="s">
         <v>265</v>
       </c>
@@ -25652,7 +25654,7 @@
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="346"/>
+      <c r="A31" s="347"/>
       <c r="B31" s="207" t="s">
         <v>266</v>
       </c>
@@ -25670,7 +25672,7 @@
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="346"/>
+      <c r="A32" s="347"/>
       <c r="B32" s="207" t="s">
         <v>258</v>
       </c>
@@ -25688,7 +25690,7 @@
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="346"/>
+      <c r="A33" s="347"/>
       <c r="B33" s="207" t="s">
         <v>267</v>
       </c>
@@ -25706,7 +25708,7 @@
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="346"/>
+      <c r="A34" s="347"/>
       <c r="B34" s="207" t="s">
         <v>268</v>
       </c>
@@ -25724,7 +25726,7 @@
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="346"/>
+      <c r="A35" s="347"/>
       <c r="B35" s="207" t="s">
         <v>259</v>
       </c>
@@ -25744,7 +25746,7 @@
       <c r="N35" s="212"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="346"/>
+      <c r="A36" s="347"/>
       <c r="B36" s="207" t="s">
         <v>269</v>
       </c>
@@ -25762,7 +25764,7 @@
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="346"/>
+      <c r="A37" s="347"/>
       <c r="B37" s="207" t="s">
         <v>270</v>
       </c>
@@ -25780,7 +25782,7 @@
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="346"/>
+      <c r="A38" s="347"/>
       <c r="B38" s="207" t="s">
         <v>260</v>
       </c>
@@ -25798,7 +25800,7 @@
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" s="348"/>
+      <c r="A39" s="349"/>
       <c r="B39" s="207" t="s">
         <v>271</v>
       </c>
@@ -25816,7 +25818,7 @@
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40" s="346">
+      <c r="A40" s="347">
         <f>[2]_01!A37</f>
         <v>2013</v>
       </c>
@@ -25837,7 +25839,7 @@
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41" s="346"/>
+      <c r="A41" s="347"/>
       <c r="B41" s="207" t="s">
         <v>257</v>
       </c>
@@ -25855,7 +25857,7 @@
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42" s="346"/>
+      <c r="A42" s="347"/>
       <c r="B42" s="207" t="s">
         <v>265</v>
       </c>
@@ -25874,7 +25876,7 @@
       <c r="N42" s="213"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" s="346"/>
+      <c r="A43" s="347"/>
       <c r="B43" s="207" t="s">
         <v>266</v>
       </c>
@@ -25893,7 +25895,7 @@
       <c r="N43" s="212"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44" s="346"/>
+      <c r="A44" s="347"/>
       <c r="B44" s="207" t="s">
         <v>258</v>
       </c>
@@ -25911,7 +25913,7 @@
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A45" s="346"/>
+      <c r="A45" s="347"/>
       <c r="B45" s="207" t="s">
         <v>267</v>
       </c>
@@ -25929,7 +25931,7 @@
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" s="346"/>
+      <c r="A46" s="347"/>
       <c r="B46" s="207" t="s">
         <v>268</v>
       </c>
@@ -25947,7 +25949,7 @@
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A47" s="346"/>
+      <c r="A47" s="347"/>
       <c r="B47" s="207" t="s">
         <v>259</v>
       </c>
@@ -25965,7 +25967,7 @@
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A48" s="346"/>
+      <c r="A48" s="347"/>
       <c r="B48" s="207" t="s">
         <v>269</v>
       </c>
@@ -25983,7 +25985,7 @@
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="346"/>
+      <c r="A49" s="347"/>
       <c r="B49" s="207" t="s">
         <v>270</v>
       </c>
@@ -26001,7 +26003,7 @@
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="346"/>
+      <c r="A50" s="347"/>
       <c r="B50" s="207" t="s">
         <v>260</v>
       </c>
@@ -26019,7 +26021,7 @@
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="348"/>
+      <c r="A51" s="349"/>
       <c r="B51" s="207" t="s">
         <v>271</v>
       </c>
@@ -26037,7 +26039,7 @@
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="346">
+      <c r="A52" s="347">
         <f>[2]_01!A49</f>
         <v>2014</v>
       </c>
@@ -26058,7 +26060,7 @@
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="346"/>
+      <c r="A53" s="347"/>
       <c r="B53" s="207" t="s">
         <v>257</v>
       </c>
@@ -26076,7 +26078,7 @@
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="346"/>
+      <c r="A54" s="347"/>
       <c r="B54" s="207" t="s">
         <v>265</v>
       </c>
@@ -26094,7 +26096,7 @@
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="346"/>
+      <c r="A55" s="347"/>
       <c r="B55" s="207" t="s">
         <v>266</v>
       </c>
@@ -26112,7 +26114,7 @@
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="346"/>
+      <c r="A56" s="347"/>
       <c r="B56" s="207" t="s">
         <v>258</v>
       </c>
@@ -26130,7 +26132,7 @@
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="346"/>
+      <c r="A57" s="347"/>
       <c r="B57" s="207" t="s">
         <v>267</v>
       </c>
@@ -26148,7 +26150,7 @@
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="346"/>
+      <c r="A58" s="347"/>
       <c r="B58" s="207" t="s">
         <v>268</v>
       </c>
@@ -26166,7 +26168,7 @@
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="346"/>
+      <c r="A59" s="347"/>
       <c r="B59" s="207" t="s">
         <v>259</v>
       </c>
@@ -26184,7 +26186,7 @@
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="346"/>
+      <c r="A60" s="347"/>
       <c r="B60" s="207" t="s">
         <v>269</v>
       </c>
@@ -26202,7 +26204,7 @@
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="346"/>
+      <c r="A61" s="347"/>
       <c r="B61" s="207" t="s">
         <v>270</v>
       </c>
@@ -26220,7 +26222,7 @@
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="346"/>
+      <c r="A62" s="347"/>
       <c r="B62" s="207" t="s">
         <v>260</v>
       </c>
@@ -26238,7 +26240,7 @@
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="348"/>
+      <c r="A63" s="349"/>
       <c r="B63" s="207" t="s">
         <v>271</v>
       </c>
@@ -26256,7 +26258,7 @@
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="346">
+      <c r="A64" s="347">
         <f>[2]_01!A61</f>
         <v>2015</v>
       </c>
@@ -26277,7 +26279,7 @@
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="346"/>
+      <c r="A65" s="347"/>
       <c r="B65" s="207" t="s">
         <v>257</v>
       </c>
@@ -26295,7 +26297,7 @@
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="346"/>
+      <c r="A66" s="347"/>
       <c r="B66" s="207" t="s">
         <v>265</v>
       </c>
@@ -26313,7 +26315,7 @@
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="346"/>
+      <c r="A67" s="347"/>
       <c r="B67" s="207" t="s">
         <v>266</v>
       </c>
@@ -26331,7 +26333,7 @@
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="346"/>
+      <c r="A68" s="347"/>
       <c r="B68" s="207" t="s">
         <v>258</v>
       </c>
@@ -26349,7 +26351,7 @@
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="346"/>
+      <c r="A69" s="347"/>
       <c r="B69" s="207" t="s">
         <v>267</v>
       </c>
@@ -26367,7 +26369,7 @@
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="346"/>
+      <c r="A70" s="347"/>
       <c r="B70" s="207" t="s">
         <v>268</v>
       </c>
@@ -26385,7 +26387,7 @@
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="346"/>
+      <c r="A71" s="347"/>
       <c r="B71" s="207" t="s">
         <v>259</v>
       </c>
@@ -26403,7 +26405,7 @@
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="346"/>
+      <c r="A72" s="347"/>
       <c r="B72" s="207" t="s">
         <v>269</v>
       </c>
@@ -26421,7 +26423,7 @@
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="346"/>
+      <c r="A73" s="347"/>
       <c r="B73" s="207" t="s">
         <v>270</v>
       </c>
@@ -26439,7 +26441,7 @@
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="346"/>
+      <c r="A74" s="347"/>
       <c r="B74" s="207" t="s">
         <v>260</v>
       </c>
@@ -26544,7 +26546,7 @@
       <c r="H3" s="150"/>
     </row>
     <row r="4" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="333">
+      <c r="A4" s="334">
         <f>'[1]Hoja 01'!A2</f>
         <v>2008</v>
       </c>
@@ -26559,18 +26561,18 @@
       </c>
       <c r="E4" s="268"/>
       <c r="F4" s="268"/>
-      <c r="O4" s="341"/>
-      <c r="P4" s="341"/>
-      <c r="Q4" s="341"/>
-      <c r="R4" s="341"/>
-      <c r="S4" s="341"/>
-      <c r="T4" s="341"/>
-      <c r="U4" s="341"/>
-      <c r="V4" s="341"/>
-      <c r="W4" s="341"/>
+      <c r="O4" s="342"/>
+      <c r="P4" s="342"/>
+      <c r="Q4" s="342"/>
+      <c r="R4" s="342"/>
+      <c r="S4" s="342"/>
+      <c r="T4" s="342"/>
+      <c r="U4" s="342"/>
+      <c r="V4" s="342"/>
+      <c r="W4" s="342"/>
     </row>
     <row r="5" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="334"/>
+      <c r="A5" s="335"/>
       <c r="B5" s="151" t="s">
         <v>258</v>
       </c>
@@ -26586,7 +26588,7 @@
       <c r="Q5" s="150"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A6" s="334"/>
+      <c r="A6" s="335"/>
       <c r="B6" s="151" t="s">
         <v>259</v>
       </c>
@@ -26601,7 +26603,7 @@
       <c r="Q6" s="150"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A7" s="335"/>
+      <c r="A7" s="336"/>
       <c r="B7" s="154" t="s">
         <v>260</v>
       </c>
@@ -26616,7 +26618,7 @@
       <c r="Q7" s="150"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A8" s="333">
+      <c r="A8" s="334">
         <f>'[1]Hoja 01'!A6</f>
         <v>2009</v>
       </c>
@@ -26634,7 +26636,7 @@
       <c r="Q8" s="150"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A9" s="334"/>
+      <c r="A9" s="335"/>
       <c r="B9" s="151" t="s">
         <v>258</v>
       </c>
@@ -26649,7 +26651,7 @@
       <c r="Q9" s="150"/>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A10" s="334"/>
+      <c r="A10" s="335"/>
       <c r="B10" s="151" t="s">
         <v>259</v>
       </c>
@@ -26663,7 +26665,7 @@
       <c r="F10" s="268"/>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A11" s="335"/>
+      <c r="A11" s="336"/>
       <c r="B11" s="154" t="s">
         <v>260</v>
       </c>
@@ -26677,7 +26679,7 @@
       <c r="F11" s="268"/>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A12" s="333">
+      <c r="A12" s="334">
         <f>'[1]Hoja 01'!A10</f>
         <v>2010</v>
       </c>
@@ -26694,7 +26696,7 @@
       <c r="F12" s="268"/>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A13" s="334"/>
+      <c r="A13" s="335"/>
       <c r="B13" s="151" t="s">
         <v>258</v>
       </c>
@@ -26708,7 +26710,7 @@
       <c r="F13" s="268"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A14" s="334"/>
+      <c r="A14" s="335"/>
       <c r="B14" s="151" t="s">
         <v>259</v>
       </c>
@@ -26722,7 +26724,7 @@
       <c r="F14" s="268"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A15" s="335"/>
+      <c r="A15" s="336"/>
       <c r="B15" s="154" t="s">
         <v>260</v>
       </c>
@@ -26736,7 +26738,7 @@
       <c r="F15" s="268"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A16" s="333">
+      <c r="A16" s="334">
         <f>'[1]Hoja 01'!A14</f>
         <v>2011</v>
       </c>
@@ -26753,7 +26755,7 @@
       <c r="F16" s="268"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A17" s="334"/>
+      <c r="A17" s="335"/>
       <c r="B17" s="151" t="s">
         <v>258</v>
       </c>
@@ -26767,7 +26769,7 @@
       <c r="F17" s="268"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A18" s="334"/>
+      <c r="A18" s="335"/>
       <c r="B18" s="151" t="s">
         <v>259</v>
       </c>
@@ -26781,7 +26783,7 @@
       <c r="F18" s="268"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A19" s="335"/>
+      <c r="A19" s="336"/>
       <c r="B19" s="154" t="s">
         <v>260</v>
       </c>
@@ -26803,7 +26805,7 @@
       <c r="N19" s="157"/>
     </row>
     <row r="20" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="333">
+      <c r="A20" s="334">
         <f>'[1]Hoja 01'!A18</f>
         <v>2012</v>
       </c>
@@ -26829,7 +26831,7 @@
       <c r="N20" s="157"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A21" s="334"/>
+      <c r="A21" s="335"/>
       <c r="B21" s="151" t="s">
         <v>258</v>
       </c>
@@ -26851,7 +26853,7 @@
       <c r="M21" s="159"/>
     </row>
     <row r="22" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="334"/>
+      <c r="A22" s="335"/>
       <c r="B22" s="151" t="s">
         <v>259</v>
       </c>
@@ -26873,7 +26875,7 @@
       <c r="M22" s="159"/>
     </row>
     <row r="23" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="335"/>
+      <c r="A23" s="336"/>
       <c r="B23" s="154" t="s">
         <v>260</v>
       </c>
@@ -26887,7 +26889,7 @@
       <c r="F23" s="268"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A24" s="333">
+      <c r="A24" s="334">
         <f>'[1]Hoja 01'!A22</f>
         <v>2013</v>
       </c>
@@ -26904,7 +26906,7 @@
       <c r="F24" s="268"/>
     </row>
     <row r="25" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="334"/>
+      <c r="A25" s="335"/>
       <c r="B25" s="151" t="s">
         <v>258</v>
       </c>
@@ -26918,7 +26920,7 @@
       <c r="F25" s="268"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A26" s="334"/>
+      <c r="A26" s="335"/>
       <c r="B26" s="151" t="s">
         <v>259</v>
       </c>
@@ -26932,7 +26934,7 @@
       <c r="F26" s="268"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A27" s="335"/>
+      <c r="A27" s="336"/>
       <c r="B27" s="154" t="s">
         <v>260</v>
       </c>
@@ -26946,7 +26948,7 @@
       <c r="F27" s="268"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A28" s="333">
+      <c r="A28" s="334">
         <f>'[1]Hoja 01'!A26</f>
         <v>2014</v>
       </c>
@@ -26963,7 +26965,7 @@
       <c r="F28" s="268"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A29" s="334"/>
+      <c r="A29" s="335"/>
       <c r="B29" s="151" t="s">
         <v>258</v>
       </c>
@@ -26977,7 +26979,7 @@
       <c r="F29" s="268"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A30" s="334"/>
+      <c r="A30" s="335"/>
       <c r="B30" s="151" t="s">
         <v>259</v>
       </c>
@@ -26991,7 +26993,7 @@
       <c r="F30" s="268"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A31" s="335"/>
+      <c r="A31" s="336"/>
       <c r="B31" s="154" t="s">
         <v>260</v>
       </c>
@@ -27005,7 +27007,7 @@
       <c r="F31" s="268"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A32" s="333">
+      <c r="A32" s="334">
         <f>'[1]Hoja 01'!A30</f>
         <v>2015</v>
       </c>
@@ -27022,7 +27024,7 @@
       <c r="F32" s="268"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="334"/>
+      <c r="A33" s="335"/>
       <c r="B33" s="151" t="s">
         <v>258</v>
       </c>
@@ -27036,7 +27038,7 @@
       <c r="F33" s="268"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="334"/>
+      <c r="A34" s="335"/>
       <c r="B34" s="151" t="s">
         <v>259</v>
       </c>
@@ -27050,7 +27052,7 @@
       <c r="F34" s="268"/>
     </row>
     <row r="35" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="336"/>
+      <c r="A35" s="337"/>
       <c r="B35" s="160" t="s">
         <v>260</v>
       </c>
@@ -27120,43 +27122,43 @@
       <c r="I2" s="50"/>
     </row>
     <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="350" t="s">
+      <c r="A3" s="351" t="s">
         <v>401</v>
       </c>
-      <c r="B3" s="353" t="s">
+      <c r="B3" s="354" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="353"/>
-      <c r="D3" s="353"/>
-      <c r="E3" s="353"/>
-      <c r="F3" s="353" t="s">
+      <c r="C3" s="354"/>
+      <c r="D3" s="354"/>
+      <c r="E3" s="354"/>
+      <c r="F3" s="354" t="s">
         <v>64</v>
       </c>
-      <c r="G3" s="353"/>
-      <c r="H3" s="353"/>
-      <c r="I3" s="353"/>
+      <c r="G3" s="354"/>
+      <c r="H3" s="354"/>
+      <c r="I3" s="354"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="351"/>
-      <c r="B4" s="354" t="s">
+      <c r="A4" s="352"/>
+      <c r="B4" s="355" t="s">
         <v>298</v>
       </c>
-      <c r="C4" s="354"/>
-      <c r="D4" s="354" t="s">
+      <c r="C4" s="355"/>
+      <c r="D4" s="355" t="s">
         <v>329</v>
       </c>
-      <c r="E4" s="354"/>
-      <c r="F4" s="354" t="s">
+      <c r="E4" s="355"/>
+      <c r="F4" s="355" t="s">
         <v>298</v>
       </c>
-      <c r="G4" s="354"/>
-      <c r="H4" s="354" t="s">
+      <c r="G4" s="355"/>
+      <c r="H4" s="355" t="s">
         <v>329</v>
       </c>
-      <c r="I4" s="354"/>
+      <c r="I4" s="355"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="352"/>
+      <c r="A5" s="353"/>
       <c r="B5" s="86" t="s">
         <v>397</v>
       </c>
@@ -27192,25 +27194,25 @@
       <c r="B6" s="6">
         <v>112</v>
       </c>
-      <c r="C6" s="313">
+      <c r="C6" s="311">
         <v>21</v>
       </c>
       <c r="D6" s="6">
         <v>7424</v>
       </c>
-      <c r="E6" s="313">
+      <c r="E6" s="311">
         <v>1.7</v>
       </c>
       <c r="F6" s="6">
         <v>958425</v>
       </c>
-      <c r="G6" s="313">
+      <c r="G6" s="311">
         <v>91.9</v>
       </c>
       <c r="H6" s="6">
         <v>1568168</v>
       </c>
-      <c r="I6" s="313">
+      <c r="I6" s="311">
         <v>25.1</v>
       </c>
       <c r="J6" s="220"/>
@@ -27223,25 +27225,25 @@
       <c r="B7" s="6">
         <v>66</v>
       </c>
-      <c r="C7" s="313">
+      <c r="C7" s="311">
         <v>12.4</v>
       </c>
       <c r="D7" s="6">
         <v>22770</v>
       </c>
-      <c r="E7" s="313">
+      <c r="E7" s="311">
         <v>5.2</v>
       </c>
       <c r="F7" s="6">
         <v>61419</v>
       </c>
-      <c r="G7" s="313">
+      <c r="G7" s="311">
         <v>5.9</v>
       </c>
       <c r="H7" s="6">
         <v>1133262</v>
       </c>
-      <c r="I7" s="313">
+      <c r="I7" s="311">
         <v>18.2</v>
       </c>
     </row>
@@ -27252,25 +27254,25 @@
       <c r="B8" s="6">
         <v>107</v>
       </c>
-      <c r="C8" s="313">
+      <c r="C8" s="311">
         <v>20.100000000000001</v>
       </c>
       <c r="D8" s="6">
         <v>39347</v>
       </c>
-      <c r="E8" s="313">
+      <c r="E8" s="311">
         <v>8.9</v>
       </c>
       <c r="F8" s="6">
         <v>16354</v>
       </c>
-      <c r="G8" s="313">
+      <c r="G8" s="311">
         <v>1.6</v>
       </c>
       <c r="H8" s="6">
         <v>890136</v>
       </c>
-      <c r="I8" s="313">
+      <c r="I8" s="311">
         <v>14.3</v>
       </c>
       <c r="J8" s="220"/>
@@ -27306,7 +27308,7 @@
       </c>
     </row>
     <row r="10" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="315" t="s">
+      <c r="A10" s="313" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="58">
@@ -27420,57 +27422,57 @@
       </c>
     </row>
     <row r="2" spans="1:15" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="357"/>
-      <c r="B2" s="357"/>
-      <c r="C2" s="357"/>
-      <c r="D2" s="357"/>
-      <c r="E2" s="357"/>
-      <c r="F2" s="357"/>
-      <c r="G2" s="357"/>
-      <c r="H2" s="357"/>
-      <c r="I2" s="357"/>
-      <c r="J2" s="314"/>
+      <c r="A2" s="358"/>
+      <c r="B2" s="358"/>
+      <c r="C2" s="358"/>
+      <c r="D2" s="358"/>
+      <c r="E2" s="358"/>
+      <c r="F2" s="358"/>
+      <c r="G2" s="358"/>
+      <c r="H2" s="358"/>
+      <c r="I2" s="358"/>
+      <c r="J2" s="312"/>
     </row>
     <row r="3" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="350" t="s">
+      <c r="A3" s="351" t="s">
         <v>401</v>
       </c>
-      <c r="B3" s="353" t="s">
+      <c r="B3" s="354" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="353"/>
-      <c r="D3" s="353"/>
-      <c r="E3" s="353"/>
-      <c r="F3" s="353" t="s">
+      <c r="C3" s="354"/>
+      <c r="D3" s="354"/>
+      <c r="E3" s="354"/>
+      <c r="F3" s="354" t="s">
         <v>64</v>
       </c>
-      <c r="G3" s="353"/>
-      <c r="H3" s="353"/>
-      <c r="I3" s="353"/>
+      <c r="G3" s="354"/>
+      <c r="H3" s="354"/>
+      <c r="I3" s="354"/>
       <c r="J3" s="195"/>
     </row>
     <row r="4" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="351"/>
-      <c r="B4" s="354" t="s">
+      <c r="A4" s="352"/>
+      <c r="B4" s="355" t="s">
         <v>298</v>
       </c>
-      <c r="C4" s="354"/>
-      <c r="D4" s="354" t="s">
+      <c r="C4" s="355"/>
+      <c r="D4" s="355" t="s">
         <v>329</v>
       </c>
-      <c r="E4" s="354"/>
-      <c r="F4" s="354" t="s">
+      <c r="E4" s="355"/>
+      <c r="F4" s="355" t="s">
         <v>298</v>
       </c>
-      <c r="G4" s="354"/>
-      <c r="H4" s="354" t="s">
+      <c r="G4" s="355"/>
+      <c r="H4" s="355" t="s">
         <v>329</v>
       </c>
-      <c r="I4" s="354"/>
+      <c r="I4" s="355"/>
       <c r="J4" s="195"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="352"/>
+      <c r="A5" s="353"/>
       <c r="B5" s="86" t="s">
         <v>397</v>
       </c>
@@ -27504,26 +27506,26 @@
       <c r="B6" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="312"/>
+      <c r="C6" s="310"/>
       <c r="D6" s="6">
         <v>540</v>
       </c>
-      <c r="E6" s="313">
+      <c r="E6" s="311">
         <v>0.1</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="G6" s="313" t="s">
+      <c r="G6" s="311" t="s">
         <v>45</v>
       </c>
       <c r="H6" s="6">
         <v>1340178</v>
       </c>
-      <c r="I6" s="313">
+      <c r="I6" s="311">
         <v>17.7</v>
       </c>
-      <c r="J6" s="312"/>
+      <c r="J6" s="310"/>
       <c r="L6" s="6"/>
       <c r="M6" s="6"/>
       <c r="N6" s="6"/>
@@ -27536,28 +27538,28 @@
       <c r="B7" s="6">
         <v>112</v>
       </c>
-      <c r="C7" s="313">
+      <c r="C7" s="311">
         <v>21</v>
       </c>
       <c r="D7" s="6">
         <v>7424</v>
       </c>
-      <c r="E7" s="313">
+      <c r="E7" s="311">
         <v>1.7</v>
       </c>
       <c r="F7" s="6">
         <v>958425</v>
       </c>
-      <c r="G7" s="313">
+      <c r="G7" s="311">
         <v>91.9</v>
       </c>
       <c r="H7" s="6">
         <v>1568168</v>
       </c>
-      <c r="I7" s="313">
+      <c r="I7" s="311">
         <v>20.7</v>
       </c>
-      <c r="J7" s="312"/>
+      <c r="J7" s="310"/>
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
       <c r="N7" s="6"/>
@@ -27570,28 +27572,28 @@
       <c r="B8" s="6">
         <v>66</v>
       </c>
-      <c r="C8" s="313">
+      <c r="C8" s="311">
         <v>12.4</v>
       </c>
       <c r="D8" s="6">
         <v>22770</v>
       </c>
-      <c r="E8" s="313">
+      <c r="E8" s="311">
         <v>5.0999999999999996</v>
       </c>
       <c r="F8" s="6">
         <v>61419</v>
       </c>
-      <c r="G8" s="313">
+      <c r="G8" s="311">
         <v>5.9</v>
       </c>
       <c r="H8" s="6">
         <v>1133262</v>
       </c>
-      <c r="I8" s="313">
+      <c r="I8" s="311">
         <v>15</v>
       </c>
-      <c r="J8" s="312"/>
+      <c r="J8" s="310"/>
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
       <c r="N8" s="6"/>
@@ -27604,28 +27606,28 @@
       <c r="B9" s="6">
         <v>107</v>
       </c>
-      <c r="C9" s="313">
+      <c r="C9" s="311">
         <v>20.100000000000001</v>
       </c>
       <c r="D9" s="6">
         <v>39347</v>
       </c>
-      <c r="E9" s="313">
+      <c r="E9" s="311">
         <v>8.9</v>
       </c>
       <c r="F9" s="6">
         <v>16354</v>
       </c>
-      <c r="G9" s="313">
+      <c r="G9" s="311">
         <v>1.6</v>
       </c>
       <c r="H9" s="6">
         <v>890136</v>
       </c>
-      <c r="I9" s="313">
+      <c r="I9" s="311">
         <v>11.7</v>
       </c>
-      <c r="J9" s="312"/>
+      <c r="J9" s="310"/>
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
       <c r="N9" s="6"/>
@@ -27659,14 +27661,14 @@
       <c r="I10" s="219">
         <v>34.9</v>
       </c>
-      <c r="J10" s="312"/>
+      <c r="J10" s="310"/>
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
       <c r="N10" s="6"/>
       <c r="O10" s="6"/>
     </row>
     <row r="11" spans="1:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="315" t="s">
+      <c r="A11" s="313" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="58">
@@ -27693,24 +27695,24 @@
       <c r="I11" s="58">
         <v>100</v>
       </c>
-      <c r="J11" s="312"/>
+      <c r="J11" s="310"/>
       <c r="L11" s="6"/>
       <c r="M11" s="6"/>
       <c r="N11" s="6"/>
       <c r="O11" s="6"/>
     </row>
     <row r="12" spans="1:15" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="355" t="s">
+      <c r="A12" s="356" t="s">
         <v>195</v>
       </c>
-      <c r="B12" s="355"/>
-      <c r="C12" s="356"/>
-      <c r="D12" s="355"/>
-      <c r="E12" s="356"/>
-      <c r="F12" s="355"/>
-      <c r="G12" s="356"/>
-      <c r="H12" s="356"/>
-      <c r="I12" s="355"/>
+      <c r="B12" s="356"/>
+      <c r="C12" s="357"/>
+      <c r="D12" s="356"/>
+      <c r="E12" s="357"/>
+      <c r="F12" s="356"/>
+      <c r="G12" s="357"/>
+      <c r="H12" s="357"/>
+      <c r="I12" s="356"/>
       <c r="J12" s="274"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
@@ -27955,15 +27957,15 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="358" t="s">
+      <c r="A10" s="359" t="s">
         <v>403</v>
       </c>
-      <c r="B10" s="358"/>
-      <c r="C10" s="358"/>
-      <c r="D10" s="358"/>
-      <c r="E10" s="358"/>
-      <c r="F10" s="358"/>
-      <c r="G10" s="358"/>
+      <c r="B10" s="359"/>
+      <c r="C10" s="359"/>
+      <c r="D10" s="359"/>
+      <c r="E10" s="359"/>
+      <c r="F10" s="359"/>
+      <c r="G10" s="359"/>
     </row>
     <row r="11" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
@@ -27972,13 +27974,13 @@
       <c r="B11" s="271"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="359" t="s">
+      <c r="A12" s="360" t="s">
         <v>273</v>
       </c>
-      <c r="B12" s="359"/>
-      <c r="C12" s="359"/>
-      <c r="D12" s="359"/>
-      <c r="E12" s="359"/>
+      <c r="B12" s="360"/>
+      <c r="C12" s="360"/>
+      <c r="D12" s="360"/>
+      <c r="E12" s="360"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -28416,15 +28418,15 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="358" t="s">
+      <c r="A20" s="359" t="s">
         <v>403</v>
       </c>
-      <c r="B20" s="358"/>
-      <c r="C20" s="358"/>
-      <c r="D20" s="358"/>
-      <c r="E20" s="358"/>
-      <c r="F20" s="358"/>
-      <c r="G20" s="358"/>
+      <c r="B20" s="359"/>
+      <c r="C20" s="359"/>
+      <c r="D20" s="359"/>
+      <c r="E20" s="359"/>
+      <c r="F20" s="359"/>
+      <c r="G20" s="359"/>
     </row>
     <row r="21" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="17" t="s">
@@ -28433,13 +28435,13 @@
       <c r="B21" s="271"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="359" t="s">
+      <c r="A22" s="360" t="s">
         <v>273</v>
       </c>
-      <c r="B22" s="359"/>
-      <c r="C22" s="359"/>
-      <c r="D22" s="359"/>
-      <c r="E22" s="359"/>
+      <c r="B22" s="360"/>
+      <c r="C22" s="360"/>
+      <c r="D22" s="360"/>
+      <c r="E22" s="360"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -28484,20 +28486,20 @@
       <c r="F2" s="222"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="360" t="s">
+      <c r="A3" s="361" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="362" t="s">
+      <c r="B3" s="363" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="362"/>
-      <c r="D3" s="362"/>
-      <c r="E3" s="362"/>
-      <c r="F3" s="362"/>
-      <c r="G3" s="362"/>
+      <c r="C3" s="363"/>
+      <c r="D3" s="363"/>
+      <c r="E3" s="363"/>
+      <c r="F3" s="363"/>
+      <c r="G3" s="363"/>
     </row>
     <row r="4" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="361"/>
+      <c r="A4" s="362"/>
       <c r="B4" s="277" t="s">
         <v>287</v>
       </c>
@@ -28661,15 +28663,15 @@
       </c>
     </row>
     <row r="11" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="359" t="s">
+      <c r="A11" s="360" t="s">
         <v>402</v>
       </c>
-      <c r="B11" s="359"/>
-      <c r="C11" s="359"/>
-      <c r="D11" s="359"/>
-      <c r="E11" s="359"/>
-      <c r="F11" s="359"/>
-      <c r="G11" s="359"/>
+      <c r="B11" s="360"/>
+      <c r="C11" s="360"/>
+      <c r="D11" s="360"/>
+      <c r="E11" s="360"/>
+      <c r="F11" s="360"/>
+      <c r="G11" s="360"/>
     </row>
     <row r="12" spans="1:13" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
@@ -28678,24 +28680,24 @@
       <c r="B12" s="271"/>
     </row>
     <row r="13" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="359" t="s">
+      <c r="A13" s="360" t="s">
         <v>399</v>
       </c>
-      <c r="B13" s="359"/>
-      <c r="C13" s="359"/>
-      <c r="D13" s="359"/>
-      <c r="E13" s="359"/>
-      <c r="F13" s="359"/>
-      <c r="G13" s="359"/>
+      <c r="B13" s="360"/>
+      <c r="C13" s="360"/>
+      <c r="D13" s="360"/>
+      <c r="E13" s="360"/>
+      <c r="F13" s="360"/>
+      <c r="G13" s="360"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="359" t="s">
+      <c r="A14" s="360" t="s">
         <v>273</v>
       </c>
-      <c r="B14" s="359"/>
-      <c r="C14" s="359"/>
-      <c r="D14" s="359"/>
-      <c r="E14" s="359"/>
+      <c r="B14" s="360"/>
+      <c r="C14" s="360"/>
+      <c r="D14" s="360"/>
+      <c r="E14" s="360"/>
     </row>
     <row r="15" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
@@ -28745,28 +28747,28 @@
       <c r="G2" s="222"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="360" t="s">
+      <c r="A3" s="361" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="360" t="s">
+      <c r="B3" s="361" t="s">
         <v>107</v>
       </c>
-      <c r="C3" s="360" t="s">
+      <c r="C3" s="361" t="s">
         <v>121</v>
       </c>
-      <c r="D3" s="360" t="s">
+      <c r="D3" s="361" t="s">
         <v>280</v>
       </c>
-      <c r="E3" s="360"/>
-      <c r="F3" s="360"/>
-      <c r="G3" s="363" t="s">
+      <c r="E3" s="361"/>
+      <c r="F3" s="361"/>
+      <c r="G3" s="364" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="361"/>
-      <c r="B4" s="361"/>
-      <c r="C4" s="361"/>
+      <c r="A4" s="362"/>
+      <c r="B4" s="362"/>
+      <c r="C4" s="362"/>
       <c r="D4" s="234" t="s">
         <v>281</v>
       </c>
@@ -28776,7 +28778,7 @@
       <c r="F4" s="234" t="s">
         <v>126</v>
       </c>
-      <c r="G4" s="361"/>
+      <c r="G4" s="362"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="221" t="s">
@@ -28921,15 +28923,15 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="359" t="s">
+      <c r="A11" s="360" t="s">
         <v>403</v>
       </c>
-      <c r="B11" s="359"/>
-      <c r="C11" s="359"/>
-      <c r="D11" s="359"/>
-      <c r="E11" s="359"/>
-      <c r="F11" s="359"/>
-      <c r="G11" s="359"/>
+      <c r="B11" s="360"/>
+      <c r="C11" s="360"/>
+      <c r="D11" s="360"/>
+      <c r="E11" s="360"/>
+      <c r="F11" s="360"/>
+      <c r="G11" s="360"/>
     </row>
     <row r="12" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
@@ -28938,13 +28940,13 @@
       <c r="B12" s="271"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="359" t="s">
+      <c r="A13" s="360" t="s">
         <v>273</v>
       </c>
-      <c r="B13" s="359"/>
-      <c r="C13" s="359"/>
-      <c r="D13" s="359"/>
-      <c r="E13" s="359"/>
+      <c r="B13" s="360"/>
+      <c r="C13" s="360"/>
+      <c r="D13" s="360"/>
+      <c r="E13" s="360"/>
       <c r="G13" s="236"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -29013,28 +29015,28 @@
       <c r="G2" s="222"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="360" t="s">
+      <c r="A3" s="361" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="360" t="s">
+      <c r="B3" s="361" t="s">
         <v>107</v>
       </c>
-      <c r="C3" s="360" t="s">
+      <c r="C3" s="361" t="s">
         <v>121</v>
       </c>
-      <c r="D3" s="360" t="s">
+      <c r="D3" s="361" t="s">
         <v>280</v>
       </c>
-      <c r="E3" s="360"/>
-      <c r="F3" s="360"/>
-      <c r="G3" s="360" t="s">
+      <c r="E3" s="361"/>
+      <c r="F3" s="361"/>
+      <c r="G3" s="361" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="361"/>
-      <c r="B4" s="361"/>
-      <c r="C4" s="361"/>
+      <c r="A4" s="362"/>
+      <c r="B4" s="362"/>
+      <c r="C4" s="362"/>
       <c r="D4" s="234" t="s">
         <v>281</v>
       </c>
@@ -29044,28 +29046,28 @@
       <c r="F4" s="234" t="s">
         <v>126</v>
       </c>
-      <c r="G4" s="361"/>
+      <c r="G4" s="362"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="221" t="s">
         <v>278</v>
       </c>
-      <c r="B5" s="316">
+      <c r="B5" s="314">
         <v>508089</v>
       </c>
-      <c r="C5" s="316">
+      <c r="C5" s="314">
         <v>301675</v>
       </c>
-      <c r="D5" s="316">
+      <c r="D5" s="314">
         <v>400404</v>
       </c>
-      <c r="E5" s="316">
+      <c r="E5" s="314">
         <v>305706</v>
       </c>
-      <c r="F5" s="316">
+      <c r="F5" s="314">
         <v>256890</v>
       </c>
-      <c r="G5" s="316">
+      <c r="G5" s="314">
         <v>432898</v>
       </c>
     </row>
@@ -29073,22 +29075,22 @@
       <c r="A6" s="221" t="s">
         <v>279</v>
       </c>
-      <c r="B6" s="317">
+      <c r="B6" s="315">
         <v>508089</v>
       </c>
-      <c r="C6" s="317">
+      <c r="C6" s="315">
         <v>301675</v>
       </c>
-      <c r="D6" s="317">
+      <c r="D6" s="315">
         <v>400404</v>
       </c>
-      <c r="E6" s="317">
+      <c r="E6" s="315">
         <v>305706</v>
       </c>
-      <c r="F6" s="317">
+      <c r="F6" s="315">
         <v>256890</v>
       </c>
-      <c r="G6" s="317">
+      <c r="G6" s="315">
         <v>432898</v>
       </c>
     </row>
@@ -29096,22 +29098,22 @@
       <c r="A7" s="221" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="317">
+      <c r="B7" s="315">
         <v>508089</v>
       </c>
-      <c r="C7" s="317">
+      <c r="C7" s="315">
         <v>301675</v>
       </c>
-      <c r="D7" s="317">
+      <c r="D7" s="315">
         <v>400404</v>
       </c>
-      <c r="E7" s="317">
+      <c r="E7" s="315">
         <v>305706</v>
       </c>
-      <c r="F7" s="317">
+      <c r="F7" s="315">
         <v>256890</v>
       </c>
-      <c r="G7" s="317">
+      <c r="G7" s="315">
         <v>432898</v>
       </c>
     </row>
@@ -29119,22 +29121,22 @@
       <c r="A8" s="221" t="s">
         <v>50</v>
       </c>
-      <c r="B8" s="317">
+      <c r="B8" s="315">
         <v>508089</v>
       </c>
-      <c r="C8" s="317">
+      <c r="C8" s="315">
         <v>301675</v>
       </c>
-      <c r="D8" s="317">
+      <c r="D8" s="315">
         <v>400404</v>
       </c>
-      <c r="E8" s="317">
+      <c r="E8" s="315">
         <v>305706</v>
       </c>
-      <c r="F8" s="317">
+      <c r="F8" s="315">
         <v>256890</v>
       </c>
-      <c r="G8" s="317">
+      <c r="G8" s="315">
         <v>432898</v>
       </c>
     </row>
@@ -29165,35 +29167,35 @@
       <c r="A10" s="222" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="318">
+      <c r="B10" s="316">
         <v>508089</v>
       </c>
-      <c r="C10" s="318">
+      <c r="C10" s="316">
         <v>301675</v>
       </c>
-      <c r="D10" s="318">
+      <c r="D10" s="316">
         <v>400404</v>
       </c>
-      <c r="E10" s="318">
+      <c r="E10" s="316">
         <v>305706</v>
       </c>
-      <c r="F10" s="318">
+      <c r="F10" s="316">
         <v>256890</v>
       </c>
-      <c r="G10" s="318">
+      <c r="G10" s="316">
         <v>432898</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="359" t="s">
+      <c r="A11" s="360" t="s">
         <v>403</v>
       </c>
-      <c r="B11" s="359"/>
-      <c r="C11" s="359"/>
-      <c r="D11" s="359"/>
-      <c r="E11" s="359"/>
-      <c r="F11" s="359"/>
-      <c r="G11" s="359"/>
+      <c r="B11" s="360"/>
+      <c r="C11" s="360"/>
+      <c r="D11" s="360"/>
+      <c r="E11" s="360"/>
+      <c r="F11" s="360"/>
+      <c r="G11" s="360"/>
     </row>
     <row r="12" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
@@ -29202,13 +29204,13 @@
       <c r="B12" s="271"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="359" t="s">
+      <c r="A13" s="360" t="s">
         <v>331</v>
       </c>
-      <c r="B13" s="359"/>
-      <c r="C13" s="359"/>
-      <c r="D13" s="359"/>
-      <c r="E13" s="359"/>
+      <c r="B13" s="360"/>
+      <c r="C13" s="360"/>
+      <c r="D13" s="360"/>
+      <c r="E13" s="360"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -29228,8 +29230,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AV45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29249,13 +29251,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="248.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="331" t="s">
+      <c r="B1" s="332" t="s">
         <v>382</v>
       </c>
-      <c r="C1" s="331"/>
-      <c r="D1" s="331"/>
-      <c r="E1" s="331"/>
-      <c r="F1" s="331"/>
+      <c r="C1" s="332"/>
+      <c r="D1" s="332"/>
+      <c r="E1" s="332"/>
+      <c r="F1" s="332"/>
     </row>
     <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D2" s="258"/>
@@ -29263,10 +29265,10 @@
     </row>
     <row r="3" spans="1:12" s="240" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="256"/>
-      <c r="B3" s="332" t="s">
+      <c r="B3" s="333" t="s">
         <v>294</v>
       </c>
-      <c r="C3" s="332"/>
+      <c r="C3" s="333"/>
       <c r="D3" s="259" t="s">
         <v>295</v>
       </c>
@@ -29283,17 +29285,17 @@
     </row>
     <row r="4" spans="1:12" s="240" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="256"/>
-      <c r="B4" s="325" t="s">
+      <c r="B4" s="326" t="s">
         <v>314</v>
       </c>
-      <c r="C4" s="326"/>
-      <c r="D4" s="401" t="s">
+      <c r="C4" s="327"/>
+      <c r="D4" s="325" t="s">
         <v>186</v>
       </c>
       <c r="E4" s="260" t="s">
         <v>348</v>
       </c>
-      <c r="F4" s="257"/>
+      <c r="F4" s="320"/>
       <c r="G4" s="257"/>
       <c r="H4" s="257"/>
       <c r="I4" s="257"/>
@@ -29303,8 +29305,8 @@
     </row>
     <row r="5" spans="1:12" s="240" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="256"/>
-      <c r="B5" s="329"/>
-      <c r="C5" s="330"/>
+      <c r="B5" s="330"/>
+      <c r="C5" s="331"/>
       <c r="D5" s="261" t="s">
         <v>187</v>
       </c>
@@ -29321,15 +29323,15 @@
     </row>
     <row r="6" spans="1:12" s="240" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="256"/>
-      <c r="B6" s="329"/>
-      <c r="C6" s="330"/>
-      <c r="D6" s="400" t="s">
+      <c r="B6" s="330"/>
+      <c r="C6" s="331"/>
+      <c r="D6" s="324" t="s">
         <v>188</v>
       </c>
       <c r="E6" s="262" t="s">
         <v>350</v>
       </c>
-      <c r="F6" s="257"/>
+      <c r="F6" s="320"/>
       <c r="G6" s="257"/>
       <c r="H6" s="257"/>
       <c r="I6" s="257"/>
@@ -29339,8 +29341,8 @@
     </row>
     <row r="7" spans="1:12" s="240" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="256"/>
-      <c r="B7" s="329"/>
-      <c r="C7" s="330"/>
+      <c r="B7" s="330"/>
+      <c r="C7" s="331"/>
       <c r="D7" s="261" t="s">
         <v>189</v>
       </c>
@@ -29357,12 +29359,12 @@
     </row>
     <row r="8" spans="1:12" s="240" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="256"/>
-      <c r="B8" s="329"/>
-      <c r="C8" s="330"/>
+      <c r="B8" s="330"/>
+      <c r="C8" s="331"/>
       <c r="D8" s="261" t="s">
         <v>190</v>
       </c>
-      <c r="E8" s="311" t="s">
+      <c r="E8" s="309" t="s">
         <v>387</v>
       </c>
       <c r="F8" s="257"/>
@@ -29375,15 +29377,15 @@
     </row>
     <row r="9" spans="1:12" s="240" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="256"/>
-      <c r="B9" s="329"/>
-      <c r="C9" s="330"/>
-      <c r="D9" s="400" t="s">
+      <c r="B9" s="330"/>
+      <c r="C9" s="331"/>
+      <c r="D9" s="324" t="s">
         <v>191</v>
       </c>
-      <c r="E9" s="311" t="s">
+      <c r="E9" s="309" t="s">
         <v>389</v>
       </c>
-      <c r="F9" s="257"/>
+      <c r="F9" s="320"/>
       <c r="G9" s="257"/>
       <c r="H9" s="257"/>
       <c r="I9" s="257"/>
@@ -29393,15 +29395,15 @@
     </row>
     <row r="10" spans="1:12" s="240" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="256"/>
-      <c r="B10" s="329"/>
-      <c r="C10" s="330"/>
-      <c r="D10" s="309" t="s">
+      <c r="B10" s="330"/>
+      <c r="C10" s="331"/>
+      <c r="D10" s="324" t="s">
         <v>192</v>
       </c>
       <c r="E10" s="262" t="s">
         <v>352</v>
       </c>
-      <c r="F10" s="257"/>
+      <c r="F10" s="320"/>
       <c r="G10" s="257"/>
       <c r="H10" s="257"/>
       <c r="I10" s="257"/>
@@ -29411,8 +29413,8 @@
     </row>
     <row r="11" spans="1:12" s="240" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="256"/>
-      <c r="B11" s="329"/>
-      <c r="C11" s="330"/>
+      <c r="B11" s="330"/>
+      <c r="C11" s="331"/>
       <c r="D11" s="261" t="s">
         <v>193</v>
       </c>
@@ -29429,15 +29431,15 @@
     </row>
     <row r="12" spans="1:12" s="240" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="256"/>
-      <c r="B12" s="329"/>
-      <c r="C12" s="330"/>
-      <c r="D12" s="309" t="s">
+      <c r="B12" s="330"/>
+      <c r="C12" s="331"/>
+      <c r="D12" s="324" t="s">
         <v>296</v>
       </c>
-      <c r="E12" s="311" t="s">
+      <c r="E12" s="309" t="s">
         <v>396</v>
       </c>
-      <c r="F12" s="257"/>
+      <c r="F12" s="320"/>
       <c r="G12" s="257"/>
       <c r="H12" s="257"/>
       <c r="I12" s="257"/>
@@ -29447,8 +29449,8 @@
     </row>
     <row r="13" spans="1:12" s="240" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="256"/>
-      <c r="B13" s="327"/>
-      <c r="C13" s="328"/>
+      <c r="B13" s="328"/>
+      <c r="C13" s="329"/>
       <c r="D13" s="300" t="s">
         <v>297</v>
       </c>
@@ -29479,10 +29481,10 @@
     </row>
     <row r="15" spans="1:12" s="240" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="256"/>
-      <c r="B15" s="325" t="s">
+      <c r="B15" s="326" t="s">
         <v>298</v>
       </c>
-      <c r="C15" s="326"/>
+      <c r="C15" s="327"/>
       <c r="D15" s="263" t="s">
         <v>200</v>
       </c>
@@ -29499,15 +29501,15 @@
     </row>
     <row r="16" spans="1:12" s="240" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="256"/>
-      <c r="B16" s="329"/>
-      <c r="C16" s="330"/>
-      <c r="D16" s="309" t="s">
+      <c r="B16" s="330"/>
+      <c r="C16" s="331"/>
+      <c r="D16" s="324" t="s">
         <v>299</v>
       </c>
       <c r="E16" s="262" t="s">
         <v>196</v>
       </c>
-      <c r="F16" s="257"/>
+      <c r="F16" s="320"/>
       <c r="G16" s="257"/>
       <c r="H16" s="257"/>
       <c r="I16" s="257"/>
@@ -29517,8 +29519,8 @@
     </row>
     <row r="17" spans="1:12" s="240" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="256"/>
-      <c r="B17" s="329"/>
-      <c r="C17" s="330"/>
+      <c r="B17" s="330"/>
+      <c r="C17" s="331"/>
       <c r="D17" s="261" t="s">
         <v>300</v>
       </c>
@@ -29535,8 +29537,8 @@
     </row>
     <row r="18" spans="1:12" s="240" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="256"/>
-      <c r="B18" s="329"/>
-      <c r="C18" s="330"/>
+      <c r="B18" s="330"/>
+      <c r="C18" s="331"/>
       <c r="D18" s="261" t="s">
         <v>301</v>
       </c>
@@ -29553,15 +29555,15 @@
     </row>
     <row r="19" spans="1:12" s="240" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="256"/>
-      <c r="B19" s="329"/>
-      <c r="C19" s="330"/>
-      <c r="D19" s="400" t="s">
+      <c r="B19" s="330"/>
+      <c r="C19" s="331"/>
+      <c r="D19" s="324" t="s">
         <v>302</v>
       </c>
       <c r="E19" s="262" t="s">
         <v>357</v>
       </c>
-      <c r="F19" s="257"/>
+      <c r="F19" s="320"/>
       <c r="G19" s="257"/>
       <c r="H19" s="257"/>
       <c r="I19" s="257"/>
@@ -29571,15 +29573,15 @@
     </row>
     <row r="20" spans="1:12" s="240" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="256"/>
-      <c r="B20" s="329"/>
-      <c r="C20" s="330"/>
-      <c r="D20" s="309" t="s">
+      <c r="B20" s="330"/>
+      <c r="C20" s="331"/>
+      <c r="D20" s="324" t="s">
         <v>303</v>
       </c>
       <c r="E20" s="262" t="s">
         <v>358</v>
       </c>
-      <c r="F20" s="257"/>
+      <c r="F20" s="320"/>
       <c r="G20" s="257"/>
       <c r="H20" s="257"/>
       <c r="I20" s="257"/>
@@ -29589,8 +29591,8 @@
     </row>
     <row r="21" spans="1:12" s="240" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="256"/>
-      <c r="B21" s="329"/>
-      <c r="C21" s="330"/>
+      <c r="B21" s="330"/>
+      <c r="C21" s="331"/>
       <c r="D21" s="261" t="s">
         <v>304</v>
       </c>
@@ -29607,15 +29609,15 @@
     </row>
     <row r="22" spans="1:12" s="240" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="256"/>
-      <c r="B22" s="329"/>
-      <c r="C22" s="330"/>
-      <c r="D22" s="309" t="s">
+      <c r="B22" s="330"/>
+      <c r="C22" s="331"/>
+      <c r="D22" s="324" t="s">
         <v>305</v>
       </c>
       <c r="E22" s="262" t="s">
         <v>198</v>
       </c>
-      <c r="F22" s="324" t="s">
+      <c r="F22" s="321" t="s">
         <v>426</v>
       </c>
       <c r="G22" s="257"/>
@@ -29627,8 +29629,8 @@
     </row>
     <row r="23" spans="1:12" s="240" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="256"/>
-      <c r="B23" s="329"/>
-      <c r="C23" s="330"/>
+      <c r="B23" s="330"/>
+      <c r="C23" s="331"/>
       <c r="D23" s="261" t="s">
         <v>307</v>
       </c>
@@ -29645,8 +29647,8 @@
     </row>
     <row r="24" spans="1:12" s="240" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="256"/>
-      <c r="B24" s="327"/>
-      <c r="C24" s="328"/>
+      <c r="B24" s="328"/>
+      <c r="C24" s="329"/>
       <c r="D24" s="300" t="s">
         <v>359</v>
       </c>
@@ -29677,17 +29679,17 @@
     </row>
     <row r="26" spans="1:12" s="240" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="256"/>
-      <c r="B26" s="325" t="s">
+      <c r="B26" s="326" t="s">
         <v>361</v>
       </c>
-      <c r="C26" s="326"/>
-      <c r="D26" s="308" t="s">
+      <c r="C26" s="327"/>
+      <c r="D26" s="325" t="s">
         <v>213</v>
       </c>
       <c r="E26" s="260" t="s">
         <v>362</v>
       </c>
-      <c r="F26" s="320" t="s">
+      <c r="F26" s="322" t="s">
         <v>408</v>
       </c>
       <c r="G26" s="257"/>
@@ -29699,15 +29701,15 @@
     </row>
     <row r="27" spans="1:12" s="240" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="256"/>
-      <c r="B27" s="327"/>
-      <c r="C27" s="328"/>
-      <c r="D27" s="319" t="s">
+      <c r="B27" s="328"/>
+      <c r="C27" s="329"/>
+      <c r="D27" s="323" t="s">
         <v>214</v>
       </c>
       <c r="E27" s="301" t="s">
         <v>197</v>
       </c>
-      <c r="F27" s="257" t="s">
+      <c r="F27" s="320" t="s">
         <v>370</v>
       </c>
       <c r="G27" s="257"/>
@@ -29733,17 +29735,17 @@
     </row>
     <row r="29" spans="1:12" s="240" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="256"/>
-      <c r="B29" s="325" t="s">
+      <c r="B29" s="326" t="s">
         <v>329</v>
       </c>
-      <c r="C29" s="326"/>
-      <c r="D29" s="401" t="s">
+      <c r="C29" s="327"/>
+      <c r="D29" s="325" t="s">
         <v>218</v>
       </c>
       <c r="E29" s="260" t="s">
         <v>364</v>
       </c>
-      <c r="F29" s="257"/>
+      <c r="F29" s="320"/>
       <c r="G29" s="257"/>
       <c r="H29" s="257"/>
       <c r="I29" s="257"/>
@@ -29753,15 +29755,15 @@
     </row>
     <row r="30" spans="1:12" s="240" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="256"/>
-      <c r="B30" s="329"/>
-      <c r="C30" s="330"/>
-      <c r="D30" s="309" t="s">
+      <c r="B30" s="330"/>
+      <c r="C30" s="331"/>
+      <c r="D30" s="324" t="s">
         <v>219</v>
       </c>
       <c r="E30" s="265" t="s">
         <v>215</v>
       </c>
-      <c r="F30" s="257"/>
+      <c r="F30" s="320"/>
       <c r="G30" s="257"/>
       <c r="H30" s="257"/>
       <c r="I30" s="257"/>
@@ -29771,15 +29773,15 @@
     </row>
     <row r="31" spans="1:12" s="240" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="256"/>
-      <c r="B31" s="329"/>
-      <c r="C31" s="330"/>
-      <c r="D31" s="400" t="s">
+      <c r="B31" s="330"/>
+      <c r="C31" s="331"/>
+      <c r="D31" s="324" t="s">
         <v>220</v>
       </c>
       <c r="E31" s="265" t="s">
         <v>216</v>
       </c>
-      <c r="F31" s="257"/>
+      <c r="F31" s="320"/>
       <c r="G31" s="257"/>
       <c r="H31" s="257"/>
       <c r="I31" s="257"/>
@@ -29789,8 +29791,8 @@
     </row>
     <row r="32" spans="1:12" s="240" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="256"/>
-      <c r="B32" s="327"/>
-      <c r="C32" s="328"/>
+      <c r="B32" s="328"/>
+      <c r="C32" s="329"/>
       <c r="D32" s="300" t="s">
         <v>221</v>
       </c>
@@ -29821,17 +29823,17 @@
     </row>
     <row r="34" spans="1:12" s="240" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="256"/>
-      <c r="B34" s="325" t="s">
+      <c r="B34" s="326" t="s">
         <v>366</v>
       </c>
-      <c r="C34" s="326"/>
-      <c r="D34" s="308" t="s">
+      <c r="C34" s="327"/>
+      <c r="D34" s="325" t="s">
         <v>228</v>
       </c>
       <c r="E34" s="260" t="s">
         <v>371</v>
       </c>
-      <c r="F34" s="257"/>
+      <c r="F34" s="320"/>
       <c r="G34" s="257"/>
       <c r="H34" s="257"/>
       <c r="I34" s="257"/>
@@ -29841,15 +29843,15 @@
     </row>
     <row r="35" spans="1:12" s="240" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="256"/>
-      <c r="B35" s="329"/>
-      <c r="C35" s="330"/>
-      <c r="D35" s="400" t="s">
+      <c r="B35" s="330"/>
+      <c r="C35" s="331"/>
+      <c r="D35" s="324" t="s">
         <v>229</v>
       </c>
       <c r="E35" s="262" t="s">
         <v>372</v>
       </c>
-      <c r="F35" s="257"/>
+      <c r="F35" s="401"/>
       <c r="G35" s="257"/>
       <c r="H35" s="257"/>
       <c r="I35" s="257"/>
@@ -29859,15 +29861,15 @@
     </row>
     <row r="36" spans="1:12" s="240" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="256"/>
-      <c r="B36" s="329"/>
-      <c r="C36" s="330"/>
-      <c r="D36" s="309" t="s">
+      <c r="B36" s="330"/>
+      <c r="C36" s="331"/>
+      <c r="D36" s="324" t="s">
         <v>231</v>
       </c>
-      <c r="E36" s="322" t="s">
+      <c r="E36" s="318" t="s">
         <v>415</v>
       </c>
-      <c r="F36" s="257"/>
+      <c r="F36" s="320"/>
       <c r="G36" s="257"/>
       <c r="H36" s="257"/>
       <c r="I36" s="257"/>
@@ -29877,8 +29879,8 @@
     </row>
     <row r="37" spans="1:12" s="240" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="256"/>
-      <c r="B37" s="329"/>
-      <c r="C37" s="330"/>
+      <c r="B37" s="330"/>
+      <c r="C37" s="331"/>
       <c r="D37" s="261" t="s">
         <v>309</v>
       </c>
@@ -29895,9 +29897,9 @@
     </row>
     <row r="38" spans="1:12" s="240" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="256"/>
-      <c r="B38" s="329"/>
-      <c r="C38" s="330"/>
-      <c r="D38" s="400" t="s">
+      <c r="B38" s="330"/>
+      <c r="C38" s="331"/>
+      <c r="D38" s="324" t="s">
         <v>310</v>
       </c>
       <c r="E38" s="262" t="s">
@@ -29913,8 +29915,8 @@
     </row>
     <row r="39" spans="1:12" s="240" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="256"/>
-      <c r="B39" s="329"/>
-      <c r="C39" s="330"/>
+      <c r="B39" s="330"/>
+      <c r="C39" s="331"/>
       <c r="D39" s="261" t="s">
         <v>311</v>
       </c>
@@ -29931,15 +29933,15 @@
     </row>
     <row r="40" spans="1:12" s="240" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="256"/>
-      <c r="B40" s="329"/>
-      <c r="C40" s="330"/>
-      <c r="D40" s="400" t="s">
+      <c r="B40" s="330"/>
+      <c r="C40" s="331"/>
+      <c r="D40" s="324" t="s">
         <v>312</v>
       </c>
       <c r="E40" s="265" t="s">
         <v>375</v>
       </c>
-      <c r="F40" s="257"/>
+      <c r="F40" s="320"/>
       <c r="G40" s="257"/>
       <c r="H40" s="257"/>
       <c r="I40" s="257"/>
@@ -29949,15 +29951,15 @@
     </row>
     <row r="41" spans="1:12" s="240" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="256"/>
-      <c r="B41" s="329"/>
-      <c r="C41" s="330"/>
-      <c r="D41" s="400" t="s">
+      <c r="B41" s="330"/>
+      <c r="C41" s="331"/>
+      <c r="D41" s="324" t="s">
         <v>313</v>
       </c>
       <c r="E41" s="265" t="s">
         <v>230</v>
       </c>
-      <c r="F41" s="257"/>
+      <c r="F41" s="320"/>
       <c r="G41" s="257"/>
       <c r="H41" s="257"/>
       <c r="I41" s="257"/>
@@ -29967,8 +29969,8 @@
     </row>
     <row r="42" spans="1:12" s="240" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="256"/>
-      <c r="B42" s="329"/>
-      <c r="C42" s="330"/>
+      <c r="B42" s="330"/>
+      <c r="C42" s="331"/>
       <c r="D42" s="261" t="s">
         <v>367</v>
       </c>
@@ -29985,8 +29987,8 @@
     </row>
     <row r="43" spans="1:12" s="240" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="256"/>
-      <c r="B43" s="329"/>
-      <c r="C43" s="330"/>
+      <c r="B43" s="330"/>
+      <c r="C43" s="331"/>
       <c r="D43" s="261" t="s">
         <v>368</v>
       </c>
@@ -30003,15 +30005,15 @@
     </row>
     <row r="44" spans="1:12" s="240" customFormat="1" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="256"/>
-      <c r="B44" s="327"/>
-      <c r="C44" s="328"/>
-      <c r="D44" s="402" t="s">
+      <c r="B44" s="328"/>
+      <c r="C44" s="329"/>
+      <c r="D44" s="323" t="s">
         <v>369</v>
       </c>
       <c r="E44" s="264" t="s">
         <v>381</v>
       </c>
-      <c r="F44" s="257"/>
+      <c r="F44" s="320"/>
       <c r="G44" s="257"/>
       <c r="H44" s="257"/>
       <c r="I44" s="257"/>
@@ -30077,22 +30079,22 @@
       <c r="B2" s="96"/>
     </row>
     <row r="3" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="366" t="s">
+      <c r="A3" s="367" t="s">
         <v>337</v>
       </c>
-      <c r="B3" s="368" t="s">
+      <c r="B3" s="369" t="s">
         <v>341</v>
       </c>
-      <c r="C3" s="368"/>
-      <c r="D3" s="368"/>
-      <c r="E3" s="368"/>
-      <c r="F3" s="364" t="s">
+      <c r="C3" s="369"/>
+      <c r="D3" s="369"/>
+      <c r="E3" s="369"/>
+      <c r="F3" s="365" t="s">
         <v>11</v>
       </c>
       <c r="G3" s="130"/>
     </row>
     <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="367"/>
+      <c r="A4" s="368"/>
       <c r="B4" s="138" t="s">
         <v>340</v>
       </c>
@@ -30105,7 +30107,7 @@
       <c r="E4" s="275" t="s">
         <v>51</v>
       </c>
-      <c r="F4" s="365"/>
+      <c r="F4" s="366"/>
       <c r="G4" s="55"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -30250,14 +30252,14 @@
       <c r="G11" s="96"/>
     </row>
     <row r="12" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="358" t="s">
+      <c r="A12" s="359" t="s">
         <v>403</v>
       </c>
-      <c r="B12" s="358"/>
-      <c r="C12" s="358"/>
-      <c r="D12" s="358"/>
-      <c r="E12" s="358"/>
-      <c r="F12" s="358"/>
+      <c r="B12" s="359"/>
+      <c r="C12" s="359"/>
+      <c r="D12" s="359"/>
+      <c r="E12" s="359"/>
+      <c r="F12" s="359"/>
       <c r="G12" s="250"/>
     </row>
     <row r="13" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -30327,29 +30329,29 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="370"/>
-      <c r="B2" s="370"/>
-      <c r="C2" s="370"/>
-      <c r="D2" s="370"/>
-      <c r="E2" s="370"/>
-      <c r="F2" s="370"/>
+      <c r="A2" s="371"/>
+      <c r="B2" s="371"/>
+      <c r="C2" s="371"/>
+      <c r="D2" s="371"/>
+      <c r="E2" s="371"/>
+      <c r="F2" s="371"/>
       <c r="J2" s="56"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="366" t="s">
+      <c r="A3" s="367" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="243"/>
-      <c r="C3" s="368" t="s">
+      <c r="C3" s="369" t="s">
         <v>151</v>
       </c>
-      <c r="D3" s="368"/>
-      <c r="E3" s="368"/>
-      <c r="F3" s="368"/>
+      <c r="D3" s="369"/>
+      <c r="E3" s="369"/>
+      <c r="F3" s="369"/>
       <c r="J3" s="56"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="367"/>
+      <c r="A4" s="368"/>
       <c r="B4" s="129" t="s">
         <v>47</v>
       </c>
@@ -30407,34 +30409,34 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="358" t="s">
+      <c r="A7" s="359" t="s">
         <v>403</v>
       </c>
-      <c r="B7" s="358"/>
-      <c r="C7" s="358"/>
-      <c r="D7" s="358"/>
-      <c r="E7" s="358"/>
-      <c r="F7" s="358"/>
+      <c r="B7" s="359"/>
+      <c r="C7" s="359"/>
+      <c r="D7" s="359"/>
+      <c r="E7" s="359"/>
+      <c r="F7" s="359"/>
     </row>
     <row r="8" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="369" t="s">
+      <c r="A8" s="370" t="s">
         <v>131</v>
       </c>
-      <c r="B8" s="369"/>
-      <c r="C8" s="369"/>
-      <c r="D8" s="369"/>
-      <c r="E8" s="369"/>
-      <c r="F8" s="369"/>
+      <c r="B8" s="370"/>
+      <c r="C8" s="370"/>
+      <c r="D8" s="370"/>
+      <c r="E8" s="370"/>
+      <c r="F8" s="370"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="369" t="s">
+      <c r="A9" s="370" t="s">
         <v>130</v>
       </c>
-      <c r="B9" s="369"/>
-      <c r="C9" s="369"/>
-      <c r="D9" s="369"/>
-      <c r="E9" s="369"/>
-      <c r="F9" s="369"/>
+      <c r="B9" s="370"/>
+      <c r="C9" s="370"/>
+      <c r="D9" s="370"/>
+      <c r="E9" s="370"/>
+      <c r="F9" s="370"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -30453,9 +30455,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -30475,39 +30475,39 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="372"/>
-      <c r="B2" s="372"/>
-      <c r="C2" s="372"/>
-      <c r="D2" s="372"/>
-      <c r="E2" s="372"/>
-      <c r="F2" s="372"/>
-      <c r="G2" s="372"/>
-      <c r="H2" s="372"/>
-      <c r="I2" s="372"/>
+      <c r="A2" s="373"/>
+      <c r="B2" s="373"/>
+      <c r="C2" s="373"/>
+      <c r="D2" s="373"/>
+      <c r="E2" s="373"/>
+      <c r="F2" s="373"/>
+      <c r="G2" s="373"/>
+      <c r="H2" s="373"/>
+      <c r="I2" s="373"/>
     </row>
     <row r="3" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="371" t="s">
+      <c r="A3" s="372" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="371" t="s">
+      <c r="B3" s="372" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="371"/>
-      <c r="D3" s="371"/>
-      <c r="E3" s="371"/>
-      <c r="F3" s="371" t="s">
+      <c r="C3" s="372"/>
+      <c r="D3" s="372"/>
+      <c r="E3" s="372"/>
+      <c r="F3" s="372" t="s">
         <v>64</v>
       </c>
-      <c r="G3" s="371"/>
-      <c r="H3" s="371"/>
-      <c r="I3" s="371"/>
+      <c r="G3" s="372"/>
+      <c r="H3" s="372"/>
+      <c r="I3" s="372"/>
       <c r="K3" s="96"/>
       <c r="L3" s="96"/>
       <c r="M3" s="96"/>
       <c r="N3" s="96"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="371"/>
+      <c r="A4" s="372"/>
       <c r="B4" s="77" t="s">
         <v>340</v>
       </c>
@@ -30538,7 +30538,7 @@
       <c r="N4" s="55"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="373"/>
+      <c r="A5" s="374"/>
       <c r="B5" s="66" t="s">
         <v>124</v>
       </c>
@@ -30849,37 +30849,37 @@
     </row>
     <row r="17" spans="1:7" ht="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="369" t="s">
+      <c r="A18" s="370" t="s">
         <v>212</v>
       </c>
-      <c r="B18" s="369"/>
-      <c r="C18" s="369"/>
-      <c r="D18" s="369"/>
-      <c r="E18" s="369"/>
-      <c r="F18" s="369"/>
-      <c r="G18" s="369"/>
+      <c r="B18" s="370"/>
+      <c r="C18" s="370"/>
+      <c r="D18" s="370"/>
+      <c r="E18" s="370"/>
+      <c r="F18" s="370"/>
+      <c r="G18" s="370"/>
     </row>
     <row r="19" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="374" t="s">
+      <c r="A19" s="375" t="s">
         <v>209</v>
       </c>
-      <c r="B19" s="374"/>
-      <c r="C19" s="374"/>
-      <c r="D19" s="374"/>
-      <c r="E19" s="374"/>
-      <c r="F19" s="374"/>
-      <c r="G19" s="374"/>
+      <c r="B19" s="375"/>
+      <c r="C19" s="375"/>
+      <c r="D19" s="375"/>
+      <c r="E19" s="375"/>
+      <c r="F19" s="375"/>
+      <c r="G19" s="375"/>
     </row>
     <row r="20" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="374" t="s">
+      <c r="A20" s="375" t="s">
         <v>210</v>
       </c>
-      <c r="B20" s="374"/>
-      <c r="C20" s="374"/>
-      <c r="D20" s="374"/>
-      <c r="E20" s="374"/>
-      <c r="F20" s="374"/>
-      <c r="G20" s="374"/>
+      <c r="B20" s="375"/>
+      <c r="C20" s="375"/>
+      <c r="D20" s="375"/>
+      <c r="E20" s="375"/>
+      <c r="F20" s="375"/>
+      <c r="G20" s="375"/>
     </row>
     <row r="21" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="101"/>
@@ -31011,15 +31011,15 @@
       <c r="A2" s="302"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="369" t="s">
+      <c r="A26" s="370" t="s">
         <v>409</v>
       </c>
-      <c r="B26" s="369"/>
-      <c r="C26" s="369"/>
-      <c r="D26" s="369"/>
-      <c r="E26" s="369"/>
-      <c r="F26" s="369"/>
-      <c r="G26" s="369"/>
+      <c r="B26" s="370"/>
+      <c r="C26" s="370"/>
+      <c r="D26" s="370"/>
+      <c r="E26" s="370"/>
+      <c r="F26" s="370"/>
+      <c r="G26" s="370"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -31157,20 +31157,20 @@
       <c r="D2" s="75"/>
       <c r="E2" s="75"/>
       <c r="F2" s="3"/>
-      <c r="G2" s="375"/>
-      <c r="H2" s="375"/>
+      <c r="G2" s="376"/>
+      <c r="H2" s="376"/>
       <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="107"/>
-      <c r="B3" s="376" t="s">
+      <c r="B3" s="377" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="376"/>
-      <c r="D3" s="377" t="s">
+      <c r="C3" s="377"/>
+      <c r="D3" s="378" t="s">
         <v>64</v>
       </c>
-      <c r="E3" s="377"/>
+      <c r="E3" s="378"/>
       <c r="F3" s="72"/>
       <c r="G3" s="73"/>
       <c r="H3" s="73"/>
@@ -31367,20 +31367,20 @@
       <c r="E2" s="222"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="363" t="s">
+      <c r="A3" s="364" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="378" t="s">
+      <c r="B3" s="379" t="s">
         <v>152</v>
       </c>
-      <c r="C3" s="378"/>
-      <c r="D3" s="378" t="s">
+      <c r="C3" s="379"/>
+      <c r="D3" s="379" t="s">
         <v>64</v>
       </c>
-      <c r="E3" s="378"/>
+      <c r="E3" s="379"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="361"/>
+      <c r="A4" s="362"/>
       <c r="B4" s="251">
         <v>2010</v>
       </c>
@@ -31513,7 +31513,7 @@
         <v>99.999999999999986</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="321" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" s="317" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="23" t="s">
         <v>283</v>
       </c>
@@ -31532,11 +31532,11 @@
       <c r="E13" s="54"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="359"/>
-      <c r="B14" s="359"/>
-      <c r="C14" s="359"/>
-      <c r="D14" s="359"/>
-      <c r="E14" s="359"/>
+      <c r="A14" s="360"/>
+      <c r="B14" s="360"/>
+      <c r="C14" s="360"/>
+      <c r="D14" s="360"/>
+      <c r="E14" s="360"/>
       <c r="F14" s="225"/>
       <c r="G14" s="225"/>
     </row>
@@ -31580,16 +31580,16 @@
     </row>
     <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="366" t="s">
+      <c r="A3" s="367" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="368" t="s">
+      <c r="B3" s="369" t="s">
         <v>217</v>
       </c>
-      <c r="C3" s="368"/>
+      <c r="C3" s="369"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="367"/>
+      <c r="A4" s="368"/>
       <c r="B4" s="131">
         <v>2010</v>
       </c>
@@ -31752,16 +31752,16 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="379" t="s">
+      <c r="A19" s="380" t="s">
         <v>130</v>
       </c>
-      <c r="B19" s="379"/>
-      <c r="C19" s="379"/>
+      <c r="B19" s="380"/>
+      <c r="C19" s="380"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="369"/>
-      <c r="B20" s="369"/>
-      <c r="C20" s="369"/>
+      <c r="A20" s="370"/>
+      <c r="B20" s="370"/>
+      <c r="C20" s="370"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -31801,52 +31801,52 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="380"/>
-      <c r="B2" s="380"/>
-      <c r="C2" s="380"/>
-      <c r="D2" s="380"/>
-      <c r="E2" s="380"/>
-      <c r="F2" s="380"/>
-      <c r="G2" s="380"/>
-      <c r="H2" s="380"/>
+      <c r="A2" s="381"/>
+      <c r="B2" s="381"/>
+      <c r="C2" s="381"/>
+      <c r="D2" s="381"/>
+      <c r="E2" s="381"/>
+      <c r="F2" s="381"/>
+      <c r="G2" s="381"/>
+      <c r="H2" s="381"/>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="389" t="s">
+      <c r="A3" s="390" t="s">
         <v>153</v>
       </c>
       <c r="B3" s="140"/>
-      <c r="C3" s="388" t="s">
+      <c r="C3" s="389" t="s">
         <v>167</v>
       </c>
-      <c r="D3" s="388"/>
-      <c r="E3" s="388"/>
-      <c r="F3" s="388"/>
-      <c r="G3" s="388"/>
-      <c r="H3" s="385" t="s">
+      <c r="D3" s="389"/>
+      <c r="E3" s="389"/>
+      <c r="F3" s="389"/>
+      <c r="G3" s="389"/>
+      <c r="H3" s="386" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="377"/>
+      <c r="A4" s="378"/>
       <c r="B4" s="135"/>
-      <c r="C4" s="383" t="s">
+      <c r="C4" s="384" t="s">
         <v>107</v>
       </c>
-      <c r="D4" s="383" t="s">
+      <c r="D4" s="384" t="s">
         <v>121</v>
       </c>
-      <c r="E4" s="383" t="s">
+      <c r="E4" s="384" t="s">
         <v>168</v>
       </c>
-      <c r="F4" s="383"/>
-      <c r="G4" s="383"/>
-      <c r="H4" s="386"/>
+      <c r="F4" s="384"/>
+      <c r="G4" s="384"/>
+      <c r="H4" s="387"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="390"/>
+      <c r="A5" s="391"/>
       <c r="B5" s="133"/>
-      <c r="C5" s="384"/>
-      <c r="D5" s="384"/>
+      <c r="C5" s="385"/>
+      <c r="D5" s="385"/>
       <c r="E5" s="138" t="s">
         <v>123</v>
       </c>
@@ -31856,10 +31856,10 @@
       <c r="G5" s="138" t="s">
         <v>126</v>
       </c>
-      <c r="H5" s="387"/>
+      <c r="H5" s="388"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="391">
+      <c r="A6" s="392">
         <v>2010</v>
       </c>
       <c r="B6" s="135" t="s">
@@ -31885,7 +31885,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="377"/>
+      <c r="A7" s="378"/>
       <c r="B7" s="135" t="s">
         <v>64</v>
       </c>
@@ -31909,7 +31909,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="377">
+      <c r="A8" s="378">
         <v>2015</v>
       </c>
       <c r="B8" s="135" t="s">
@@ -31935,7 +31935,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="392"/>
+      <c r="A9" s="393"/>
       <c r="B9" s="135" t="s">
         <v>64</v>
       </c>
@@ -31959,26 +31959,26 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="382" t="s">
+      <c r="A10" s="383" t="s">
         <v>173</v>
       </c>
-      <c r="B10" s="382"/>
-      <c r="C10" s="382"/>
-      <c r="D10" s="382"/>
-      <c r="E10" s="382"/>
-      <c r="F10" s="382"/>
-      <c r="G10" s="382"/>
-      <c r="H10" s="382"/>
+      <c r="B10" s="383"/>
+      <c r="C10" s="383"/>
+      <c r="D10" s="383"/>
+      <c r="E10" s="383"/>
+      <c r="F10" s="383"/>
+      <c r="G10" s="383"/>
+      <c r="H10" s="383"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="381"/>
-      <c r="B11" s="381"/>
-      <c r="C11" s="381"/>
-      <c r="D11" s="381"/>
-      <c r="E11" s="381"/>
-      <c r="F11" s="381"/>
-      <c r="G11" s="381"/>
-      <c r="H11" s="381"/>
+      <c r="A11" s="382"/>
+      <c r="B11" s="382"/>
+      <c r="C11" s="382"/>
+      <c r="D11" s="382"/>
+      <c r="E11" s="382"/>
+      <c r="F11" s="382"/>
+      <c r="G11" s="382"/>
+      <c r="H11" s="382"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -32050,7 +32050,7 @@
       <c r="H3" s="150"/>
     </row>
     <row r="4" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="333">
+      <c r="A4" s="334">
         <v>2008</v>
       </c>
       <c r="B4" s="151" t="str">
@@ -32072,7 +32072,7 @@
       <c r="U4" s="198"/>
     </row>
     <row r="5" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="334"/>
+      <c r="A5" s="335"/>
       <c r="B5" s="151" t="str">
         <f>'[1]Hoja 01'!B3</f>
         <v>abr-jun</v>
@@ -32085,7 +32085,7 @@
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A6" s="334"/>
+      <c r="A6" s="335"/>
       <c r="B6" s="151" t="str">
         <f>'[1]Hoja 01'!B4</f>
         <v>jul-sep</v>
@@ -32098,7 +32098,7 @@
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A7" s="335"/>
+      <c r="A7" s="336"/>
       <c r="B7" s="154" t="str">
         <f>'[1]Hoja 01'!B5</f>
         <v>oct-dic</v>
@@ -32111,7 +32111,7 @@
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A8" s="333">
+      <c r="A8" s="334">
         <v>2009</v>
       </c>
       <c r="B8" s="151" t="str">
@@ -32126,7 +32126,7 @@
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A9" s="334"/>
+      <c r="A9" s="335"/>
       <c r="B9" s="151" t="str">
         <f>'[1]Hoja 01'!B7</f>
         <v>abr-jun</v>
@@ -32139,7 +32139,7 @@
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A10" s="334"/>
+      <c r="A10" s="335"/>
       <c r="B10" s="151" t="str">
         <f>'[1]Hoja 01'!B8</f>
         <v>jul-sep</v>
@@ -32152,7 +32152,7 @@
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A11" s="335"/>
+      <c r="A11" s="336"/>
       <c r="B11" s="154" t="str">
         <f>'[1]Hoja 01'!B9</f>
         <v>oct-dic</v>
@@ -32165,7 +32165,7 @@
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A12" s="333">
+      <c r="A12" s="334">
         <v>2010</v>
       </c>
       <c r="B12" s="151" t="str">
@@ -32180,7 +32180,7 @@
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A13" s="334"/>
+      <c r="A13" s="335"/>
       <c r="B13" s="151" t="str">
         <f>'[1]Hoja 01'!B11</f>
         <v>abr-jun</v>
@@ -32193,7 +32193,7 @@
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A14" s="334"/>
+      <c r="A14" s="335"/>
       <c r="B14" s="151" t="str">
         <f>'[1]Hoja 01'!B12</f>
         <v>jul-sep</v>
@@ -32206,7 +32206,7 @@
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A15" s="335"/>
+      <c r="A15" s="336"/>
       <c r="B15" s="154" t="str">
         <f>'[1]Hoja 01'!B13</f>
         <v>oct-dic</v>
@@ -32219,7 +32219,7 @@
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A16" s="333">
+      <c r="A16" s="334">
         <v>2011</v>
       </c>
       <c r="B16" s="151" t="str">
@@ -32234,7 +32234,7 @@
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A17" s="334"/>
+      <c r="A17" s="335"/>
       <c r="B17" s="151" t="str">
         <f>'[1]Hoja 01'!B15</f>
         <v>abr-jun</v>
@@ -32247,7 +32247,7 @@
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A18" s="334"/>
+      <c r="A18" s="335"/>
       <c r="B18" s="151" t="str">
         <f>'[1]Hoja 01'!B16</f>
         <v>jul-sep</v>
@@ -32260,7 +32260,7 @@
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A19" s="335"/>
+      <c r="A19" s="336"/>
       <c r="B19" s="154" t="str">
         <f>'[1]Hoja 01'!B17</f>
         <v>oct-dic</v>
@@ -32283,7 +32283,7 @@
       <c r="N19" s="157"/>
     </row>
     <row r="20" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="333">
+      <c r="A20" s="334">
         <v>2012</v>
       </c>
       <c r="B20" s="151" t="str">
@@ -32309,7 +32309,7 @@
       <c r="N20" s="157"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A21" s="334"/>
+      <c r="A21" s="335"/>
       <c r="B21" s="151" t="str">
         <f>'[1]Hoja 01'!B19</f>
         <v>abr-jun</v>
@@ -32332,7 +32332,7 @@
       <c r="M21" s="159"/>
     </row>
     <row r="22" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="334"/>
+      <c r="A22" s="335"/>
       <c r="B22" s="151" t="str">
         <f>'[1]Hoja 01'!B20</f>
         <v>jul-sep</v>
@@ -32355,7 +32355,7 @@
       <c r="M22" s="159"/>
     </row>
     <row r="23" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="335"/>
+      <c r="A23" s="336"/>
       <c r="B23" s="154" t="str">
         <f>'[1]Hoja 01'!B21</f>
         <v>oct-dic</v>
@@ -32368,7 +32368,7 @@
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A24" s="333">
+      <c r="A24" s="334">
         <v>2013</v>
       </c>
       <c r="B24" s="151" t="str">
@@ -32383,7 +32383,7 @@
       </c>
     </row>
     <row r="25" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="334"/>
+      <c r="A25" s="335"/>
       <c r="B25" s="151" t="str">
         <f>'[1]Hoja 01'!B23</f>
         <v>abr-jun</v>
@@ -32396,7 +32396,7 @@
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A26" s="334"/>
+      <c r="A26" s="335"/>
       <c r="B26" s="151" t="str">
         <f>'[1]Hoja 01'!B24</f>
         <v>jul-sep</v>
@@ -32409,7 +32409,7 @@
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A27" s="335"/>
+      <c r="A27" s="336"/>
       <c r="B27" s="154" t="str">
         <f>'[1]Hoja 01'!B25</f>
         <v>oct-dic</v>
@@ -32422,7 +32422,7 @@
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A28" s="333">
+      <c r="A28" s="334">
         <v>2014</v>
       </c>
       <c r="B28" s="151" t="str">
@@ -32437,7 +32437,7 @@
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A29" s="334"/>
+      <c r="A29" s="335"/>
       <c r="B29" s="151" t="str">
         <f>'[1]Hoja 01'!B27</f>
         <v>abr-jun</v>
@@ -32450,7 +32450,7 @@
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A30" s="334"/>
+      <c r="A30" s="335"/>
       <c r="B30" s="151" t="str">
         <f>'[1]Hoja 01'!B28</f>
         <v>jul-sep</v>
@@ -32463,7 +32463,7 @@
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A31" s="335"/>
+      <c r="A31" s="336"/>
       <c r="B31" s="154" t="str">
         <f>'[1]Hoja 01'!B29</f>
         <v>oct-dic</v>
@@ -32476,7 +32476,7 @@
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A32" s="333">
+      <c r="A32" s="334">
         <v>2015</v>
       </c>
       <c r="B32" s="151" t="str">
@@ -32491,7 +32491,7 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="334"/>
+      <c r="A33" s="335"/>
       <c r="B33" s="151" t="str">
         <f>'[1]Hoja 01'!B31</f>
         <v>abr-jun</v>
@@ -32504,7 +32504,7 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="334"/>
+      <c r="A34" s="335"/>
       <c r="B34" s="151" t="str">
         <f>'[1]Hoja 01'!B32</f>
         <v>jul-sep</v>
@@ -32517,7 +32517,7 @@
       </c>
     </row>
     <row r="35" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="336"/>
+      <c r="A35" s="337"/>
       <c r="B35" s="160" t="str">
         <f>'[1]Hoja 01'!B33</f>
         <v>oct-dic</v>
@@ -32586,42 +32586,42 @@
       <c r="H2" s="245"/>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="394"/>
-      <c r="B3" s="383" t="s">
+      <c r="A3" s="395"/>
+      <c r="B3" s="384" t="s">
         <v>153</v>
       </c>
-      <c r="C3" s="383" t="s">
+      <c r="C3" s="384" t="s">
         <v>167</v>
       </c>
-      <c r="D3" s="383"/>
-      <c r="E3" s="383"/>
-      <c r="F3" s="383"/>
-      <c r="G3" s="383"/>
-      <c r="H3" s="386" t="s">
+      <c r="D3" s="384"/>
+      <c r="E3" s="384"/>
+      <c r="F3" s="384"/>
+      <c r="G3" s="384"/>
+      <c r="H3" s="387" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="394"/>
-      <c r="B4" s="383"/>
-      <c r="C4" s="383" t="s">
+      <c r="A4" s="395"/>
+      <c r="B4" s="384"/>
+      <c r="C4" s="384" t="s">
         <v>107</v>
       </c>
-      <c r="D4" s="383" t="s">
+      <c r="D4" s="384" t="s">
         <v>121</v>
       </c>
-      <c r="E4" s="383" t="s">
+      <c r="E4" s="384" t="s">
         <v>168</v>
       </c>
-      <c r="F4" s="383"/>
-      <c r="G4" s="383"/>
-      <c r="H4" s="386"/>
+      <c r="F4" s="384"/>
+      <c r="G4" s="384"/>
+      <c r="H4" s="387"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="394"/>
-      <c r="B5" s="383"/>
-      <c r="C5" s="383"/>
-      <c r="D5" s="383"/>
+      <c r="A5" s="395"/>
+      <c r="B5" s="384"/>
+      <c r="C5" s="384"/>
+      <c r="D5" s="384"/>
       <c r="E5" s="81" t="s">
         <v>123</v>
       </c>
@@ -32631,11 +32631,11 @@
       <c r="G5" s="81" t="s">
         <v>126</v>
       </c>
-      <c r="H5" s="386"/>
+      <c r="H5" s="387"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="394"/>
-      <c r="B6" s="383"/>
+      <c r="A6" s="395"/>
+      <c r="B6" s="384"/>
       <c r="C6" s="136" t="s">
         <v>169</v>
       </c>
@@ -32656,7 +32656,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="391" t="s">
+      <c r="A7" s="392" t="s">
         <v>152</v>
       </c>
       <c r="B7" s="139">
@@ -32682,7 +32682,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="377"/>
+      <c r="A8" s="378"/>
       <c r="B8" s="136">
         <v>2015</v>
       </c>
@@ -32706,7 +32706,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="377" t="s">
+      <c r="A9" s="378" t="s">
         <v>64</v>
       </c>
       <c r="B9" s="136">
@@ -32732,7 +32732,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="377"/>
+      <c r="A10" s="378"/>
       <c r="B10" s="136">
         <v>2015</v>
       </c>
@@ -32756,28 +32756,28 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="382" t="s">
+      <c r="A11" s="383" t="s">
         <v>414</v>
       </c>
-      <c r="B11" s="382"/>
-      <c r="C11" s="382"/>
-      <c r="D11" s="382"/>
-      <c r="E11" s="382"/>
-      <c r="F11" s="382"/>
-      <c r="G11" s="382"/>
-      <c r="H11" s="382"/>
+      <c r="B11" s="383"/>
+      <c r="C11" s="383"/>
+      <c r="D11" s="383"/>
+      <c r="E11" s="383"/>
+      <c r="F11" s="383"/>
+      <c r="G11" s="383"/>
+      <c r="H11" s="383"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="393" t="s">
+      <c r="A12" s="394" t="s">
         <v>174</v>
       </c>
-      <c r="B12" s="393"/>
-      <c r="C12" s="393"/>
-      <c r="D12" s="393"/>
-      <c r="E12" s="393"/>
-      <c r="F12" s="393"/>
-      <c r="G12" s="393"/>
-      <c r="H12" s="393"/>
+      <c r="B12" s="394"/>
+      <c r="C12" s="394"/>
+      <c r="D12" s="394"/>
+      <c r="E12" s="394"/>
+      <c r="F12" s="394"/>
+      <c r="G12" s="394"/>
+      <c r="H12" s="394"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -32821,24 +32821,24 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="370"/>
-      <c r="B2" s="370"/>
-      <c r="C2" s="370"/>
-      <c r="D2" s="370"/>
-      <c r="E2" s="370"/>
+      <c r="A2" s="371"/>
+      <c r="B2" s="371"/>
+      <c r="C2" s="371"/>
+      <c r="D2" s="371"/>
+      <c r="E2" s="371"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="116" t="s">
         <v>133</v>
       </c>
-      <c r="B3" s="388" t="s">
+      <c r="B3" s="389" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="388"/>
-      <c r="D3" s="388" t="s">
+      <c r="C3" s="389"/>
+      <c r="D3" s="389" t="s">
         <v>64</v>
       </c>
-      <c r="E3" s="388"/>
+      <c r="E3" s="389"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="109"/>
@@ -32975,20 +32975,20 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="379" t="s">
+      <c r="A12" s="380" t="s">
         <v>134</v>
       </c>
-      <c r="B12" s="379"/>
-      <c r="C12" s="379"/>
-      <c r="D12" s="379"/>
-      <c r="E12" s="379"/>
+      <c r="B12" s="380"/>
+      <c r="C12" s="380"/>
+      <c r="D12" s="380"/>
+      <c r="E12" s="380"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="369"/>
-      <c r="B13" s="369"/>
-      <c r="C13" s="369"/>
-      <c r="D13" s="369"/>
-      <c r="E13" s="369"/>
+      <c r="A13" s="370"/>
+      <c r="B13" s="370"/>
+      <c r="C13" s="370"/>
+      <c r="D13" s="370"/>
+      <c r="E13" s="370"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="10"/>
@@ -33070,29 +33070,29 @@
     </row>
     <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="385" t="s">
+      <c r="A3" s="386" t="s">
         <v>176</v>
       </c>
-      <c r="B3" s="388" t="s">
+      <c r="B3" s="389" t="s">
         <v>167</v>
       </c>
-      <c r="C3" s="388"/>
-      <c r="D3" s="388"/>
-      <c r="E3" s="388"/>
+      <c r="C3" s="389"/>
+      <c r="D3" s="389"/>
+      <c r="E3" s="389"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="386"/>
-      <c r="B4" s="394" t="s">
+      <c r="A4" s="387"/>
+      <c r="B4" s="395" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="394"/>
-      <c r="D4" s="383" t="s">
+      <c r="C4" s="395"/>
+      <c r="D4" s="384" t="s">
         <v>64</v>
       </c>
-      <c r="E4" s="383"/>
+      <c r="E4" s="384"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="387"/>
+      <c r="A5" s="388"/>
       <c r="B5" s="138" t="s">
         <v>107</v>
       </c>
@@ -33230,15 +33230,15 @@
       <c r="I3" s="285" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="395"/>
-      <c r="L3" s="395"/>
-      <c r="M3" s="395"/>
-      <c r="N3" s="395"/>
-      <c r="O3" s="395"/>
-      <c r="P3" s="395"/>
+      <c r="K3" s="396"/>
+      <c r="L3" s="396"/>
+      <c r="M3" s="396"/>
+      <c r="N3" s="396"/>
+      <c r="O3" s="396"/>
+      <c r="P3" s="396"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="377" t="s">
+      <c r="A4" s="378" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="111">
@@ -33267,7 +33267,7 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="377"/>
+      <c r="A5" s="378"/>
       <c r="B5" s="111">
         <v>2015</v>
       </c>
@@ -33294,7 +33294,7 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="377" t="s">
+      <c r="A6" s="378" t="s">
         <v>64</v>
       </c>
       <c r="B6" s="111">
@@ -33323,7 +33323,7 @@
       </c>
     </row>
     <row r="7" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="392"/>
+      <c r="A7" s="393"/>
       <c r="B7" s="286">
         <v>2015</v>
       </c>
@@ -33404,22 +33404,22 @@
       <c r="B2" s="245"/>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="389"/>
-      <c r="B3" s="385"/>
-      <c r="C3" s="388" t="s">
+      <c r="A3" s="390"/>
+      <c r="B3" s="386"/>
+      <c r="C3" s="389" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="388"/>
-      <c r="E3" s="388"/>
-      <c r="F3" s="388" t="s">
+      <c r="D3" s="389"/>
+      <c r="E3" s="389"/>
+      <c r="F3" s="389" t="s">
         <v>64</v>
       </c>
-      <c r="G3" s="388"/>
-      <c r="H3" s="388"/>
+      <c r="G3" s="389"/>
+      <c r="H3" s="389"/>
     </row>
     <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="390"/>
-      <c r="B4" s="387"/>
+      <c r="A4" s="391"/>
+      <c r="B4" s="388"/>
       <c r="C4" s="131" t="s">
         <v>121</v>
       </c>
@@ -33440,7 +33440,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="391">
+      <c r="A5" s="392">
         <v>2010</v>
       </c>
       <c r="B5" s="255" t="s">
@@ -33466,7 +33466,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="377"/>
+      <c r="A6" s="378"/>
       <c r="B6" s="119" t="s">
         <v>180</v>
       </c>
@@ -33490,7 +33490,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="377">
+      <c r="A7" s="378">
         <v>2015</v>
       </c>
       <c r="B7" s="111" t="s">
@@ -33516,7 +33516,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="392"/>
+      <c r="A8" s="393"/>
       <c r="B8" s="283" t="s">
         <v>180</v>
       </c>
@@ -33540,40 +33540,40 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="393" t="s">
+      <c r="A9" s="394" t="s">
         <v>226</v>
       </c>
-      <c r="B9" s="393"/>
-      <c r="C9" s="393"/>
-      <c r="D9" s="393"/>
-      <c r="E9" s="393"/>
-      <c r="F9" s="393"/>
-      <c r="G9" s="393"/>
-      <c r="H9" s="393"/>
+      <c r="B9" s="394"/>
+      <c r="C9" s="394"/>
+      <c r="D9" s="394"/>
+      <c r="E9" s="394"/>
+      <c r="F9" s="394"/>
+      <c r="G9" s="394"/>
+      <c r="H9" s="394"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="393" t="s">
+      <c r="A10" s="394" t="s">
         <v>227</v>
       </c>
-      <c r="B10" s="393"/>
-      <c r="C10" s="393"/>
-      <c r="D10" s="393"/>
-      <c r="E10" s="393"/>
-      <c r="F10" s="393"/>
-      <c r="G10" s="393"/>
-      <c r="H10" s="393"/>
+      <c r="B10" s="394"/>
+      <c r="C10" s="394"/>
+      <c r="D10" s="394"/>
+      <c r="E10" s="394"/>
+      <c r="F10" s="394"/>
+      <c r="G10" s="394"/>
+      <c r="H10" s="394"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="393" t="s">
+      <c r="A11" s="394" t="s">
         <v>173</v>
       </c>
-      <c r="B11" s="393"/>
-      <c r="C11" s="393"/>
-      <c r="D11" s="393"/>
-      <c r="E11" s="393"/>
-      <c r="F11" s="393"/>
-      <c r="G11" s="393"/>
-      <c r="H11" s="393"/>
+      <c r="B11" s="394"/>
+      <c r="C11" s="394"/>
+      <c r="D11" s="394"/>
+      <c r="E11" s="394"/>
+      <c r="F11" s="394"/>
+      <c r="G11" s="394"/>
+      <c r="H11" s="394"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -33614,20 +33614,20 @@
     </row>
     <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="350" t="s">
+      <c r="A3" s="351" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="353" t="s">
+      <c r="B3" s="354" t="s">
         <v>152</v>
       </c>
-      <c r="C3" s="353"/>
-      <c r="D3" s="353" t="s">
+      <c r="C3" s="354"/>
+      <c r="D3" s="354" t="s">
         <v>64</v>
       </c>
-      <c r="E3" s="353"/>
+      <c r="E3" s="354"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="352"/>
+      <c r="A4" s="353"/>
       <c r="B4" s="86">
         <v>2010</v>
       </c>
@@ -33657,10 +33657,10 @@
       <c r="E5" s="14">
         <v>2.2000000000000002</v>
       </c>
-      <c r="F5" s="323"/>
-      <c r="G5" s="323"/>
-      <c r="H5" s="323"/>
-      <c r="I5" s="323"/>
+      <c r="F5" s="319"/>
+      <c r="G5" s="319"/>
+      <c r="H5" s="319"/>
+      <c r="I5" s="319"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="44" t="s">
@@ -33678,10 +33678,10 @@
       <c r="E6" s="14">
         <v>11.4</v>
       </c>
-      <c r="F6" s="323"/>
-      <c r="G6" s="323"/>
-      <c r="H6" s="323"/>
-      <c r="I6" s="323"/>
+      <c r="F6" s="319"/>
+      <c r="G6" s="319"/>
+      <c r="H6" s="319"/>
+      <c r="I6" s="319"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="44" t="s">
@@ -33699,10 +33699,10 @@
       <c r="E7" s="14">
         <v>11.6</v>
       </c>
-      <c r="F7" s="323"/>
-      <c r="G7" s="323"/>
-      <c r="H7" s="323"/>
-      <c r="I7" s="323"/>
+      <c r="F7" s="319"/>
+      <c r="G7" s="319"/>
+      <c r="H7" s="319"/>
+      <c r="I7" s="319"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="44" t="s">
@@ -33720,10 +33720,10 @@
       <c r="E8" s="14">
         <v>9.3000000000000007</v>
       </c>
-      <c r="F8" s="323"/>
-      <c r="G8" s="323"/>
-      <c r="H8" s="323"/>
-      <c r="I8" s="323"/>
+      <c r="F8" s="319"/>
+      <c r="G8" s="319"/>
+      <c r="H8" s="319"/>
+      <c r="I8" s="319"/>
     </row>
     <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="44" t="s">
@@ -33741,10 +33741,10 @@
       <c r="E9" s="14">
         <v>14.3</v>
       </c>
-      <c r="F9" s="323"/>
-      <c r="G9" s="323"/>
-      <c r="H9" s="323"/>
-      <c r="I9" s="323"/>
+      <c r="F9" s="319"/>
+      <c r="G9" s="319"/>
+      <c r="H9" s="319"/>
+      <c r="I9" s="319"/>
     </row>
     <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="44" t="s">
@@ -33762,10 +33762,10 @@
       <c r="E10" s="14">
         <v>3.8</v>
       </c>
-      <c r="F10" s="323"/>
-      <c r="G10" s="323"/>
-      <c r="H10" s="323"/>
-      <c r="I10" s="323"/>
+      <c r="F10" s="319"/>
+      <c r="G10" s="319"/>
+      <c r="H10" s="319"/>
+      <c r="I10" s="319"/>
     </row>
     <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="44" t="s">
@@ -33783,10 +33783,10 @@
       <c r="E11" s="14">
         <v>14.4</v>
       </c>
-      <c r="F11" s="323"/>
-      <c r="G11" s="323"/>
-      <c r="H11" s="323"/>
-      <c r="I11" s="323"/>
+      <c r="F11" s="319"/>
+      <c r="G11" s="319"/>
+      <c r="H11" s="319"/>
+      <c r="I11" s="319"/>
     </row>
     <row r="12" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="44" t="s">
@@ -33804,10 +33804,10 @@
       <c r="E12" s="14">
         <v>9.1</v>
       </c>
-      <c r="F12" s="323"/>
-      <c r="G12" s="323"/>
-      <c r="H12" s="323"/>
-      <c r="I12" s="323"/>
+      <c r="F12" s="319"/>
+      <c r="G12" s="319"/>
+      <c r="H12" s="319"/>
+      <c r="I12" s="319"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="44" t="s">
@@ -33825,10 +33825,10 @@
       <c r="E13" s="14">
         <v>23</v>
       </c>
-      <c r="F13" s="323"/>
-      <c r="G13" s="323"/>
-      <c r="H13" s="323"/>
-      <c r="I13" s="323"/>
+      <c r="F13" s="319"/>
+      <c r="G13" s="319"/>
+      <c r="H13" s="319"/>
+      <c r="I13" s="319"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="52" t="s">
@@ -33846,10 +33846,10 @@
       <c r="E14" s="45">
         <v>0.8</v>
       </c>
-      <c r="F14" s="323"/>
-      <c r="G14" s="323"/>
-      <c r="H14" s="323"/>
-      <c r="I14" s="323"/>
+      <c r="F14" s="319"/>
+      <c r="G14" s="319"/>
+      <c r="H14" s="319"/>
+      <c r="I14" s="319"/>
     </row>
     <row r="15" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="85" t="s">
@@ -33867,10 +33867,10 @@
       <c r="E15" s="289">
         <v>100</v>
       </c>
-      <c r="F15" s="323"/>
-      <c r="G15" s="323"/>
-      <c r="H15" s="323"/>
-      <c r="I15" s="323"/>
+      <c r="F15" s="319"/>
+      <c r="G15" s="319"/>
+      <c r="H15" s="319"/>
+      <c r="I15" s="319"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="54" t="s">
@@ -33953,11 +33953,11 @@
       <c r="F4" s="83">
         <v>23</v>
       </c>
-      <c r="G4" s="323"/>
-      <c r="H4" s="323"/>
-      <c r="I4" s="323"/>
-      <c r="J4" s="323"/>
-      <c r="K4" s="323"/>
+      <c r="G4" s="319"/>
+      <c r="H4" s="319"/>
+      <c r="I4" s="319"/>
+      <c r="J4" s="319"/>
+      <c r="K4" s="319"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="44" t="s">
@@ -33978,11 +33978,11 @@
       <c r="F5" s="83">
         <v>23</v>
       </c>
-      <c r="G5" s="323"/>
-      <c r="H5" s="323"/>
-      <c r="I5" s="323"/>
-      <c r="J5" s="323"/>
-      <c r="K5" s="323"/>
+      <c r="G5" s="319"/>
+      <c r="H5" s="319"/>
+      <c r="I5" s="319"/>
+      <c r="J5" s="319"/>
+      <c r="K5" s="319"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="44" t="s">
@@ -34003,11 +34003,11 @@
       <c r="F6" s="83">
         <v>23</v>
       </c>
-      <c r="G6" s="323"/>
-      <c r="H6" s="323"/>
-      <c r="I6" s="323"/>
-      <c r="J6" s="323"/>
-      <c r="K6" s="323"/>
+      <c r="G6" s="319"/>
+      <c r="H6" s="319"/>
+      <c r="I6" s="319"/>
+      <c r="J6" s="319"/>
+      <c r="K6" s="319"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="44" t="s">
@@ -34028,11 +34028,11 @@
       <c r="F7" s="83">
         <v>23</v>
       </c>
-      <c r="G7" s="323"/>
-      <c r="H7" s="323"/>
-      <c r="I7" s="323"/>
-      <c r="J7" s="323"/>
-      <c r="K7" s="323"/>
+      <c r="G7" s="319"/>
+      <c r="H7" s="319"/>
+      <c r="I7" s="319"/>
+      <c r="J7" s="319"/>
+      <c r="K7" s="319"/>
     </row>
     <row r="8" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="44" t="s">
@@ -34053,11 +34053,11 @@
       <c r="F8" s="83">
         <v>23</v>
       </c>
-      <c r="G8" s="323"/>
-      <c r="H8" s="323"/>
-      <c r="I8" s="323"/>
-      <c r="J8" s="323"/>
-      <c r="K8" s="323"/>
+      <c r="G8" s="319"/>
+      <c r="H8" s="319"/>
+      <c r="I8" s="319"/>
+      <c r="J8" s="319"/>
+      <c r="K8" s="319"/>
     </row>
     <row r="9" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="44" t="s">
@@ -34078,11 +34078,11 @@
       <c r="F9" s="83">
         <v>23</v>
       </c>
-      <c r="G9" s="323"/>
-      <c r="H9" s="323"/>
-      <c r="I9" s="323"/>
-      <c r="J9" s="323"/>
-      <c r="K9" s="323"/>
+      <c r="G9" s="319"/>
+      <c r="H9" s="319"/>
+      <c r="I9" s="319"/>
+      <c r="J9" s="319"/>
+      <c r="K9" s="319"/>
     </row>
     <row r="10" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="44" t="s">
@@ -34103,11 +34103,11 @@
       <c r="F10" s="83">
         <v>23</v>
       </c>
-      <c r="G10" s="323"/>
-      <c r="H10" s="323"/>
-      <c r="I10" s="323"/>
-      <c r="J10" s="323"/>
-      <c r="K10" s="323"/>
+      <c r="G10" s="319"/>
+      <c r="H10" s="319"/>
+      <c r="I10" s="319"/>
+      <c r="J10" s="319"/>
+      <c r="K10" s="319"/>
     </row>
     <row r="11" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="44" t="s">
@@ -34128,11 +34128,11 @@
       <c r="F11" s="83">
         <v>23</v>
       </c>
-      <c r="G11" s="323"/>
-      <c r="H11" s="323"/>
-      <c r="I11" s="323"/>
-      <c r="J11" s="323"/>
-      <c r="K11" s="323"/>
+      <c r="G11" s="319"/>
+      <c r="H11" s="319"/>
+      <c r="I11" s="319"/>
+      <c r="J11" s="319"/>
+      <c r="K11" s="319"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="44" t="s">
@@ -34153,11 +34153,11 @@
       <c r="F12" s="83">
         <v>23</v>
       </c>
-      <c r="G12" s="323"/>
-      <c r="H12" s="323"/>
-      <c r="I12" s="323"/>
-      <c r="J12" s="323"/>
-      <c r="K12" s="323"/>
+      <c r="G12" s="319"/>
+      <c r="H12" s="319"/>
+      <c r="I12" s="319"/>
+      <c r="J12" s="319"/>
+      <c r="K12" s="319"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="52" t="s">
@@ -34178,11 +34178,11 @@
       <c r="F13" s="45">
         <v>23</v>
       </c>
-      <c r="G13" s="323"/>
-      <c r="H13" s="323"/>
-      <c r="I13" s="323"/>
-      <c r="J13" s="323"/>
-      <c r="K13" s="323"/>
+      <c r="G13" s="319"/>
+      <c r="H13" s="319"/>
+      <c r="I13" s="319"/>
+      <c r="J13" s="319"/>
+      <c r="K13" s="319"/>
     </row>
     <row r="14" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="122" t="s">
@@ -34203,11 +34203,11 @@
       <c r="F14" s="83">
         <v>23</v>
       </c>
-      <c r="G14" s="323"/>
-      <c r="H14" s="323"/>
-      <c r="I14" s="323"/>
-      <c r="J14" s="323"/>
-      <c r="K14" s="323"/>
+      <c r="G14" s="319"/>
+      <c r="H14" s="319"/>
+      <c r="I14" s="319"/>
+      <c r="J14" s="319"/>
+      <c r="K14" s="319"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="54" t="s">
@@ -34261,21 +34261,21 @@
       <c r="H2" s="222"/>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="396" t="s">
+      <c r="A3" s="397" t="s">
         <v>342</v>
       </c>
-      <c r="B3" s="362" t="s">
+      <c r="B3" s="363" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="362"/>
-      <c r="D3" s="362"/>
-      <c r="E3" s="362"/>
-      <c r="F3" s="362"/>
-      <c r="G3" s="362"/>
-      <c r="H3" s="362"/>
+      <c r="C3" s="363"/>
+      <c r="D3" s="363"/>
+      <c r="E3" s="363"/>
+      <c r="F3" s="363"/>
+      <c r="G3" s="363"/>
+      <c r="H3" s="363"/>
     </row>
     <row r="4" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="397"/>
+      <c r="A4" s="398"/>
       <c r="B4" s="298" t="s">
         <v>287</v>
       </c>
@@ -34560,28 +34560,28 @@
       </c>
     </row>
     <row r="15" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="358" t="s">
+      <c r="A15" s="359" t="s">
         <v>345</v>
       </c>
-      <c r="B15" s="358"/>
-      <c r="C15" s="358"/>
-      <c r="D15" s="358"/>
-      <c r="E15" s="358"/>
-      <c r="F15" s="358"/>
-      <c r="G15" s="358"/>
-      <c r="H15" s="358"/>
+      <c r="B15" s="359"/>
+      <c r="C15" s="359"/>
+      <c r="D15" s="359"/>
+      <c r="E15" s="359"/>
+      <c r="F15" s="359"/>
+      <c r="G15" s="359"/>
+      <c r="H15" s="359"/>
     </row>
     <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="398" t="s">
+      <c r="A16" s="399" t="s">
         <v>283</v>
       </c>
-      <c r="B16" s="398"/>
-      <c r="C16" s="398"/>
-      <c r="D16" s="398"/>
-      <c r="E16" s="398"/>
-      <c r="F16" s="398"/>
-      <c r="G16" s="398"/>
-      <c r="H16" s="398"/>
+      <c r="B16" s="399"/>
+      <c r="C16" s="399"/>
+      <c r="D16" s="399"/>
+      <c r="E16" s="399"/>
+      <c r="F16" s="399"/>
+      <c r="G16" s="399"/>
+      <c r="H16" s="399"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -34629,7 +34629,7 @@
       <c r="G2" s="228"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="399" t="s">
+      <c r="A3" s="400" t="s">
         <v>342</v>
       </c>
       <c r="B3" s="241" t="s">
@@ -34638,17 +34638,17 @@
       <c r="C3" s="241" t="s">
         <v>121</v>
       </c>
-      <c r="D3" s="360" t="s">
+      <c r="D3" s="361" t="s">
         <v>280</v>
       </c>
-      <c r="E3" s="360"/>
-      <c r="F3" s="360"/>
+      <c r="E3" s="361"/>
+      <c r="F3" s="361"/>
       <c r="G3" s="241" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="397"/>
+      <c r="A4" s="398"/>
       <c r="B4" s="234"/>
       <c r="C4" s="234"/>
       <c r="D4" s="234" t="s">
@@ -34893,13 +34893,13 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="398" t="s">
+      <c r="A15" s="399" t="s">
         <v>283</v>
       </c>
-      <c r="B15" s="398"/>
-      <c r="C15" s="398"/>
-      <c r="D15" s="398"/>
-      <c r="E15" s="398"/>
+      <c r="B15" s="399"/>
+      <c r="C15" s="399"/>
+      <c r="D15" s="399"/>
+      <c r="E15" s="399"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -35245,7 +35245,7 @@
       <c r="X3" s="215"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A4" s="337">
+      <c r="A4" s="338">
         <f>'[1]Hoja 02'!A2</f>
         <v>2009</v>
       </c>
@@ -35265,7 +35265,7 @@
       <c r="P4" s="150"/>
     </row>
     <row r="5" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="338"/>
+      <c r="A5" s="339"/>
       <c r="B5" s="164" t="str">
         <f>'[1]Hoja 02'!B3</f>
         <v>abr-jun</v>
@@ -35282,7 +35282,7 @@
       <c r="P5" s="150"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A6" s="338"/>
+      <c r="A6" s="339"/>
       <c r="B6" s="164" t="str">
         <f>'[1]Hoja 02'!B4</f>
         <v>jul-sep</v>
@@ -35299,7 +35299,7 @@
       <c r="P6" s="150"/>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A7" s="339"/>
+      <c r="A7" s="340"/>
       <c r="B7" s="165" t="str">
         <f>'[1]Hoja 02'!B5</f>
         <v>oct-dic</v>
@@ -35316,7 +35316,7 @@
       <c r="P7" s="150"/>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A8" s="337">
+      <c r="A8" s="338">
         <f>'[1]Hoja 02'!A6</f>
         <v>2010</v>
       </c>
@@ -35336,7 +35336,7 @@
       <c r="P8" s="150"/>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A9" s="338"/>
+      <c r="A9" s="339"/>
       <c r="B9" s="164" t="str">
         <f>'[1]Hoja 02'!B7</f>
         <v>abr-jun</v>
@@ -35353,7 +35353,7 @@
       <c r="P9" s="150"/>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A10" s="338"/>
+      <c r="A10" s="339"/>
       <c r="B10" s="164" t="str">
         <f>'[1]Hoja 02'!B8</f>
         <v>jul-sep</v>
@@ -35370,7 +35370,7 @@
       <c r="P10" s="150"/>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A11" s="339"/>
+      <c r="A11" s="340"/>
       <c r="B11" s="165" t="str">
         <f>'[1]Hoja 02'!B9</f>
         <v>oct-dic</v>
@@ -35387,7 +35387,7 @@
       <c r="P11" s="150"/>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A12" s="337">
+      <c r="A12" s="338">
         <f>'[1]Hoja 02'!A10</f>
         <v>2011</v>
       </c>
@@ -35407,7 +35407,7 @@
       <c r="P12" s="150"/>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A13" s="338"/>
+      <c r="A13" s="339"/>
       <c r="B13" s="164" t="str">
         <f>'[1]Hoja 02'!B11</f>
         <v>abr-jun</v>
@@ -35424,7 +35424,7 @@
       <c r="P13" s="150"/>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A14" s="338"/>
+      <c r="A14" s="339"/>
       <c r="B14" s="164" t="str">
         <f>'[1]Hoja 02'!B12</f>
         <v>jul-sep</v>
@@ -35441,7 +35441,7 @@
       <c r="P14" s="150"/>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A15" s="339"/>
+      <c r="A15" s="340"/>
       <c r="B15" s="165" t="str">
         <f>'[1]Hoja 02'!B13</f>
         <v>oct-dic</v>
@@ -35458,7 +35458,7 @@
       <c r="P15" s="150"/>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A16" s="337">
+      <c r="A16" s="338">
         <f>'[1]Hoja 02'!A14</f>
         <v>2012</v>
       </c>
@@ -35478,7 +35478,7 @@
       <c r="P16" s="150"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A17" s="338"/>
+      <c r="A17" s="339"/>
       <c r="B17" s="164" t="str">
         <f>'[1]Hoja 02'!B15</f>
         <v>abr-jun</v>
@@ -35495,7 +35495,7 @@
       <c r="P17" s="150"/>
     </row>
     <row r="18" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="338"/>
+      <c r="A18" s="339"/>
       <c r="B18" s="164" t="str">
         <f>'[1]Hoja 02'!B16</f>
         <v>jul-sep</v>
@@ -35521,7 +35521,7 @@
       <c r="P18" s="150"/>
     </row>
     <row r="19" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="339"/>
+      <c r="A19" s="340"/>
       <c r="B19" s="165" t="str">
         <f>'[1]Hoja 02'!B17</f>
         <v>oct-dic</v>
@@ -35546,7 +35546,7 @@
       <c r="P19" s="150"/>
     </row>
     <row r="20" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="337">
+      <c r="A20" s="338">
         <f>'[1]Hoja 02'!A18</f>
         <v>2013</v>
       </c>
@@ -35573,7 +35573,7 @@
       <c r="N20" s="159"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A21" s="338"/>
+      <c r="A21" s="339"/>
       <c r="B21" s="164" t="str">
         <f>'[1]Hoja 02'!B19</f>
         <v>abr-jun</v>
@@ -35590,7 +35590,7 @@
       <c r="P21" s="150"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A22" s="338"/>
+      <c r="A22" s="339"/>
       <c r="B22" s="164" t="str">
         <f>'[1]Hoja 02'!B20</f>
         <v>jul-sep</v>
@@ -35607,7 +35607,7 @@
       <c r="P22" s="150"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A23" s="339"/>
+      <c r="A23" s="340"/>
       <c r="B23" s="165" t="str">
         <f>'[1]Hoja 02'!B21</f>
         <v>oct-dic</v>
@@ -35629,7 +35629,7 @@
       <c r="P23" s="150"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A24" s="337">
+      <c r="A24" s="338">
         <f>'[1]Hoja 02'!A22</f>
         <v>2014</v>
       </c>
@@ -35656,7 +35656,7 @@
       <c r="P24" s="150"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A25" s="338"/>
+      <c r="A25" s="339"/>
       <c r="B25" s="164" t="str">
         <f>'[1]Hoja 02'!B23</f>
         <v>abr-jun</v>
@@ -35673,7 +35673,7 @@
       <c r="P25" s="150"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A26" s="338"/>
+      <c r="A26" s="339"/>
       <c r="B26" s="164" t="str">
         <f>'[1]Hoja 02'!B24</f>
         <v>jul-sep</v>
@@ -35687,7 +35687,7 @@
       <c r="P26" s="150"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A27" s="339"/>
+      <c r="A27" s="340"/>
       <c r="B27" s="165" t="str">
         <f>'[1]Hoja 02'!B25</f>
         <v>oct-dic</v>
@@ -35701,7 +35701,7 @@
       <c r="P27" s="150"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A28" s="337">
+      <c r="A28" s="338">
         <f>'[1]Hoja 02'!A26</f>
         <v>2015</v>
       </c>
@@ -35718,7 +35718,7 @@
       <c r="P28" s="150"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A29" s="338"/>
+      <c r="A29" s="339"/>
       <c r="B29" s="164" t="str">
         <f>'[1]Hoja 02'!B27</f>
         <v>abr-jun</v>
@@ -35732,7 +35732,7 @@
       <c r="P29" s="150"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A30" s="338"/>
+      <c r="A30" s="339"/>
       <c r="B30" s="164" t="str">
         <f>'[1]Hoja 02'!B28</f>
         <v>jul-sep</v>
@@ -35745,7 +35745,7 @@
       </c>
     </row>
     <row r="31" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="340"/>
+      <c r="A31" s="341"/>
       <c r="B31" s="167" t="str">
         <f>'[1]Hoja 02'!B29</f>
         <v>oct-dic</v>
@@ -37170,7 +37170,7 @@
       <c r="P3" s="150"/>
     </row>
     <row r="4" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="337">
+      <c r="A4" s="338">
         <f>'[1]Hoja 03'!A2</f>
         <v>2010</v>
       </c>
@@ -37198,7 +37198,7 @@
       <c r="P4" s="150"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A5" s="338"/>
+      <c r="A5" s="339"/>
       <c r="B5" s="164" t="str">
         <f>'[1]Hoja 03'!B3</f>
         <v>feb-abr</v>
@@ -37223,7 +37223,7 @@
       <c r="P5" s="150"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A6" s="338"/>
+      <c r="A6" s="339"/>
       <c r="B6" s="164" t="str">
         <f>'[1]Hoja 03'!B4</f>
         <v>mar-may</v>
@@ -37248,7 +37248,7 @@
       <c r="P6" s="150"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A7" s="338"/>
+      <c r="A7" s="339"/>
       <c r="B7" s="164" t="str">
         <f>'[1]Hoja 03'!B5</f>
         <v>abr-jun</v>
@@ -37273,7 +37273,7 @@
       <c r="P7" s="150"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A8" s="338"/>
+      <c r="A8" s="339"/>
       <c r="B8" s="164" t="str">
         <f>'[1]Hoja 03'!B6</f>
         <v>may-jul</v>
@@ -37298,7 +37298,7 @@
       <c r="P8" s="150"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A9" s="338"/>
+      <c r="A9" s="339"/>
       <c r="B9" s="164" t="str">
         <f>'[1]Hoja 03'!B7</f>
         <v>jun-ago</v>
@@ -37323,7 +37323,7 @@
       <c r="P9" s="150"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A10" s="338"/>
+      <c r="A10" s="339"/>
       <c r="B10" s="164" t="str">
         <f>'[1]Hoja 03'!B8</f>
         <v>jul-sep</v>
@@ -37348,7 +37348,7 @@
       <c r="P10" s="150"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A11" s="338"/>
+      <c r="A11" s="339"/>
       <c r="B11" s="164" t="str">
         <f>'[1]Hoja 03'!B9</f>
         <v>ago-oct</v>
@@ -37373,7 +37373,7 @@
       <c r="P11" s="150"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A12" s="338"/>
+      <c r="A12" s="339"/>
       <c r="B12" s="164" t="str">
         <f>'[1]Hoja 03'!B10</f>
         <v>sep-nov</v>
@@ -37398,7 +37398,7 @@
       <c r="P12" s="150"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A13" s="338"/>
+      <c r="A13" s="339"/>
       <c r="B13" s="164" t="str">
         <f>'[1]Hoja 03'!B11</f>
         <v>oct-dic</v>
@@ -37423,7 +37423,7 @@
       <c r="P13" s="150"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A14" s="339"/>
+      <c r="A14" s="340"/>
       <c r="B14" s="165" t="str">
         <f>'[1]Hoja 03'!B12</f>
         <v>nov-ene</v>
@@ -37448,7 +37448,7 @@
       <c r="P14" s="150"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A15" s="337">
+      <c r="A15" s="338">
         <f>'[1]Hoja 03'!A13</f>
         <v>2011</v>
       </c>
@@ -37476,7 +37476,7 @@
       <c r="P15" s="150"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A16" s="338"/>
+      <c r="A16" s="339"/>
       <c r="B16" s="164" t="str">
         <f>'[1]Hoja 03'!B14</f>
         <v>ene-mar</v>
@@ -37501,7 +37501,7 @@
       <c r="P16" s="150"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A17" s="338"/>
+      <c r="A17" s="339"/>
       <c r="B17" s="164" t="str">
         <f>'[1]Hoja 03'!B15</f>
         <v>feb-abr</v>
@@ -37526,7 +37526,7 @@
       <c r="P17" s="150"/>
     </row>
     <row r="18" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="338"/>
+      <c r="A18" s="339"/>
       <c r="B18" s="164" t="str">
         <f>'[1]Hoja 03'!B16</f>
         <v>mar-may</v>
@@ -37543,7 +37543,7 @@
       <c r="P18" s="150"/>
     </row>
     <row r="19" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="338"/>
+      <c r="A19" s="339"/>
       <c r="B19" s="164" t="str">
         <f>'[1]Hoja 03'!B17</f>
         <v>abr-jun</v>
@@ -37567,7 +37567,7 @@
       <c r="P19" s="150"/>
     </row>
     <row r="20" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="338"/>
+      <c r="A20" s="339"/>
       <c r="B20" s="164" t="str">
         <f>'[1]Hoja 03'!B18</f>
         <v>may-jul</v>
@@ -37593,7 +37593,7 @@
       <c r="P20" s="150"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A21" s="338"/>
+      <c r="A21" s="339"/>
       <c r="B21" s="164" t="str">
         <f>'[1]Hoja 03'!B19</f>
         <v>jun-ago</v>
@@ -37620,7 +37620,7 @@
       <c r="P21" s="150"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A22" s="338"/>
+      <c r="A22" s="339"/>
       <c r="B22" s="164" t="str">
         <f>'[1]Hoja 03'!B20</f>
         <v>jul-sep</v>
@@ -37645,7 +37645,7 @@
       <c r="P22" s="150"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A23" s="338"/>
+      <c r="A23" s="339"/>
       <c r="B23" s="164" t="str">
         <f>'[1]Hoja 03'!B21</f>
         <v>ago-oct</v>
@@ -37670,7 +37670,7 @@
       <c r="P23" s="150"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A24" s="338"/>
+      <c r="A24" s="339"/>
       <c r="B24" s="164" t="str">
         <f>'[1]Hoja 03'!B22</f>
         <v>sep-nov</v>
@@ -37695,7 +37695,7 @@
       <c r="P24" s="150"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A25" s="338"/>
+      <c r="A25" s="339"/>
       <c r="B25" s="164" t="str">
         <f>'[1]Hoja 03'!B23</f>
         <v>oct-dic</v>
@@ -37720,7 +37720,7 @@
       <c r="P25" s="150"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A26" s="339"/>
+      <c r="A26" s="340"/>
       <c r="B26" s="165" t="str">
         <f>'[1]Hoja 03'!B24</f>
         <v>nov-ene</v>
@@ -37743,7 +37743,7 @@
       <c r="N26" s="150"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A27" s="337">
+      <c r="A27" s="338">
         <f>'[1]Hoja 03'!A25</f>
         <v>2012</v>
       </c>
@@ -37761,7 +37761,7 @@
       <c r="F27" s="267"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A28" s="338"/>
+      <c r="A28" s="339"/>
       <c r="B28" s="164" t="str">
         <f>'[1]Hoja 03'!B26</f>
         <v>ene-mar</v>
@@ -37776,7 +37776,7 @@
       <c r="F28" s="267"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A29" s="338"/>
+      <c r="A29" s="339"/>
       <c r="B29" s="164" t="str">
         <f>'[1]Hoja 03'!B27</f>
         <v>feb-abr</v>
@@ -37791,7 +37791,7 @@
       <c r="F29" s="267"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A30" s="338"/>
+      <c r="A30" s="339"/>
       <c r="B30" s="164" t="str">
         <f>'[1]Hoja 03'!B28</f>
         <v>mar-may</v>
@@ -37806,7 +37806,7 @@
       <c r="F30" s="267"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A31" s="338"/>
+      <c r="A31" s="339"/>
       <c r="B31" s="164" t="str">
         <f>'[1]Hoja 03'!B29</f>
         <v>abr-jun</v>
@@ -37821,7 +37821,7 @@
       <c r="F31" s="267"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A32" s="338"/>
+      <c r="A32" s="339"/>
       <c r="B32" s="164" t="str">
         <f>'[1]Hoja 03'!B30</f>
         <v>may-jul</v>
@@ -37836,7 +37836,7 @@
       <c r="F32" s="267"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="338"/>
+      <c r="A33" s="339"/>
       <c r="B33" s="164" t="str">
         <f>'[1]Hoja 03'!B31</f>
         <v>jun-ago</v>
@@ -37851,7 +37851,7 @@
       <c r="F33" s="267"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="338"/>
+      <c r="A34" s="339"/>
       <c r="B34" s="164" t="str">
         <f>'[1]Hoja 03'!B32</f>
         <v>jul-sep</v>
@@ -37866,7 +37866,7 @@
       <c r="F34" s="267"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="338"/>
+      <c r="A35" s="339"/>
       <c r="B35" s="164" t="str">
         <f>'[1]Hoja 03'!B33</f>
         <v>ago-oct</v>
@@ -37881,7 +37881,7 @@
       <c r="F35" s="267"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="338"/>
+      <c r="A36" s="339"/>
       <c r="B36" s="164" t="str">
         <f>'[1]Hoja 03'!B34</f>
         <v>sep-nov</v>
@@ -37896,7 +37896,7 @@
       <c r="F36" s="267"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="338"/>
+      <c r="A37" s="339"/>
       <c r="B37" s="164" t="str">
         <f>'[1]Hoja 03'!B35</f>
         <v>oct-dic</v>
@@ -37911,7 +37911,7 @@
       <c r="F37" s="267"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="339"/>
+      <c r="A38" s="340"/>
       <c r="B38" s="165" t="str">
         <f>'[1]Hoja 03'!B36</f>
         <v>nov-ene</v>
@@ -37926,7 +37926,7 @@
       <c r="F38" s="267"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="337">
+      <c r="A39" s="338">
         <f>'[1]Hoja 03'!A37</f>
         <v>2013</v>
       </c>
@@ -37944,7 +37944,7 @@
       <c r="F39" s="267"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" s="338"/>
+      <c r="A40" s="339"/>
       <c r="B40" s="164" t="str">
         <f>'[1]Hoja 03'!B38</f>
         <v>ene-mar</v>
@@ -37959,7 +37959,7 @@
       <c r="F40" s="267"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" s="338"/>
+      <c r="A41" s="339"/>
       <c r="B41" s="164" t="str">
         <f>'[1]Hoja 03'!B39</f>
         <v>feb-abr</v>
@@ -37974,7 +37974,7 @@
       <c r="F41" s="267"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" s="338"/>
+      <c r="A42" s="339"/>
       <c r="B42" s="164" t="str">
         <f>'[1]Hoja 03'!B40</f>
         <v>mar-may</v>
@@ -37989,7 +37989,7 @@
       <c r="F42" s="267"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" s="338"/>
+      <c r="A43" s="339"/>
       <c r="B43" s="164" t="str">
         <f>'[1]Hoja 03'!B41</f>
         <v>abr-jun</v>
@@ -38004,7 +38004,7 @@
       <c r="F43" s="267"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" s="338"/>
+      <c r="A44" s="339"/>
       <c r="B44" s="164" t="str">
         <f>'[1]Hoja 03'!B42</f>
         <v>may-jul</v>
@@ -38019,7 +38019,7 @@
       <c r="F44" s="267"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45" s="338"/>
+      <c r="A45" s="339"/>
       <c r="B45" s="164" t="str">
         <f>'[1]Hoja 03'!B43</f>
         <v>jun-ago</v>
@@ -38034,7 +38034,7 @@
       <c r="F45" s="267"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46" s="338"/>
+      <c r="A46" s="339"/>
       <c r="B46" s="164" t="str">
         <f>'[1]Hoja 03'!B44</f>
         <v>jul-sep</v>
@@ -38049,7 +38049,7 @@
       <c r="F46" s="267"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47" s="338"/>
+      <c r="A47" s="339"/>
       <c r="B47" s="164" t="str">
         <f>'[1]Hoja 03'!B45</f>
         <v>ago-oct</v>
@@ -38064,7 +38064,7 @@
       <c r="F47" s="267"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48" s="338"/>
+      <c r="A48" s="339"/>
       <c r="B48" s="164" t="str">
         <f>'[1]Hoja 03'!B46</f>
         <v>sep-nov</v>
@@ -38079,7 +38079,7 @@
       <c r="F48" s="267"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A49" s="338"/>
+      <c r="A49" s="339"/>
       <c r="B49" s="164" t="str">
         <f>'[1]Hoja 03'!B47</f>
         <v>oct-dic</v>
@@ -38094,7 +38094,7 @@
       <c r="F49" s="267"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A50" s="339"/>
+      <c r="A50" s="340"/>
       <c r="B50" s="165" t="str">
         <f>'[1]Hoja 03'!B48</f>
         <v>nov-ene</v>
@@ -38109,7 +38109,7 @@
       <c r="F50" s="267"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A51" s="337">
+      <c r="A51" s="338">
         <f>'[1]Hoja 03'!A49</f>
         <v>2014</v>
       </c>
@@ -38127,7 +38127,7 @@
       <c r="F51" s="267"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A52" s="338"/>
+      <c r="A52" s="339"/>
       <c r="B52" s="164" t="str">
         <f>'[1]Hoja 03'!B50</f>
         <v>ene-mar</v>
@@ -38142,7 +38142,7 @@
       <c r="F52" s="267"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A53" s="338"/>
+      <c r="A53" s="339"/>
       <c r="B53" s="164" t="str">
         <f>'[1]Hoja 03'!B51</f>
         <v>feb-abr</v>
@@ -38157,7 +38157,7 @@
       <c r="F53" s="267"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A54" s="338"/>
+      <c r="A54" s="339"/>
       <c r="B54" s="164" t="str">
         <f>'[1]Hoja 03'!B52</f>
         <v>mar-may</v>
@@ -38172,7 +38172,7 @@
       <c r="F54" s="267"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A55" s="338"/>
+      <c r="A55" s="339"/>
       <c r="B55" s="164" t="str">
         <f>'[1]Hoja 03'!B53</f>
         <v>abr-jun</v>
@@ -38187,7 +38187,7 @@
       <c r="F55" s="267"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A56" s="338"/>
+      <c r="A56" s="339"/>
       <c r="B56" s="164" t="str">
         <f>'[1]Hoja 03'!B54</f>
         <v>may-jul</v>
@@ -38202,7 +38202,7 @@
       <c r="F56" s="267"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A57" s="338"/>
+      <c r="A57" s="339"/>
       <c r="B57" s="164" t="str">
         <f>'[1]Hoja 03'!B55</f>
         <v>jun-ago</v>
@@ -38217,7 +38217,7 @@
       <c r="F57" s="267"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A58" s="338"/>
+      <c r="A58" s="339"/>
       <c r="B58" s="164" t="str">
         <f>'[1]Hoja 03'!B56</f>
         <v>jul-sep</v>
@@ -38232,7 +38232,7 @@
       <c r="F58" s="267"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A59" s="338"/>
+      <c r="A59" s="339"/>
       <c r="B59" s="164" t="str">
         <f>'[1]Hoja 03'!B57</f>
         <v>ago-oct</v>
@@ -38247,7 +38247,7 @@
       <c r="F59" s="267"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A60" s="338"/>
+      <c r="A60" s="339"/>
       <c r="B60" s="164" t="str">
         <f>'[1]Hoja 03'!B58</f>
         <v>sep-nov</v>
@@ -38262,7 +38262,7 @@
       <c r="F60" s="267"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A61" s="338"/>
+      <c r="A61" s="339"/>
       <c r="B61" s="164" t="str">
         <f>'[1]Hoja 03'!B59</f>
         <v>oct-dic</v>
@@ -38277,7 +38277,7 @@
       <c r="F61" s="267"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A62" s="339"/>
+      <c r="A62" s="340"/>
       <c r="B62" s="165" t="str">
         <f>'[1]Hoja 03'!B60</f>
         <v>nov-ene</v>
@@ -38292,7 +38292,7 @@
       <c r="F62" s="267"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A63" s="337">
+      <c r="A63" s="338">
         <f>'[1]Hoja 03'!A61</f>
         <v>2015</v>
       </c>
@@ -38310,7 +38310,7 @@
       <c r="F63" s="267"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A64" s="338"/>
+      <c r="A64" s="339"/>
       <c r="B64" s="164" t="str">
         <f>'[1]Hoja 03'!B62</f>
         <v>ene-mar</v>
@@ -38325,7 +38325,7 @@
       <c r="F64" s="267"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A65" s="338"/>
+      <c r="A65" s="339"/>
       <c r="B65" s="164" t="str">
         <f>'[1]Hoja 03'!B63</f>
         <v>feb-abr</v>
@@ -38340,7 +38340,7 @@
       <c r="F65" s="267"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A66" s="338"/>
+      <c r="A66" s="339"/>
       <c r="B66" s="164" t="str">
         <f>'[1]Hoja 03'!B64</f>
         <v>mar-may</v>
@@ -38355,7 +38355,7 @@
       <c r="F66" s="267"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A67" s="338"/>
+      <c r="A67" s="339"/>
       <c r="B67" s="164" t="str">
         <f>'[1]Hoja 03'!B65</f>
         <v>abr-jun</v>
@@ -38370,7 +38370,7 @@
       <c r="F67" s="267"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A68" s="338"/>
+      <c r="A68" s="339"/>
       <c r="B68" s="164" t="str">
         <f>'[1]Hoja 03'!B66</f>
         <v>may-jul</v>
@@ -38385,7 +38385,7 @@
       <c r="F68" s="267"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A69" s="338"/>
+      <c r="A69" s="339"/>
       <c r="B69" s="164" t="str">
         <f>'[1]Hoja 03'!B67</f>
         <v>jun-ago</v>
@@ -38400,7 +38400,7 @@
       <c r="F69" s="267"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A70" s="338"/>
+      <c r="A70" s="339"/>
       <c r="B70" s="164" t="str">
         <f>'[1]Hoja 03'!B68</f>
         <v>jul-sep</v>
@@ -38415,7 +38415,7 @@
       <c r="F70" s="267"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A71" s="338"/>
+      <c r="A71" s="339"/>
       <c r="B71" s="164" t="str">
         <f>'[1]Hoja 03'!B69</f>
         <v>ago-oct</v>
@@ -38430,7 +38430,7 @@
       <c r="F71" s="267"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A72" s="338"/>
+      <c r="A72" s="339"/>
       <c r="B72" s="164" t="str">
         <f>'[1]Hoja 03'!B70</f>
         <v>sep-nov</v>
@@ -38445,7 +38445,7 @@
       <c r="F72" s="267"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A73" s="338"/>
+      <c r="A73" s="339"/>
       <c r="B73" s="164" t="str">
         <f>'[1]Hoja 03'!B71</f>
         <v>oct-dic</v>
@@ -38601,15 +38601,15 @@
       </c>
       <c r="D9" s="267"/>
       <c r="E9" s="267"/>
-      <c r="P9" s="341"/>
-      <c r="Q9" s="341"/>
-      <c r="R9" s="341"/>
-      <c r="S9" s="341"/>
-      <c r="T9" s="341"/>
-      <c r="U9" s="341"/>
-      <c r="V9" s="341"/>
-      <c r="W9" s="341"/>
-      <c r="X9" s="341"/>
+      <c r="P9" s="342"/>
+      <c r="Q9" s="342"/>
+      <c r="R9" s="342"/>
+      <c r="S9" s="342"/>
+      <c r="T9" s="342"/>
+      <c r="U9" s="342"/>
+      <c r="V9" s="342"/>
+      <c r="W9" s="342"/>
+      <c r="X9" s="342"/>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10" s="172" t="s">
@@ -38793,7 +38793,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N68"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -39114,8 +39116,8 @@
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B19" s="310"/>
-      <c r="C19" s="310"/>
+      <c r="B19" s="308"/>
+      <c r="C19" s="308"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C28" s="177"/>
@@ -39202,15 +39204,15 @@
     <row r="37" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C37" s="177"/>
       <c r="E37" s="180"/>
-      <c r="F37" s="342"/>
-      <c r="G37" s="342"/>
-      <c r="H37" s="342"/>
-      <c r="I37" s="342"/>
-      <c r="J37" s="342"/>
-      <c r="K37" s="342"/>
-      <c r="L37" s="342"/>
-      <c r="M37" s="342"/>
-      <c r="N37" s="342"/>
+      <c r="F37" s="343"/>
+      <c r="G37" s="343"/>
+      <c r="H37" s="343"/>
+      <c r="I37" s="343"/>
+      <c r="J37" s="343"/>
+      <c r="K37" s="343"/>
+      <c r="L37" s="343"/>
+      <c r="M37" s="343"/>
+      <c r="N37" s="343"/>
     </row>
     <row r="38" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C38" s="177"/>
@@ -39764,7 +39766,7 @@
       <c r="P3" s="150"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A4" s="337">
+      <c r="A4" s="338">
         <v>2010</v>
       </c>
       <c r="B4" s="164" t="s">
@@ -39790,7 +39792,7 @@
       <c r="P4" s="150"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A5" s="338"/>
+      <c r="A5" s="339"/>
       <c r="B5" s="164" t="s">
         <v>265</v>
       </c>
@@ -39813,7 +39815,7 @@
       <c r="O5" s="150"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A6" s="338"/>
+      <c r="A6" s="339"/>
       <c r="B6" s="164" t="s">
         <v>266</v>
       </c>
@@ -39837,7 +39839,7 @@
       <c r="P6" s="150"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A7" s="338"/>
+      <c r="A7" s="339"/>
       <c r="B7" s="164" t="s">
         <v>258</v>
       </c>
@@ -39861,7 +39863,7 @@
       <c r="P7" s="150"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A8" s="338"/>
+      <c r="A8" s="339"/>
       <c r="B8" s="164" t="s">
         <v>267</v>
       </c>
@@ -39885,7 +39887,7 @@
       <c r="P8" s="150"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A9" s="338"/>
+      <c r="A9" s="339"/>
       <c r="B9" s="164" t="s">
         <v>268</v>
       </c>
@@ -39909,7 +39911,7 @@
       <c r="P9" s="150"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A10" s="338"/>
+      <c r="A10" s="339"/>
       <c r="B10" s="164" t="s">
         <v>259</v>
       </c>
@@ -39933,7 +39935,7 @@
       <c r="P10" s="150"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A11" s="338"/>
+      <c r="A11" s="339"/>
       <c r="B11" s="164" t="s">
         <v>269</v>
       </c>
@@ -39957,7 +39959,7 @@
       <c r="P11" s="150"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A12" s="338"/>
+      <c r="A12" s="339"/>
       <c r="B12" s="164" t="s">
         <v>270</v>
       </c>
@@ -39981,7 +39983,7 @@
       <c r="P12" s="150"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A13" s="338"/>
+      <c r="A13" s="339"/>
       <c r="B13" s="164" t="s">
         <v>260</v>
       </c>
@@ -40005,7 +40007,7 @@
       <c r="P13" s="150"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A14" s="339"/>
+      <c r="A14" s="340"/>
       <c r="B14" s="165" t="s">
         <v>271</v>
       </c>
@@ -40029,7 +40031,7 @@
       <c r="P14" s="150"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A15" s="343">
+      <c r="A15" s="344">
         <v>2011</v>
       </c>
       <c r="B15" s="185" t="s">
@@ -40055,7 +40057,7 @@
       <c r="P15" s="150"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A16" s="344"/>
+      <c r="A16" s="345"/>
       <c r="B16" s="185" t="s">
         <v>257</v>
       </c>
@@ -40079,7 +40081,7 @@
       <c r="P16" s="150"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A17" s="344"/>
+      <c r="A17" s="345"/>
       <c r="B17" s="185" t="s">
         <v>265</v>
       </c>
@@ -40103,7 +40105,7 @@
       <c r="P17" s="150"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A18" s="344"/>
+      <c r="A18" s="345"/>
       <c r="B18" s="185" t="s">
         <v>266</v>
       </c>
@@ -40118,7 +40120,7 @@
       <c r="G18" s="150"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A19" s="344"/>
+      <c r="A19" s="345"/>
       <c r="B19" s="185" t="s">
         <v>258</v>
       </c>
@@ -40133,7 +40135,7 @@
       <c r="G19" s="150"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A20" s="344"/>
+      <c r="A20" s="345"/>
       <c r="B20" s="185" t="s">
         <v>267</v>
       </c>
@@ -40148,7 +40150,7 @@
       <c r="G20" s="150"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A21" s="344"/>
+      <c r="A21" s="345"/>
       <c r="B21" s="185" t="s">
         <v>268</v>
       </c>
@@ -40163,7 +40165,7 @@
       <c r="G21" s="150"/>
     </row>
     <row r="22" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="344"/>
+      <c r="A22" s="345"/>
       <c r="B22" s="185" t="s">
         <v>259</v>
       </c>
@@ -40187,7 +40189,7 @@
       <c r="N22" s="144"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A23" s="344"/>
+      <c r="A23" s="345"/>
       <c r="B23" s="185" t="s">
         <v>269</v>
       </c>
@@ -40211,7 +40213,7 @@
       <c r="N23" s="159"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A24" s="344"/>
+      <c r="A24" s="345"/>
       <c r="B24" s="185" t="s">
         <v>270</v>
       </c>
@@ -40226,7 +40228,7 @@
       <c r="G24" s="150"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A25" s="344"/>
+      <c r="A25" s="345"/>
       <c r="B25" s="185" t="s">
         <v>260</v>
       </c>
@@ -40241,7 +40243,7 @@
       <c r="G25" s="150"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A26" s="345"/>
+      <c r="A26" s="346"/>
       <c r="B26" s="187" t="s">
         <v>271</v>
       </c>
@@ -40256,7 +40258,7 @@
       <c r="G26" s="150"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A27" s="343">
+      <c r="A27" s="344">
         <v>2012</v>
       </c>
       <c r="B27" s="185" t="s">
@@ -40273,7 +40275,7 @@
       <c r="G27" s="150"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A28" s="344"/>
+      <c r="A28" s="345"/>
       <c r="B28" s="185" t="s">
         <v>257</v>
       </c>
@@ -40288,7 +40290,7 @@
       <c r="G28" s="150"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A29" s="344"/>
+      <c r="A29" s="345"/>
       <c r="B29" s="185" t="s">
         <v>265</v>
       </c>
@@ -40303,7 +40305,7 @@
       <c r="G29" s="150"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A30" s="344"/>
+      <c r="A30" s="345"/>
       <c r="B30" s="185" t="s">
         <v>266</v>
       </c>
@@ -40318,7 +40320,7 @@
       <c r="G30" s="150"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A31" s="344"/>
+      <c r="A31" s="345"/>
       <c r="B31" s="185" t="s">
         <v>258</v>
       </c>
@@ -40333,7 +40335,7 @@
       <c r="G31" s="150"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A32" s="344"/>
+      <c r="A32" s="345"/>
       <c r="B32" s="185" t="s">
         <v>267</v>
       </c>
@@ -40348,7 +40350,7 @@
       <c r="G32" s="150"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A33" s="344"/>
+      <c r="A33" s="345"/>
       <c r="B33" s="185" t="s">
         <v>268</v>
       </c>
@@ -40363,7 +40365,7 @@
       <c r="G33" s="150"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A34" s="344"/>
+      <c r="A34" s="345"/>
       <c r="B34" s="185" t="s">
         <v>259</v>
       </c>
@@ -40378,7 +40380,7 @@
       <c r="G34" s="150"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A35" s="344"/>
+      <c r="A35" s="345"/>
       <c r="B35" s="185" t="s">
         <v>269</v>
       </c>
@@ -40393,7 +40395,7 @@
       <c r="G35" s="150"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A36" s="344"/>
+      <c r="A36" s="345"/>
       <c r="B36" s="185" t="s">
         <v>270</v>
       </c>
@@ -40417,7 +40419,7 @@
       <c r="P36" s="150"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A37" s="344"/>
+      <c r="A37" s="345"/>
       <c r="B37" s="185" t="s">
         <v>260</v>
       </c>
@@ -40441,7 +40443,7 @@
       <c r="P37" s="150"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A38" s="345"/>
+      <c r="A38" s="346"/>
       <c r="B38" s="187" t="s">
         <v>271</v>
       </c>
@@ -40465,7 +40467,7 @@
       <c r="P38" s="150"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A39" s="337">
+      <c r="A39" s="338">
         <v>2013</v>
       </c>
       <c r="B39" s="164" t="s">
@@ -40491,7 +40493,7 @@
       <c r="P39" s="150"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A40" s="338"/>
+      <c r="A40" s="339"/>
       <c r="B40" s="164" t="s">
         <v>257</v>
       </c>
@@ -40515,7 +40517,7 @@
       <c r="P40" s="150"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A41" s="338"/>
+      <c r="A41" s="339"/>
       <c r="B41" s="164" t="s">
         <v>265</v>
       </c>
@@ -40539,7 +40541,7 @@
       <c r="P41" s="150"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A42" s="338"/>
+      <c r="A42" s="339"/>
       <c r="B42" s="164" t="s">
         <v>266</v>
       </c>
@@ -40563,7 +40565,7 @@
       <c r="P42" s="150"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A43" s="338"/>
+      <c r="A43" s="339"/>
       <c r="B43" s="164" t="s">
         <v>258</v>
       </c>
@@ -40587,7 +40589,7 @@
       <c r="P43" s="150"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A44" s="338"/>
+      <c r="A44" s="339"/>
       <c r="B44" s="164" t="s">
         <v>267</v>
       </c>
@@ -40611,7 +40613,7 @@
       <c r="P44" s="150"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A45" s="338"/>
+      <c r="A45" s="339"/>
       <c r="B45" s="164" t="s">
         <v>268</v>
       </c>
@@ -40635,7 +40637,7 @@
       <c r="P45" s="150"/>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A46" s="338"/>
+      <c r="A46" s="339"/>
       <c r="B46" s="164" t="s">
         <v>259</v>
       </c>
@@ -40659,7 +40661,7 @@
       <c r="P46" s="150"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A47" s="338"/>
+      <c r="A47" s="339"/>
       <c r="B47" s="164" t="s">
         <v>269</v>
       </c>
@@ -40683,7 +40685,7 @@
       <c r="P47" s="150"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A48" s="338"/>
+      <c r="A48" s="339"/>
       <c r="B48" s="164" t="s">
         <v>270</v>
       </c>
@@ -40707,7 +40709,7 @@
       <c r="P48" s="150"/>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A49" s="338"/>
+      <c r="A49" s="339"/>
       <c r="B49" s="164" t="s">
         <v>260</v>
       </c>
@@ -40731,7 +40733,7 @@
       <c r="P49" s="150"/>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A50" s="339"/>
+      <c r="A50" s="340"/>
       <c r="B50" s="165" t="s">
         <v>271</v>
       </c>
@@ -40755,7 +40757,7 @@
       <c r="P50" s="150"/>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A51" s="337">
+      <c r="A51" s="338">
         <v>2014</v>
       </c>
       <c r="B51" s="164" t="s">
@@ -40780,7 +40782,7 @@
       <c r="O51" s="150"/>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A52" s="338"/>
+      <c r="A52" s="339"/>
       <c r="B52" s="164" t="s">
         <v>257</v>
       </c>
@@ -40794,7 +40796,7 @@
       <c r="F52" s="268"/>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A53" s="338"/>
+      <c r="A53" s="339"/>
       <c r="B53" s="164" t="s">
         <v>265</v>
       </c>
@@ -40808,7 +40810,7 @@
       <c r="F53" s="268"/>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A54" s="338"/>
+      <c r="A54" s="339"/>
       <c r="B54" s="164" t="s">
         <v>266</v>
       </c>
@@ -40822,7 +40824,7 @@
       <c r="F54" s="268"/>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A55" s="338"/>
+      <c r="A55" s="339"/>
       <c r="B55" s="164" t="s">
         <v>258</v>
       </c>
@@ -40836,7 +40838,7 @@
       <c r="F55" s="268"/>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A56" s="338"/>
+      <c r="A56" s="339"/>
       <c r="B56" s="164" t="s">
         <v>267</v>
       </c>
@@ -40850,7 +40852,7 @@
       <c r="F56" s="268"/>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A57" s="338"/>
+      <c r="A57" s="339"/>
       <c r="B57" s="164" t="s">
         <v>268</v>
       </c>
@@ -40864,7 +40866,7 @@
       <c r="F57" s="268"/>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A58" s="338"/>
+      <c r="A58" s="339"/>
       <c r="B58" s="164" t="s">
         <v>259</v>
       </c>
@@ -40878,7 +40880,7 @@
       <c r="F58" s="268"/>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A59" s="338"/>
+      <c r="A59" s="339"/>
       <c r="B59" s="164" t="s">
         <v>269</v>
       </c>
@@ -40892,7 +40894,7 @@
       <c r="F59" s="268"/>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A60" s="338"/>
+      <c r="A60" s="339"/>
       <c r="B60" s="164" t="s">
         <v>270</v>
       </c>
@@ -40906,7 +40908,7 @@
       <c r="F60" s="268"/>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A61" s="338"/>
+      <c r="A61" s="339"/>
       <c r="B61" s="164" t="s">
         <v>260</v>
       </c>
@@ -40920,7 +40922,7 @@
       <c r="F61" s="268"/>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A62" s="339"/>
+      <c r="A62" s="340"/>
       <c r="B62" s="165" t="s">
         <v>271</v>
       </c>
@@ -40934,7 +40936,7 @@
       <c r="F62" s="268"/>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A63" s="337">
+      <c r="A63" s="338">
         <v>2015</v>
       </c>
       <c r="B63" s="164" t="s">
@@ -40950,7 +40952,7 @@
       <c r="F63" s="268"/>
     </row>
     <row r="64" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="338"/>
+      <c r="A64" s="339"/>
       <c r="B64" s="164" t="s">
         <v>257</v>
       </c>
@@ -40964,7 +40966,7 @@
       <c r="F64" s="268"/>
     </row>
     <row r="65" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="338"/>
+      <c r="A65" s="339"/>
       <c r="B65" s="164" t="s">
         <v>265</v>
       </c>
@@ -40978,7 +40980,7 @@
       <c r="F65" s="268"/>
     </row>
     <row r="66" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="338"/>
+      <c r="A66" s="339"/>
       <c r="B66" s="164" t="s">
         <v>266</v>
       </c>
@@ -40992,7 +40994,7 @@
       <c r="F66" s="268"/>
     </row>
     <row r="67" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="338"/>
+      <c r="A67" s="339"/>
       <c r="B67" s="164" t="s">
         <v>258</v>
       </c>
@@ -41006,7 +41008,7 @@
       <c r="F67" s="268"/>
     </row>
     <row r="68" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="338"/>
+      <c r="A68" s="339"/>
       <c r="B68" s="164" t="s">
         <v>267</v>
       </c>
@@ -41020,7 +41022,7 @@
       <c r="F68" s="268"/>
     </row>
     <row r="69" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="338"/>
+      <c r="A69" s="339"/>
       <c r="B69" s="164" t="s">
         <v>268</v>
       </c>
@@ -41034,7 +41036,7 @@
       <c r="F69" s="268"/>
     </row>
     <row r="70" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="338"/>
+      <c r="A70" s="339"/>
       <c r="B70" s="164" t="s">
         <v>259</v>
       </c>
@@ -41048,7 +41050,7 @@
       <c r="F70" s="268"/>
     </row>
     <row r="71" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="338"/>
+      <c r="A71" s="339"/>
       <c r="B71" s="164" t="s">
         <v>269</v>
       </c>
@@ -41062,7 +41064,7 @@
       <c r="F71" s="268"/>
     </row>
     <row r="72" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="338"/>
+      <c r="A72" s="339"/>
       <c r="B72" s="164" t="s">
         <v>270</v>
       </c>
@@ -41076,7 +41078,7 @@
       <c r="F72" s="268"/>
     </row>
     <row r="73" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="338"/>
+      <c r="A73" s="339"/>
       <c r="B73" s="164" t="s">
         <v>260</v>
       </c>
@@ -41090,7 +41092,7 @@
       <c r="F73" s="268"/>
     </row>
     <row r="74" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="340"/>
+      <c r="A74" s="341"/>
       <c r="B74" s="167" t="s">
         <v>271</v>
       </c>

--- a/Índice de Tablas (16-01-2017).xlsx
+++ b/Índice de Tablas (16-01-2017).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" tabRatio="834" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" tabRatio="834" firstSheet="1" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja 01" sheetId="1" state="hidden" r:id="rId1"/>
@@ -2981,6 +2981,9 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="8" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="55" fillId="3" borderId="24" xfId="8" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="50" fillId="2" borderId="31" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3205,9 +3208,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="8" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="3" borderId="24" xfId="8" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="12">
@@ -9767,7 +9767,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
@@ -9958,7 +9958,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
@@ -23595,7 +23595,7 @@
       <c r="Q3" s="150"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A4" s="338">
+      <c r="A4" s="339">
         <v>2011</v>
       </c>
       <c r="B4" s="164" t="s">
@@ -23624,7 +23624,7 @@
       <c r="Q4" s="150"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A5" s="339"/>
+      <c r="A5" s="340"/>
       <c r="B5" s="164" t="s">
         <v>265</v>
       </c>
@@ -23651,7 +23651,7 @@
       <c r="Q5" s="150"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A6" s="339"/>
+      <c r="A6" s="340"/>
       <c r="B6" s="164" t="s">
         <v>266</v>
       </c>
@@ -23678,7 +23678,7 @@
       <c r="Q6" s="150"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A7" s="339"/>
+      <c r="A7" s="340"/>
       <c r="B7" s="164" t="s">
         <v>258</v>
       </c>
@@ -23705,7 +23705,7 @@
       <c r="Q7" s="150"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A8" s="339"/>
+      <c r="A8" s="340"/>
       <c r="B8" s="164" t="s">
         <v>267</v>
       </c>
@@ -23732,7 +23732,7 @@
       <c r="Q8" s="150"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A9" s="339"/>
+      <c r="A9" s="340"/>
       <c r="B9" s="164" t="s">
         <v>268</v>
       </c>
@@ -23759,7 +23759,7 @@
       <c r="Q9" s="150"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A10" s="339"/>
+      <c r="A10" s="340"/>
       <c r="B10" s="164" t="s">
         <v>259</v>
       </c>
@@ -23786,7 +23786,7 @@
       <c r="Q10" s="150"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A11" s="339"/>
+      <c r="A11" s="340"/>
       <c r="B11" s="164" t="s">
         <v>269</v>
       </c>
@@ -23813,7 +23813,7 @@
       <c r="Q11" s="150"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A12" s="339"/>
+      <c r="A12" s="340"/>
       <c r="B12" s="164" t="s">
         <v>270</v>
       </c>
@@ -23840,7 +23840,7 @@
       <c r="Q12" s="150"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A13" s="339"/>
+      <c r="A13" s="340"/>
       <c r="B13" s="164" t="s">
         <v>260</v>
       </c>
@@ -23867,7 +23867,7 @@
       <c r="Q13" s="150"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A14" s="340"/>
+      <c r="A14" s="341"/>
       <c r="B14" s="165" t="s">
         <v>271</v>
       </c>
@@ -23894,7 +23894,7 @@
       <c r="Q14" s="150"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A15" s="338">
+      <c r="A15" s="339">
         <v>2012</v>
       </c>
       <c r="B15" s="164" t="s">
@@ -23923,7 +23923,7 @@
       <c r="Q15" s="150"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A16" s="339"/>
+      <c r="A16" s="340"/>
       <c r="B16" s="164" t="s">
         <v>257</v>
       </c>
@@ -23950,7 +23950,7 @@
       <c r="Q16" s="150"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A17" s="339"/>
+      <c r="A17" s="340"/>
       <c r="B17" s="164" t="s">
         <v>265</v>
       </c>
@@ -23977,7 +23977,7 @@
       <c r="Q17" s="150"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A18" s="339"/>
+      <c r="A18" s="340"/>
       <c r="B18" s="164" t="s">
         <v>266</v>
       </c>
@@ -24004,7 +24004,7 @@
       <c r="Q18" s="150"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A19" s="339"/>
+      <c r="A19" s="340"/>
       <c r="B19" s="164" t="s">
         <v>258</v>
       </c>
@@ -24031,7 +24031,7 @@
       <c r="Q19" s="150"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A20" s="339"/>
+      <c r="A20" s="340"/>
       <c r="B20" s="164" t="s">
         <v>267</v>
       </c>
@@ -24058,7 +24058,7 @@
       <c r="Q20" s="150"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A21" s="339"/>
+      <c r="A21" s="340"/>
       <c r="B21" s="164" t="s">
         <v>268</v>
       </c>
@@ -24085,7 +24085,7 @@
       <c r="Q21" s="150"/>
     </row>
     <row r="22" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="339"/>
+      <c r="A22" s="340"/>
       <c r="B22" s="164" t="s">
         <v>259</v>
       </c>
@@ -24114,7 +24114,7 @@
       <c r="Q22" s="150"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A23" s="339"/>
+      <c r="A23" s="340"/>
       <c r="B23" s="164" t="s">
         <v>269</v>
       </c>
@@ -24143,7 +24143,7 @@
       <c r="Q23" s="150"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A24" s="339"/>
+      <c r="A24" s="340"/>
       <c r="B24" s="164" t="s">
         <v>270</v>
       </c>
@@ -24170,7 +24170,7 @@
       <c r="Q24" s="150"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A25" s="339"/>
+      <c r="A25" s="340"/>
       <c r="B25" s="164" t="s">
         <v>260</v>
       </c>
@@ -24197,7 +24197,7 @@
       <c r="Q25" s="150"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A26" s="340"/>
+      <c r="A26" s="341"/>
       <c r="B26" s="165" t="s">
         <v>271</v>
       </c>
@@ -24224,7 +24224,7 @@
       <c r="Q26" s="150"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A27" s="338">
+      <c r="A27" s="339">
         <v>2013</v>
       </c>
       <c r="B27" s="164" t="s">
@@ -24253,7 +24253,7 @@
       <c r="Q27" s="150"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A28" s="339"/>
+      <c r="A28" s="340"/>
       <c r="B28" s="164" t="s">
         <v>257</v>
       </c>
@@ -24280,7 +24280,7 @@
       <c r="Q28" s="150"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A29" s="339"/>
+      <c r="A29" s="340"/>
       <c r="B29" s="164" t="s">
         <v>265</v>
       </c>
@@ -24307,7 +24307,7 @@
       <c r="Q29" s="150"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A30" s="339"/>
+      <c r="A30" s="340"/>
       <c r="B30" s="164" t="s">
         <v>266</v>
       </c>
@@ -24334,7 +24334,7 @@
       <c r="Q30" s="150"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A31" s="339"/>
+      <c r="A31" s="340"/>
       <c r="B31" s="164" t="s">
         <v>258</v>
       </c>
@@ -24361,7 +24361,7 @@
       <c r="Q31" s="150"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A32" s="339"/>
+      <c r="A32" s="340"/>
       <c r="B32" s="164" t="s">
         <v>267</v>
       </c>
@@ -24388,7 +24388,7 @@
       <c r="Q32" s="150"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A33" s="339"/>
+      <c r="A33" s="340"/>
       <c r="B33" s="164" t="s">
         <v>268</v>
       </c>
@@ -24415,7 +24415,7 @@
       <c r="Q33" s="150"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A34" s="339"/>
+      <c r="A34" s="340"/>
       <c r="B34" s="164" t="s">
         <v>259</v>
       </c>
@@ -24442,7 +24442,7 @@
       <c r="Q34" s="150"/>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A35" s="339"/>
+      <c r="A35" s="340"/>
       <c r="B35" s="164" t="s">
         <v>269</v>
       </c>
@@ -24469,7 +24469,7 @@
       <c r="Q35" s="150"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A36" s="339"/>
+      <c r="A36" s="340"/>
       <c r="B36" s="164" t="s">
         <v>270</v>
       </c>
@@ -24496,7 +24496,7 @@
       <c r="Q36" s="150"/>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A37" s="339"/>
+      <c r="A37" s="340"/>
       <c r="B37" s="164" t="s">
         <v>260</v>
       </c>
@@ -24523,7 +24523,7 @@
       <c r="Q37" s="150"/>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A38" s="340"/>
+      <c r="A38" s="341"/>
       <c r="B38" s="165" t="s">
         <v>271</v>
       </c>
@@ -24550,7 +24550,7 @@
       <c r="Q38" s="150"/>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A39" s="338">
+      <c r="A39" s="339">
         <v>2014</v>
       </c>
       <c r="B39" s="164" t="s">
@@ -24579,7 +24579,7 @@
       <c r="Q39" s="150"/>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A40" s="339"/>
+      <c r="A40" s="340"/>
       <c r="B40" s="164" t="s">
         <v>257</v>
       </c>
@@ -24606,7 +24606,7 @@
       <c r="Q40" s="150"/>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A41" s="339"/>
+      <c r="A41" s="340"/>
       <c r="B41" s="164" t="s">
         <v>265</v>
       </c>
@@ -24633,7 +24633,7 @@
       <c r="Q41" s="150"/>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A42" s="339"/>
+      <c r="A42" s="340"/>
       <c r="B42" s="164" t="s">
         <v>266</v>
       </c>
@@ -24660,7 +24660,7 @@
       <c r="Q42" s="150"/>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A43" s="339"/>
+      <c r="A43" s="340"/>
       <c r="B43" s="164" t="s">
         <v>258</v>
       </c>
@@ -24687,7 +24687,7 @@
       <c r="Q43" s="150"/>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A44" s="339"/>
+      <c r="A44" s="340"/>
       <c r="B44" s="164" t="s">
         <v>267</v>
       </c>
@@ -24714,7 +24714,7 @@
       <c r="Q44" s="150"/>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A45" s="339"/>
+      <c r="A45" s="340"/>
       <c r="B45" s="164" t="s">
         <v>268</v>
       </c>
@@ -24741,7 +24741,7 @@
       <c r="Q45" s="150"/>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A46" s="339"/>
+      <c r="A46" s="340"/>
       <c r="B46" s="164" t="s">
         <v>259</v>
       </c>
@@ -24768,7 +24768,7 @@
       <c r="Q46" s="150"/>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A47" s="339"/>
+      <c r="A47" s="340"/>
       <c r="B47" s="164" t="s">
         <v>269</v>
       </c>
@@ -24795,7 +24795,7 @@
       <c r="Q47" s="150"/>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A48" s="339"/>
+      <c r="A48" s="340"/>
       <c r="B48" s="164" t="s">
         <v>270</v>
       </c>
@@ -24822,7 +24822,7 @@
       <c r="Q48" s="150"/>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A49" s="339"/>
+      <c r="A49" s="340"/>
       <c r="B49" s="164" t="s">
         <v>260</v>
       </c>
@@ -24849,7 +24849,7 @@
       <c r="Q49" s="150"/>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A50" s="340"/>
+      <c r="A50" s="341"/>
       <c r="B50" s="165" t="s">
         <v>271</v>
       </c>
@@ -24876,7 +24876,7 @@
       <c r="Q50" s="150"/>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A51" s="338">
+      <c r="A51" s="339">
         <v>2015</v>
       </c>
       <c r="B51" s="192" t="s">
@@ -24898,7 +24898,7 @@
       <c r="P51" s="150"/>
     </row>
     <row r="52" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="339"/>
+      <c r="A52" s="340"/>
       <c r="B52" s="193" t="s">
         <v>257</v>
       </c>
@@ -24917,7 +24917,7 @@
       <c r="O52" s="150"/>
     </row>
     <row r="53" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="339"/>
+      <c r="A53" s="340"/>
       <c r="B53" s="193" t="s">
         <v>265</v>
       </c>
@@ -24936,7 +24936,7 @@
       <c r="O53" s="150"/>
     </row>
     <row r="54" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="339"/>
+      <c r="A54" s="340"/>
       <c r="B54" s="193" t="s">
         <v>266</v>
       </c>
@@ -24955,7 +24955,7 @@
       <c r="O54" s="150"/>
     </row>
     <row r="55" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="339"/>
+      <c r="A55" s="340"/>
       <c r="B55" s="193" t="s">
         <v>258</v>
       </c>
@@ -24974,7 +24974,7 @@
       <c r="O55" s="150"/>
     </row>
     <row r="56" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="339"/>
+      <c r="A56" s="340"/>
       <c r="B56" s="193" t="s">
         <v>267</v>
       </c>
@@ -24993,7 +24993,7 @@
       <c r="O56" s="150"/>
     </row>
     <row r="57" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="339"/>
+      <c r="A57" s="340"/>
       <c r="B57" s="193" t="s">
         <v>268</v>
       </c>
@@ -25012,7 +25012,7 @@
       <c r="O57" s="150"/>
     </row>
     <row r="58" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="339"/>
+      <c r="A58" s="340"/>
       <c r="B58" s="193" t="s">
         <v>259</v>
       </c>
@@ -25031,7 +25031,7 @@
       <c r="O58" s="150"/>
     </row>
     <row r="59" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="339"/>
+      <c r="A59" s="340"/>
       <c r="B59" s="193" t="s">
         <v>269</v>
       </c>
@@ -25050,7 +25050,7 @@
       <c r="O59" s="150"/>
     </row>
     <row r="60" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="339"/>
+      <c r="A60" s="340"/>
       <c r="B60" s="193" t="s">
         <v>270</v>
       </c>
@@ -25069,7 +25069,7 @@
       <c r="M60" s="150"/>
     </row>
     <row r="61" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="341"/>
+      <c r="A61" s="342"/>
       <c r="B61" s="194" t="s">
         <v>260</v>
       </c>
@@ -25108,9 +25108,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N75"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -25159,7 +25157,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="348">
+      <c r="A5" s="349">
         <f>[2]_01!A2</f>
         <v>2010</v>
       </c>
@@ -25181,7 +25179,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="347"/>
+      <c r="A6" s="348"/>
       <c r="B6" s="207" t="s">
         <v>265</v>
       </c>
@@ -25200,7 +25198,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="347"/>
+      <c r="A7" s="348"/>
       <c r="B7" s="207" t="s">
         <v>266</v>
       </c>
@@ -25219,7 +25217,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="347"/>
+      <c r="A8" s="348"/>
       <c r="B8" s="207" t="s">
         <v>258</v>
       </c>
@@ -25238,7 +25236,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="347"/>
+      <c r="A9" s="348"/>
       <c r="B9" s="207" t="s">
         <v>267</v>
       </c>
@@ -25257,7 +25255,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="347"/>
+      <c r="A10" s="348"/>
       <c r="B10" s="207" t="s">
         <v>268</v>
       </c>
@@ -25276,7 +25274,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="347"/>
+      <c r="A11" s="348"/>
       <c r="B11" s="207" t="s">
         <v>259</v>
       </c>
@@ -25295,7 +25293,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="347"/>
+      <c r="A12" s="348"/>
       <c r="B12" s="207" t="s">
         <v>269</v>
       </c>
@@ -25314,7 +25312,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="347"/>
+      <c r="A13" s="348"/>
       <c r="B13" s="207" t="s">
         <v>270</v>
       </c>
@@ -25333,7 +25331,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="347"/>
+      <c r="A14" s="348"/>
       <c r="B14" s="207" t="s">
         <v>260</v>
       </c>
@@ -25352,7 +25350,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="349"/>
+      <c r="A15" s="350"/>
       <c r="B15" s="207" t="s">
         <v>271</v>
       </c>
@@ -25371,7 +25369,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="347">
+      <c r="A16" s="348">
         <f>[2]_01!A13</f>
         <v>2011</v>
       </c>
@@ -25392,7 +25390,7 @@
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="347"/>
+      <c r="A17" s="348"/>
       <c r="B17" s="207" t="s">
         <v>257</v>
       </c>
@@ -25410,7 +25408,7 @@
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="347"/>
+      <c r="A18" s="348"/>
       <c r="B18" s="207" t="s">
         <v>265</v>
       </c>
@@ -25426,16 +25424,16 @@
       <c r="F18" s="208">
         <v>16.799999999999997</v>
       </c>
-      <c r="I18" s="350" t="s">
+      <c r="I18" s="351" t="s">
         <v>273</v>
       </c>
-      <c r="J18" s="350"/>
-      <c r="K18" s="350"/>
-      <c r="L18" s="350"/>
-      <c r="M18" s="350"/>
+      <c r="J18" s="351"/>
+      <c r="K18" s="351"/>
+      <c r="L18" s="351"/>
+      <c r="M18" s="351"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="347"/>
+      <c r="A19" s="348"/>
       <c r="B19" s="207" t="s">
         <v>266</v>
       </c>
@@ -25453,7 +25451,7 @@
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="347"/>
+      <c r="A20" s="348"/>
       <c r="B20" s="207" t="s">
         <v>258</v>
       </c>
@@ -25471,7 +25469,7 @@
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="347"/>
+      <c r="A21" s="348"/>
       <c r="B21" s="207" t="s">
         <v>267</v>
       </c>
@@ -25489,7 +25487,7 @@
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="347"/>
+      <c r="A22" s="348"/>
       <c r="B22" s="207" t="s">
         <v>268</v>
       </c>
@@ -25507,7 +25505,7 @@
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="347"/>
+      <c r="A23" s="348"/>
       <c r="B23" s="207" t="s">
         <v>259</v>
       </c>
@@ -25525,7 +25523,7 @@
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="347"/>
+      <c r="A24" s="348"/>
       <c r="B24" s="207" t="s">
         <v>269</v>
       </c>
@@ -25543,7 +25541,7 @@
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="347"/>
+      <c r="A25" s="348"/>
       <c r="B25" s="207" t="s">
         <v>270</v>
       </c>
@@ -25561,7 +25559,7 @@
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="347"/>
+      <c r="A26" s="348"/>
       <c r="B26" s="207" t="s">
         <v>260</v>
       </c>
@@ -25579,7 +25577,7 @@
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="349"/>
+      <c r="A27" s="350"/>
       <c r="B27" s="207" t="s">
         <v>271</v>
       </c>
@@ -25597,7 +25595,7 @@
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="347">
+      <c r="A28" s="348">
         <f>[2]_01!A25</f>
         <v>2012</v>
       </c>
@@ -25618,7 +25616,7 @@
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="347"/>
+      <c r="A29" s="348"/>
       <c r="B29" s="207" t="s">
         <v>257</v>
       </c>
@@ -25636,7 +25634,7 @@
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="347"/>
+      <c r="A30" s="348"/>
       <c r="B30" s="207" t="s">
         <v>265</v>
       </c>
@@ -25654,7 +25652,7 @@
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="347"/>
+      <c r="A31" s="348"/>
       <c r="B31" s="207" t="s">
         <v>266</v>
       </c>
@@ -25672,7 +25670,7 @@
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="347"/>
+      <c r="A32" s="348"/>
       <c r="B32" s="207" t="s">
         <v>258</v>
       </c>
@@ -25690,7 +25688,7 @@
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="347"/>
+      <c r="A33" s="348"/>
       <c r="B33" s="207" t="s">
         <v>267</v>
       </c>
@@ -25708,7 +25706,7 @@
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="347"/>
+      <c r="A34" s="348"/>
       <c r="B34" s="207" t="s">
         <v>268</v>
       </c>
@@ -25726,7 +25724,7 @@
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="347"/>
+      <c r="A35" s="348"/>
       <c r="B35" s="207" t="s">
         <v>259</v>
       </c>
@@ -25746,7 +25744,7 @@
       <c r="N35" s="212"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="347"/>
+      <c r="A36" s="348"/>
       <c r="B36" s="207" t="s">
         <v>269</v>
       </c>
@@ -25764,7 +25762,7 @@
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="347"/>
+      <c r="A37" s="348"/>
       <c r="B37" s="207" t="s">
         <v>270</v>
       </c>
@@ -25782,7 +25780,7 @@
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="347"/>
+      <c r="A38" s="348"/>
       <c r="B38" s="207" t="s">
         <v>260</v>
       </c>
@@ -25800,7 +25798,7 @@
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" s="349"/>
+      <c r="A39" s="350"/>
       <c r="B39" s="207" t="s">
         <v>271</v>
       </c>
@@ -25818,7 +25816,7 @@
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40" s="347">
+      <c r="A40" s="348">
         <f>[2]_01!A37</f>
         <v>2013</v>
       </c>
@@ -25839,7 +25837,7 @@
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41" s="347"/>
+      <c r="A41" s="348"/>
       <c r="B41" s="207" t="s">
         <v>257</v>
       </c>
@@ -25857,7 +25855,7 @@
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42" s="347"/>
+      <c r="A42" s="348"/>
       <c r="B42" s="207" t="s">
         <v>265</v>
       </c>
@@ -25876,7 +25874,7 @@
       <c r="N42" s="213"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" s="347"/>
+      <c r="A43" s="348"/>
       <c r="B43" s="207" t="s">
         <v>266</v>
       </c>
@@ -25895,7 +25893,7 @@
       <c r="N43" s="212"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44" s="347"/>
+      <c r="A44" s="348"/>
       <c r="B44" s="207" t="s">
         <v>258</v>
       </c>
@@ -25913,7 +25911,7 @@
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A45" s="347"/>
+      <c r="A45" s="348"/>
       <c r="B45" s="207" t="s">
         <v>267</v>
       </c>
@@ -25931,7 +25929,7 @@
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" s="347"/>
+      <c r="A46" s="348"/>
       <c r="B46" s="207" t="s">
         <v>268</v>
       </c>
@@ -25949,7 +25947,7 @@
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A47" s="347"/>
+      <c r="A47" s="348"/>
       <c r="B47" s="207" t="s">
         <v>259</v>
       </c>
@@ -25967,7 +25965,7 @@
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A48" s="347"/>
+      <c r="A48" s="348"/>
       <c r="B48" s="207" t="s">
         <v>269</v>
       </c>
@@ -25985,7 +25983,7 @@
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="347"/>
+      <c r="A49" s="348"/>
       <c r="B49" s="207" t="s">
         <v>270</v>
       </c>
@@ -26003,7 +26001,7 @@
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="347"/>
+      <c r="A50" s="348"/>
       <c r="B50" s="207" t="s">
         <v>260</v>
       </c>
@@ -26021,7 +26019,7 @@
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="349"/>
+      <c r="A51" s="350"/>
       <c r="B51" s="207" t="s">
         <v>271</v>
       </c>
@@ -26039,7 +26037,7 @@
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="347">
+      <c r="A52" s="348">
         <f>[2]_01!A49</f>
         <v>2014</v>
       </c>
@@ -26060,7 +26058,7 @@
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="347"/>
+      <c r="A53" s="348"/>
       <c r="B53" s="207" t="s">
         <v>257</v>
       </c>
@@ -26078,7 +26076,7 @@
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="347"/>
+      <c r="A54" s="348"/>
       <c r="B54" s="207" t="s">
         <v>265</v>
       </c>
@@ -26096,7 +26094,7 @@
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="347"/>
+      <c r="A55" s="348"/>
       <c r="B55" s="207" t="s">
         <v>266</v>
       </c>
@@ -26114,7 +26112,7 @@
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="347"/>
+      <c r="A56" s="348"/>
       <c r="B56" s="207" t="s">
         <v>258</v>
       </c>
@@ -26132,7 +26130,7 @@
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="347"/>
+      <c r="A57" s="348"/>
       <c r="B57" s="207" t="s">
         <v>267</v>
       </c>
@@ -26150,7 +26148,7 @@
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="347"/>
+      <c r="A58" s="348"/>
       <c r="B58" s="207" t="s">
         <v>268</v>
       </c>
@@ -26168,7 +26166,7 @@
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="347"/>
+      <c r="A59" s="348"/>
       <c r="B59" s="207" t="s">
         <v>259</v>
       </c>
@@ -26186,7 +26184,7 @@
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="347"/>
+      <c r="A60" s="348"/>
       <c r="B60" s="207" t="s">
         <v>269</v>
       </c>
@@ -26204,7 +26202,7 @@
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="347"/>
+      <c r="A61" s="348"/>
       <c r="B61" s="207" t="s">
         <v>270</v>
       </c>
@@ -26222,7 +26220,7 @@
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="347"/>
+      <c r="A62" s="348"/>
       <c r="B62" s="207" t="s">
         <v>260</v>
       </c>
@@ -26240,7 +26238,7 @@
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="349"/>
+      <c r="A63" s="350"/>
       <c r="B63" s="207" t="s">
         <v>271</v>
       </c>
@@ -26258,7 +26256,7 @@
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="347">
+      <c r="A64" s="348">
         <f>[2]_01!A61</f>
         <v>2015</v>
       </c>
@@ -26279,7 +26277,7 @@
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="347"/>
+      <c r="A65" s="348"/>
       <c r="B65" s="207" t="s">
         <v>257</v>
       </c>
@@ -26297,7 +26295,7 @@
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="347"/>
+      <c r="A66" s="348"/>
       <c r="B66" s="207" t="s">
         <v>265</v>
       </c>
@@ -26315,7 +26313,7 @@
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="347"/>
+      <c r="A67" s="348"/>
       <c r="B67" s="207" t="s">
         <v>266</v>
       </c>
@@ -26333,7 +26331,7 @@
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="347"/>
+      <c r="A68" s="348"/>
       <c r="B68" s="207" t="s">
         <v>258</v>
       </c>
@@ -26351,7 +26349,7 @@
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="347"/>
+      <c r="A69" s="348"/>
       <c r="B69" s="207" t="s">
         <v>267</v>
       </c>
@@ -26369,7 +26367,7 @@
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="347"/>
+      <c r="A70" s="348"/>
       <c r="B70" s="207" t="s">
         <v>268</v>
       </c>
@@ -26387,7 +26385,7 @@
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="347"/>
+      <c r="A71" s="348"/>
       <c r="B71" s="207" t="s">
         <v>259</v>
       </c>
@@ -26405,7 +26403,7 @@
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="347"/>
+      <c r="A72" s="348"/>
       <c r="B72" s="207" t="s">
         <v>269</v>
       </c>
@@ -26423,7 +26421,7 @@
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="347"/>
+      <c r="A73" s="348"/>
       <c r="B73" s="207" t="s">
         <v>270</v>
       </c>
@@ -26441,7 +26439,7 @@
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="347"/>
+      <c r="A74" s="348"/>
       <c r="B74" s="207" t="s">
         <v>260</v>
       </c>
@@ -26495,7 +26493,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W35"/>
   <sheetViews>
-    <sheetView topLeftCell="B3" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
@@ -26546,7 +26544,7 @@
       <c r="H3" s="150"/>
     </row>
     <row r="4" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="334">
+      <c r="A4" s="335">
         <f>'[1]Hoja 01'!A2</f>
         <v>2008</v>
       </c>
@@ -26561,18 +26559,18 @@
       </c>
       <c r="E4" s="268"/>
       <c r="F4" s="268"/>
-      <c r="O4" s="342"/>
-      <c r="P4" s="342"/>
-      <c r="Q4" s="342"/>
-      <c r="R4" s="342"/>
-      <c r="S4" s="342"/>
-      <c r="T4" s="342"/>
-      <c r="U4" s="342"/>
-      <c r="V4" s="342"/>
-      <c r="W4" s="342"/>
+      <c r="O4" s="343"/>
+      <c r="P4" s="343"/>
+      <c r="Q4" s="343"/>
+      <c r="R4" s="343"/>
+      <c r="S4" s="343"/>
+      <c r="T4" s="343"/>
+      <c r="U4" s="343"/>
+      <c r="V4" s="343"/>
+      <c r="W4" s="343"/>
     </row>
     <row r="5" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="335"/>
+      <c r="A5" s="336"/>
       <c r="B5" s="151" t="s">
         <v>258</v>
       </c>
@@ -26588,7 +26586,7 @@
       <c r="Q5" s="150"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A6" s="335"/>
+      <c r="A6" s="336"/>
       <c r="B6" s="151" t="s">
         <v>259</v>
       </c>
@@ -26603,7 +26601,7 @@
       <c r="Q6" s="150"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A7" s="336"/>
+      <c r="A7" s="337"/>
       <c r="B7" s="154" t="s">
         <v>260</v>
       </c>
@@ -26618,7 +26616,7 @@
       <c r="Q7" s="150"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A8" s="334">
+      <c r="A8" s="335">
         <f>'[1]Hoja 01'!A6</f>
         <v>2009</v>
       </c>
@@ -26636,7 +26634,7 @@
       <c r="Q8" s="150"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A9" s="335"/>
+      <c r="A9" s="336"/>
       <c r="B9" s="151" t="s">
         <v>258</v>
       </c>
@@ -26651,7 +26649,7 @@
       <c r="Q9" s="150"/>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A10" s="335"/>
+      <c r="A10" s="336"/>
       <c r="B10" s="151" t="s">
         <v>259</v>
       </c>
@@ -26665,7 +26663,7 @@
       <c r="F10" s="268"/>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A11" s="336"/>
+      <c r="A11" s="337"/>
       <c r="B11" s="154" t="s">
         <v>260</v>
       </c>
@@ -26679,7 +26677,7 @@
       <c r="F11" s="268"/>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A12" s="334">
+      <c r="A12" s="335">
         <f>'[1]Hoja 01'!A10</f>
         <v>2010</v>
       </c>
@@ -26696,7 +26694,7 @@
       <c r="F12" s="268"/>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A13" s="335"/>
+      <c r="A13" s="336"/>
       <c r="B13" s="151" t="s">
         <v>258</v>
       </c>
@@ -26710,7 +26708,7 @@
       <c r="F13" s="268"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A14" s="335"/>
+      <c r="A14" s="336"/>
       <c r="B14" s="151" t="s">
         <v>259</v>
       </c>
@@ -26724,7 +26722,7 @@
       <c r="F14" s="268"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A15" s="336"/>
+      <c r="A15" s="337"/>
       <c r="B15" s="154" t="s">
         <v>260</v>
       </c>
@@ -26738,7 +26736,7 @@
       <c r="F15" s="268"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A16" s="334">
+      <c r="A16" s="335">
         <f>'[1]Hoja 01'!A14</f>
         <v>2011</v>
       </c>
@@ -26755,7 +26753,7 @@
       <c r="F16" s="268"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A17" s="335"/>
+      <c r="A17" s="336"/>
       <c r="B17" s="151" t="s">
         <v>258</v>
       </c>
@@ -26769,7 +26767,7 @@
       <c r="F17" s="268"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A18" s="335"/>
+      <c r="A18" s="336"/>
       <c r="B18" s="151" t="s">
         <v>259</v>
       </c>
@@ -26783,7 +26781,7 @@
       <c r="F18" s="268"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A19" s="336"/>
+      <c r="A19" s="337"/>
       <c r="B19" s="154" t="s">
         <v>260</v>
       </c>
@@ -26805,7 +26803,7 @@
       <c r="N19" s="157"/>
     </row>
     <row r="20" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="334">
+      <c r="A20" s="335">
         <f>'[1]Hoja 01'!A18</f>
         <v>2012</v>
       </c>
@@ -26831,7 +26829,7 @@
       <c r="N20" s="157"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A21" s="335"/>
+      <c r="A21" s="336"/>
       <c r="B21" s="151" t="s">
         <v>258</v>
       </c>
@@ -26853,7 +26851,7 @@
       <c r="M21" s="159"/>
     </row>
     <row r="22" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="335"/>
+      <c r="A22" s="336"/>
       <c r="B22" s="151" t="s">
         <v>259</v>
       </c>
@@ -26875,7 +26873,7 @@
       <c r="M22" s="159"/>
     </row>
     <row r="23" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="336"/>
+      <c r="A23" s="337"/>
       <c r="B23" s="154" t="s">
         <v>260</v>
       </c>
@@ -26889,7 +26887,7 @@
       <c r="F23" s="268"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A24" s="334">
+      <c r="A24" s="335">
         <f>'[1]Hoja 01'!A22</f>
         <v>2013</v>
       </c>
@@ -26906,7 +26904,7 @@
       <c r="F24" s="268"/>
     </row>
     <row r="25" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="335"/>
+      <c r="A25" s="336"/>
       <c r="B25" s="151" t="s">
         <v>258</v>
       </c>
@@ -26920,7 +26918,7 @@
       <c r="F25" s="268"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A26" s="335"/>
+      <c r="A26" s="336"/>
       <c r="B26" s="151" t="s">
         <v>259</v>
       </c>
@@ -26934,7 +26932,7 @@
       <c r="F26" s="268"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A27" s="336"/>
+      <c r="A27" s="337"/>
       <c r="B27" s="154" t="s">
         <v>260</v>
       </c>
@@ -26948,7 +26946,7 @@
       <c r="F27" s="268"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A28" s="334">
+      <c r="A28" s="335">
         <f>'[1]Hoja 01'!A26</f>
         <v>2014</v>
       </c>
@@ -26965,7 +26963,7 @@
       <c r="F28" s="268"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A29" s="335"/>
+      <c r="A29" s="336"/>
       <c r="B29" s="151" t="s">
         <v>258</v>
       </c>
@@ -26979,7 +26977,7 @@
       <c r="F29" s="268"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A30" s="335"/>
+      <c r="A30" s="336"/>
       <c r="B30" s="151" t="s">
         <v>259</v>
       </c>
@@ -26993,7 +26991,7 @@
       <c r="F30" s="268"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A31" s="336"/>
+      <c r="A31" s="337"/>
       <c r="B31" s="154" t="s">
         <v>260</v>
       </c>
@@ -27007,7 +27005,7 @@
       <c r="F31" s="268"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A32" s="334">
+      <c r="A32" s="335">
         <f>'[1]Hoja 01'!A30</f>
         <v>2015</v>
       </c>
@@ -27024,7 +27022,7 @@
       <c r="F32" s="268"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="335"/>
+      <c r="A33" s="336"/>
       <c r="B33" s="151" t="s">
         <v>258</v>
       </c>
@@ -27038,7 +27036,7 @@
       <c r="F33" s="268"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="335"/>
+      <c r="A34" s="336"/>
       <c r="B34" s="151" t="s">
         <v>259</v>
       </c>
@@ -27052,7 +27050,7 @@
       <c r="F34" s="268"/>
     </row>
     <row r="35" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="337"/>
+      <c r="A35" s="338"/>
       <c r="B35" s="160" t="s">
         <v>260</v>
       </c>
@@ -27122,43 +27120,43 @@
       <c r="I2" s="50"/>
     </row>
     <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="351" t="s">
+      <c r="A3" s="352" t="s">
         <v>401</v>
       </c>
-      <c r="B3" s="354" t="s">
+      <c r="B3" s="355" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="354"/>
-      <c r="D3" s="354"/>
-      <c r="E3" s="354"/>
-      <c r="F3" s="354" t="s">
+      <c r="C3" s="355"/>
+      <c r="D3" s="355"/>
+      <c r="E3" s="355"/>
+      <c r="F3" s="355" t="s">
         <v>64</v>
       </c>
-      <c r="G3" s="354"/>
-      <c r="H3" s="354"/>
-      <c r="I3" s="354"/>
+      <c r="G3" s="355"/>
+      <c r="H3" s="355"/>
+      <c r="I3" s="355"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="352"/>
-      <c r="B4" s="355" t="s">
+      <c r="A4" s="353"/>
+      <c r="B4" s="356" t="s">
         <v>298</v>
       </c>
-      <c r="C4" s="355"/>
-      <c r="D4" s="355" t="s">
+      <c r="C4" s="356"/>
+      <c r="D4" s="356" t="s">
         <v>329</v>
       </c>
-      <c r="E4" s="355"/>
-      <c r="F4" s="355" t="s">
+      <c r="E4" s="356"/>
+      <c r="F4" s="356" t="s">
         <v>298</v>
       </c>
-      <c r="G4" s="355"/>
-      <c r="H4" s="355" t="s">
+      <c r="G4" s="356"/>
+      <c r="H4" s="356" t="s">
         <v>329</v>
       </c>
-      <c r="I4" s="355"/>
+      <c r="I4" s="356"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="353"/>
+      <c r="A5" s="354"/>
       <c r="B5" s="86" t="s">
         <v>397</v>
       </c>
@@ -27422,57 +27420,57 @@
       </c>
     </row>
     <row r="2" spans="1:15" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="358"/>
-      <c r="B2" s="358"/>
-      <c r="C2" s="358"/>
-      <c r="D2" s="358"/>
-      <c r="E2" s="358"/>
-      <c r="F2" s="358"/>
-      <c r="G2" s="358"/>
-      <c r="H2" s="358"/>
-      <c r="I2" s="358"/>
+      <c r="A2" s="359"/>
+      <c r="B2" s="359"/>
+      <c r="C2" s="359"/>
+      <c r="D2" s="359"/>
+      <c r="E2" s="359"/>
+      <c r="F2" s="359"/>
+      <c r="G2" s="359"/>
+      <c r="H2" s="359"/>
+      <c r="I2" s="359"/>
       <c r="J2" s="312"/>
     </row>
     <row r="3" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="351" t="s">
+      <c r="A3" s="352" t="s">
         <v>401</v>
       </c>
-      <c r="B3" s="354" t="s">
+      <c r="B3" s="355" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="354"/>
-      <c r="D3" s="354"/>
-      <c r="E3" s="354"/>
-      <c r="F3" s="354" t="s">
+      <c r="C3" s="355"/>
+      <c r="D3" s="355"/>
+      <c r="E3" s="355"/>
+      <c r="F3" s="355" t="s">
         <v>64</v>
       </c>
-      <c r="G3" s="354"/>
-      <c r="H3" s="354"/>
-      <c r="I3" s="354"/>
+      <c r="G3" s="355"/>
+      <c r="H3" s="355"/>
+      <c r="I3" s="355"/>
       <c r="J3" s="195"/>
     </row>
     <row r="4" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="352"/>
-      <c r="B4" s="355" t="s">
+      <c r="A4" s="353"/>
+      <c r="B4" s="356" t="s">
         <v>298</v>
       </c>
-      <c r="C4" s="355"/>
-      <c r="D4" s="355" t="s">
+      <c r="C4" s="356"/>
+      <c r="D4" s="356" t="s">
         <v>329</v>
       </c>
-      <c r="E4" s="355"/>
-      <c r="F4" s="355" t="s">
+      <c r="E4" s="356"/>
+      <c r="F4" s="356" t="s">
         <v>298</v>
       </c>
-      <c r="G4" s="355"/>
-      <c r="H4" s="355" t="s">
+      <c r="G4" s="356"/>
+      <c r="H4" s="356" t="s">
         <v>329</v>
       </c>
-      <c r="I4" s="355"/>
+      <c r="I4" s="356"/>
       <c r="J4" s="195"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="353"/>
+      <c r="A5" s="354"/>
       <c r="B5" s="86" t="s">
         <v>397</v>
       </c>
@@ -27702,17 +27700,17 @@
       <c r="O11" s="6"/>
     </row>
     <row r="12" spans="1:15" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="356" t="s">
+      <c r="A12" s="357" t="s">
         <v>195</v>
       </c>
-      <c r="B12" s="356"/>
-      <c r="C12" s="357"/>
-      <c r="D12" s="356"/>
-      <c r="E12" s="357"/>
-      <c r="F12" s="356"/>
-      <c r="G12" s="357"/>
-      <c r="H12" s="357"/>
-      <c r="I12" s="356"/>
+      <c r="B12" s="357"/>
+      <c r="C12" s="358"/>
+      <c r="D12" s="357"/>
+      <c r="E12" s="358"/>
+      <c r="F12" s="357"/>
+      <c r="G12" s="358"/>
+      <c r="H12" s="358"/>
+      <c r="I12" s="357"/>
       <c r="J12" s="274"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
@@ -27957,15 +27955,15 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="359" t="s">
+      <c r="A10" s="360" t="s">
         <v>403</v>
       </c>
-      <c r="B10" s="359"/>
-      <c r="C10" s="359"/>
-      <c r="D10" s="359"/>
-      <c r="E10" s="359"/>
-      <c r="F10" s="359"/>
-      <c r="G10" s="359"/>
+      <c r="B10" s="360"/>
+      <c r="C10" s="360"/>
+      <c r="D10" s="360"/>
+      <c r="E10" s="360"/>
+      <c r="F10" s="360"/>
+      <c r="G10" s="360"/>
     </row>
     <row r="11" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
@@ -27974,13 +27972,13 @@
       <c r="B11" s="271"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="360" t="s">
+      <c r="A12" s="361" t="s">
         <v>273</v>
       </c>
-      <c r="B12" s="360"/>
-      <c r="C12" s="360"/>
-      <c r="D12" s="360"/>
-      <c r="E12" s="360"/>
+      <c r="B12" s="361"/>
+      <c r="C12" s="361"/>
+      <c r="D12" s="361"/>
+      <c r="E12" s="361"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -28418,15 +28416,15 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="359" t="s">
+      <c r="A20" s="360" t="s">
         <v>403</v>
       </c>
-      <c r="B20" s="359"/>
-      <c r="C20" s="359"/>
-      <c r="D20" s="359"/>
-      <c r="E20" s="359"/>
-      <c r="F20" s="359"/>
-      <c r="G20" s="359"/>
+      <c r="B20" s="360"/>
+      <c r="C20" s="360"/>
+      <c r="D20" s="360"/>
+      <c r="E20" s="360"/>
+      <c r="F20" s="360"/>
+      <c r="G20" s="360"/>
     </row>
     <row r="21" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="17" t="s">
@@ -28435,13 +28433,13 @@
       <c r="B21" s="271"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="360" t="s">
+      <c r="A22" s="361" t="s">
         <v>273</v>
       </c>
-      <c r="B22" s="360"/>
-      <c r="C22" s="360"/>
-      <c r="D22" s="360"/>
-      <c r="E22" s="360"/>
+      <c r="B22" s="361"/>
+      <c r="C22" s="361"/>
+      <c r="D22" s="361"/>
+      <c r="E22" s="361"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -28486,20 +28484,20 @@
       <c r="F2" s="222"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="361" t="s">
+      <c r="A3" s="362" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="363" t="s">
+      <c r="B3" s="364" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="363"/>
-      <c r="D3" s="363"/>
-      <c r="E3" s="363"/>
-      <c r="F3" s="363"/>
-      <c r="G3" s="363"/>
+      <c r="C3" s="364"/>
+      <c r="D3" s="364"/>
+      <c r="E3" s="364"/>
+      <c r="F3" s="364"/>
+      <c r="G3" s="364"/>
     </row>
     <row r="4" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="362"/>
+      <c r="A4" s="363"/>
       <c r="B4" s="277" t="s">
         <v>287</v>
       </c>
@@ -28663,15 +28661,15 @@
       </c>
     </row>
     <row r="11" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="360" t="s">
+      <c r="A11" s="361" t="s">
         <v>402</v>
       </c>
-      <c r="B11" s="360"/>
-      <c r="C11" s="360"/>
-      <c r="D11" s="360"/>
-      <c r="E11" s="360"/>
-      <c r="F11" s="360"/>
-      <c r="G11" s="360"/>
+      <c r="B11" s="361"/>
+      <c r="C11" s="361"/>
+      <c r="D11" s="361"/>
+      <c r="E11" s="361"/>
+      <c r="F11" s="361"/>
+      <c r="G11" s="361"/>
     </row>
     <row r="12" spans="1:13" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
@@ -28680,24 +28678,24 @@
       <c r="B12" s="271"/>
     </row>
     <row r="13" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="360" t="s">
+      <c r="A13" s="361" t="s">
         <v>399</v>
       </c>
-      <c r="B13" s="360"/>
-      <c r="C13" s="360"/>
-      <c r="D13" s="360"/>
-      <c r="E13" s="360"/>
-      <c r="F13" s="360"/>
-      <c r="G13" s="360"/>
+      <c r="B13" s="361"/>
+      <c r="C13" s="361"/>
+      <c r="D13" s="361"/>
+      <c r="E13" s="361"/>
+      <c r="F13" s="361"/>
+      <c r="G13" s="361"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="360" t="s">
+      <c r="A14" s="361" t="s">
         <v>273</v>
       </c>
-      <c r="B14" s="360"/>
-      <c r="C14" s="360"/>
-      <c r="D14" s="360"/>
-      <c r="E14" s="360"/>
+      <c r="B14" s="361"/>
+      <c r="C14" s="361"/>
+      <c r="D14" s="361"/>
+      <c r="E14" s="361"/>
     </row>
     <row r="15" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
@@ -28747,28 +28745,28 @@
       <c r="G2" s="222"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="361" t="s">
+      <c r="A3" s="362" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="361" t="s">
+      <c r="B3" s="362" t="s">
         <v>107</v>
       </c>
-      <c r="C3" s="361" t="s">
+      <c r="C3" s="362" t="s">
         <v>121</v>
       </c>
-      <c r="D3" s="361" t="s">
+      <c r="D3" s="362" t="s">
         <v>280</v>
       </c>
-      <c r="E3" s="361"/>
-      <c r="F3" s="361"/>
-      <c r="G3" s="364" t="s">
+      <c r="E3" s="362"/>
+      <c r="F3" s="362"/>
+      <c r="G3" s="365" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="362"/>
-      <c r="B4" s="362"/>
-      <c r="C4" s="362"/>
+      <c r="A4" s="363"/>
+      <c r="B4" s="363"/>
+      <c r="C4" s="363"/>
       <c r="D4" s="234" t="s">
         <v>281</v>
       </c>
@@ -28778,7 +28776,7 @@
       <c r="F4" s="234" t="s">
         <v>126</v>
       </c>
-      <c r="G4" s="362"/>
+      <c r="G4" s="363"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="221" t="s">
@@ -28923,15 +28921,15 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="360" t="s">
+      <c r="A11" s="361" t="s">
         <v>403</v>
       </c>
-      <c r="B11" s="360"/>
-      <c r="C11" s="360"/>
-      <c r="D11" s="360"/>
-      <c r="E11" s="360"/>
-      <c r="F11" s="360"/>
-      <c r="G11" s="360"/>
+      <c r="B11" s="361"/>
+      <c r="C11" s="361"/>
+      <c r="D11" s="361"/>
+      <c r="E11" s="361"/>
+      <c r="F11" s="361"/>
+      <c r="G11" s="361"/>
     </row>
     <row r="12" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
@@ -28940,13 +28938,13 @@
       <c r="B12" s="271"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="360" t="s">
+      <c r="A13" s="361" t="s">
         <v>273</v>
       </c>
-      <c r="B13" s="360"/>
-      <c r="C13" s="360"/>
-      <c r="D13" s="360"/>
-      <c r="E13" s="360"/>
+      <c r="B13" s="361"/>
+      <c r="C13" s="361"/>
+      <c r="D13" s="361"/>
+      <c r="E13" s="361"/>
       <c r="G13" s="236"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -29015,28 +29013,28 @@
       <c r="G2" s="222"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="361" t="s">
+      <c r="A3" s="362" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="361" t="s">
+      <c r="B3" s="362" t="s">
         <v>107</v>
       </c>
-      <c r="C3" s="361" t="s">
+      <c r="C3" s="362" t="s">
         <v>121</v>
       </c>
-      <c r="D3" s="361" t="s">
+      <c r="D3" s="362" t="s">
         <v>280</v>
       </c>
-      <c r="E3" s="361"/>
-      <c r="F3" s="361"/>
-      <c r="G3" s="361" t="s">
+      <c r="E3" s="362"/>
+      <c r="F3" s="362"/>
+      <c r="G3" s="362" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="362"/>
-      <c r="B4" s="362"/>
-      <c r="C4" s="362"/>
+      <c r="A4" s="363"/>
+      <c r="B4" s="363"/>
+      <c r="C4" s="363"/>
       <c r="D4" s="234" t="s">
         <v>281</v>
       </c>
@@ -29046,7 +29044,7 @@
       <c r="F4" s="234" t="s">
         <v>126</v>
       </c>
-      <c r="G4" s="362"/>
+      <c r="G4" s="363"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="221" t="s">
@@ -29187,15 +29185,15 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="360" t="s">
+      <c r="A11" s="361" t="s">
         <v>403</v>
       </c>
-      <c r="B11" s="360"/>
-      <c r="C11" s="360"/>
-      <c r="D11" s="360"/>
-      <c r="E11" s="360"/>
-      <c r="F11" s="360"/>
-      <c r="G11" s="360"/>
+      <c r="B11" s="361"/>
+      <c r="C11" s="361"/>
+      <c r="D11" s="361"/>
+      <c r="E11" s="361"/>
+      <c r="F11" s="361"/>
+      <c r="G11" s="361"/>
     </row>
     <row r="12" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
@@ -29204,13 +29202,13 @@
       <c r="B12" s="271"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="360" t="s">
+      <c r="A13" s="361" t="s">
         <v>331</v>
       </c>
-      <c r="B13" s="360"/>
-      <c r="C13" s="360"/>
-      <c r="D13" s="360"/>
-      <c r="E13" s="360"/>
+      <c r="B13" s="361"/>
+      <c r="C13" s="361"/>
+      <c r="D13" s="361"/>
+      <c r="E13" s="361"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -29230,8 +29228,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AV45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+    <sheetView topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29251,13 +29249,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="248.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="332" t="s">
+      <c r="B1" s="333" t="s">
         <v>382</v>
       </c>
-      <c r="C1" s="332"/>
-      <c r="D1" s="332"/>
-      <c r="E1" s="332"/>
-      <c r="F1" s="332"/>
+      <c r="C1" s="333"/>
+      <c r="D1" s="333"/>
+      <c r="E1" s="333"/>
+      <c r="F1" s="333"/>
     </row>
     <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D2" s="258"/>
@@ -29265,10 +29263,10 @@
     </row>
     <row r="3" spans="1:12" s="240" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="256"/>
-      <c r="B3" s="333" t="s">
+      <c r="B3" s="334" t="s">
         <v>294</v>
       </c>
-      <c r="C3" s="333"/>
+      <c r="C3" s="334"/>
       <c r="D3" s="259" t="s">
         <v>295</v>
       </c>
@@ -29285,10 +29283,10 @@
     </row>
     <row r="4" spans="1:12" s="240" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="256"/>
-      <c r="B4" s="326" t="s">
+      <c r="B4" s="327" t="s">
         <v>314</v>
       </c>
-      <c r="C4" s="327"/>
+      <c r="C4" s="328"/>
       <c r="D4" s="325" t="s">
         <v>186</v>
       </c>
@@ -29305,8 +29303,8 @@
     </row>
     <row r="5" spans="1:12" s="240" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="256"/>
-      <c r="B5" s="330"/>
-      <c r="C5" s="331"/>
+      <c r="B5" s="331"/>
+      <c r="C5" s="332"/>
       <c r="D5" s="261" t="s">
         <v>187</v>
       </c>
@@ -29323,8 +29321,8 @@
     </row>
     <row r="6" spans="1:12" s="240" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="256"/>
-      <c r="B6" s="330"/>
-      <c r="C6" s="331"/>
+      <c r="B6" s="331"/>
+      <c r="C6" s="332"/>
       <c r="D6" s="324" t="s">
         <v>188</v>
       </c>
@@ -29341,8 +29339,8 @@
     </row>
     <row r="7" spans="1:12" s="240" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="256"/>
-      <c r="B7" s="330"/>
-      <c r="C7" s="331"/>
+      <c r="B7" s="331"/>
+      <c r="C7" s="332"/>
       <c r="D7" s="261" t="s">
         <v>189</v>
       </c>
@@ -29359,8 +29357,8 @@
     </row>
     <row r="8" spans="1:12" s="240" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="256"/>
-      <c r="B8" s="330"/>
-      <c r="C8" s="331"/>
+      <c r="B8" s="331"/>
+      <c r="C8" s="332"/>
       <c r="D8" s="261" t="s">
         <v>190</v>
       </c>
@@ -29377,8 +29375,8 @@
     </row>
     <row r="9" spans="1:12" s="240" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="256"/>
-      <c r="B9" s="330"/>
-      <c r="C9" s="331"/>
+      <c r="B9" s="331"/>
+      <c r="C9" s="332"/>
       <c r="D9" s="324" t="s">
         <v>191</v>
       </c>
@@ -29395,8 +29393,8 @@
     </row>
     <row r="10" spans="1:12" s="240" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="256"/>
-      <c r="B10" s="330"/>
-      <c r="C10" s="331"/>
+      <c r="B10" s="331"/>
+      <c r="C10" s="332"/>
       <c r="D10" s="324" t="s">
         <v>192</v>
       </c>
@@ -29413,8 +29411,8 @@
     </row>
     <row r="11" spans="1:12" s="240" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="256"/>
-      <c r="B11" s="330"/>
-      <c r="C11" s="331"/>
+      <c r="B11" s="331"/>
+      <c r="C11" s="332"/>
       <c r="D11" s="261" t="s">
         <v>193</v>
       </c>
@@ -29431,8 +29429,8 @@
     </row>
     <row r="12" spans="1:12" s="240" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="256"/>
-      <c r="B12" s="330"/>
-      <c r="C12" s="331"/>
+      <c r="B12" s="331"/>
+      <c r="C12" s="332"/>
       <c r="D12" s="324" t="s">
         <v>296</v>
       </c>
@@ -29449,8 +29447,8 @@
     </row>
     <row r="13" spans="1:12" s="240" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="256"/>
-      <c r="B13" s="328"/>
-      <c r="C13" s="329"/>
+      <c r="B13" s="329"/>
+      <c r="C13" s="330"/>
       <c r="D13" s="300" t="s">
         <v>297</v>
       </c>
@@ -29481,10 +29479,10 @@
     </row>
     <row r="15" spans="1:12" s="240" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="256"/>
-      <c r="B15" s="326" t="s">
+      <c r="B15" s="327" t="s">
         <v>298</v>
       </c>
-      <c r="C15" s="327"/>
+      <c r="C15" s="328"/>
       <c r="D15" s="263" t="s">
         <v>200</v>
       </c>
@@ -29501,15 +29499,15 @@
     </row>
     <row r="16" spans="1:12" s="240" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="256"/>
-      <c r="B16" s="330"/>
-      <c r="C16" s="331"/>
+      <c r="B16" s="331"/>
+      <c r="C16" s="332"/>
       <c r="D16" s="324" t="s">
         <v>299</v>
       </c>
       <c r="E16" s="262" t="s">
         <v>196</v>
       </c>
-      <c r="F16" s="320"/>
+      <c r="F16" s="257"/>
       <c r="G16" s="257"/>
       <c r="H16" s="257"/>
       <c r="I16" s="257"/>
@@ -29519,8 +29517,8 @@
     </row>
     <row r="17" spans="1:12" s="240" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="256"/>
-      <c r="B17" s="330"/>
-      <c r="C17" s="331"/>
+      <c r="B17" s="331"/>
+      <c r="C17" s="332"/>
       <c r="D17" s="261" t="s">
         <v>300</v>
       </c>
@@ -29537,8 +29535,8 @@
     </row>
     <row r="18" spans="1:12" s="240" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="256"/>
-      <c r="B18" s="330"/>
-      <c r="C18" s="331"/>
+      <c r="B18" s="331"/>
+      <c r="C18" s="332"/>
       <c r="D18" s="261" t="s">
         <v>301</v>
       </c>
@@ -29555,8 +29553,8 @@
     </row>
     <row r="19" spans="1:12" s="240" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="256"/>
-      <c r="B19" s="330"/>
-      <c r="C19" s="331"/>
+      <c r="B19" s="331"/>
+      <c r="C19" s="332"/>
       <c r="D19" s="324" t="s">
         <v>302</v>
       </c>
@@ -29573,8 +29571,8 @@
     </row>
     <row r="20" spans="1:12" s="240" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="256"/>
-      <c r="B20" s="330"/>
-      <c r="C20" s="331"/>
+      <c r="B20" s="331"/>
+      <c r="C20" s="332"/>
       <c r="D20" s="324" t="s">
         <v>303</v>
       </c>
@@ -29591,8 +29589,8 @@
     </row>
     <row r="21" spans="1:12" s="240" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="256"/>
-      <c r="B21" s="330"/>
-      <c r="C21" s="331"/>
+      <c r="B21" s="331"/>
+      <c r="C21" s="332"/>
       <c r="D21" s="261" t="s">
         <v>304</v>
       </c>
@@ -29609,8 +29607,8 @@
     </row>
     <row r="22" spans="1:12" s="240" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="256"/>
-      <c r="B22" s="330"/>
-      <c r="C22" s="331"/>
+      <c r="B22" s="331"/>
+      <c r="C22" s="332"/>
       <c r="D22" s="324" t="s">
         <v>305</v>
       </c>
@@ -29629,8 +29627,8 @@
     </row>
     <row r="23" spans="1:12" s="240" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="256"/>
-      <c r="B23" s="330"/>
-      <c r="C23" s="331"/>
+      <c r="B23" s="331"/>
+      <c r="C23" s="332"/>
       <c r="D23" s="261" t="s">
         <v>307</v>
       </c>
@@ -29647,8 +29645,8 @@
     </row>
     <row r="24" spans="1:12" s="240" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="256"/>
-      <c r="B24" s="328"/>
-      <c r="C24" s="329"/>
+      <c r="B24" s="329"/>
+      <c r="C24" s="330"/>
       <c r="D24" s="300" t="s">
         <v>359</v>
       </c>
@@ -29679,10 +29677,10 @@
     </row>
     <row r="26" spans="1:12" s="240" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="256"/>
-      <c r="B26" s="326" t="s">
+      <c r="B26" s="327" t="s">
         <v>361</v>
       </c>
-      <c r="C26" s="327"/>
+      <c r="C26" s="328"/>
       <c r="D26" s="325" t="s">
         <v>213</v>
       </c>
@@ -29701,8 +29699,8 @@
     </row>
     <row r="27" spans="1:12" s="240" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="256"/>
-      <c r="B27" s="328"/>
-      <c r="C27" s="329"/>
+      <c r="B27" s="329"/>
+      <c r="C27" s="330"/>
       <c r="D27" s="323" t="s">
         <v>214</v>
       </c>
@@ -29735,10 +29733,10 @@
     </row>
     <row r="29" spans="1:12" s="240" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="256"/>
-      <c r="B29" s="326" t="s">
+      <c r="B29" s="327" t="s">
         <v>329</v>
       </c>
-      <c r="C29" s="327"/>
+      <c r="C29" s="328"/>
       <c r="D29" s="325" t="s">
         <v>218</v>
       </c>
@@ -29755,8 +29753,8 @@
     </row>
     <row r="30" spans="1:12" s="240" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="256"/>
-      <c r="B30" s="330"/>
-      <c r="C30" s="331"/>
+      <c r="B30" s="331"/>
+      <c r="C30" s="332"/>
       <c r="D30" s="324" t="s">
         <v>219</v>
       </c>
@@ -29773,15 +29771,15 @@
     </row>
     <row r="31" spans="1:12" s="240" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="256"/>
-      <c r="B31" s="330"/>
-      <c r="C31" s="331"/>
+      <c r="B31" s="331"/>
+      <c r="C31" s="332"/>
       <c r="D31" s="324" t="s">
         <v>220</v>
       </c>
       <c r="E31" s="265" t="s">
         <v>216</v>
       </c>
-      <c r="F31" s="320"/>
+      <c r="F31" s="257"/>
       <c r="G31" s="257"/>
       <c r="H31" s="257"/>
       <c r="I31" s="257"/>
@@ -29791,8 +29789,8 @@
     </row>
     <row r="32" spans="1:12" s="240" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="256"/>
-      <c r="B32" s="328"/>
-      <c r="C32" s="329"/>
+      <c r="B32" s="329"/>
+      <c r="C32" s="330"/>
       <c r="D32" s="300" t="s">
         <v>221</v>
       </c>
@@ -29823,10 +29821,10 @@
     </row>
     <row r="34" spans="1:12" s="240" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="256"/>
-      <c r="B34" s="326" t="s">
+      <c r="B34" s="327" t="s">
         <v>366</v>
       </c>
-      <c r="C34" s="327"/>
+      <c r="C34" s="328"/>
       <c r="D34" s="325" t="s">
         <v>228</v>
       </c>
@@ -29843,15 +29841,15 @@
     </row>
     <row r="35" spans="1:12" s="240" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="256"/>
-      <c r="B35" s="330"/>
-      <c r="C35" s="331"/>
+      <c r="B35" s="331"/>
+      <c r="C35" s="332"/>
       <c r="D35" s="324" t="s">
         <v>229</v>
       </c>
       <c r="E35" s="262" t="s">
         <v>372</v>
       </c>
-      <c r="F35" s="401"/>
+      <c r="F35" s="326"/>
       <c r="G35" s="257"/>
       <c r="H35" s="257"/>
       <c r="I35" s="257"/>
@@ -29861,8 +29859,8 @@
     </row>
     <row r="36" spans="1:12" s="240" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="256"/>
-      <c r="B36" s="330"/>
-      <c r="C36" s="331"/>
+      <c r="B36" s="331"/>
+      <c r="C36" s="332"/>
       <c r="D36" s="324" t="s">
         <v>231</v>
       </c>
@@ -29879,8 +29877,8 @@
     </row>
     <row r="37" spans="1:12" s="240" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="256"/>
-      <c r="B37" s="330"/>
-      <c r="C37" s="331"/>
+      <c r="B37" s="331"/>
+      <c r="C37" s="332"/>
       <c r="D37" s="261" t="s">
         <v>309</v>
       </c>
@@ -29897,15 +29895,15 @@
     </row>
     <row r="38" spans="1:12" s="240" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="256"/>
-      <c r="B38" s="330"/>
-      <c r="C38" s="331"/>
+      <c r="B38" s="331"/>
+      <c r="C38" s="332"/>
       <c r="D38" s="324" t="s">
         <v>310</v>
       </c>
       <c r="E38" s="262" t="s">
         <v>373</v>
       </c>
-      <c r="F38" s="257"/>
+      <c r="F38" s="326"/>
       <c r="G38" s="257"/>
       <c r="H38" s="257"/>
       <c r="I38" s="257"/>
@@ -29915,8 +29913,8 @@
     </row>
     <row r="39" spans="1:12" s="240" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="256"/>
-      <c r="B39" s="330"/>
-      <c r="C39" s="331"/>
+      <c r="B39" s="331"/>
+      <c r="C39" s="332"/>
       <c r="D39" s="261" t="s">
         <v>311</v>
       </c>
@@ -29933,8 +29931,8 @@
     </row>
     <row r="40" spans="1:12" s="240" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="256"/>
-      <c r="B40" s="330"/>
-      <c r="C40" s="331"/>
+      <c r="B40" s="331"/>
+      <c r="C40" s="332"/>
       <c r="D40" s="324" t="s">
         <v>312</v>
       </c>
@@ -29951,8 +29949,8 @@
     </row>
     <row r="41" spans="1:12" s="240" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="256"/>
-      <c r="B41" s="330"/>
-      <c r="C41" s="331"/>
+      <c r="B41" s="331"/>
+      <c r="C41" s="332"/>
       <c r="D41" s="324" t="s">
         <v>313</v>
       </c>
@@ -29969,8 +29967,8 @@
     </row>
     <row r="42" spans="1:12" s="240" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="256"/>
-      <c r="B42" s="330"/>
-      <c r="C42" s="331"/>
+      <c r="B42" s="331"/>
+      <c r="C42" s="332"/>
       <c r="D42" s="261" t="s">
         <v>367</v>
       </c>
@@ -29987,8 +29985,8 @@
     </row>
     <row r="43" spans="1:12" s="240" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="256"/>
-      <c r="B43" s="330"/>
-      <c r="C43" s="331"/>
+      <c r="B43" s="331"/>
+      <c r="C43" s="332"/>
       <c r="D43" s="261" t="s">
         <v>368</v>
       </c>
@@ -30005,15 +30003,15 @@
     </row>
     <row r="44" spans="1:12" s="240" customFormat="1" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="256"/>
-      <c r="B44" s="328"/>
-      <c r="C44" s="329"/>
+      <c r="B44" s="329"/>
+      <c r="C44" s="330"/>
       <c r="D44" s="323" t="s">
         <v>369</v>
       </c>
       <c r="E44" s="264" t="s">
         <v>381</v>
       </c>
-      <c r="F44" s="320"/>
+      <c r="F44" s="257"/>
       <c r="G44" s="257"/>
       <c r="H44" s="257"/>
       <c r="I44" s="257"/>
@@ -30079,22 +30077,22 @@
       <c r="B2" s="96"/>
     </row>
     <row r="3" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="367" t="s">
+      <c r="A3" s="368" t="s">
         <v>337</v>
       </c>
-      <c r="B3" s="369" t="s">
+      <c r="B3" s="370" t="s">
         <v>341</v>
       </c>
-      <c r="C3" s="369"/>
-      <c r="D3" s="369"/>
-      <c r="E3" s="369"/>
-      <c r="F3" s="365" t="s">
+      <c r="C3" s="370"/>
+      <c r="D3" s="370"/>
+      <c r="E3" s="370"/>
+      <c r="F3" s="366" t="s">
         <v>11</v>
       </c>
       <c r="G3" s="130"/>
     </row>
     <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="368"/>
+      <c r="A4" s="369"/>
       <c r="B4" s="138" t="s">
         <v>340</v>
       </c>
@@ -30107,7 +30105,7 @@
       <c r="E4" s="275" t="s">
         <v>51</v>
       </c>
-      <c r="F4" s="366"/>
+      <c r="F4" s="367"/>
       <c r="G4" s="55"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -30252,14 +30250,14 @@
       <c r="G11" s="96"/>
     </row>
     <row r="12" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="359" t="s">
+      <c r="A12" s="360" t="s">
         <v>403</v>
       </c>
-      <c r="B12" s="359"/>
-      <c r="C12" s="359"/>
-      <c r="D12" s="359"/>
-      <c r="E12" s="359"/>
-      <c r="F12" s="359"/>
+      <c r="B12" s="360"/>
+      <c r="C12" s="360"/>
+      <c r="D12" s="360"/>
+      <c r="E12" s="360"/>
+      <c r="F12" s="360"/>
       <c r="G12" s="250"/>
     </row>
     <row r="13" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -30329,29 +30327,29 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="371"/>
-      <c r="B2" s="371"/>
-      <c r="C2" s="371"/>
-      <c r="D2" s="371"/>
-      <c r="E2" s="371"/>
-      <c r="F2" s="371"/>
+      <c r="A2" s="372"/>
+      <c r="B2" s="372"/>
+      <c r="C2" s="372"/>
+      <c r="D2" s="372"/>
+      <c r="E2" s="372"/>
+      <c r="F2" s="372"/>
       <c r="J2" s="56"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="367" t="s">
+      <c r="A3" s="368" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="243"/>
-      <c r="C3" s="369" t="s">
+      <c r="C3" s="370" t="s">
         <v>151</v>
       </c>
-      <c r="D3" s="369"/>
-      <c r="E3" s="369"/>
-      <c r="F3" s="369"/>
+      <c r="D3" s="370"/>
+      <c r="E3" s="370"/>
+      <c r="F3" s="370"/>
       <c r="J3" s="56"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="368"/>
+      <c r="A4" s="369"/>
       <c r="B4" s="129" t="s">
         <v>47</v>
       </c>
@@ -30409,34 +30407,34 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="359" t="s">
+      <c r="A7" s="360" t="s">
         <v>403</v>
       </c>
-      <c r="B7" s="359"/>
-      <c r="C7" s="359"/>
-      <c r="D7" s="359"/>
-      <c r="E7" s="359"/>
-      <c r="F7" s="359"/>
+      <c r="B7" s="360"/>
+      <c r="C7" s="360"/>
+      <c r="D7" s="360"/>
+      <c r="E7" s="360"/>
+      <c r="F7" s="360"/>
     </row>
     <row r="8" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="370" t="s">
+      <c r="A8" s="371" t="s">
         <v>131</v>
       </c>
-      <c r="B8" s="370"/>
-      <c r="C8" s="370"/>
-      <c r="D8" s="370"/>
-      <c r="E8" s="370"/>
-      <c r="F8" s="370"/>
+      <c r="B8" s="371"/>
+      <c r="C8" s="371"/>
+      <c r="D8" s="371"/>
+      <c r="E8" s="371"/>
+      <c r="F8" s="371"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="370" t="s">
+      <c r="A9" s="371" t="s">
         <v>130</v>
       </c>
-      <c r="B9" s="370"/>
-      <c r="C9" s="370"/>
-      <c r="D9" s="370"/>
-      <c r="E9" s="370"/>
-      <c r="F9" s="370"/>
+      <c r="B9" s="371"/>
+      <c r="C9" s="371"/>
+      <c r="D9" s="371"/>
+      <c r="E9" s="371"/>
+      <c r="F9" s="371"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -30475,39 +30473,39 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="373"/>
-      <c r="B2" s="373"/>
-      <c r="C2" s="373"/>
-      <c r="D2" s="373"/>
-      <c r="E2" s="373"/>
-      <c r="F2" s="373"/>
-      <c r="G2" s="373"/>
-      <c r="H2" s="373"/>
-      <c r="I2" s="373"/>
+      <c r="A2" s="374"/>
+      <c r="B2" s="374"/>
+      <c r="C2" s="374"/>
+      <c r="D2" s="374"/>
+      <c r="E2" s="374"/>
+      <c r="F2" s="374"/>
+      <c r="G2" s="374"/>
+      <c r="H2" s="374"/>
+      <c r="I2" s="374"/>
     </row>
     <row r="3" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="372" t="s">
+      <c r="A3" s="373" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="372" t="s">
+      <c r="B3" s="373" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="372"/>
-      <c r="D3" s="372"/>
-      <c r="E3" s="372"/>
-      <c r="F3" s="372" t="s">
+      <c r="C3" s="373"/>
+      <c r="D3" s="373"/>
+      <c r="E3" s="373"/>
+      <c r="F3" s="373" t="s">
         <v>64</v>
       </c>
-      <c r="G3" s="372"/>
-      <c r="H3" s="372"/>
-      <c r="I3" s="372"/>
+      <c r="G3" s="373"/>
+      <c r="H3" s="373"/>
+      <c r="I3" s="373"/>
       <c r="K3" s="96"/>
       <c r="L3" s="96"/>
       <c r="M3" s="96"/>
       <c r="N3" s="96"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="372"/>
+      <c r="A4" s="373"/>
       <c r="B4" s="77" t="s">
         <v>340</v>
       </c>
@@ -30538,7 +30536,7 @@
       <c r="N4" s="55"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="374"/>
+      <c r="A5" s="375"/>
       <c r="B5" s="66" t="s">
         <v>124</v>
       </c>
@@ -30849,37 +30847,37 @@
     </row>
     <row r="17" spans="1:7" ht="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="370" t="s">
+      <c r="A18" s="371" t="s">
         <v>212</v>
       </c>
-      <c r="B18" s="370"/>
-      <c r="C18" s="370"/>
-      <c r="D18" s="370"/>
-      <c r="E18" s="370"/>
-      <c r="F18" s="370"/>
-      <c r="G18" s="370"/>
+      <c r="B18" s="371"/>
+      <c r="C18" s="371"/>
+      <c r="D18" s="371"/>
+      <c r="E18" s="371"/>
+      <c r="F18" s="371"/>
+      <c r="G18" s="371"/>
     </row>
     <row r="19" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="375" t="s">
+      <c r="A19" s="376" t="s">
         <v>209</v>
       </c>
-      <c r="B19" s="375"/>
-      <c r="C19" s="375"/>
-      <c r="D19" s="375"/>
-      <c r="E19" s="375"/>
-      <c r="F19" s="375"/>
-      <c r="G19" s="375"/>
+      <c r="B19" s="376"/>
+      <c r="C19" s="376"/>
+      <c r="D19" s="376"/>
+      <c r="E19" s="376"/>
+      <c r="F19" s="376"/>
+      <c r="G19" s="376"/>
     </row>
     <row r="20" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="375" t="s">
+      <c r="A20" s="376" t="s">
         <v>210</v>
       </c>
-      <c r="B20" s="375"/>
-      <c r="C20" s="375"/>
-      <c r="D20" s="375"/>
-      <c r="E20" s="375"/>
-      <c r="F20" s="375"/>
-      <c r="G20" s="375"/>
+      <c r="B20" s="376"/>
+      <c r="C20" s="376"/>
+      <c r="D20" s="376"/>
+      <c r="E20" s="376"/>
+      <c r="F20" s="376"/>
+      <c r="G20" s="376"/>
     </row>
     <row r="21" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="101"/>
@@ -31011,15 +31009,15 @@
       <c r="A2" s="302"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="370" t="s">
+      <c r="A26" s="371" t="s">
         <v>409</v>
       </c>
-      <c r="B26" s="370"/>
-      <c r="C26" s="370"/>
-      <c r="D26" s="370"/>
-      <c r="E26" s="370"/>
-      <c r="F26" s="370"/>
-      <c r="G26" s="370"/>
+      <c r="B26" s="371"/>
+      <c r="C26" s="371"/>
+      <c r="D26" s="371"/>
+      <c r="E26" s="371"/>
+      <c r="F26" s="371"/>
+      <c r="G26" s="371"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -31157,20 +31155,20 @@
       <c r="D2" s="75"/>
       <c r="E2" s="75"/>
       <c r="F2" s="3"/>
-      <c r="G2" s="376"/>
-      <c r="H2" s="376"/>
+      <c r="G2" s="377"/>
+      <c r="H2" s="377"/>
       <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="107"/>
-      <c r="B3" s="377" t="s">
+      <c r="B3" s="378" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="377"/>
-      <c r="D3" s="378" t="s">
+      <c r="C3" s="378"/>
+      <c r="D3" s="379" t="s">
         <v>64</v>
       </c>
-      <c r="E3" s="378"/>
+      <c r="E3" s="379"/>
       <c r="F3" s="72"/>
       <c r="G3" s="73"/>
       <c r="H3" s="73"/>
@@ -31367,20 +31365,20 @@
       <c r="E2" s="222"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="364" t="s">
+      <c r="A3" s="365" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="379" t="s">
+      <c r="B3" s="380" t="s">
         <v>152</v>
       </c>
-      <c r="C3" s="379"/>
-      <c r="D3" s="379" t="s">
+      <c r="C3" s="380"/>
+      <c r="D3" s="380" t="s">
         <v>64</v>
       </c>
-      <c r="E3" s="379"/>
+      <c r="E3" s="380"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="362"/>
+      <c r="A4" s="363"/>
       <c r="B4" s="251">
         <v>2010</v>
       </c>
@@ -31532,11 +31530,11 @@
       <c r="E13" s="54"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="360"/>
-      <c r="B14" s="360"/>
-      <c r="C14" s="360"/>
-      <c r="D14" s="360"/>
-      <c r="E14" s="360"/>
+      <c r="A14" s="361"/>
+      <c r="B14" s="361"/>
+      <c r="C14" s="361"/>
+      <c r="D14" s="361"/>
+      <c r="E14" s="361"/>
       <c r="F14" s="225"/>
       <c r="G14" s="225"/>
     </row>
@@ -31580,16 +31578,16 @@
     </row>
     <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="367" t="s">
+      <c r="A3" s="368" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="369" t="s">
+      <c r="B3" s="370" t="s">
         <v>217</v>
       </c>
-      <c r="C3" s="369"/>
+      <c r="C3" s="370"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="368"/>
+      <c r="A4" s="369"/>
       <c r="B4" s="131">
         <v>2010</v>
       </c>
@@ -31752,16 +31750,16 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="380" t="s">
+      <c r="A19" s="381" t="s">
         <v>130</v>
       </c>
-      <c r="B19" s="380"/>
-      <c r="C19" s="380"/>
+      <c r="B19" s="381"/>
+      <c r="C19" s="381"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="370"/>
-      <c r="B20" s="370"/>
-      <c r="C20" s="370"/>
+      <c r="A20" s="371"/>
+      <c r="B20" s="371"/>
+      <c r="C20" s="371"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -31801,52 +31799,52 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="381"/>
-      <c r="B2" s="381"/>
-      <c r="C2" s="381"/>
-      <c r="D2" s="381"/>
-      <c r="E2" s="381"/>
-      <c r="F2" s="381"/>
-      <c r="G2" s="381"/>
-      <c r="H2" s="381"/>
+      <c r="A2" s="382"/>
+      <c r="B2" s="382"/>
+      <c r="C2" s="382"/>
+      <c r="D2" s="382"/>
+      <c r="E2" s="382"/>
+      <c r="F2" s="382"/>
+      <c r="G2" s="382"/>
+      <c r="H2" s="382"/>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="390" t="s">
+      <c r="A3" s="391" t="s">
         <v>153</v>
       </c>
       <c r="B3" s="140"/>
-      <c r="C3" s="389" t="s">
+      <c r="C3" s="390" t="s">
         <v>167</v>
       </c>
-      <c r="D3" s="389"/>
-      <c r="E3" s="389"/>
-      <c r="F3" s="389"/>
-      <c r="G3" s="389"/>
-      <c r="H3" s="386" t="s">
+      <c r="D3" s="390"/>
+      <c r="E3" s="390"/>
+      <c r="F3" s="390"/>
+      <c r="G3" s="390"/>
+      <c r="H3" s="387" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="378"/>
+      <c r="A4" s="379"/>
       <c r="B4" s="135"/>
-      <c r="C4" s="384" t="s">
+      <c r="C4" s="385" t="s">
         <v>107</v>
       </c>
-      <c r="D4" s="384" t="s">
+      <c r="D4" s="385" t="s">
         <v>121</v>
       </c>
-      <c r="E4" s="384" t="s">
+      <c r="E4" s="385" t="s">
         <v>168</v>
       </c>
-      <c r="F4" s="384"/>
-      <c r="G4" s="384"/>
-      <c r="H4" s="387"/>
+      <c r="F4" s="385"/>
+      <c r="G4" s="385"/>
+      <c r="H4" s="388"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="391"/>
+      <c r="A5" s="392"/>
       <c r="B5" s="133"/>
-      <c r="C5" s="385"/>
-      <c r="D5" s="385"/>
+      <c r="C5" s="386"/>
+      <c r="D5" s="386"/>
       <c r="E5" s="138" t="s">
         <v>123</v>
       </c>
@@ -31856,10 +31854,10 @@
       <c r="G5" s="138" t="s">
         <v>126</v>
       </c>
-      <c r="H5" s="388"/>
+      <c r="H5" s="389"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="392">
+      <c r="A6" s="393">
         <v>2010</v>
       </c>
       <c r="B6" s="135" t="s">
@@ -31885,7 +31883,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="378"/>
+      <c r="A7" s="379"/>
       <c r="B7" s="135" t="s">
         <v>64</v>
       </c>
@@ -31909,7 +31907,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="378">
+      <c r="A8" s="379">
         <v>2015</v>
       </c>
       <c r="B8" s="135" t="s">
@@ -31935,7 +31933,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="393"/>
+      <c r="A9" s="394"/>
       <c r="B9" s="135" t="s">
         <v>64</v>
       </c>
@@ -31959,26 +31957,26 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="383" t="s">
+      <c r="A10" s="384" t="s">
         <v>173</v>
       </c>
-      <c r="B10" s="383"/>
-      <c r="C10" s="383"/>
-      <c r="D10" s="383"/>
-      <c r="E10" s="383"/>
-      <c r="F10" s="383"/>
-      <c r="G10" s="383"/>
-      <c r="H10" s="383"/>
+      <c r="B10" s="384"/>
+      <c r="C10" s="384"/>
+      <c r="D10" s="384"/>
+      <c r="E10" s="384"/>
+      <c r="F10" s="384"/>
+      <c r="G10" s="384"/>
+      <c r="H10" s="384"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="382"/>
-      <c r="B11" s="382"/>
-      <c r="C11" s="382"/>
-      <c r="D11" s="382"/>
-      <c r="E11" s="382"/>
-      <c r="F11" s="382"/>
-      <c r="G11" s="382"/>
-      <c r="H11" s="382"/>
+      <c r="A11" s="383"/>
+      <c r="B11" s="383"/>
+      <c r="C11" s="383"/>
+      <c r="D11" s="383"/>
+      <c r="E11" s="383"/>
+      <c r="F11" s="383"/>
+      <c r="G11" s="383"/>
+      <c r="H11" s="383"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -32050,7 +32048,7 @@
       <c r="H3" s="150"/>
     </row>
     <row r="4" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="334">
+      <c r="A4" s="335">
         <v>2008</v>
       </c>
       <c r="B4" s="151" t="str">
@@ -32072,7 +32070,7 @@
       <c r="U4" s="198"/>
     </row>
     <row r="5" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="335"/>
+      <c r="A5" s="336"/>
       <c r="B5" s="151" t="str">
         <f>'[1]Hoja 01'!B3</f>
         <v>abr-jun</v>
@@ -32085,7 +32083,7 @@
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A6" s="335"/>
+      <c r="A6" s="336"/>
       <c r="B6" s="151" t="str">
         <f>'[1]Hoja 01'!B4</f>
         <v>jul-sep</v>
@@ -32098,7 +32096,7 @@
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A7" s="336"/>
+      <c r="A7" s="337"/>
       <c r="B7" s="154" t="str">
         <f>'[1]Hoja 01'!B5</f>
         <v>oct-dic</v>
@@ -32111,7 +32109,7 @@
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A8" s="334">
+      <c r="A8" s="335">
         <v>2009</v>
       </c>
       <c r="B8" s="151" t="str">
@@ -32126,7 +32124,7 @@
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A9" s="335"/>
+      <c r="A9" s="336"/>
       <c r="B9" s="151" t="str">
         <f>'[1]Hoja 01'!B7</f>
         <v>abr-jun</v>
@@ -32139,7 +32137,7 @@
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A10" s="335"/>
+      <c r="A10" s="336"/>
       <c r="B10" s="151" t="str">
         <f>'[1]Hoja 01'!B8</f>
         <v>jul-sep</v>
@@ -32152,7 +32150,7 @@
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A11" s="336"/>
+      <c r="A11" s="337"/>
       <c r="B11" s="154" t="str">
         <f>'[1]Hoja 01'!B9</f>
         <v>oct-dic</v>
@@ -32165,7 +32163,7 @@
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A12" s="334">
+      <c r="A12" s="335">
         <v>2010</v>
       </c>
       <c r="B12" s="151" t="str">
@@ -32180,7 +32178,7 @@
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A13" s="335"/>
+      <c r="A13" s="336"/>
       <c r="B13" s="151" t="str">
         <f>'[1]Hoja 01'!B11</f>
         <v>abr-jun</v>
@@ -32193,7 +32191,7 @@
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A14" s="335"/>
+      <c r="A14" s="336"/>
       <c r="B14" s="151" t="str">
         <f>'[1]Hoja 01'!B12</f>
         <v>jul-sep</v>
@@ -32206,7 +32204,7 @@
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A15" s="336"/>
+      <c r="A15" s="337"/>
       <c r="B15" s="154" t="str">
         <f>'[1]Hoja 01'!B13</f>
         <v>oct-dic</v>
@@ -32219,7 +32217,7 @@
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A16" s="334">
+      <c r="A16" s="335">
         <v>2011</v>
       </c>
       <c r="B16" s="151" t="str">
@@ -32234,7 +32232,7 @@
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A17" s="335"/>
+      <c r="A17" s="336"/>
       <c r="B17" s="151" t="str">
         <f>'[1]Hoja 01'!B15</f>
         <v>abr-jun</v>
@@ -32247,7 +32245,7 @@
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A18" s="335"/>
+      <c r="A18" s="336"/>
       <c r="B18" s="151" t="str">
         <f>'[1]Hoja 01'!B16</f>
         <v>jul-sep</v>
@@ -32260,7 +32258,7 @@
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A19" s="336"/>
+      <c r="A19" s="337"/>
       <c r="B19" s="154" t="str">
         <f>'[1]Hoja 01'!B17</f>
         <v>oct-dic</v>
@@ -32283,7 +32281,7 @@
       <c r="N19" s="157"/>
     </row>
     <row r="20" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="334">
+      <c r="A20" s="335">
         <v>2012</v>
       </c>
       <c r="B20" s="151" t="str">
@@ -32309,7 +32307,7 @@
       <c r="N20" s="157"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A21" s="335"/>
+      <c r="A21" s="336"/>
       <c r="B21" s="151" t="str">
         <f>'[1]Hoja 01'!B19</f>
         <v>abr-jun</v>
@@ -32332,7 +32330,7 @@
       <c r="M21" s="159"/>
     </row>
     <row r="22" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="335"/>
+      <c r="A22" s="336"/>
       <c r="B22" s="151" t="str">
         <f>'[1]Hoja 01'!B20</f>
         <v>jul-sep</v>
@@ -32355,7 +32353,7 @@
       <c r="M22" s="159"/>
     </row>
     <row r="23" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="336"/>
+      <c r="A23" s="337"/>
       <c r="B23" s="154" t="str">
         <f>'[1]Hoja 01'!B21</f>
         <v>oct-dic</v>
@@ -32368,7 +32366,7 @@
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A24" s="334">
+      <c r="A24" s="335">
         <v>2013</v>
       </c>
       <c r="B24" s="151" t="str">
@@ -32383,7 +32381,7 @@
       </c>
     </row>
     <row r="25" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="335"/>
+      <c r="A25" s="336"/>
       <c r="B25" s="151" t="str">
         <f>'[1]Hoja 01'!B23</f>
         <v>abr-jun</v>
@@ -32396,7 +32394,7 @@
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A26" s="335"/>
+      <c r="A26" s="336"/>
       <c r="B26" s="151" t="str">
         <f>'[1]Hoja 01'!B24</f>
         <v>jul-sep</v>
@@ -32409,7 +32407,7 @@
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A27" s="336"/>
+      <c r="A27" s="337"/>
       <c r="B27" s="154" t="str">
         <f>'[1]Hoja 01'!B25</f>
         <v>oct-dic</v>
@@ -32422,7 +32420,7 @@
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A28" s="334">
+      <c r="A28" s="335">
         <v>2014</v>
       </c>
       <c r="B28" s="151" t="str">
@@ -32437,7 +32435,7 @@
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A29" s="335"/>
+      <c r="A29" s="336"/>
       <c r="B29" s="151" t="str">
         <f>'[1]Hoja 01'!B27</f>
         <v>abr-jun</v>
@@ -32450,7 +32448,7 @@
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A30" s="335"/>
+      <c r="A30" s="336"/>
       <c r="B30" s="151" t="str">
         <f>'[1]Hoja 01'!B28</f>
         <v>jul-sep</v>
@@ -32463,7 +32461,7 @@
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A31" s="336"/>
+      <c r="A31" s="337"/>
       <c r="B31" s="154" t="str">
         <f>'[1]Hoja 01'!B29</f>
         <v>oct-dic</v>
@@ -32476,7 +32474,7 @@
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A32" s="334">
+      <c r="A32" s="335">
         <v>2015</v>
       </c>
       <c r="B32" s="151" t="str">
@@ -32491,7 +32489,7 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="335"/>
+      <c r="A33" s="336"/>
       <c r="B33" s="151" t="str">
         <f>'[1]Hoja 01'!B31</f>
         <v>abr-jun</v>
@@ -32504,7 +32502,7 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="335"/>
+      <c r="A34" s="336"/>
       <c r="B34" s="151" t="str">
         <f>'[1]Hoja 01'!B32</f>
         <v>jul-sep</v>
@@ -32517,7 +32515,7 @@
       </c>
     </row>
     <row r="35" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="337"/>
+      <c r="A35" s="338"/>
       <c r="B35" s="160" t="str">
         <f>'[1]Hoja 01'!B33</f>
         <v>oct-dic</v>
@@ -32586,42 +32584,42 @@
       <c r="H2" s="245"/>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="395"/>
-      <c r="B3" s="384" t="s">
+      <c r="A3" s="396"/>
+      <c r="B3" s="385" t="s">
         <v>153</v>
       </c>
-      <c r="C3" s="384" t="s">
+      <c r="C3" s="385" t="s">
         <v>167</v>
       </c>
-      <c r="D3" s="384"/>
-      <c r="E3" s="384"/>
-      <c r="F3" s="384"/>
-      <c r="G3" s="384"/>
-      <c r="H3" s="387" t="s">
+      <c r="D3" s="385"/>
+      <c r="E3" s="385"/>
+      <c r="F3" s="385"/>
+      <c r="G3" s="385"/>
+      <c r="H3" s="388" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="395"/>
-      <c r="B4" s="384"/>
-      <c r="C4" s="384" t="s">
+      <c r="A4" s="396"/>
+      <c r="B4" s="385"/>
+      <c r="C4" s="385" t="s">
         <v>107</v>
       </c>
-      <c r="D4" s="384" t="s">
+      <c r="D4" s="385" t="s">
         <v>121</v>
       </c>
-      <c r="E4" s="384" t="s">
+      <c r="E4" s="385" t="s">
         <v>168</v>
       </c>
-      <c r="F4" s="384"/>
-      <c r="G4" s="384"/>
-      <c r="H4" s="387"/>
+      <c r="F4" s="385"/>
+      <c r="G4" s="385"/>
+      <c r="H4" s="388"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="395"/>
-      <c r="B5" s="384"/>
-      <c r="C5" s="384"/>
-      <c r="D5" s="384"/>
+      <c r="A5" s="396"/>
+      <c r="B5" s="385"/>
+      <c r="C5" s="385"/>
+      <c r="D5" s="385"/>
       <c r="E5" s="81" t="s">
         <v>123</v>
       </c>
@@ -32631,11 +32629,11 @@
       <c r="G5" s="81" t="s">
         <v>126</v>
       </c>
-      <c r="H5" s="387"/>
+      <c r="H5" s="388"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="395"/>
-      <c r="B6" s="384"/>
+      <c r="A6" s="396"/>
+      <c r="B6" s="385"/>
       <c r="C6" s="136" t="s">
         <v>169</v>
       </c>
@@ -32656,7 +32654,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="392" t="s">
+      <c r="A7" s="393" t="s">
         <v>152</v>
       </c>
       <c r="B7" s="139">
@@ -32682,7 +32680,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="378"/>
+      <c r="A8" s="379"/>
       <c r="B8" s="136">
         <v>2015</v>
       </c>
@@ -32706,7 +32704,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="378" t="s">
+      <c r="A9" s="379" t="s">
         <v>64</v>
       </c>
       <c r="B9" s="136">
@@ -32732,7 +32730,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="378"/>
+      <c r="A10" s="379"/>
       <c r="B10" s="136">
         <v>2015</v>
       </c>
@@ -32756,28 +32754,28 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="383" t="s">
+      <c r="A11" s="384" t="s">
         <v>414</v>
       </c>
-      <c r="B11" s="383"/>
-      <c r="C11" s="383"/>
-      <c r="D11" s="383"/>
-      <c r="E11" s="383"/>
-      <c r="F11" s="383"/>
-      <c r="G11" s="383"/>
-      <c r="H11" s="383"/>
+      <c r="B11" s="384"/>
+      <c r="C11" s="384"/>
+      <c r="D11" s="384"/>
+      <c r="E11" s="384"/>
+      <c r="F11" s="384"/>
+      <c r="G11" s="384"/>
+      <c r="H11" s="384"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="394" t="s">
+      <c r="A12" s="395" t="s">
         <v>174</v>
       </c>
-      <c r="B12" s="394"/>
-      <c r="C12" s="394"/>
-      <c r="D12" s="394"/>
-      <c r="E12" s="394"/>
-      <c r="F12" s="394"/>
-      <c r="G12" s="394"/>
-      <c r="H12" s="394"/>
+      <c r="B12" s="395"/>
+      <c r="C12" s="395"/>
+      <c r="D12" s="395"/>
+      <c r="E12" s="395"/>
+      <c r="F12" s="395"/>
+      <c r="G12" s="395"/>
+      <c r="H12" s="395"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -32821,24 +32819,24 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="371"/>
-      <c r="B2" s="371"/>
-      <c r="C2" s="371"/>
-      <c r="D2" s="371"/>
-      <c r="E2" s="371"/>
+      <c r="A2" s="372"/>
+      <c r="B2" s="372"/>
+      <c r="C2" s="372"/>
+      <c r="D2" s="372"/>
+      <c r="E2" s="372"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="116" t="s">
         <v>133</v>
       </c>
-      <c r="B3" s="389" t="s">
+      <c r="B3" s="390" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="389"/>
-      <c r="D3" s="389" t="s">
+      <c r="C3" s="390"/>
+      <c r="D3" s="390" t="s">
         <v>64</v>
       </c>
-      <c r="E3" s="389"/>
+      <c r="E3" s="390"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="109"/>
@@ -32975,20 +32973,20 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="380" t="s">
+      <c r="A12" s="381" t="s">
         <v>134</v>
       </c>
-      <c r="B12" s="380"/>
-      <c r="C12" s="380"/>
-      <c r="D12" s="380"/>
-      <c r="E12" s="380"/>
+      <c r="B12" s="381"/>
+      <c r="C12" s="381"/>
+      <c r="D12" s="381"/>
+      <c r="E12" s="381"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="370"/>
-      <c r="B13" s="370"/>
-      <c r="C13" s="370"/>
-      <c r="D13" s="370"/>
-      <c r="E13" s="370"/>
+      <c r="A13" s="371"/>
+      <c r="B13" s="371"/>
+      <c r="C13" s="371"/>
+      <c r="D13" s="371"/>
+      <c r="E13" s="371"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="10"/>
@@ -33070,29 +33068,29 @@
     </row>
     <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="386" t="s">
+      <c r="A3" s="387" t="s">
         <v>176</v>
       </c>
-      <c r="B3" s="389" t="s">
+      <c r="B3" s="390" t="s">
         <v>167</v>
       </c>
-      <c r="C3" s="389"/>
-      <c r="D3" s="389"/>
-      <c r="E3" s="389"/>
+      <c r="C3" s="390"/>
+      <c r="D3" s="390"/>
+      <c r="E3" s="390"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="387"/>
-      <c r="B4" s="395" t="s">
+      <c r="A4" s="388"/>
+      <c r="B4" s="396" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="395"/>
-      <c r="D4" s="384" t="s">
+      <c r="C4" s="396"/>
+      <c r="D4" s="385" t="s">
         <v>64</v>
       </c>
-      <c r="E4" s="384"/>
+      <c r="E4" s="385"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="388"/>
+      <c r="A5" s="389"/>
       <c r="B5" s="138" t="s">
         <v>107</v>
       </c>
@@ -33230,15 +33228,15 @@
       <c r="I3" s="285" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="396"/>
-      <c r="L3" s="396"/>
-      <c r="M3" s="396"/>
-      <c r="N3" s="396"/>
-      <c r="O3" s="396"/>
-      <c r="P3" s="396"/>
+      <c r="K3" s="397"/>
+      <c r="L3" s="397"/>
+      <c r="M3" s="397"/>
+      <c r="N3" s="397"/>
+      <c r="O3" s="397"/>
+      <c r="P3" s="397"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="378" t="s">
+      <c r="A4" s="379" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="111">
@@ -33267,7 +33265,7 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="378"/>
+      <c r="A5" s="379"/>
       <c r="B5" s="111">
         <v>2015</v>
       </c>
@@ -33294,7 +33292,7 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="378" t="s">
+      <c r="A6" s="379" t="s">
         <v>64</v>
       </c>
       <c r="B6" s="111">
@@ -33323,7 +33321,7 @@
       </c>
     </row>
     <row r="7" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="393"/>
+      <c r="A7" s="394"/>
       <c r="B7" s="286">
         <v>2015</v>
       </c>
@@ -33404,22 +33402,22 @@
       <c r="B2" s="245"/>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="390"/>
-      <c r="B3" s="386"/>
-      <c r="C3" s="389" t="s">
+      <c r="A3" s="391"/>
+      <c r="B3" s="387"/>
+      <c r="C3" s="390" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="389"/>
-      <c r="E3" s="389"/>
-      <c r="F3" s="389" t="s">
+      <c r="D3" s="390"/>
+      <c r="E3" s="390"/>
+      <c r="F3" s="390" t="s">
         <v>64</v>
       </c>
-      <c r="G3" s="389"/>
-      <c r="H3" s="389"/>
+      <c r="G3" s="390"/>
+      <c r="H3" s="390"/>
     </row>
     <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="391"/>
-      <c r="B4" s="388"/>
+      <c r="A4" s="392"/>
+      <c r="B4" s="389"/>
       <c r="C4" s="131" t="s">
         <v>121</v>
       </c>
@@ -33440,7 +33438,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="392">
+      <c r="A5" s="393">
         <v>2010</v>
       </c>
       <c r="B5" s="255" t="s">
@@ -33466,7 +33464,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="378"/>
+      <c r="A6" s="379"/>
       <c r="B6" s="119" t="s">
         <v>180</v>
       </c>
@@ -33490,7 +33488,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="378">
+      <c r="A7" s="379">
         <v>2015</v>
       </c>
       <c r="B7" s="111" t="s">
@@ -33516,7 +33514,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="393"/>
+      <c r="A8" s="394"/>
       <c r="B8" s="283" t="s">
         <v>180</v>
       </c>
@@ -33540,40 +33538,40 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="394" t="s">
+      <c r="A9" s="395" t="s">
         <v>226</v>
       </c>
-      <c r="B9" s="394"/>
-      <c r="C9" s="394"/>
-      <c r="D9" s="394"/>
-      <c r="E9" s="394"/>
-      <c r="F9" s="394"/>
-      <c r="G9" s="394"/>
-      <c r="H9" s="394"/>
+      <c r="B9" s="395"/>
+      <c r="C9" s="395"/>
+      <c r="D9" s="395"/>
+      <c r="E9" s="395"/>
+      <c r="F9" s="395"/>
+      <c r="G9" s="395"/>
+      <c r="H9" s="395"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="394" t="s">
+      <c r="A10" s="395" t="s">
         <v>227</v>
       </c>
-      <c r="B10" s="394"/>
-      <c r="C10" s="394"/>
-      <c r="D10" s="394"/>
-      <c r="E10" s="394"/>
-      <c r="F10" s="394"/>
-      <c r="G10" s="394"/>
-      <c r="H10" s="394"/>
+      <c r="B10" s="395"/>
+      <c r="C10" s="395"/>
+      <c r="D10" s="395"/>
+      <c r="E10" s="395"/>
+      <c r="F10" s="395"/>
+      <c r="G10" s="395"/>
+      <c r="H10" s="395"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="394" t="s">
+      <c r="A11" s="395" t="s">
         <v>173</v>
       </c>
-      <c r="B11" s="394"/>
-      <c r="C11" s="394"/>
-      <c r="D11" s="394"/>
-      <c r="E11" s="394"/>
-      <c r="F11" s="394"/>
-      <c r="G11" s="394"/>
-      <c r="H11" s="394"/>
+      <c r="B11" s="395"/>
+      <c r="C11" s="395"/>
+      <c r="D11" s="395"/>
+      <c r="E11" s="395"/>
+      <c r="F11" s="395"/>
+      <c r="G11" s="395"/>
+      <c r="H11" s="395"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -33614,20 +33612,20 @@
     </row>
     <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="351" t="s">
+      <c r="A3" s="352" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="354" t="s">
+      <c r="B3" s="355" t="s">
         <v>152</v>
       </c>
-      <c r="C3" s="354"/>
-      <c r="D3" s="354" t="s">
+      <c r="C3" s="355"/>
+      <c r="D3" s="355" t="s">
         <v>64</v>
       </c>
-      <c r="E3" s="354"/>
+      <c r="E3" s="355"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="353"/>
+      <c r="A4" s="354"/>
       <c r="B4" s="86">
         <v>2010</v>
       </c>
@@ -34261,21 +34259,21 @@
       <c r="H2" s="222"/>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="397" t="s">
+      <c r="A3" s="398" t="s">
         <v>342</v>
       </c>
-      <c r="B3" s="363" t="s">
+      <c r="B3" s="364" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="363"/>
-      <c r="D3" s="363"/>
-      <c r="E3" s="363"/>
-      <c r="F3" s="363"/>
-      <c r="G3" s="363"/>
-      <c r="H3" s="363"/>
+      <c r="C3" s="364"/>
+      <c r="D3" s="364"/>
+      <c r="E3" s="364"/>
+      <c r="F3" s="364"/>
+      <c r="G3" s="364"/>
+      <c r="H3" s="364"/>
     </row>
     <row r="4" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="398"/>
+      <c r="A4" s="399"/>
       <c r="B4" s="298" t="s">
         <v>287</v>
       </c>
@@ -34560,28 +34558,28 @@
       </c>
     </row>
     <row r="15" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="359" t="s">
+      <c r="A15" s="360" t="s">
         <v>345</v>
       </c>
-      <c r="B15" s="359"/>
-      <c r="C15" s="359"/>
-      <c r="D15" s="359"/>
-      <c r="E15" s="359"/>
-      <c r="F15" s="359"/>
-      <c r="G15" s="359"/>
-      <c r="H15" s="359"/>
+      <c r="B15" s="360"/>
+      <c r="C15" s="360"/>
+      <c r="D15" s="360"/>
+      <c r="E15" s="360"/>
+      <c r="F15" s="360"/>
+      <c r="G15" s="360"/>
+      <c r="H15" s="360"/>
     </row>
     <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="399" t="s">
+      <c r="A16" s="400" t="s">
         <v>283</v>
       </c>
-      <c r="B16" s="399"/>
-      <c r="C16" s="399"/>
-      <c r="D16" s="399"/>
-      <c r="E16" s="399"/>
-      <c r="F16" s="399"/>
-      <c r="G16" s="399"/>
-      <c r="H16" s="399"/>
+      <c r="B16" s="400"/>
+      <c r="C16" s="400"/>
+      <c r="D16" s="400"/>
+      <c r="E16" s="400"/>
+      <c r="F16" s="400"/>
+      <c r="G16" s="400"/>
+      <c r="H16" s="400"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -34629,7 +34627,7 @@
       <c r="G2" s="228"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="400" t="s">
+      <c r="A3" s="401" t="s">
         <v>342</v>
       </c>
       <c r="B3" s="241" t="s">
@@ -34638,17 +34636,17 @@
       <c r="C3" s="241" t="s">
         <v>121</v>
       </c>
-      <c r="D3" s="361" t="s">
+      <c r="D3" s="362" t="s">
         <v>280</v>
       </c>
-      <c r="E3" s="361"/>
-      <c r="F3" s="361"/>
+      <c r="E3" s="362"/>
+      <c r="F3" s="362"/>
       <c r="G3" s="241" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="398"/>
+      <c r="A4" s="399"/>
       <c r="B4" s="234"/>
       <c r="C4" s="234"/>
       <c r="D4" s="234" t="s">
@@ -34893,13 +34891,13 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="399" t="s">
+      <c r="A15" s="400" t="s">
         <v>283</v>
       </c>
-      <c r="B15" s="399"/>
-      <c r="C15" s="399"/>
-      <c r="D15" s="399"/>
-      <c r="E15" s="399"/>
+      <c r="B15" s="400"/>
+      <c r="C15" s="400"/>
+      <c r="D15" s="400"/>
+      <c r="E15" s="400"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -35245,7 +35243,7 @@
       <c r="X3" s="215"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A4" s="338">
+      <c r="A4" s="339">
         <f>'[1]Hoja 02'!A2</f>
         <v>2009</v>
       </c>
@@ -35265,7 +35263,7 @@
       <c r="P4" s="150"/>
     </row>
     <row r="5" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="339"/>
+      <c r="A5" s="340"/>
       <c r="B5" s="164" t="str">
         <f>'[1]Hoja 02'!B3</f>
         <v>abr-jun</v>
@@ -35282,7 +35280,7 @@
       <c r="P5" s="150"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A6" s="339"/>
+      <c r="A6" s="340"/>
       <c r="B6" s="164" t="str">
         <f>'[1]Hoja 02'!B4</f>
         <v>jul-sep</v>
@@ -35299,7 +35297,7 @@
       <c r="P6" s="150"/>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A7" s="340"/>
+      <c r="A7" s="341"/>
       <c r="B7" s="165" t="str">
         <f>'[1]Hoja 02'!B5</f>
         <v>oct-dic</v>
@@ -35316,7 +35314,7 @@
       <c r="P7" s="150"/>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A8" s="338">
+      <c r="A8" s="339">
         <f>'[1]Hoja 02'!A6</f>
         <v>2010</v>
       </c>
@@ -35336,7 +35334,7 @@
       <c r="P8" s="150"/>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A9" s="339"/>
+      <c r="A9" s="340"/>
       <c r="B9" s="164" t="str">
         <f>'[1]Hoja 02'!B7</f>
         <v>abr-jun</v>
@@ -35353,7 +35351,7 @@
       <c r="P9" s="150"/>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A10" s="339"/>
+      <c r="A10" s="340"/>
       <c r="B10" s="164" t="str">
         <f>'[1]Hoja 02'!B8</f>
         <v>jul-sep</v>
@@ -35370,7 +35368,7 @@
       <c r="P10" s="150"/>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A11" s="340"/>
+      <c r="A11" s="341"/>
       <c r="B11" s="165" t="str">
         <f>'[1]Hoja 02'!B9</f>
         <v>oct-dic</v>
@@ -35387,7 +35385,7 @@
       <c r="P11" s="150"/>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A12" s="338">
+      <c r="A12" s="339">
         <f>'[1]Hoja 02'!A10</f>
         <v>2011</v>
       </c>
@@ -35407,7 +35405,7 @@
       <c r="P12" s="150"/>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A13" s="339"/>
+      <c r="A13" s="340"/>
       <c r="B13" s="164" t="str">
         <f>'[1]Hoja 02'!B11</f>
         <v>abr-jun</v>
@@ -35424,7 +35422,7 @@
       <c r="P13" s="150"/>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A14" s="339"/>
+      <c r="A14" s="340"/>
       <c r="B14" s="164" t="str">
         <f>'[1]Hoja 02'!B12</f>
         <v>jul-sep</v>
@@ -35441,7 +35439,7 @@
       <c r="P14" s="150"/>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A15" s="340"/>
+      <c r="A15" s="341"/>
       <c r="B15" s="165" t="str">
         <f>'[1]Hoja 02'!B13</f>
         <v>oct-dic</v>
@@ -35458,7 +35456,7 @@
       <c r="P15" s="150"/>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A16" s="338">
+      <c r="A16" s="339">
         <f>'[1]Hoja 02'!A14</f>
         <v>2012</v>
       </c>
@@ -35478,7 +35476,7 @@
       <c r="P16" s="150"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A17" s="339"/>
+      <c r="A17" s="340"/>
       <c r="B17" s="164" t="str">
         <f>'[1]Hoja 02'!B15</f>
         <v>abr-jun</v>
@@ -35495,7 +35493,7 @@
       <c r="P17" s="150"/>
     </row>
     <row r="18" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="339"/>
+      <c r="A18" s="340"/>
       <c r="B18" s="164" t="str">
         <f>'[1]Hoja 02'!B16</f>
         <v>jul-sep</v>
@@ -35521,7 +35519,7 @@
       <c r="P18" s="150"/>
     </row>
     <row r="19" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="340"/>
+      <c r="A19" s="341"/>
       <c r="B19" s="165" t="str">
         <f>'[1]Hoja 02'!B17</f>
         <v>oct-dic</v>
@@ -35546,7 +35544,7 @@
       <c r="P19" s="150"/>
     </row>
     <row r="20" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="338">
+      <c r="A20" s="339">
         <f>'[1]Hoja 02'!A18</f>
         <v>2013</v>
       </c>
@@ -35573,7 +35571,7 @@
       <c r="N20" s="159"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A21" s="339"/>
+      <c r="A21" s="340"/>
       <c r="B21" s="164" t="str">
         <f>'[1]Hoja 02'!B19</f>
         <v>abr-jun</v>
@@ -35590,7 +35588,7 @@
       <c r="P21" s="150"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A22" s="339"/>
+      <c r="A22" s="340"/>
       <c r="B22" s="164" t="str">
         <f>'[1]Hoja 02'!B20</f>
         <v>jul-sep</v>
@@ -35607,7 +35605,7 @@
       <c r="P22" s="150"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A23" s="340"/>
+      <c r="A23" s="341"/>
       <c r="B23" s="165" t="str">
         <f>'[1]Hoja 02'!B21</f>
         <v>oct-dic</v>
@@ -35629,7 +35627,7 @@
       <c r="P23" s="150"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A24" s="338">
+      <c r="A24" s="339">
         <f>'[1]Hoja 02'!A22</f>
         <v>2014</v>
       </c>
@@ -35656,7 +35654,7 @@
       <c r="P24" s="150"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A25" s="339"/>
+      <c r="A25" s="340"/>
       <c r="B25" s="164" t="str">
         <f>'[1]Hoja 02'!B23</f>
         <v>abr-jun</v>
@@ -35673,7 +35671,7 @@
       <c r="P25" s="150"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A26" s="339"/>
+      <c r="A26" s="340"/>
       <c r="B26" s="164" t="str">
         <f>'[1]Hoja 02'!B24</f>
         <v>jul-sep</v>
@@ -35687,7 +35685,7 @@
       <c r="P26" s="150"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A27" s="340"/>
+      <c r="A27" s="341"/>
       <c r="B27" s="165" t="str">
         <f>'[1]Hoja 02'!B25</f>
         <v>oct-dic</v>
@@ -35701,7 +35699,7 @@
       <c r="P27" s="150"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A28" s="338">
+      <c r="A28" s="339">
         <f>'[1]Hoja 02'!A26</f>
         <v>2015</v>
       </c>
@@ -35718,7 +35716,7 @@
       <c r="P28" s="150"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A29" s="339"/>
+      <c r="A29" s="340"/>
       <c r="B29" s="164" t="str">
         <f>'[1]Hoja 02'!B27</f>
         <v>abr-jun</v>
@@ -35732,7 +35730,7 @@
       <c r="P29" s="150"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A30" s="339"/>
+      <c r="A30" s="340"/>
       <c r="B30" s="164" t="str">
         <f>'[1]Hoja 02'!B28</f>
         <v>jul-sep</v>
@@ -35745,7 +35743,7 @@
       </c>
     </row>
     <row r="31" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="341"/>
+      <c r="A31" s="342"/>
       <c r="B31" s="167" t="str">
         <f>'[1]Hoja 02'!B29</f>
         <v>oct-dic</v>
@@ -37170,7 +37168,7 @@
       <c r="P3" s="150"/>
     </row>
     <row r="4" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="338">
+      <c r="A4" s="339">
         <f>'[1]Hoja 03'!A2</f>
         <v>2010</v>
       </c>
@@ -37198,7 +37196,7 @@
       <c r="P4" s="150"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A5" s="339"/>
+      <c r="A5" s="340"/>
       <c r="B5" s="164" t="str">
         <f>'[1]Hoja 03'!B3</f>
         <v>feb-abr</v>
@@ -37223,7 +37221,7 @@
       <c r="P5" s="150"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A6" s="339"/>
+      <c r="A6" s="340"/>
       <c r="B6" s="164" t="str">
         <f>'[1]Hoja 03'!B4</f>
         <v>mar-may</v>
@@ -37248,7 +37246,7 @@
       <c r="P6" s="150"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A7" s="339"/>
+      <c r="A7" s="340"/>
       <c r="B7" s="164" t="str">
         <f>'[1]Hoja 03'!B5</f>
         <v>abr-jun</v>
@@ -37273,7 +37271,7 @@
       <c r="P7" s="150"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A8" s="339"/>
+      <c r="A8" s="340"/>
       <c r="B8" s="164" t="str">
         <f>'[1]Hoja 03'!B6</f>
         <v>may-jul</v>
@@ -37298,7 +37296,7 @@
       <c r="P8" s="150"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A9" s="339"/>
+      <c r="A9" s="340"/>
       <c r="B9" s="164" t="str">
         <f>'[1]Hoja 03'!B7</f>
         <v>jun-ago</v>
@@ -37323,7 +37321,7 @@
       <c r="P9" s="150"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A10" s="339"/>
+      <c r="A10" s="340"/>
       <c r="B10" s="164" t="str">
         <f>'[1]Hoja 03'!B8</f>
         <v>jul-sep</v>
@@ -37348,7 +37346,7 @@
       <c r="P10" s="150"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A11" s="339"/>
+      <c r="A11" s="340"/>
       <c r="B11" s="164" t="str">
         <f>'[1]Hoja 03'!B9</f>
         <v>ago-oct</v>
@@ -37373,7 +37371,7 @@
       <c r="P11" s="150"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A12" s="339"/>
+      <c r="A12" s="340"/>
       <c r="B12" s="164" t="str">
         <f>'[1]Hoja 03'!B10</f>
         <v>sep-nov</v>
@@ -37398,7 +37396,7 @@
       <c r="P12" s="150"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A13" s="339"/>
+      <c r="A13" s="340"/>
       <c r="B13" s="164" t="str">
         <f>'[1]Hoja 03'!B11</f>
         <v>oct-dic</v>
@@ -37423,7 +37421,7 @@
       <c r="P13" s="150"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A14" s="340"/>
+      <c r="A14" s="341"/>
       <c r="B14" s="165" t="str">
         <f>'[1]Hoja 03'!B12</f>
         <v>nov-ene</v>
@@ -37448,7 +37446,7 @@
       <c r="P14" s="150"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A15" s="338">
+      <c r="A15" s="339">
         <f>'[1]Hoja 03'!A13</f>
         <v>2011</v>
       </c>
@@ -37476,7 +37474,7 @@
       <c r="P15" s="150"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A16" s="339"/>
+      <c r="A16" s="340"/>
       <c r="B16" s="164" t="str">
         <f>'[1]Hoja 03'!B14</f>
         <v>ene-mar</v>
@@ -37501,7 +37499,7 @@
       <c r="P16" s="150"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A17" s="339"/>
+      <c r="A17" s="340"/>
       <c r="B17" s="164" t="str">
         <f>'[1]Hoja 03'!B15</f>
         <v>feb-abr</v>
@@ -37526,7 +37524,7 @@
       <c r="P17" s="150"/>
     </row>
     <row r="18" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="339"/>
+      <c r="A18" s="340"/>
       <c r="B18" s="164" t="str">
         <f>'[1]Hoja 03'!B16</f>
         <v>mar-may</v>
@@ -37543,7 +37541,7 @@
       <c r="P18" s="150"/>
     </row>
     <row r="19" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="339"/>
+      <c r="A19" s="340"/>
       <c r="B19" s="164" t="str">
         <f>'[1]Hoja 03'!B17</f>
         <v>abr-jun</v>
@@ -37567,7 +37565,7 @@
       <c r="P19" s="150"/>
     </row>
     <row r="20" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="339"/>
+      <c r="A20" s="340"/>
       <c r="B20" s="164" t="str">
         <f>'[1]Hoja 03'!B18</f>
         <v>may-jul</v>
@@ -37593,7 +37591,7 @@
       <c r="P20" s="150"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A21" s="339"/>
+      <c r="A21" s="340"/>
       <c r="B21" s="164" t="str">
         <f>'[1]Hoja 03'!B19</f>
         <v>jun-ago</v>
@@ -37620,7 +37618,7 @@
       <c r="P21" s="150"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A22" s="339"/>
+      <c r="A22" s="340"/>
       <c r="B22" s="164" t="str">
         <f>'[1]Hoja 03'!B20</f>
         <v>jul-sep</v>
@@ -37645,7 +37643,7 @@
       <c r="P22" s="150"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A23" s="339"/>
+      <c r="A23" s="340"/>
       <c r="B23" s="164" t="str">
         <f>'[1]Hoja 03'!B21</f>
         <v>ago-oct</v>
@@ -37670,7 +37668,7 @@
       <c r="P23" s="150"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A24" s="339"/>
+      <c r="A24" s="340"/>
       <c r="B24" s="164" t="str">
         <f>'[1]Hoja 03'!B22</f>
         <v>sep-nov</v>
@@ -37695,7 +37693,7 @@
       <c r="P24" s="150"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A25" s="339"/>
+      <c r="A25" s="340"/>
       <c r="B25" s="164" t="str">
         <f>'[1]Hoja 03'!B23</f>
         <v>oct-dic</v>
@@ -37720,7 +37718,7 @@
       <c r="P25" s="150"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A26" s="340"/>
+      <c r="A26" s="341"/>
       <c r="B26" s="165" t="str">
         <f>'[1]Hoja 03'!B24</f>
         <v>nov-ene</v>
@@ -37743,7 +37741,7 @@
       <c r="N26" s="150"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A27" s="338">
+      <c r="A27" s="339">
         <f>'[1]Hoja 03'!A25</f>
         <v>2012</v>
       </c>
@@ -37761,7 +37759,7 @@
       <c r="F27" s="267"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A28" s="339"/>
+      <c r="A28" s="340"/>
       <c r="B28" s="164" t="str">
         <f>'[1]Hoja 03'!B26</f>
         <v>ene-mar</v>
@@ -37776,7 +37774,7 @@
       <c r="F28" s="267"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A29" s="339"/>
+      <c r="A29" s="340"/>
       <c r="B29" s="164" t="str">
         <f>'[1]Hoja 03'!B27</f>
         <v>feb-abr</v>
@@ -37791,7 +37789,7 @@
       <c r="F29" s="267"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A30" s="339"/>
+      <c r="A30" s="340"/>
       <c r="B30" s="164" t="str">
         <f>'[1]Hoja 03'!B28</f>
         <v>mar-may</v>
@@ -37806,7 +37804,7 @@
       <c r="F30" s="267"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A31" s="339"/>
+      <c r="A31" s="340"/>
       <c r="B31" s="164" t="str">
         <f>'[1]Hoja 03'!B29</f>
         <v>abr-jun</v>
@@ -37821,7 +37819,7 @@
       <c r="F31" s="267"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A32" s="339"/>
+      <c r="A32" s="340"/>
       <c r="B32" s="164" t="str">
         <f>'[1]Hoja 03'!B30</f>
         <v>may-jul</v>
@@ -37836,7 +37834,7 @@
       <c r="F32" s="267"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="339"/>
+      <c r="A33" s="340"/>
       <c r="B33" s="164" t="str">
         <f>'[1]Hoja 03'!B31</f>
         <v>jun-ago</v>
@@ -37851,7 +37849,7 @@
       <c r="F33" s="267"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="339"/>
+      <c r="A34" s="340"/>
       <c r="B34" s="164" t="str">
         <f>'[1]Hoja 03'!B32</f>
         <v>jul-sep</v>
@@ -37866,7 +37864,7 @@
       <c r="F34" s="267"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="339"/>
+      <c r="A35" s="340"/>
       <c r="B35" s="164" t="str">
         <f>'[1]Hoja 03'!B33</f>
         <v>ago-oct</v>
@@ -37881,7 +37879,7 @@
       <c r="F35" s="267"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="339"/>
+      <c r="A36" s="340"/>
       <c r="B36" s="164" t="str">
         <f>'[1]Hoja 03'!B34</f>
         <v>sep-nov</v>
@@ -37896,7 +37894,7 @@
       <c r="F36" s="267"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="339"/>
+      <c r="A37" s="340"/>
       <c r="B37" s="164" t="str">
         <f>'[1]Hoja 03'!B35</f>
         <v>oct-dic</v>
@@ -37911,7 +37909,7 @@
       <c r="F37" s="267"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="340"/>
+      <c r="A38" s="341"/>
       <c r="B38" s="165" t="str">
         <f>'[1]Hoja 03'!B36</f>
         <v>nov-ene</v>
@@ -37926,7 +37924,7 @@
       <c r="F38" s="267"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="338">
+      <c r="A39" s="339">
         <f>'[1]Hoja 03'!A37</f>
         <v>2013</v>
       </c>
@@ -37944,7 +37942,7 @@
       <c r="F39" s="267"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" s="339"/>
+      <c r="A40" s="340"/>
       <c r="B40" s="164" t="str">
         <f>'[1]Hoja 03'!B38</f>
         <v>ene-mar</v>
@@ -37959,7 +37957,7 @@
       <c r="F40" s="267"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" s="339"/>
+      <c r="A41" s="340"/>
       <c r="B41" s="164" t="str">
         <f>'[1]Hoja 03'!B39</f>
         <v>feb-abr</v>
@@ -37974,7 +37972,7 @@
       <c r="F41" s="267"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" s="339"/>
+      <c r="A42" s="340"/>
       <c r="B42" s="164" t="str">
         <f>'[1]Hoja 03'!B40</f>
         <v>mar-may</v>
@@ -37989,7 +37987,7 @@
       <c r="F42" s="267"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" s="339"/>
+      <c r="A43" s="340"/>
       <c r="B43" s="164" t="str">
         <f>'[1]Hoja 03'!B41</f>
         <v>abr-jun</v>
@@ -38004,7 +38002,7 @@
       <c r="F43" s="267"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" s="339"/>
+      <c r="A44" s="340"/>
       <c r="B44" s="164" t="str">
         <f>'[1]Hoja 03'!B42</f>
         <v>may-jul</v>
@@ -38019,7 +38017,7 @@
       <c r="F44" s="267"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45" s="339"/>
+      <c r="A45" s="340"/>
       <c r="B45" s="164" t="str">
         <f>'[1]Hoja 03'!B43</f>
         <v>jun-ago</v>
@@ -38034,7 +38032,7 @@
       <c r="F45" s="267"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46" s="339"/>
+      <c r="A46" s="340"/>
       <c r="B46" s="164" t="str">
         <f>'[1]Hoja 03'!B44</f>
         <v>jul-sep</v>
@@ -38049,7 +38047,7 @@
       <c r="F46" s="267"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47" s="339"/>
+      <c r="A47" s="340"/>
       <c r="B47" s="164" t="str">
         <f>'[1]Hoja 03'!B45</f>
         <v>ago-oct</v>
@@ -38064,7 +38062,7 @@
       <c r="F47" s="267"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48" s="339"/>
+      <c r="A48" s="340"/>
       <c r="B48" s="164" t="str">
         <f>'[1]Hoja 03'!B46</f>
         <v>sep-nov</v>
@@ -38079,7 +38077,7 @@
       <c r="F48" s="267"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A49" s="339"/>
+      <c r="A49" s="340"/>
       <c r="B49" s="164" t="str">
         <f>'[1]Hoja 03'!B47</f>
         <v>oct-dic</v>
@@ -38094,7 +38092,7 @@
       <c r="F49" s="267"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A50" s="340"/>
+      <c r="A50" s="341"/>
       <c r="B50" s="165" t="str">
         <f>'[1]Hoja 03'!B48</f>
         <v>nov-ene</v>
@@ -38109,7 +38107,7 @@
       <c r="F50" s="267"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A51" s="338">
+      <c r="A51" s="339">
         <f>'[1]Hoja 03'!A49</f>
         <v>2014</v>
       </c>
@@ -38127,7 +38125,7 @@
       <c r="F51" s="267"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A52" s="339"/>
+      <c r="A52" s="340"/>
       <c r="B52" s="164" t="str">
         <f>'[1]Hoja 03'!B50</f>
         <v>ene-mar</v>
@@ -38142,7 +38140,7 @@
       <c r="F52" s="267"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A53" s="339"/>
+      <c r="A53" s="340"/>
       <c r="B53" s="164" t="str">
         <f>'[1]Hoja 03'!B51</f>
         <v>feb-abr</v>
@@ -38157,7 +38155,7 @@
       <c r="F53" s="267"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A54" s="339"/>
+      <c r="A54" s="340"/>
       <c r="B54" s="164" t="str">
         <f>'[1]Hoja 03'!B52</f>
         <v>mar-may</v>
@@ -38172,7 +38170,7 @@
       <c r="F54" s="267"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A55" s="339"/>
+      <c r="A55" s="340"/>
       <c r="B55" s="164" t="str">
         <f>'[1]Hoja 03'!B53</f>
         <v>abr-jun</v>
@@ -38187,7 +38185,7 @@
       <c r="F55" s="267"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A56" s="339"/>
+      <c r="A56" s="340"/>
       <c r="B56" s="164" t="str">
         <f>'[1]Hoja 03'!B54</f>
         <v>may-jul</v>
@@ -38202,7 +38200,7 @@
       <c r="F56" s="267"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A57" s="339"/>
+      <c r="A57" s="340"/>
       <c r="B57" s="164" t="str">
         <f>'[1]Hoja 03'!B55</f>
         <v>jun-ago</v>
@@ -38217,7 +38215,7 @@
       <c r="F57" s="267"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A58" s="339"/>
+      <c r="A58" s="340"/>
       <c r="B58" s="164" t="str">
         <f>'[1]Hoja 03'!B56</f>
         <v>jul-sep</v>
@@ -38232,7 +38230,7 @@
       <c r="F58" s="267"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A59" s="339"/>
+      <c r="A59" s="340"/>
       <c r="B59" s="164" t="str">
         <f>'[1]Hoja 03'!B57</f>
         <v>ago-oct</v>
@@ -38247,7 +38245,7 @@
       <c r="F59" s="267"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A60" s="339"/>
+      <c r="A60" s="340"/>
       <c r="B60" s="164" t="str">
         <f>'[1]Hoja 03'!B58</f>
         <v>sep-nov</v>
@@ -38262,7 +38260,7 @@
       <c r="F60" s="267"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A61" s="339"/>
+      <c r="A61" s="340"/>
       <c r="B61" s="164" t="str">
         <f>'[1]Hoja 03'!B59</f>
         <v>oct-dic</v>
@@ -38277,7 +38275,7 @@
       <c r="F61" s="267"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A62" s="340"/>
+      <c r="A62" s="341"/>
       <c r="B62" s="165" t="str">
         <f>'[1]Hoja 03'!B60</f>
         <v>nov-ene</v>
@@ -38292,7 +38290,7 @@
       <c r="F62" s="267"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A63" s="338">
+      <c r="A63" s="339">
         <f>'[1]Hoja 03'!A61</f>
         <v>2015</v>
       </c>
@@ -38310,7 +38308,7 @@
       <c r="F63" s="267"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A64" s="339"/>
+      <c r="A64" s="340"/>
       <c r="B64" s="164" t="str">
         <f>'[1]Hoja 03'!B62</f>
         <v>ene-mar</v>
@@ -38325,7 +38323,7 @@
       <c r="F64" s="267"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A65" s="339"/>
+      <c r="A65" s="340"/>
       <c r="B65" s="164" t="str">
         <f>'[1]Hoja 03'!B63</f>
         <v>feb-abr</v>
@@ -38340,7 +38338,7 @@
       <c r="F65" s="267"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A66" s="339"/>
+      <c r="A66" s="340"/>
       <c r="B66" s="164" t="str">
         <f>'[1]Hoja 03'!B64</f>
         <v>mar-may</v>
@@ -38355,7 +38353,7 @@
       <c r="F66" s="267"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A67" s="339"/>
+      <c r="A67" s="340"/>
       <c r="B67" s="164" t="str">
         <f>'[1]Hoja 03'!B65</f>
         <v>abr-jun</v>
@@ -38370,7 +38368,7 @@
       <c r="F67" s="267"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A68" s="339"/>
+      <c r="A68" s="340"/>
       <c r="B68" s="164" t="str">
         <f>'[1]Hoja 03'!B66</f>
         <v>may-jul</v>
@@ -38385,7 +38383,7 @@
       <c r="F68" s="267"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A69" s="339"/>
+      <c r="A69" s="340"/>
       <c r="B69" s="164" t="str">
         <f>'[1]Hoja 03'!B67</f>
         <v>jun-ago</v>
@@ -38400,7 +38398,7 @@
       <c r="F69" s="267"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A70" s="339"/>
+      <c r="A70" s="340"/>
       <c r="B70" s="164" t="str">
         <f>'[1]Hoja 03'!B68</f>
         <v>jul-sep</v>
@@ -38415,7 +38413,7 @@
       <c r="F70" s="267"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A71" s="339"/>
+      <c r="A71" s="340"/>
       <c r="B71" s="164" t="str">
         <f>'[1]Hoja 03'!B69</f>
         <v>ago-oct</v>
@@ -38430,7 +38428,7 @@
       <c r="F71" s="267"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A72" s="339"/>
+      <c r="A72" s="340"/>
       <c r="B72" s="164" t="str">
         <f>'[1]Hoja 03'!B70</f>
         <v>sep-nov</v>
@@ -38445,7 +38443,7 @@
       <c r="F72" s="267"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A73" s="339"/>
+      <c r="A73" s="340"/>
       <c r="B73" s="164" t="str">
         <f>'[1]Hoja 03'!B71</f>
         <v>oct-dic</v>
@@ -38601,15 +38599,15 @@
       </c>
       <c r="D9" s="267"/>
       <c r="E9" s="267"/>
-      <c r="P9" s="342"/>
-      <c r="Q9" s="342"/>
-      <c r="R9" s="342"/>
-      <c r="S9" s="342"/>
-      <c r="T9" s="342"/>
-      <c r="U9" s="342"/>
-      <c r="V9" s="342"/>
-      <c r="W9" s="342"/>
-      <c r="X9" s="342"/>
+      <c r="P9" s="343"/>
+      <c r="Q9" s="343"/>
+      <c r="R9" s="343"/>
+      <c r="S9" s="343"/>
+      <c r="T9" s="343"/>
+      <c r="U9" s="343"/>
+      <c r="V9" s="343"/>
+      <c r="W9" s="343"/>
+      <c r="X9" s="343"/>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10" s="172" t="s">
@@ -39204,15 +39202,15 @@
     <row r="37" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C37" s="177"/>
       <c r="E37" s="180"/>
-      <c r="F37" s="343"/>
-      <c r="G37" s="343"/>
-      <c r="H37" s="343"/>
-      <c r="I37" s="343"/>
-      <c r="J37" s="343"/>
-      <c r="K37" s="343"/>
-      <c r="L37" s="343"/>
-      <c r="M37" s="343"/>
-      <c r="N37" s="343"/>
+      <c r="F37" s="344"/>
+      <c r="G37" s="344"/>
+      <c r="H37" s="344"/>
+      <c r="I37" s="344"/>
+      <c r="J37" s="344"/>
+      <c r="K37" s="344"/>
+      <c r="L37" s="344"/>
+      <c r="M37" s="344"/>
+      <c r="N37" s="344"/>
     </row>
     <row r="38" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C38" s="177"/>
@@ -39438,8 +39436,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N37"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -39706,8 +39704,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P75"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="U10" sqref="U10"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -39766,7 +39764,7 @@
       <c r="P3" s="150"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A4" s="338">
+      <c r="A4" s="339">
         <v>2010</v>
       </c>
       <c r="B4" s="164" t="s">
@@ -39792,7 +39790,7 @@
       <c r="P4" s="150"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A5" s="339"/>
+      <c r="A5" s="340"/>
       <c r="B5" s="164" t="s">
         <v>265</v>
       </c>
@@ -39815,7 +39813,7 @@
       <c r="O5" s="150"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A6" s="339"/>
+      <c r="A6" s="340"/>
       <c r="B6" s="164" t="s">
         <v>266</v>
       </c>
@@ -39839,7 +39837,7 @@
       <c r="P6" s="150"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A7" s="339"/>
+      <c r="A7" s="340"/>
       <c r="B7" s="164" t="s">
         <v>258</v>
       </c>
@@ -39863,7 +39861,7 @@
       <c r="P7" s="150"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A8" s="339"/>
+      <c r="A8" s="340"/>
       <c r="B8" s="164" t="s">
         <v>267</v>
       </c>
@@ -39887,7 +39885,7 @@
       <c r="P8" s="150"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A9" s="339"/>
+      <c r="A9" s="340"/>
       <c r="B9" s="164" t="s">
         <v>268</v>
       </c>
@@ -39911,7 +39909,7 @@
       <c r="P9" s="150"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A10" s="339"/>
+      <c r="A10" s="340"/>
       <c r="B10" s="164" t="s">
         <v>259</v>
       </c>
@@ -39935,7 +39933,7 @@
       <c r="P10" s="150"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A11" s="339"/>
+      <c r="A11" s="340"/>
       <c r="B11" s="164" t="s">
         <v>269</v>
       </c>
@@ -39959,7 +39957,7 @@
       <c r="P11" s="150"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A12" s="339"/>
+      <c r="A12" s="340"/>
       <c r="B12" s="164" t="s">
         <v>270</v>
       </c>
@@ -39983,7 +39981,7 @@
       <c r="P12" s="150"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A13" s="339"/>
+      <c r="A13" s="340"/>
       <c r="B13" s="164" t="s">
         <v>260</v>
       </c>
@@ -40007,7 +40005,7 @@
       <c r="P13" s="150"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A14" s="340"/>
+      <c r="A14" s="341"/>
       <c r="B14" s="165" t="s">
         <v>271</v>
       </c>
@@ -40031,7 +40029,7 @@
       <c r="P14" s="150"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A15" s="344">
+      <c r="A15" s="345">
         <v>2011</v>
       </c>
       <c r="B15" s="185" t="s">
@@ -40057,7 +40055,7 @@
       <c r="P15" s="150"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A16" s="345"/>
+      <c r="A16" s="346"/>
       <c r="B16" s="185" t="s">
         <v>257</v>
       </c>
@@ -40081,7 +40079,7 @@
       <c r="P16" s="150"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A17" s="345"/>
+      <c r="A17" s="346"/>
       <c r="B17" s="185" t="s">
         <v>265</v>
       </c>
@@ -40105,7 +40103,7 @@
       <c r="P17" s="150"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A18" s="345"/>
+      <c r="A18" s="346"/>
       <c r="B18" s="185" t="s">
         <v>266</v>
       </c>
@@ -40120,7 +40118,7 @@
       <c r="G18" s="150"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A19" s="345"/>
+      <c r="A19" s="346"/>
       <c r="B19" s="185" t="s">
         <v>258</v>
       </c>
@@ -40135,7 +40133,7 @@
       <c r="G19" s="150"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A20" s="345"/>
+      <c r="A20" s="346"/>
       <c r="B20" s="185" t="s">
         <v>267</v>
       </c>
@@ -40150,7 +40148,7 @@
       <c r="G20" s="150"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A21" s="345"/>
+      <c r="A21" s="346"/>
       <c r="B21" s="185" t="s">
         <v>268</v>
       </c>
@@ -40165,7 +40163,7 @@
       <c r="G21" s="150"/>
     </row>
     <row r="22" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="345"/>
+      <c r="A22" s="346"/>
       <c r="B22" s="185" t="s">
         <v>259</v>
       </c>
@@ -40189,7 +40187,7 @@
       <c r="N22" s="144"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A23" s="345"/>
+      <c r="A23" s="346"/>
       <c r="B23" s="185" t="s">
         <v>269</v>
       </c>
@@ -40213,7 +40211,7 @@
       <c r="N23" s="159"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A24" s="345"/>
+      <c r="A24" s="346"/>
       <c r="B24" s="185" t="s">
         <v>270</v>
       </c>
@@ -40228,7 +40226,7 @@
       <c r="G24" s="150"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A25" s="345"/>
+      <c r="A25" s="346"/>
       <c r="B25" s="185" t="s">
         <v>260</v>
       </c>
@@ -40243,7 +40241,7 @@
       <c r="G25" s="150"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A26" s="346"/>
+      <c r="A26" s="347"/>
       <c r="B26" s="187" t="s">
         <v>271</v>
       </c>
@@ -40258,7 +40256,7 @@
       <c r="G26" s="150"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A27" s="344">
+      <c r="A27" s="345">
         <v>2012</v>
       </c>
       <c r="B27" s="185" t="s">
@@ -40275,7 +40273,7 @@
       <c r="G27" s="150"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A28" s="345"/>
+      <c r="A28" s="346"/>
       <c r="B28" s="185" t="s">
         <v>257</v>
       </c>
@@ -40290,7 +40288,7 @@
       <c r="G28" s="150"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A29" s="345"/>
+      <c r="A29" s="346"/>
       <c r="B29" s="185" t="s">
         <v>265</v>
       </c>
@@ -40305,7 +40303,7 @@
       <c r="G29" s="150"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A30" s="345"/>
+      <c r="A30" s="346"/>
       <c r="B30" s="185" t="s">
         <v>266</v>
       </c>
@@ -40320,7 +40318,7 @@
       <c r="G30" s="150"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A31" s="345"/>
+      <c r="A31" s="346"/>
       <c r="B31" s="185" t="s">
         <v>258</v>
       </c>
@@ -40335,7 +40333,7 @@
       <c r="G31" s="150"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A32" s="345"/>
+      <c r="A32" s="346"/>
       <c r="B32" s="185" t="s">
         <v>267</v>
       </c>
@@ -40350,7 +40348,7 @@
       <c r="G32" s="150"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A33" s="345"/>
+      <c r="A33" s="346"/>
       <c r="B33" s="185" t="s">
         <v>268</v>
       </c>
@@ -40365,7 +40363,7 @@
       <c r="G33" s="150"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A34" s="345"/>
+      <c r="A34" s="346"/>
       <c r="B34" s="185" t="s">
         <v>259</v>
       </c>
@@ -40380,7 +40378,7 @@
       <c r="G34" s="150"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A35" s="345"/>
+      <c r="A35" s="346"/>
       <c r="B35" s="185" t="s">
         <v>269</v>
       </c>
@@ -40395,7 +40393,7 @@
       <c r="G35" s="150"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A36" s="345"/>
+      <c r="A36" s="346"/>
       <c r="B36" s="185" t="s">
         <v>270</v>
       </c>
@@ -40419,7 +40417,7 @@
       <c r="P36" s="150"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A37" s="345"/>
+      <c r="A37" s="346"/>
       <c r="B37" s="185" t="s">
         <v>260</v>
       </c>
@@ -40443,7 +40441,7 @@
       <c r="P37" s="150"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A38" s="346"/>
+      <c r="A38" s="347"/>
       <c r="B38" s="187" t="s">
         <v>271</v>
       </c>
@@ -40467,7 +40465,7 @@
       <c r="P38" s="150"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A39" s="338">
+      <c r="A39" s="339">
         <v>2013</v>
       </c>
       <c r="B39" s="164" t="s">
@@ -40493,7 +40491,7 @@
       <c r="P39" s="150"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A40" s="339"/>
+      <c r="A40" s="340"/>
       <c r="B40" s="164" t="s">
         <v>257</v>
       </c>
@@ -40517,7 +40515,7 @@
       <c r="P40" s="150"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A41" s="339"/>
+      <c r="A41" s="340"/>
       <c r="B41" s="164" t="s">
         <v>265</v>
       </c>
@@ -40541,7 +40539,7 @@
       <c r="P41" s="150"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A42" s="339"/>
+      <c r="A42" s="340"/>
       <c r="B42" s="164" t="s">
         <v>266</v>
       </c>
@@ -40565,7 +40563,7 @@
       <c r="P42" s="150"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A43" s="339"/>
+      <c r="A43" s="340"/>
       <c r="B43" s="164" t="s">
         <v>258</v>
       </c>
@@ -40589,7 +40587,7 @@
       <c r="P43" s="150"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A44" s="339"/>
+      <c r="A44" s="340"/>
       <c r="B44" s="164" t="s">
         <v>267</v>
       </c>
@@ -40613,7 +40611,7 @@
       <c r="P44" s="150"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A45" s="339"/>
+      <c r="A45" s="340"/>
       <c r="B45" s="164" t="s">
         <v>268</v>
       </c>
@@ -40637,7 +40635,7 @@
       <c r="P45" s="150"/>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A46" s="339"/>
+      <c r="A46" s="340"/>
       <c r="B46" s="164" t="s">
         <v>259</v>
       </c>
@@ -40661,7 +40659,7 @@
       <c r="P46" s="150"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A47" s="339"/>
+      <c r="A47" s="340"/>
       <c r="B47" s="164" t="s">
         <v>269</v>
       </c>
@@ -40685,7 +40683,7 @@
       <c r="P47" s="150"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A48" s="339"/>
+      <c r="A48" s="340"/>
       <c r="B48" s="164" t="s">
         <v>270</v>
       </c>
@@ -40709,7 +40707,7 @@
       <c r="P48" s="150"/>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A49" s="339"/>
+      <c r="A49" s="340"/>
       <c r="B49" s="164" t="s">
         <v>260</v>
       </c>
@@ -40733,7 +40731,7 @@
       <c r="P49" s="150"/>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A50" s="340"/>
+      <c r="A50" s="341"/>
       <c r="B50" s="165" t="s">
         <v>271</v>
       </c>
@@ -40757,7 +40755,7 @@
       <c r="P50" s="150"/>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A51" s="338">
+      <c r="A51" s="339">
         <v>2014</v>
       </c>
       <c r="B51" s="164" t="s">
@@ -40782,7 +40780,7 @@
       <c r="O51" s="150"/>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A52" s="339"/>
+      <c r="A52" s="340"/>
       <c r="B52" s="164" t="s">
         <v>257</v>
       </c>
@@ -40796,7 +40794,7 @@
       <c r="F52" s="268"/>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A53" s="339"/>
+      <c r="A53" s="340"/>
       <c r="B53" s="164" t="s">
         <v>265</v>
       </c>
@@ -40810,7 +40808,7 @@
       <c r="F53" s="268"/>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A54" s="339"/>
+      <c r="A54" s="340"/>
       <c r="B54" s="164" t="s">
         <v>266</v>
       </c>
@@ -40824,7 +40822,7 @@
       <c r="F54" s="268"/>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A55" s="339"/>
+      <c r="A55" s="340"/>
       <c r="B55" s="164" t="s">
         <v>258</v>
       </c>
@@ -40838,7 +40836,7 @@
       <c r="F55" s="268"/>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A56" s="339"/>
+      <c r="A56" s="340"/>
       <c r="B56" s="164" t="s">
         <v>267</v>
       </c>
@@ -40852,7 +40850,7 @@
       <c r="F56" s="268"/>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A57" s="339"/>
+      <c r="A57" s="340"/>
       <c r="B57" s="164" t="s">
         <v>268</v>
       </c>
@@ -40866,7 +40864,7 @@
       <c r="F57" s="268"/>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A58" s="339"/>
+      <c r="A58" s="340"/>
       <c r="B58" s="164" t="s">
         <v>259</v>
       </c>
@@ -40880,7 +40878,7 @@
       <c r="F58" s="268"/>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A59" s="339"/>
+      <c r="A59" s="340"/>
       <c r="B59" s="164" t="s">
         <v>269</v>
       </c>
@@ -40894,7 +40892,7 @@
       <c r="F59" s="268"/>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A60" s="339"/>
+      <c r="A60" s="340"/>
       <c r="B60" s="164" t="s">
         <v>270</v>
       </c>
@@ -40908,7 +40906,7 @@
       <c r="F60" s="268"/>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A61" s="339"/>
+      <c r="A61" s="340"/>
       <c r="B61" s="164" t="s">
         <v>260</v>
       </c>
@@ -40922,7 +40920,7 @@
       <c r="F61" s="268"/>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A62" s="340"/>
+      <c r="A62" s="341"/>
       <c r="B62" s="165" t="s">
         <v>271</v>
       </c>
@@ -40936,7 +40934,7 @@
       <c r="F62" s="268"/>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A63" s="338">
+      <c r="A63" s="339">
         <v>2015</v>
       </c>
       <c r="B63" s="164" t="s">
@@ -40952,7 +40950,7 @@
       <c r="F63" s="268"/>
     </row>
     <row r="64" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="339"/>
+      <c r="A64" s="340"/>
       <c r="B64" s="164" t="s">
         <v>257</v>
       </c>
@@ -40966,7 +40964,7 @@
       <c r="F64" s="268"/>
     </row>
     <row r="65" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="339"/>
+      <c r="A65" s="340"/>
       <c r="B65" s="164" t="s">
         <v>265</v>
       </c>
@@ -40980,7 +40978,7 @@
       <c r="F65" s="268"/>
     </row>
     <row r="66" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="339"/>
+      <c r="A66" s="340"/>
       <c r="B66" s="164" t="s">
         <v>266</v>
       </c>
@@ -40994,7 +40992,7 @@
       <c r="F66" s="268"/>
     </row>
     <row r="67" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="339"/>
+      <c r="A67" s="340"/>
       <c r="B67" s="164" t="s">
         <v>258</v>
       </c>
@@ -41008,7 +41006,7 @@
       <c r="F67" s="268"/>
     </row>
     <row r="68" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="339"/>
+      <c r="A68" s="340"/>
       <c r="B68" s="164" t="s">
         <v>267</v>
       </c>
@@ -41022,7 +41020,7 @@
       <c r="F68" s="268"/>
     </row>
     <row r="69" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="339"/>
+      <c r="A69" s="340"/>
       <c r="B69" s="164" t="s">
         <v>268</v>
       </c>
@@ -41036,7 +41034,7 @@
       <c r="F69" s="268"/>
     </row>
     <row r="70" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="339"/>
+      <c r="A70" s="340"/>
       <c r="B70" s="164" t="s">
         <v>259</v>
       </c>
@@ -41050,7 +41048,7 @@
       <c r="F70" s="268"/>
     </row>
     <row r="71" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="339"/>
+      <c r="A71" s="340"/>
       <c r="B71" s="164" t="s">
         <v>269</v>
       </c>
@@ -41064,7 +41062,7 @@
       <c r="F71" s="268"/>
     </row>
     <row r="72" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="339"/>
+      <c r="A72" s="340"/>
       <c r="B72" s="164" t="s">
         <v>270</v>
       </c>
@@ -41078,7 +41076,7 @@
       <c r="F72" s="268"/>
     </row>
     <row r="73" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="339"/>
+      <c r="A73" s="340"/>
       <c r="B73" s="164" t="s">
         <v>260</v>
       </c>
@@ -41092,7 +41090,7 @@
       <c r="F73" s="268"/>
     </row>
     <row r="74" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="341"/>
+      <c r="A74" s="342"/>
       <c r="B74" s="167" t="s">
         <v>271</v>
       </c>
@@ -41131,21 +41129,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010063FB1B1D25CB0745A389690B2E2CDE7A" ma:contentTypeVersion="2" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="717befc8328f7bdf6318d82e9e4a8783">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9ed0e8e1-aabc-4adb-a3c5-52e6530bbe04" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5a3e0ec156252a05b79e2b1081ddaf85" ns2:_="">
     <xsd:import namespace="9ed0e8e1-aabc-4adb-a3c5-52e6530bbe04"/>
@@ -41293,31 +41276,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E1B02A05-038E-43EB-BB87-BC2D44E0F4BD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="9ed0e8e1-aabc-4adb-a3c5-52e6530bbe04"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84E9B3FC-BC50-47F1-889E-FFC0E53B90F3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FF39A78A-68AF-4FF2-9292-3FF7CB02F03A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -41333,4 +41307,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84E9B3FC-BC50-47F1-889E-FFC0E53B90F3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E1B02A05-038E-43EB-BB87-BC2D44E0F4BD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="9ed0e8e1-aabc-4adb-a3c5-52e6530bbe04"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Índice de Tablas (16-01-2017).xlsx
+++ b/Índice de Tablas (16-01-2017).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" tabRatio="834" firstSheet="1" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" tabRatio="834" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja 01" sheetId="1" state="hidden" r:id="rId1"/>
@@ -1419,7 +1419,7 @@
     <numFmt numFmtId="169" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
     <numFmt numFmtId="170" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
   </numFmts>
-  <fonts count="56" x14ac:knownFonts="1">
+  <fonts count="56">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -23413,7 +23413,7 @@
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1"/>
@@ -23421,7 +23421,7 @@
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>46</v>
       </c>
@@ -23438,7 +23438,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>47</v>
       </c>
@@ -23452,7 +23452,7 @@
         <v>63.789867401123047</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>48</v>
       </c>
@@ -23469,7 +23469,7 @@
         <v>1568168.1077848077</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>49</v>
       </c>
@@ -23486,7 +23486,7 @@
         <v>1133261.5600456919</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>50</v>
       </c>
@@ -23503,7 +23503,7 @@
         <v>890135.86810636031</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>51</v>
       </c>
@@ -23532,7 +23532,7 @@
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="5.85546875" style="145" customWidth="1"/>
     <col min="2" max="2" width="10.42578125" style="145" customWidth="1"/>
@@ -23542,7 +23542,7 @@
     <col min="6" max="16384" width="9.140625" style="145"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="15.75">
       <c r="A1" s="214" t="s">
         <v>326</v>
       </c>
@@ -23555,7 +23555,7 @@
       <c r="H1" s="144"/>
       <c r="I1" s="169"/>
     </row>
-    <row r="2" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="13.5" thickBot="1">
       <c r="A2" s="146"/>
       <c r="B2" s="146"/>
       <c r="C2" s="146"/>
@@ -23574,7 +23574,7 @@
       <c r="P2" s="150"/>
       <c r="Q2" s="150"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17">
       <c r="A3" s="147" t="s">
         <v>153</v>
       </c>
@@ -23594,7 +23594,7 @@
       <c r="P3" s="150"/>
       <c r="Q3" s="150"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17">
       <c r="A4" s="339">
         <v>2011</v>
       </c>
@@ -23623,7 +23623,7 @@
       <c r="P4" s="150"/>
       <c r="Q4" s="150"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17">
       <c r="A5" s="340"/>
       <c r="B5" s="164" t="s">
         <v>265</v>
@@ -23650,7 +23650,7 @@
       <c r="P5" s="150"/>
       <c r="Q5" s="150"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17">
       <c r="A6" s="340"/>
       <c r="B6" s="164" t="s">
         <v>266</v>
@@ -23677,7 +23677,7 @@
       <c r="P6" s="150"/>
       <c r="Q6" s="150"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17">
       <c r="A7" s="340"/>
       <c r="B7" s="164" t="s">
         <v>258</v>
@@ -23704,7 +23704,7 @@
       <c r="P7" s="150"/>
       <c r="Q7" s="150"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17">
       <c r="A8" s="340"/>
       <c r="B8" s="164" t="s">
         <v>267</v>
@@ -23731,7 +23731,7 @@
       <c r="P8" s="150"/>
       <c r="Q8" s="150"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17">
       <c r="A9" s="340"/>
       <c r="B9" s="164" t="s">
         <v>268</v>
@@ -23758,7 +23758,7 @@
       <c r="P9" s="150"/>
       <c r="Q9" s="150"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17">
       <c r="A10" s="340"/>
       <c r="B10" s="164" t="s">
         <v>259</v>
@@ -23785,7 +23785,7 @@
       <c r="P10" s="150"/>
       <c r="Q10" s="150"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17">
       <c r="A11" s="340"/>
       <c r="B11" s="164" t="s">
         <v>269</v>
@@ -23812,7 +23812,7 @@
       <c r="P11" s="150"/>
       <c r="Q11" s="150"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17">
       <c r="A12" s="340"/>
       <c r="B12" s="164" t="s">
         <v>270</v>
@@ -23839,7 +23839,7 @@
       <c r="P12" s="150"/>
       <c r="Q12" s="150"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17">
       <c r="A13" s="340"/>
       <c r="B13" s="164" t="s">
         <v>260</v>
@@ -23866,7 +23866,7 @@
       <c r="P13" s="150"/>
       <c r="Q13" s="150"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17">
       <c r="A14" s="341"/>
       <c r="B14" s="165" t="s">
         <v>271</v>
@@ -23893,7 +23893,7 @@
       <c r="P14" s="150"/>
       <c r="Q14" s="150"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17">
       <c r="A15" s="339">
         <v>2012</v>
       </c>
@@ -23922,7 +23922,7 @@
       <c r="P15" s="150"/>
       <c r="Q15" s="150"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17">
       <c r="A16" s="340"/>
       <c r="B16" s="164" t="s">
         <v>257</v>
@@ -23949,7 +23949,7 @@
       <c r="P16" s="150"/>
       <c r="Q16" s="150"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17">
       <c r="A17" s="340"/>
       <c r="B17" s="164" t="s">
         <v>265</v>
@@ -23976,7 +23976,7 @@
       <c r="P17" s="150"/>
       <c r="Q17" s="150"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:17">
       <c r="A18" s="340"/>
       <c r="B18" s="164" t="s">
         <v>266</v>
@@ -24003,7 +24003,7 @@
       <c r="P18" s="150"/>
       <c r="Q18" s="150"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:17">
       <c r="A19" s="340"/>
       <c r="B19" s="164" t="s">
         <v>258</v>
@@ -24030,7 +24030,7 @@
       <c r="P19" s="150"/>
       <c r="Q19" s="150"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:17">
       <c r="A20" s="340"/>
       <c r="B20" s="164" t="s">
         <v>267</v>
@@ -24057,7 +24057,7 @@
       <c r="P20" s="150"/>
       <c r="Q20" s="150"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:17">
       <c r="A21" s="340"/>
       <c r="B21" s="164" t="s">
         <v>268</v>
@@ -24084,7 +24084,7 @@
       <c r="P21" s="150"/>
       <c r="Q21" s="150"/>
     </row>
-    <row r="22" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" ht="12.75" customHeight="1">
       <c r="A22" s="340"/>
       <c r="B22" s="164" t="s">
         <v>259</v>
@@ -24113,7 +24113,7 @@
       <c r="P22" s="150"/>
       <c r="Q22" s="150"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:17">
       <c r="A23" s="340"/>
       <c r="B23" s="164" t="s">
         <v>269</v>
@@ -24142,7 +24142,7 @@
       <c r="P23" s="150"/>
       <c r="Q23" s="150"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:17">
       <c r="A24" s="340"/>
       <c r="B24" s="164" t="s">
         <v>270</v>
@@ -24169,7 +24169,7 @@
       <c r="P24" s="150"/>
       <c r="Q24" s="150"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:17">
       <c r="A25" s="340"/>
       <c r="B25" s="164" t="s">
         <v>260</v>
@@ -24196,7 +24196,7 @@
       <c r="P25" s="150"/>
       <c r="Q25" s="150"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:17">
       <c r="A26" s="341"/>
       <c r="B26" s="165" t="s">
         <v>271</v>
@@ -24223,7 +24223,7 @@
       <c r="P26" s="150"/>
       <c r="Q26" s="150"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:17">
       <c r="A27" s="339">
         <v>2013</v>
       </c>
@@ -24252,7 +24252,7 @@
       <c r="P27" s="150"/>
       <c r="Q27" s="150"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:17">
       <c r="A28" s="340"/>
       <c r="B28" s="164" t="s">
         <v>257</v>
@@ -24279,7 +24279,7 @@
       <c r="P28" s="150"/>
       <c r="Q28" s="150"/>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:17">
       <c r="A29" s="340"/>
       <c r="B29" s="164" t="s">
         <v>265</v>
@@ -24306,7 +24306,7 @@
       <c r="P29" s="150"/>
       <c r="Q29" s="150"/>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:17">
       <c r="A30" s="340"/>
       <c r="B30" s="164" t="s">
         <v>266</v>
@@ -24333,7 +24333,7 @@
       <c r="P30" s="150"/>
       <c r="Q30" s="150"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:17">
       <c r="A31" s="340"/>
       <c r="B31" s="164" t="s">
         <v>258</v>
@@ -24360,7 +24360,7 @@
       <c r="P31" s="150"/>
       <c r="Q31" s="150"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:17">
       <c r="A32" s="340"/>
       <c r="B32" s="164" t="s">
         <v>267</v>
@@ -24387,7 +24387,7 @@
       <c r="P32" s="150"/>
       <c r="Q32" s="150"/>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:17">
       <c r="A33" s="340"/>
       <c r="B33" s="164" t="s">
         <v>268</v>
@@ -24414,7 +24414,7 @@
       <c r="P33" s="150"/>
       <c r="Q33" s="150"/>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:17">
       <c r="A34" s="340"/>
       <c r="B34" s="164" t="s">
         <v>259</v>
@@ -24441,7 +24441,7 @@
       <c r="P34" s="150"/>
       <c r="Q34" s="150"/>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:17">
       <c r="A35" s="340"/>
       <c r="B35" s="164" t="s">
         <v>269</v>
@@ -24468,7 +24468,7 @@
       <c r="P35" s="150"/>
       <c r="Q35" s="150"/>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:17">
       <c r="A36" s="340"/>
       <c r="B36" s="164" t="s">
         <v>270</v>
@@ -24495,7 +24495,7 @@
       <c r="P36" s="150"/>
       <c r="Q36" s="150"/>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:17">
       <c r="A37" s="340"/>
       <c r="B37" s="164" t="s">
         <v>260</v>
@@ -24522,7 +24522,7 @@
       <c r="P37" s="150"/>
       <c r="Q37" s="150"/>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:17">
       <c r="A38" s="341"/>
       <c r="B38" s="165" t="s">
         <v>271</v>
@@ -24549,7 +24549,7 @@
       <c r="P38" s="150"/>
       <c r="Q38" s="150"/>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:17">
       <c r="A39" s="339">
         <v>2014</v>
       </c>
@@ -24578,7 +24578,7 @@
       <c r="P39" s="150"/>
       <c r="Q39" s="150"/>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:17">
       <c r="A40" s="340"/>
       <c r="B40" s="164" t="s">
         <v>257</v>
@@ -24605,7 +24605,7 @@
       <c r="P40" s="150"/>
       <c r="Q40" s="150"/>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:17">
       <c r="A41" s="340"/>
       <c r="B41" s="164" t="s">
         <v>265</v>
@@ -24632,7 +24632,7 @@
       <c r="P41" s="150"/>
       <c r="Q41" s="150"/>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:17">
       <c r="A42" s="340"/>
       <c r="B42" s="164" t="s">
         <v>266</v>
@@ -24659,7 +24659,7 @@
       <c r="P42" s="150"/>
       <c r="Q42" s="150"/>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:17">
       <c r="A43" s="340"/>
       <c r="B43" s="164" t="s">
         <v>258</v>
@@ -24686,7 +24686,7 @@
       <c r="P43" s="150"/>
       <c r="Q43" s="150"/>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:17">
       <c r="A44" s="340"/>
       <c r="B44" s="164" t="s">
         <v>267</v>
@@ -24713,7 +24713,7 @@
       <c r="P44" s="150"/>
       <c r="Q44" s="150"/>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:17">
       <c r="A45" s="340"/>
       <c r="B45" s="164" t="s">
         <v>268</v>
@@ -24740,7 +24740,7 @@
       <c r="P45" s="150"/>
       <c r="Q45" s="150"/>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:17">
       <c r="A46" s="340"/>
       <c r="B46" s="164" t="s">
         <v>259</v>
@@ -24767,7 +24767,7 @@
       <c r="P46" s="150"/>
       <c r="Q46" s="150"/>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:17">
       <c r="A47" s="340"/>
       <c r="B47" s="164" t="s">
         <v>269</v>
@@ -24794,7 +24794,7 @@
       <c r="P47" s="150"/>
       <c r="Q47" s="150"/>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:17">
       <c r="A48" s="340"/>
       <c r="B48" s="164" t="s">
         <v>270</v>
@@ -24821,7 +24821,7 @@
       <c r="P48" s="150"/>
       <c r="Q48" s="150"/>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:17">
       <c r="A49" s="340"/>
       <c r="B49" s="164" t="s">
         <v>260</v>
@@ -24848,7 +24848,7 @@
       <c r="P49" s="150"/>
       <c r="Q49" s="150"/>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:17">
       <c r="A50" s="341"/>
       <c r="B50" s="165" t="s">
         <v>271</v>
@@ -24875,7 +24875,7 @@
       <c r="P50" s="150"/>
       <c r="Q50" s="150"/>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:17">
       <c r="A51" s="339">
         <v>2015</v>
       </c>
@@ -24897,7 +24897,7 @@
       <c r="O51" s="150"/>
       <c r="P51" s="150"/>
     </row>
-    <row r="52" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:17" ht="15" customHeight="1">
       <c r="A52" s="340"/>
       <c r="B52" s="193" t="s">
         <v>257</v>
@@ -24916,7 +24916,7 @@
       <c r="H52" s="150"/>
       <c r="O52" s="150"/>
     </row>
-    <row r="53" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:17" ht="15" customHeight="1">
       <c r="A53" s="340"/>
       <c r="B53" s="193" t="s">
         <v>265</v>
@@ -24935,7 +24935,7 @@
       <c r="H53" s="150"/>
       <c r="O53" s="150"/>
     </row>
-    <row r="54" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:17" ht="15" customHeight="1">
       <c r="A54" s="340"/>
       <c r="B54" s="193" t="s">
         <v>266</v>
@@ -24954,7 +24954,7 @@
       <c r="H54" s="150"/>
       <c r="O54" s="150"/>
     </row>
-    <row r="55" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:17" ht="15" customHeight="1">
       <c r="A55" s="340"/>
       <c r="B55" s="193" t="s">
         <v>258</v>
@@ -24973,7 +24973,7 @@
       <c r="H55" s="150"/>
       <c r="O55" s="150"/>
     </row>
-    <row r="56" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:17" ht="15" customHeight="1">
       <c r="A56" s="340"/>
       <c r="B56" s="193" t="s">
         <v>267</v>
@@ -24992,7 +24992,7 @@
       <c r="H56" s="150"/>
       <c r="O56" s="150"/>
     </row>
-    <row r="57" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:17" ht="15" customHeight="1">
       <c r="A57" s="340"/>
       <c r="B57" s="193" t="s">
         <v>268</v>
@@ -25011,7 +25011,7 @@
       <c r="H57" s="150"/>
       <c r="O57" s="150"/>
     </row>
-    <row r="58" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:17" ht="15" customHeight="1">
       <c r="A58" s="340"/>
       <c r="B58" s="193" t="s">
         <v>259</v>
@@ -25030,7 +25030,7 @@
       <c r="H58" s="150"/>
       <c r="O58" s="150"/>
     </row>
-    <row r="59" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:17" ht="15" customHeight="1">
       <c r="A59" s="340"/>
       <c r="B59" s="193" t="s">
         <v>269</v>
@@ -25049,7 +25049,7 @@
       <c r="H59" s="150"/>
       <c r="O59" s="150"/>
     </row>
-    <row r="60" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:17" ht="15" customHeight="1">
       <c r="A60" s="340"/>
       <c r="B60" s="193" t="s">
         <v>270</v>
@@ -25068,7 +25068,7 @@
       <c r="H60" s="150"/>
       <c r="M60" s="150"/>
     </row>
-    <row r="61" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:17" ht="15" customHeight="1" thickBot="1">
       <c r="A61" s="342"/>
       <c r="B61" s="194" t="s">
         <v>260</v>
@@ -25087,7 +25087,7 @@
       <c r="H61" s="150"/>
       <c r="M61" s="150"/>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:17">
       <c r="E62" s="150"/>
     </row>
   </sheetData>
@@ -25110,7 +25110,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="7.140625" style="200" customWidth="1"/>
     <col min="2" max="2" width="12.85546875" style="200" customWidth="1"/>
@@ -25120,15 +25120,15 @@
     <col min="15" max="16384" width="11.42578125" style="200"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="214" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="201"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" s="202"/>
       <c r="B3" s="202"/>
       <c r="C3" s="202"/>
@@ -25136,7 +25136,7 @@
       <c r="E3" s="202"/>
       <c r="F3" s="202"/>
     </row>
-    <row r="4" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="30" customHeight="1">
       <c r="A4" s="203" t="s">
         <v>261</v>
       </c>
@@ -25156,7 +25156,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" s="349">
         <f>[2]_01!A2</f>
         <v>2010</v>
@@ -25178,7 +25178,7 @@
         <v>18.099999999999994</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" s="348"/>
       <c r="B6" s="207" t="s">
         <v>265</v>
@@ -25197,7 +25197,7 @@
         <v>17.300000000000011</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" s="348"/>
       <c r="B7" s="207" t="s">
         <v>266</v>
@@ -25216,7 +25216,7 @@
         <v>16.799999999999997</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" s="348"/>
       <c r="B8" s="207" t="s">
         <v>258</v>
@@ -25235,7 +25235,7 @@
         <v>16.400000000000006</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" s="348"/>
       <c r="B9" s="207" t="s">
         <v>267</v>
@@ -25254,7 +25254,7 @@
         <v>16.599999999999994</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" s="348"/>
       <c r="B10" s="207" t="s">
         <v>268</v>
@@ -25273,7 +25273,7 @@
         <v>19.899999999999991</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" s="348"/>
       <c r="B11" s="207" t="s">
         <v>259</v>
@@ -25292,7 +25292,7 @@
         <v>16.700000000000003</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" s="348"/>
       <c r="B12" s="207" t="s">
         <v>269</v>
@@ -25311,7 +25311,7 @@
         <v>20.900000000000006</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13" s="348"/>
       <c r="B13" s="207" t="s">
         <v>270</v>
@@ -25330,7 +25330,7 @@
         <v>21.300000000000011</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14" s="348"/>
       <c r="B14" s="207" t="s">
         <v>260</v>
@@ -25349,7 +25349,7 @@
         <v>19.400000000000006</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="A15" s="350"/>
       <c r="B15" s="207" t="s">
         <v>271</v>
@@ -25368,7 +25368,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="A16" s="348">
         <f>[2]_01!A13</f>
         <v>2011</v>
@@ -25389,7 +25389,7 @@
         <v>18.099999999999994</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13">
       <c r="A17" s="348"/>
       <c r="B17" s="207" t="s">
         <v>257</v>
@@ -25407,7 +25407,7 @@
         <v>17.300000000000011</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13">
       <c r="A18" s="348"/>
       <c r="B18" s="207" t="s">
         <v>265</v>
@@ -25432,7 +25432,7 @@
       <c r="L18" s="351"/>
       <c r="M18" s="351"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13">
       <c r="A19" s="348"/>
       <c r="B19" s="207" t="s">
         <v>266</v>
@@ -25450,7 +25450,7 @@
         <v>16.400000000000006</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13">
       <c r="A20" s="348"/>
       <c r="B20" s="207" t="s">
         <v>258</v>
@@ -25468,7 +25468,7 @@
         <v>16.599999999999994</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13">
       <c r="A21" s="348"/>
       <c r="B21" s="207" t="s">
         <v>267</v>
@@ -25486,7 +25486,7 @@
         <v>19.899999999999991</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13">
       <c r="A22" s="348"/>
       <c r="B22" s="207" t="s">
         <v>268</v>
@@ -25504,7 +25504,7 @@
         <v>16.700000000000003</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13">
       <c r="A23" s="348"/>
       <c r="B23" s="207" t="s">
         <v>259</v>
@@ -25522,7 +25522,7 @@
         <v>20.900000000000006</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13">
       <c r="A24" s="348"/>
       <c r="B24" s="207" t="s">
         <v>269</v>
@@ -25540,7 +25540,7 @@
         <v>21.300000000000011</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13">
       <c r="A25" s="348"/>
       <c r="B25" s="207" t="s">
         <v>270</v>
@@ -25558,7 +25558,7 @@
         <v>19.400000000000006</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13">
       <c r="A26" s="348"/>
       <c r="B26" s="207" t="s">
         <v>260</v>
@@ -25576,7 +25576,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13">
       <c r="A27" s="350"/>
       <c r="B27" s="207" t="s">
         <v>271</v>
@@ -25594,7 +25594,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13">
       <c r="A28" s="348">
         <f>[2]_01!A25</f>
         <v>2012</v>
@@ -25615,7 +25615,7 @@
         <v>18.099999999999994</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13">
       <c r="A29" s="348"/>
       <c r="B29" s="207" t="s">
         <v>257</v>
@@ -25633,7 +25633,7 @@
         <v>17.300000000000011</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13">
       <c r="A30" s="348"/>
       <c r="B30" s="207" t="s">
         <v>265</v>
@@ -25651,7 +25651,7 @@
         <v>16.799999999999997</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13">
       <c r="A31" s="348"/>
       <c r="B31" s="207" t="s">
         <v>266</v>
@@ -25669,7 +25669,7 @@
         <v>16.400000000000006</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13">
       <c r="A32" s="348"/>
       <c r="B32" s="207" t="s">
         <v>258</v>
@@ -25687,7 +25687,7 @@
         <v>16.599999999999994</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14">
       <c r="A33" s="348"/>
       <c r="B33" s="207" t="s">
         <v>267</v>
@@ -25705,7 +25705,7 @@
         <v>19.899999999999991</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14">
       <c r="A34" s="348"/>
       <c r="B34" s="207" t="s">
         <v>268</v>
@@ -25723,7 +25723,7 @@
         <v>16.700000000000003</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14">
       <c r="A35" s="348"/>
       <c r="B35" s="207" t="s">
         <v>259</v>
@@ -25743,7 +25743,7 @@
       <c r="I35" s="211"/>
       <c r="N35" s="212"/>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14">
       <c r="A36" s="348"/>
       <c r="B36" s="207" t="s">
         <v>269</v>
@@ -25761,7 +25761,7 @@
         <v>21.300000000000011</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14">
       <c r="A37" s="348"/>
       <c r="B37" s="207" t="s">
         <v>270</v>
@@ -25779,7 +25779,7 @@
         <v>19.400000000000006</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14">
       <c r="A38" s="348"/>
       <c r="B38" s="207" t="s">
         <v>260</v>
@@ -25797,7 +25797,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14">
       <c r="A39" s="350"/>
       <c r="B39" s="207" t="s">
         <v>271</v>
@@ -25815,7 +25815,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14">
       <c r="A40" s="348">
         <f>[2]_01!A37</f>
         <v>2013</v>
@@ -25836,7 +25836,7 @@
         <v>18.099999999999994</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14">
       <c r="A41" s="348"/>
       <c r="B41" s="207" t="s">
         <v>257</v>
@@ -25854,7 +25854,7 @@
         <v>17.300000000000011</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14">
       <c r="A42" s="348"/>
       <c r="B42" s="207" t="s">
         <v>265</v>
@@ -25873,7 +25873,7 @@
       </c>
       <c r="N42" s="213"/>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14">
       <c r="A43" s="348"/>
       <c r="B43" s="207" t="s">
         <v>266</v>
@@ -25892,7 +25892,7 @@
       </c>
       <c r="N43" s="212"/>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14">
       <c r="A44" s="348"/>
       <c r="B44" s="207" t="s">
         <v>258</v>
@@ -25910,7 +25910,7 @@
         <v>16.599999999999994</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14">
       <c r="A45" s="348"/>
       <c r="B45" s="207" t="s">
         <v>267</v>
@@ -25928,7 +25928,7 @@
         <v>19.899999999999991</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14">
       <c r="A46" s="348"/>
       <c r="B46" s="207" t="s">
         <v>268</v>
@@ -25946,7 +25946,7 @@
         <v>16.700000000000003</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14">
       <c r="A47" s="348"/>
       <c r="B47" s="207" t="s">
         <v>259</v>
@@ -25964,7 +25964,7 @@
         <v>20.900000000000006</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14">
       <c r="A48" s="348"/>
       <c r="B48" s="207" t="s">
         <v>269</v>
@@ -25982,7 +25982,7 @@
         <v>21.300000000000011</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6">
       <c r="A49" s="348"/>
       <c r="B49" s="207" t="s">
         <v>270</v>
@@ -26000,7 +26000,7 @@
         <v>19.400000000000006</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6">
       <c r="A50" s="348"/>
       <c r="B50" s="207" t="s">
         <v>260</v>
@@ -26018,7 +26018,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6">
       <c r="A51" s="350"/>
       <c r="B51" s="207" t="s">
         <v>271</v>
@@ -26036,7 +26036,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6">
       <c r="A52" s="348">
         <f>[2]_01!A49</f>
         <v>2014</v>
@@ -26057,7 +26057,7 @@
         <v>18.099999999999994</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6">
       <c r="A53" s="348"/>
       <c r="B53" s="207" t="s">
         <v>257</v>
@@ -26075,7 +26075,7 @@
         <v>17.300000000000011</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6">
       <c r="A54" s="348"/>
       <c r="B54" s="207" t="s">
         <v>265</v>
@@ -26093,7 +26093,7 @@
         <v>16.799999999999997</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6">
       <c r="A55" s="348"/>
       <c r="B55" s="207" t="s">
         <v>266</v>
@@ -26111,7 +26111,7 @@
         <v>16.400000000000006</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6">
       <c r="A56" s="348"/>
       <c r="B56" s="207" t="s">
         <v>258</v>
@@ -26129,7 +26129,7 @@
         <v>16.599999999999994</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6">
       <c r="A57" s="348"/>
       <c r="B57" s="207" t="s">
         <v>267</v>
@@ -26147,7 +26147,7 @@
         <v>19.899999999999991</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6">
       <c r="A58" s="348"/>
       <c r="B58" s="207" t="s">
         <v>268</v>
@@ -26165,7 +26165,7 @@
         <v>16.700000000000003</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6">
       <c r="A59" s="348"/>
       <c r="B59" s="207" t="s">
         <v>259</v>
@@ -26183,7 +26183,7 @@
         <v>20.900000000000006</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6">
       <c r="A60" s="348"/>
       <c r="B60" s="207" t="s">
         <v>269</v>
@@ -26201,7 +26201,7 @@
         <v>21.300000000000011</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6">
       <c r="A61" s="348"/>
       <c r="B61" s="207" t="s">
         <v>270</v>
@@ -26219,7 +26219,7 @@
         <v>19.400000000000006</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6">
       <c r="A62" s="348"/>
       <c r="B62" s="207" t="s">
         <v>260</v>
@@ -26237,7 +26237,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6">
       <c r="A63" s="350"/>
       <c r="B63" s="207" t="s">
         <v>271</v>
@@ -26255,7 +26255,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6">
       <c r="A64" s="348">
         <f>[2]_01!A61</f>
         <v>2015</v>
@@ -26276,7 +26276,7 @@
         <v>18.099999999999994</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6">
       <c r="A65" s="348"/>
       <c r="B65" s="207" t="s">
         <v>257</v>
@@ -26294,7 +26294,7 @@
         <v>17.300000000000011</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6">
       <c r="A66" s="348"/>
       <c r="B66" s="207" t="s">
         <v>265</v>
@@ -26312,7 +26312,7 @@
         <v>16.799999999999997</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6">
       <c r="A67" s="348"/>
       <c r="B67" s="207" t="s">
         <v>266</v>
@@ -26330,7 +26330,7 @@
         <v>16.400000000000006</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6">
       <c r="A68" s="348"/>
       <c r="B68" s="207" t="s">
         <v>258</v>
@@ -26348,7 +26348,7 @@
         <v>16.599999999999994</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6">
       <c r="A69" s="348"/>
       <c r="B69" s="207" t="s">
         <v>267</v>
@@ -26366,7 +26366,7 @@
         <v>19.899999999999991</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6">
       <c r="A70" s="348"/>
       <c r="B70" s="207" t="s">
         <v>268</v>
@@ -26384,7 +26384,7 @@
         <v>16.700000000000003</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6">
       <c r="A71" s="348"/>
       <c r="B71" s="207" t="s">
         <v>259</v>
@@ -26402,7 +26402,7 @@
         <v>20.900000000000006</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6">
       <c r="A72" s="348"/>
       <c r="B72" s="207" t="s">
         <v>269</v>
@@ -26420,7 +26420,7 @@
         <v>21.300000000000011</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6">
       <c r="A73" s="348"/>
       <c r="B73" s="207" t="s">
         <v>270</v>
@@ -26438,7 +26438,7 @@
         <v>19.400000000000006</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6">
       <c r="A74" s="348"/>
       <c r="B74" s="207" t="s">
         <v>260</v>
@@ -26456,7 +26456,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6">
       <c r="B75" s="207" t="s">
         <v>271</v>
       </c>
@@ -26497,7 +26497,7 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="5.85546875" style="145" customWidth="1"/>
     <col min="2" max="2" width="10.42578125" style="145" customWidth="1"/>
@@ -26506,7 +26506,7 @@
     <col min="5" max="16384" width="9.140625" style="145"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" ht="15.75">
       <c r="A1" s="143" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -26521,13 +26521,13 @@
       <c r="H1" s="144"/>
       <c r="I1" s="144"/>
     </row>
-    <row r="2" spans="1:23" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" ht="13.5" thickBot="1">
       <c r="A2" s="146"/>
       <c r="B2" s="146"/>
       <c r="C2" s="146"/>
       <c r="D2" s="146"/>
     </row>
-    <row r="3" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" ht="12.75" customHeight="1">
       <c r="A3" s="147" t="s">
         <v>153</v>
       </c>
@@ -26543,7 +26543,7 @@
       <c r="E3" s="149"/>
       <c r="H3" s="150"/>
     </row>
-    <row r="4" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" ht="12.75" customHeight="1">
       <c r="A4" s="335">
         <f>'[1]Hoja 01'!A2</f>
         <v>2008</v>
@@ -26569,7 +26569,7 @@
       <c r="V4" s="343"/>
       <c r="W4" s="343"/>
     </row>
-    <row r="5" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" ht="12.75" customHeight="1">
       <c r="A5" s="336"/>
       <c r="B5" s="151" t="s">
         <v>258</v>
@@ -26585,7 +26585,7 @@
       <c r="P5" s="153"/>
       <c r="Q5" s="150"/>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23">
       <c r="A6" s="336"/>
       <c r="B6" s="151" t="s">
         <v>259</v>
@@ -26600,7 +26600,7 @@
       <c r="F6" s="268"/>
       <c r="Q6" s="150"/>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23">
       <c r="A7" s="337"/>
       <c r="B7" s="154" t="s">
         <v>260</v>
@@ -26615,7 +26615,7 @@
       <c r="F7" s="268"/>
       <c r="Q7" s="150"/>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23">
       <c r="A8" s="335">
         <f>'[1]Hoja 01'!A6</f>
         <v>2009</v>
@@ -26633,7 +26633,7 @@
       <c r="F8" s="268"/>
       <c r="Q8" s="150"/>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23">
       <c r="A9" s="336"/>
       <c r="B9" s="151" t="s">
         <v>258</v>
@@ -26648,7 +26648,7 @@
       <c r="F9" s="268"/>
       <c r="Q9" s="150"/>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23">
       <c r="A10" s="336"/>
       <c r="B10" s="151" t="s">
         <v>259</v>
@@ -26662,7 +26662,7 @@
       <c r="E10" s="268"/>
       <c r="F10" s="268"/>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23">
       <c r="A11" s="337"/>
       <c r="B11" s="154" t="s">
         <v>260</v>
@@ -26676,7 +26676,7 @@
       <c r="E11" s="268"/>
       <c r="F11" s="268"/>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23">
       <c r="A12" s="335">
         <f>'[1]Hoja 01'!A10</f>
         <v>2010</v>
@@ -26693,7 +26693,7 @@
       <c r="E12" s="268"/>
       <c r="F12" s="268"/>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23">
       <c r="A13" s="336"/>
       <c r="B13" s="151" t="s">
         <v>258</v>
@@ -26707,7 +26707,7 @@
       <c r="E13" s="268"/>
       <c r="F13" s="268"/>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23">
       <c r="A14" s="336"/>
       <c r="B14" s="151" t="s">
         <v>259</v>
@@ -26721,7 +26721,7 @@
       <c r="E14" s="268"/>
       <c r="F14" s="268"/>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23">
       <c r="A15" s="337"/>
       <c r="B15" s="154" t="s">
         <v>260</v>
@@ -26735,7 +26735,7 @@
       <c r="E15" s="268"/>
       <c r="F15" s="268"/>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23">
       <c r="A16" s="335">
         <f>'[1]Hoja 01'!A14</f>
         <v>2011</v>
@@ -26752,7 +26752,7 @@
       <c r="E16" s="268"/>
       <c r="F16" s="268"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14">
       <c r="A17" s="336"/>
       <c r="B17" s="151" t="s">
         <v>258</v>
@@ -26766,7 +26766,7 @@
       <c r="E17" s="268"/>
       <c r="F17" s="268"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14">
       <c r="A18" s="336"/>
       <c r="B18" s="151" t="s">
         <v>259</v>
@@ -26780,7 +26780,7 @@
       <c r="E18" s="268"/>
       <c r="F18" s="268"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14">
       <c r="A19" s="337"/>
       <c r="B19" s="154" t="s">
         <v>260</v>
@@ -26802,7 +26802,7 @@
       <c r="M19" s="156"/>
       <c r="N19" s="157"/>
     </row>
-    <row r="20" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" ht="12.75" customHeight="1">
       <c r="A20" s="335">
         <f>'[1]Hoja 01'!A18</f>
         <v>2012</v>
@@ -26828,7 +26828,7 @@
       <c r="M20" s="144"/>
       <c r="N20" s="157"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14">
       <c r="A21" s="336"/>
       <c r="B21" s="151" t="s">
         <v>258</v>
@@ -26850,7 +26850,7 @@
       <c r="L21" s="159"/>
       <c r="M21" s="159"/>
     </row>
-    <row r="22" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" ht="12.75" customHeight="1">
       <c r="A22" s="336"/>
       <c r="B22" s="151" t="s">
         <v>259</v>
@@ -26872,7 +26872,7 @@
       <c r="L22" s="159"/>
       <c r="M22" s="159"/>
     </row>
-    <row r="23" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" ht="12.75" customHeight="1">
       <c r="A23" s="337"/>
       <c r="B23" s="154" t="s">
         <v>260</v>
@@ -26886,7 +26886,7 @@
       <c r="E23" s="268"/>
       <c r="F23" s="268"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14">
       <c r="A24" s="335">
         <f>'[1]Hoja 01'!A22</f>
         <v>2013</v>
@@ -26903,7 +26903,7 @@
       <c r="E24" s="268"/>
       <c r="F24" s="268"/>
     </row>
-    <row r="25" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" ht="12.75" customHeight="1">
       <c r="A25" s="336"/>
       <c r="B25" s="151" t="s">
         <v>258</v>
@@ -26917,7 +26917,7 @@
       <c r="E25" s="268"/>
       <c r="F25" s="268"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14">
       <c r="A26" s="336"/>
       <c r="B26" s="151" t="s">
         <v>259</v>
@@ -26931,7 +26931,7 @@
       <c r="E26" s="268"/>
       <c r="F26" s="268"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14">
       <c r="A27" s="337"/>
       <c r="B27" s="154" t="s">
         <v>260</v>
@@ -26945,7 +26945,7 @@
       <c r="E27" s="268"/>
       <c r="F27" s="268"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14">
       <c r="A28" s="335">
         <f>'[1]Hoja 01'!A26</f>
         <v>2014</v>
@@ -26962,7 +26962,7 @@
       <c r="E28" s="268"/>
       <c r="F28" s="268"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14">
       <c r="A29" s="336"/>
       <c r="B29" s="151" t="s">
         <v>258</v>
@@ -26976,7 +26976,7 @@
       <c r="E29" s="268"/>
       <c r="F29" s="268"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14">
       <c r="A30" s="336"/>
       <c r="B30" s="151" t="s">
         <v>259</v>
@@ -26990,7 +26990,7 @@
       <c r="E30" s="268"/>
       <c r="F30" s="268"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14">
       <c r="A31" s="337"/>
       <c r="B31" s="154" t="s">
         <v>260</v>
@@ -27004,7 +27004,7 @@
       <c r="E31" s="268"/>
       <c r="F31" s="268"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14">
       <c r="A32" s="335">
         <f>'[1]Hoja 01'!A30</f>
         <v>2015</v>
@@ -27021,7 +27021,7 @@
       <c r="E32" s="268"/>
       <c r="F32" s="268"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6">
       <c r="A33" s="336"/>
       <c r="B33" s="151" t="s">
         <v>258</v>
@@ -27035,7 +27035,7 @@
       <c r="E33" s="268"/>
       <c r="F33" s="268"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6">
       <c r="A34" s="336"/>
       <c r="B34" s="151" t="s">
         <v>259</v>
@@ -27049,7 +27049,7 @@
       <c r="E34" s="268"/>
       <c r="F34" s="268"/>
     </row>
-    <row r="35" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="13.5" thickBot="1">
       <c r="A35" s="338"/>
       <c r="B35" s="160" t="s">
         <v>260</v>
@@ -27088,7 +27088,7 @@
       <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="17.28515625" style="1" customWidth="1"/>
     <col min="2" max="2" width="4" style="1" bestFit="1" customWidth="1"/>
@@ -27102,13 +27102,13 @@
     <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12">
       <c r="A1" s="214" t="s">
         <v>274</v>
       </c>
       <c r="B1" s="214"/>
     </row>
-    <row r="2" spans="1:12" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" s="4" customFormat="1" ht="16.5" thickBot="1">
       <c r="A2" s="74"/>
       <c r="B2" s="74"/>
       <c r="C2" s="74"/>
@@ -27119,7 +27119,7 @@
       <c r="H2" s="50"/>
       <c r="I2" s="50"/>
     </row>
-    <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="15" customHeight="1">
       <c r="A3" s="352" t="s">
         <v>401</v>
       </c>
@@ -27136,7 +27136,7 @@
       <c r="H3" s="355"/>
       <c r="I3" s="355"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12">
       <c r="A4" s="353"/>
       <c r="B4" s="356" t="s">
         <v>298</v>
@@ -27155,7 +27155,7 @@
       </c>
       <c r="I4" s="356"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12">
       <c r="A5" s="354"/>
       <c r="B5" s="86" t="s">
         <v>397</v>
@@ -27185,7 +27185,7 @@
       <c r="K5" s="220"/>
       <c r="L5" s="220"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12">
       <c r="A6" s="43" t="s">
         <v>279</v>
       </c>
@@ -27216,7 +27216,7 @@
       <c r="J6" s="220"/>
       <c r="K6" s="220"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12">
       <c r="A7" s="43" t="s">
         <v>49</v>
       </c>
@@ -27245,7 +27245,7 @@
         <v>18.2</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12">
       <c r="A8" s="43" t="s">
         <v>50</v>
       </c>
@@ -27276,7 +27276,7 @@
       <c r="J8" s="220"/>
       <c r="K8" s="220"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12">
       <c r="A9" s="273" t="s">
         <v>51</v>
       </c>
@@ -27305,7 +27305,7 @@
         <v>42.4</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" ht="15.75" thickBot="1">
       <c r="A10" s="313" t="s">
         <v>10</v>
       </c>
@@ -27336,7 +27336,7 @@
       <c r="J10" s="220"/>
       <c r="K10" s="220"/>
     </row>
-    <row r="11" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="12.75" customHeight="1">
       <c r="A11" s="17" t="s">
         <v>195</v>
       </c>
@@ -27346,24 +27346,24 @@
       <c r="E11" s="15"/>
       <c r="F11" s="15"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12">
       <c r="A12" s="18" t="s">
         <v>77</v>
       </c>
       <c r="B12" s="272"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12">
       <c r="A13" s="17" t="s">
         <v>59</v>
       </c>
       <c r="B13" s="271"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12">
       <c r="A14" s="19" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="15" customHeight="1">
       <c r="A15" s="16" t="s">
         <v>132</v>
       </c>
@@ -27396,7 +27396,7 @@
       <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16.28515625" style="1" customWidth="1"/>
     <col min="2" max="2" width="4" style="1" bestFit="1" customWidth="1"/>
@@ -27414,12 +27414,12 @@
     <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15">
       <c r="A1" s="214" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" s="4" customFormat="1" ht="16.5" thickBot="1">
       <c r="A2" s="359"/>
       <c r="B2" s="359"/>
       <c r="C2" s="359"/>
@@ -27431,7 +27431,7 @@
       <c r="I2" s="359"/>
       <c r="J2" s="312"/>
     </row>
-    <row r="3" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="15" customHeight="1">
       <c r="A3" s="352" t="s">
         <v>401</v>
       </c>
@@ -27449,7 +27449,7 @@
       <c r="I3" s="355"/>
       <c r="J3" s="195"/>
     </row>
-    <row r="4" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="15" customHeight="1">
       <c r="A4" s="353"/>
       <c r="B4" s="356" t="s">
         <v>298</v>
@@ -27469,7 +27469,7 @@
       <c r="I4" s="356"/>
       <c r="J4" s="195"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15">
       <c r="A5" s="354"/>
       <c r="B5" s="86" t="s">
         <v>397</v>
@@ -27497,7 +27497,7 @@
       </c>
       <c r="J5" s="195"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15">
       <c r="A6" s="43" t="s">
         <v>47</v>
       </c>
@@ -27529,7 +27529,7 @@
       <c r="N6" s="6"/>
       <c r="O6" s="6"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15">
       <c r="A7" s="43" t="s">
         <v>279</v>
       </c>
@@ -27563,7 +27563,7 @@
       <c r="N7" s="6"/>
       <c r="O7" s="6"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15">
       <c r="A8" s="43" t="s">
         <v>49</v>
       </c>
@@ -27597,7 +27597,7 @@
       <c r="N8" s="6"/>
       <c r="O8" s="6"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15">
       <c r="A9" s="43" t="s">
         <v>50</v>
       </c>
@@ -27631,7 +27631,7 @@
       <c r="N9" s="6"/>
       <c r="O9" s="6"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15">
       <c r="A10" s="273" t="s">
         <v>51</v>
       </c>
@@ -27665,7 +27665,7 @@
       <c r="N10" s="6"/>
       <c r="O10" s="6"/>
     </row>
-    <row r="11" spans="1:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" ht="15" customHeight="1" thickBot="1">
       <c r="A11" s="313" t="s">
         <v>10</v>
       </c>
@@ -27699,7 +27699,7 @@
       <c r="N11" s="6"/>
       <c r="O11" s="6"/>
     </row>
-    <row r="12" spans="1:15" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" ht="37.5" customHeight="1">
       <c r="A12" s="357" t="s">
         <v>195</v>
       </c>
@@ -27713,12 +27713,12 @@
       <c r="I12" s="357"/>
       <c r="J12" s="274"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15">
       <c r="A13" s="95" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" ht="16.5" customHeight="1">
       <c r="A14" s="19" t="s">
         <v>399</v>
       </c>
@@ -27731,7 +27731,7 @@
       <c r="H14" s="19"/>
       <c r="I14" s="19"/>
     </row>
-    <row r="15" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" ht="15" customHeight="1">
       <c r="A15" s="16" t="s">
         <v>132</v>
       </c>
@@ -27745,7 +27745,7 @@
       <c r="I15" s="5"/>
       <c r="J15" s="57"/>
     </row>
-    <row r="16" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:15" ht="20.25" customHeight="1"/>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="A12:I12"/>
@@ -27771,19 +27771,19 @@
       <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="19" style="221" bestFit="1" customWidth="1"/>
     <col min="2" max="7" width="8.5703125" style="221" customWidth="1"/>
     <col min="8" max="16384" width="11.42578125" style="221"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" s="199" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="15.75" thickBot="1">
       <c r="A2" s="222"/>
       <c r="B2" s="222"/>
       <c r="C2" s="222"/>
@@ -27792,7 +27792,7 @@
       <c r="F2" s="222"/>
       <c r="G2" s="222"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3" s="223" t="s">
         <v>46</v>
       </c>
@@ -27815,7 +27815,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="A4" s="225" t="s">
         <v>278</v>
       </c>
@@ -27838,7 +27838,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5" s="221" t="s">
         <v>279</v>
       </c>
@@ -27861,7 +27861,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6" s="221" t="s">
         <v>49</v>
       </c>
@@ -27884,7 +27884,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="A7" s="221" t="s">
         <v>50</v>
       </c>
@@ -27907,7 +27907,7 @@
         <v>8.9</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="A8" s="228" t="s">
         <v>51</v>
       </c>
@@ -27931,7 +27931,7 @@
       </c>
       <c r="I8" s="230"/>
     </row>
-    <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="15.75" thickBot="1">
       <c r="A9" s="231" t="s">
         <v>10</v>
       </c>
@@ -27954,7 +27954,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="46.5" customHeight="1">
       <c r="A10" s="360" t="s">
         <v>403</v>
       </c>
@@ -27965,13 +27965,13 @@
       <c r="F10" s="360"/>
       <c r="G10" s="360"/>
     </row>
-    <row r="11" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" s="1" customFormat="1">
       <c r="A11" s="17" t="s">
         <v>60</v>
       </c>
       <c r="B11" s="271"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9">
       <c r="A12" s="361" t="s">
         <v>273</v>
       </c>
@@ -27997,7 +27997,7 @@
       <selection activeCell="A21" sqref="A21:XFD21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="48" style="221" customWidth="1"/>
     <col min="2" max="2" width="13.7109375" style="221" bestFit="1" customWidth="1"/>
@@ -28009,12 +28009,12 @@
     <col min="8" max="16384" width="11.42578125" style="221"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="199" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="15.75" thickBot="1">
       <c r="A2" s="233"/>
       <c r="B2" s="222"/>
       <c r="C2" s="222"/>
@@ -28023,7 +28023,7 @@
       <c r="F2" s="222"/>
       <c r="G2" s="222"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" s="223" t="s">
         <v>243</v>
       </c>
@@ -28046,7 +28046,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" s="221" t="s">
         <v>154</v>
       </c>
@@ -28070,7 +28070,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5" s="221" t="s">
         <v>155</v>
       </c>
@@ -28093,7 +28093,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6" s="221" t="s">
         <v>156</v>
       </c>
@@ -28116,7 +28116,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="A7" s="221" t="s">
         <v>157</v>
       </c>
@@ -28139,7 +28139,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7">
       <c r="A8" s="221" t="s">
         <v>158</v>
       </c>
@@ -28162,7 +28162,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="A9" s="221" t="s">
         <v>159</v>
       </c>
@@ -28185,7 +28185,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7">
       <c r="A10" s="221" t="s">
         <v>163</v>
       </c>
@@ -28208,7 +28208,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7">
       <c r="A11" s="221" t="s">
         <v>291</v>
       </c>
@@ -28231,7 +28231,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7">
       <c r="A12" s="221" t="s">
         <v>164</v>
       </c>
@@ -28254,7 +28254,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7">
       <c r="A13" s="221" t="s">
         <v>165</v>
       </c>
@@ -28277,7 +28277,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7">
       <c r="A14" s="221" t="s">
         <v>160</v>
       </c>
@@ -28300,7 +28300,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7">
       <c r="A15" s="221" t="s">
         <v>161</v>
       </c>
@@ -28323,7 +28323,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7">
       <c r="A16" s="221" t="s">
         <v>162</v>
       </c>
@@ -28346,7 +28346,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7">
       <c r="A17" s="221" t="s">
         <v>292</v>
       </c>
@@ -28369,7 +28369,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7">
       <c r="A18" s="225" t="s">
         <v>293</v>
       </c>
@@ -28392,7 +28392,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="15.75" thickBot="1">
       <c r="A19" s="231" t="s">
         <v>64</v>
       </c>
@@ -28415,7 +28415,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="32.25" customHeight="1">
       <c r="A20" s="360" t="s">
         <v>403</v>
       </c>
@@ -28426,13 +28426,13 @@
       <c r="F20" s="360"/>
       <c r="G20" s="360"/>
     </row>
-    <row r="21" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A21" s="17" t="s">
         <v>60</v>
       </c>
       <c r="B21" s="271"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7">
       <c r="A22" s="361" t="s">
         <v>273</v>
       </c>
@@ -28458,7 +28458,7 @@
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="19" style="221" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" style="221" customWidth="1"/>
@@ -28470,12 +28470,12 @@
     <col min="8" max="16384" width="11.42578125" style="221"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13">
       <c r="A1" s="199" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="15.75" thickBot="1">
       <c r="A2" s="233"/>
       <c r="B2" s="222"/>
       <c r="C2" s="222"/>
@@ -28483,7 +28483,7 @@
       <c r="E2" s="222"/>
       <c r="F2" s="222"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13">
       <c r="A3" s="362" t="s">
         <v>46</v>
       </c>
@@ -28496,7 +28496,7 @@
       <c r="F3" s="364"/>
       <c r="G3" s="364"/>
     </row>
-    <row r="4" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="45">
       <c r="A4" s="363"/>
       <c r="B4" s="277" t="s">
         <v>287</v>
@@ -28517,7 +28517,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13">
       <c r="A5" s="221" t="s">
         <v>278</v>
       </c>
@@ -28545,7 +28545,7 @@
       <c r="L5" s="252"/>
       <c r="M5" s="252"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13">
       <c r="A6" s="221" t="s">
         <v>279</v>
       </c>
@@ -28568,7 +28568,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13">
       <c r="A7" s="221" t="s">
         <v>49</v>
       </c>
@@ -28591,7 +28591,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13">
       <c r="A8" s="221" t="s">
         <v>50</v>
       </c>
@@ -28614,7 +28614,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13">
       <c r="A9" s="228" t="s">
         <v>51</v>
       </c>
@@ -28637,7 +28637,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" ht="15.75" thickBot="1">
       <c r="A10" s="222" t="s">
         <v>11</v>
       </c>
@@ -28660,7 +28660,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="39.75" customHeight="1">
       <c r="A11" s="361" t="s">
         <v>402</v>
       </c>
@@ -28671,13 +28671,13 @@
       <c r="F11" s="361"/>
       <c r="G11" s="361"/>
     </row>
-    <row r="12" spans="1:13" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A12" s="17" t="s">
         <v>60</v>
       </c>
       <c r="B12" s="271"/>
     </row>
-    <row r="13" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="39.75" customHeight="1">
       <c r="A13" s="361" t="s">
         <v>399</v>
       </c>
@@ -28688,7 +28688,7 @@
       <c r="F13" s="361"/>
       <c r="G13" s="361"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13">
       <c r="A14" s="361" t="s">
         <v>273</v>
       </c>
@@ -28697,7 +28697,7 @@
       <c r="D14" s="361"/>
       <c r="E14" s="361"/>
     </row>
-    <row r="15" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:13" ht="25.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A3:A4"/>
@@ -28718,7 +28718,7 @@
       <selection activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="19" style="221" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.5703125" style="221" customWidth="1"/>
@@ -28730,12 +28730,12 @@
     <col min="8" max="16384" width="11.42578125" style="221"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="199" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="15.75" thickBot="1">
       <c r="A2" s="233"/>
       <c r="B2" s="222"/>
       <c r="C2" s="222"/>
@@ -28744,7 +28744,7 @@
       <c r="F2" s="222"/>
       <c r="G2" s="222"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" s="362" t="s">
         <v>46</v>
       </c>
@@ -28763,7 +28763,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" s="363"/>
       <c r="B4" s="363"/>
       <c r="C4" s="363"/>
@@ -28778,7 +28778,7 @@
       </c>
       <c r="G4" s="363"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5" s="221" t="s">
         <v>278</v>
       </c>
@@ -28802,7 +28802,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6" s="221" t="s">
         <v>279</v>
       </c>
@@ -28826,7 +28826,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="A7" s="221" t="s">
         <v>49</v>
       </c>
@@ -28850,7 +28850,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7">
       <c r="A8" s="221" t="s">
         <v>50</v>
       </c>
@@ -28874,7 +28874,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="A9" s="228" t="s">
         <v>51</v>
       </c>
@@ -28897,7 +28897,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="15.75" thickBot="1">
       <c r="A10" s="222" t="s">
         <v>11</v>
       </c>
@@ -28920,7 +28920,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="41.25" customHeight="1">
       <c r="A11" s="361" t="s">
         <v>403</v>
       </c>
@@ -28931,13 +28931,13 @@
       <c r="F11" s="361"/>
       <c r="G11" s="361"/>
     </row>
-    <row r="12" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A12" s="17" t="s">
         <v>60</v>
       </c>
       <c r="B12" s="271"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7">
       <c r="A13" s="361" t="s">
         <v>273</v>
       </c>
@@ -28947,22 +28947,22 @@
       <c r="E13" s="361"/>
       <c r="G13" s="236"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7">
       <c r="G14" s="240"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7">
       <c r="G15" s="240"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7">
       <c r="G16" s="240"/>
     </row>
-    <row r="17" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="7:7">
       <c r="G17" s="240"/>
     </row>
-    <row r="18" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="7:7">
       <c r="G18" s="241"/>
     </row>
-    <row r="19" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="7:7">
       <c r="G19" s="240"/>
     </row>
   </sheetData>
@@ -28987,7 +28987,7 @@
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="19" style="221" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.5703125" style="221" bestFit="1" customWidth="1"/>
@@ -28998,12 +28998,12 @@
     <col min="8" max="16384" width="11.42578125" style="221"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="199" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="15.75" thickBot="1">
       <c r="A2" s="233"/>
       <c r="B2" s="222"/>
       <c r="C2" s="222"/>
@@ -29012,7 +29012,7 @@
       <c r="F2" s="222"/>
       <c r="G2" s="222"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" s="362" t="s">
         <v>46</v>
       </c>
@@ -29031,7 +29031,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" s="363"/>
       <c r="B4" s="363"/>
       <c r="C4" s="363"/>
@@ -29046,7 +29046,7 @@
       </c>
       <c r="G4" s="363"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5" s="221" t="s">
         <v>278</v>
       </c>
@@ -29069,7 +29069,7 @@
         <v>432898</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6" s="221" t="s">
         <v>279</v>
       </c>
@@ -29092,7 +29092,7 @@
         <v>432898</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="A7" s="221" t="s">
         <v>49</v>
       </c>
@@ -29115,7 +29115,7 @@
         <v>432898</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7">
       <c r="A8" s="221" t="s">
         <v>50</v>
       </c>
@@ -29138,7 +29138,7 @@
         <v>432898</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="A9" s="228" t="s">
         <v>51</v>
       </c>
@@ -29161,7 +29161,7 @@
         <v>432898</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="15.75" thickBot="1">
       <c r="A10" s="222" t="s">
         <v>11</v>
       </c>
@@ -29184,7 +29184,7 @@
         <v>432898</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="44.25" customHeight="1">
       <c r="A11" s="361" t="s">
         <v>403</v>
       </c>
@@ -29195,13 +29195,13 @@
       <c r="F11" s="361"/>
       <c r="G11" s="361"/>
     </row>
-    <row r="12" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A12" s="17" t="s">
         <v>60</v>
       </c>
       <c r="B12" s="271"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7">
       <c r="A13" s="361" t="s">
         <v>331</v>
       </c>
@@ -29229,10 +29229,10 @@
   <dimension ref="A1:AV45"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.42578125" style="256"/>
     <col min="2" max="2" width="11.28515625" style="257" bestFit="1" customWidth="1"/>
@@ -29248,7 +29248,7 @@
     <col min="49" max="16384" width="11.42578125" style="266"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="248.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="248.25" customHeight="1">
       <c r="B1" s="333" t="s">
         <v>382</v>
       </c>
@@ -29257,11 +29257,11 @@
       <c r="E1" s="333"/>
       <c r="F1" s="333"/>
     </row>
-    <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="15" customHeight="1">
       <c r="D2" s="258"/>
       <c r="E2" s="258"/>
     </row>
-    <row r="3" spans="1:12" s="240" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" s="240" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A3" s="256"/>
       <c r="B3" s="334" t="s">
         <v>294</v>
@@ -29281,7 +29281,7 @@
       <c r="K3" s="257"/>
       <c r="L3" s="257"/>
     </row>
-    <row r="4" spans="1:12" s="240" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" s="240" customFormat="1" ht="30">
       <c r="A4" s="256"/>
       <c r="B4" s="327" t="s">
         <v>314</v>
@@ -29301,7 +29301,7 @@
       <c r="K4" s="257"/>
       <c r="L4" s="257"/>
     </row>
-    <row r="5" spans="1:12" s="240" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" s="240" customFormat="1" ht="30">
       <c r="A5" s="256"/>
       <c r="B5" s="331"/>
       <c r="C5" s="332"/>
@@ -29319,7 +29319,7 @@
       <c r="K5" s="257"/>
       <c r="L5" s="257"/>
     </row>
-    <row r="6" spans="1:12" s="240" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" s="240" customFormat="1" ht="30">
       <c r="A6" s="256"/>
       <c r="B6" s="331"/>
       <c r="C6" s="332"/>
@@ -29337,7 +29337,7 @@
       <c r="K6" s="257"/>
       <c r="L6" s="257"/>
     </row>
-    <row r="7" spans="1:12" s="240" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" s="240" customFormat="1">
       <c r="A7" s="256"/>
       <c r="B7" s="331"/>
       <c r="C7" s="332"/>
@@ -29355,7 +29355,7 @@
       <c r="K7" s="257"/>
       <c r="L7" s="257"/>
     </row>
-    <row r="8" spans="1:12" s="240" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" s="240" customFormat="1" ht="30">
       <c r="A8" s="256"/>
       <c r="B8" s="331"/>
       <c r="C8" s="332"/>
@@ -29373,7 +29373,7 @@
       <c r="K8" s="257"/>
       <c r="L8" s="257"/>
     </row>
-    <row r="9" spans="1:12" s="240" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" s="240" customFormat="1" ht="45">
       <c r="A9" s="256"/>
       <c r="B9" s="331"/>
       <c r="C9" s="332"/>
@@ -29391,7 +29391,7 @@
       <c r="K9" s="257"/>
       <c r="L9" s="257"/>
     </row>
-    <row r="10" spans="1:12" s="240" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" s="240" customFormat="1" ht="30">
       <c r="A10" s="256"/>
       <c r="B10" s="331"/>
       <c r="C10" s="332"/>
@@ -29409,7 +29409,7 @@
       <c r="K10" s="257"/>
       <c r="L10" s="257"/>
     </row>
-    <row r="11" spans="1:12" s="240" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" s="240" customFormat="1" ht="30">
       <c r="A11" s="256"/>
       <c r="B11" s="331"/>
       <c r="C11" s="332"/>
@@ -29427,7 +29427,7 @@
       <c r="K11" s="257"/>
       <c r="L11" s="257"/>
     </row>
-    <row r="12" spans="1:12" s="240" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" s="240" customFormat="1" ht="30">
       <c r="A12" s="256"/>
       <c r="B12" s="331"/>
       <c r="C12" s="332"/>
@@ -29445,7 +29445,7 @@
       <c r="K12" s="257"/>
       <c r="L12" s="257"/>
     </row>
-    <row r="13" spans="1:12" s="240" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" s="240" customFormat="1" ht="30.75" thickBot="1">
       <c r="A13" s="256"/>
       <c r="B13" s="329"/>
       <c r="C13" s="330"/>
@@ -29463,7 +29463,7 @@
       <c r="K13" s="257"/>
       <c r="L13" s="257"/>
     </row>
-    <row r="14" spans="1:12" s="240" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" s="240" customFormat="1" ht="15.75" thickBot="1">
       <c r="A14" s="256"/>
       <c r="B14" s="257"/>
       <c r="C14" s="257"/>
@@ -29477,7 +29477,7 @@
       <c r="K14" s="257"/>
       <c r="L14" s="257"/>
     </row>
-    <row r="15" spans="1:12" s="240" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" s="240" customFormat="1" ht="30">
       <c r="A15" s="256"/>
       <c r="B15" s="327" t="s">
         <v>298</v>
@@ -29497,7 +29497,7 @@
       <c r="K15" s="257"/>
       <c r="L15" s="257"/>
     </row>
-    <row r="16" spans="1:12" s="240" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" s="240" customFormat="1" ht="45">
       <c r="A16" s="256"/>
       <c r="B16" s="331"/>
       <c r="C16" s="332"/>
@@ -29515,7 +29515,7 @@
       <c r="K16" s="257"/>
       <c r="L16" s="257"/>
     </row>
-    <row r="17" spans="1:12" s="240" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" s="240" customFormat="1">
       <c r="A17" s="256"/>
       <c r="B17" s="331"/>
       <c r="C17" s="332"/>
@@ -29533,7 +29533,7 @@
       <c r="K17" s="257"/>
       <c r="L17" s="257"/>
     </row>
-    <row r="18" spans="1:12" s="240" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" s="240" customFormat="1">
       <c r="A18" s="256"/>
       <c r="B18" s="331"/>
       <c r="C18" s="332"/>
@@ -29551,7 +29551,7 @@
       <c r="K18" s="257"/>
       <c r="L18" s="257"/>
     </row>
-    <row r="19" spans="1:12" s="240" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" s="240" customFormat="1" ht="35.25" customHeight="1">
       <c r="A19" s="256"/>
       <c r="B19" s="331"/>
       <c r="C19" s="332"/>
@@ -29569,7 +29569,7 @@
       <c r="K19" s="257"/>
       <c r="L19" s="257"/>
     </row>
-    <row r="20" spans="1:12" s="240" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" s="240" customFormat="1" ht="35.25" customHeight="1">
       <c r="A20" s="256"/>
       <c r="B20" s="331"/>
       <c r="C20" s="332"/>
@@ -29587,7 +29587,7 @@
       <c r="K20" s="257"/>
       <c r="L20" s="257"/>
     </row>
-    <row r="21" spans="1:12" s="240" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" s="240" customFormat="1" ht="35.25" customHeight="1">
       <c r="A21" s="256"/>
       <c r="B21" s="331"/>
       <c r="C21" s="332"/>
@@ -29605,7 +29605,7 @@
       <c r="K21" s="257"/>
       <c r="L21" s="257"/>
     </row>
-    <row r="22" spans="1:12" s="240" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" s="240" customFormat="1" ht="35.25" customHeight="1">
       <c r="A22" s="256"/>
       <c r="B22" s="331"/>
       <c r="C22" s="332"/>
@@ -29625,7 +29625,7 @@
       <c r="K22" s="257"/>
       <c r="L22" s="257"/>
     </row>
-    <row r="23" spans="1:12" s="240" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" s="240" customFormat="1" ht="35.25" customHeight="1">
       <c r="A23" s="256"/>
       <c r="B23" s="331"/>
       <c r="C23" s="332"/>
@@ -29643,7 +29643,7 @@
       <c r="K23" s="257"/>
       <c r="L23" s="257"/>
     </row>
-    <row r="24" spans="1:12" s="240" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" s="240" customFormat="1" ht="30.75" thickBot="1">
       <c r="A24" s="256"/>
       <c r="B24" s="329"/>
       <c r="C24" s="330"/>
@@ -29661,7 +29661,7 @@
       <c r="K24" s="257"/>
       <c r="L24" s="257"/>
     </row>
-    <row r="25" spans="1:12" s="221" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" s="221" customFormat="1" ht="15.75" thickBot="1">
       <c r="A25" s="256"/>
       <c r="B25" s="257"/>
       <c r="C25" s="257"/>
@@ -29675,7 +29675,7 @@
       <c r="K25" s="257"/>
       <c r="L25" s="257"/>
     </row>
-    <row r="26" spans="1:12" s="240" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" s="240" customFormat="1" ht="30">
       <c r="A26" s="256"/>
       <c r="B26" s="327" t="s">
         <v>361</v>
@@ -29697,7 +29697,7 @@
       <c r="K26" s="257"/>
       <c r="L26" s="257"/>
     </row>
-    <row r="27" spans="1:12" s="240" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" s="240" customFormat="1" ht="30.75" thickBot="1">
       <c r="A27" s="256"/>
       <c r="B27" s="329"/>
       <c r="C27" s="330"/>
@@ -29717,7 +29717,7 @@
       <c r="K27" s="257"/>
       <c r="L27" s="257"/>
     </row>
-    <row r="28" spans="1:12" s="221" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" s="221" customFormat="1" ht="15.75" thickBot="1">
       <c r="A28" s="256"/>
       <c r="B28" s="257"/>
       <c r="C28" s="257"/>
@@ -29731,7 +29731,7 @@
       <c r="K28" s="257"/>
       <c r="L28" s="257"/>
     </row>
-    <row r="29" spans="1:12" s="240" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" s="240" customFormat="1">
       <c r="A29" s="256"/>
       <c r="B29" s="327" t="s">
         <v>329</v>
@@ -29751,7 +29751,7 @@
       <c r="K29" s="257"/>
       <c r="L29" s="257"/>
     </row>
-    <row r="30" spans="1:12" s="240" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" s="240" customFormat="1">
       <c r="A30" s="256"/>
       <c r="B30" s="331"/>
       <c r="C30" s="332"/>
@@ -29769,7 +29769,7 @@
       <c r="K30" s="257"/>
       <c r="L30" s="257"/>
     </row>
-    <row r="31" spans="1:12" s="240" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" s="240" customFormat="1">
       <c r="A31" s="256"/>
       <c r="B31" s="331"/>
       <c r="C31" s="332"/>
@@ -29787,7 +29787,7 @@
       <c r="K31" s="257"/>
       <c r="L31" s="257"/>
     </row>
-    <row r="32" spans="1:12" s="240" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" s="240" customFormat="1" ht="15.75" thickBot="1">
       <c r="A32" s="256"/>
       <c r="B32" s="329"/>
       <c r="C32" s="330"/>
@@ -29805,7 +29805,7 @@
       <c r="K32" s="257"/>
       <c r="L32" s="257"/>
     </row>
-    <row r="33" spans="1:12" s="221" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" s="221" customFormat="1" ht="15.75" thickBot="1">
       <c r="A33" s="256"/>
       <c r="B33" s="257"/>
       <c r="C33" s="257"/>
@@ -29819,7 +29819,7 @@
       <c r="K33" s="257"/>
       <c r="L33" s="257"/>
     </row>
-    <row r="34" spans="1:12" s="240" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" s="240" customFormat="1" ht="30">
       <c r="A34" s="256"/>
       <c r="B34" s="327" t="s">
         <v>366</v>
@@ -29839,7 +29839,7 @@
       <c r="K34" s="257"/>
       <c r="L34" s="257"/>
     </row>
-    <row r="35" spans="1:12" s="240" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" s="240" customFormat="1" ht="30">
       <c r="A35" s="256"/>
       <c r="B35" s="331"/>
       <c r="C35" s="332"/>
@@ -29857,7 +29857,7 @@
       <c r="K35" s="257"/>
       <c r="L35" s="257"/>
     </row>
-    <row r="36" spans="1:12" s="240" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" s="240" customFormat="1" ht="30">
       <c r="A36" s="256"/>
       <c r="B36" s="331"/>
       <c r="C36" s="332"/>
@@ -29875,7 +29875,7 @@
       <c r="K36" s="257"/>
       <c r="L36" s="257"/>
     </row>
-    <row r="37" spans="1:12" s="240" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" s="240" customFormat="1" ht="30">
       <c r="A37" s="256"/>
       <c r="B37" s="331"/>
       <c r="C37" s="332"/>
@@ -29893,7 +29893,7 @@
       <c r="K37" s="257"/>
       <c r="L37" s="257"/>
     </row>
-    <row r="38" spans="1:12" s="240" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" s="240" customFormat="1" ht="30" customHeight="1">
       <c r="A38" s="256"/>
       <c r="B38" s="331"/>
       <c r="C38" s="332"/>
@@ -29911,7 +29911,7 @@
       <c r="K38" s="257"/>
       <c r="L38" s="257"/>
     </row>
-    <row r="39" spans="1:12" s="240" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" s="240" customFormat="1" ht="30" customHeight="1">
       <c r="A39" s="256"/>
       <c r="B39" s="331"/>
       <c r="C39" s="332"/>
@@ -29929,7 +29929,7 @@
       <c r="K39" s="257"/>
       <c r="L39" s="257"/>
     </row>
-    <row r="40" spans="1:12" s="240" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" s="240" customFormat="1" ht="33" customHeight="1">
       <c r="A40" s="256"/>
       <c r="B40" s="331"/>
       <c r="C40" s="332"/>
@@ -29947,7 +29947,7 @@
       <c r="K40" s="257"/>
       <c r="L40" s="257"/>
     </row>
-    <row r="41" spans="1:12" s="240" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" s="240" customFormat="1" ht="30">
       <c r="A41" s="256"/>
       <c r="B41" s="331"/>
       <c r="C41" s="332"/>
@@ -29965,7 +29965,7 @@
       <c r="K41" s="257"/>
       <c r="L41" s="257"/>
     </row>
-    <row r="42" spans="1:12" s="240" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" s="240" customFormat="1" ht="38.25" customHeight="1">
       <c r="A42" s="256"/>
       <c r="B42" s="331"/>
       <c r="C42" s="332"/>
@@ -29983,7 +29983,7 @@
       <c r="K42" s="257"/>
       <c r="L42" s="257"/>
     </row>
-    <row r="43" spans="1:12" s="240" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" s="240" customFormat="1" ht="30">
       <c r="A43" s="256"/>
       <c r="B43" s="331"/>
       <c r="C43" s="332"/>
@@ -30001,7 +30001,7 @@
       <c r="K43" s="257"/>
       <c r="L43" s="257"/>
     </row>
-    <row r="44" spans="1:12" s="240" customFormat="1" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12" s="240" customFormat="1" ht="38.25" customHeight="1" thickBot="1">
       <c r="A44" s="256"/>
       <c r="B44" s="329"/>
       <c r="C44" s="330"/>
@@ -30019,7 +30019,7 @@
       <c r="K44" s="257"/>
       <c r="L44" s="257"/>
     </row>
-    <row r="45" spans="1:12" s="221" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" s="221" customFormat="1">
       <c r="A45" s="256"/>
       <c r="B45" s="257"/>
       <c r="C45" s="257"/>
@@ -30056,7 +30056,7 @@
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="47.5703125" style="89" customWidth="1"/>
     <col min="2" max="2" width="13.7109375" style="89" bestFit="1" customWidth="1"/>
@@ -30066,17 +30066,17 @@
     <col min="7" max="16384" width="11.42578125" style="89"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" s="199" t="s">
         <v>336</v>
       </c>
       <c r="B1" s="199"/>
     </row>
-    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="15.75" thickBot="1">
       <c r="A2" s="96"/>
       <c r="B2" s="96"/>
     </row>
-    <row r="3" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="33" customHeight="1">
       <c r="A3" s="368" t="s">
         <v>337</v>
       </c>
@@ -30091,7 +30091,7 @@
       </c>
       <c r="G3" s="130"/>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15" customHeight="1">
       <c r="A4" s="369"/>
       <c r="B4" s="138" t="s">
         <v>340</v>
@@ -30108,7 +30108,7 @@
       <c r="F4" s="367"/>
       <c r="G4" s="55"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5" s="62" t="s">
         <v>135</v>
       </c>
@@ -30128,7 +30128,7 @@
         <v>29.3</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6" s="62" t="s">
         <v>136</v>
       </c>
@@ -30148,7 +30148,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="30">
       <c r="A7" s="60" t="s">
         <v>137</v>
       </c>
@@ -30168,7 +30168,7 @@
         <v>51.5</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="A8" s="62" t="s">
         <v>138</v>
       </c>
@@ -30188,7 +30188,7 @@
         <v>67.099999999999994</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="30">
       <c r="A9" s="60" t="s">
         <v>139</v>
       </c>
@@ -30208,7 +30208,7 @@
         <v>45.3</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="30">
       <c r="A10" s="60" t="s">
         <v>140</v>
       </c>
@@ -30228,7 +30228,7 @@
         <v>32.799999999999997</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="15.75" thickBot="1">
       <c r="A11" s="59" t="s">
         <v>141</v>
       </c>
@@ -30249,7 +30249,7 @@
       </c>
       <c r="G11" s="96"/>
     </row>
-    <row r="12" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="37.5" customHeight="1">
       <c r="A12" s="360" t="s">
         <v>403</v>
       </c>
@@ -30260,35 +30260,35 @@
       <c r="F12" s="360"/>
       <c r="G12" s="250"/>
     </row>
-    <row r="13" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" s="1" customFormat="1">
       <c r="A13" s="17" t="s">
         <v>60</v>
       </c>
       <c r="B13" s="271"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9">
       <c r="A14" s="63" t="s">
         <v>134</v>
       </c>
       <c r="B14" s="64"/>
       <c r="I14" s="56"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9">
       <c r="I15" s="56"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9">
       <c r="I16" s="56"/>
     </row>
-    <row r="17" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="9:9">
       <c r="I17" s="56"/>
     </row>
-    <row r="18" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="9:9">
       <c r="I18" s="56"/>
     </row>
-    <row r="19" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="9:9">
       <c r="I19" s="56"/>
     </row>
-    <row r="20" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="9:9">
       <c r="I20" s="56"/>
     </row>
   </sheetData>
@@ -30311,7 +30311,7 @@
       <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="19.28515625" style="89" customWidth="1"/>
     <col min="2" max="2" width="11" style="89" bestFit="1" customWidth="1"/>
@@ -30321,12 +30321,12 @@
     <col min="7" max="16384" width="11.42578125" style="89"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" s="199" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="16.5" thickBot="1">
       <c r="A2" s="372"/>
       <c r="B2" s="372"/>
       <c r="C2" s="372"/>
@@ -30335,7 +30335,7 @@
       <c r="F2" s="372"/>
       <c r="J2" s="56"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="A3" s="368" t="s">
         <v>11</v>
       </c>
@@ -30348,7 +30348,7 @@
       <c r="F3" s="370"/>
       <c r="J3" s="56"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="A4" s="369"/>
       <c r="B4" s="129" t="s">
         <v>47</v>
@@ -30366,7 +30366,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="A5" s="90" t="s">
         <v>152</v>
       </c>
@@ -30386,7 +30386,7 @@
         <v>33.28</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="15.75" thickBot="1">
       <c r="A6" s="91" t="s">
         <v>64</v>
       </c>
@@ -30406,7 +30406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="35.25" customHeight="1">
       <c r="A7" s="360" t="s">
         <v>403</v>
       </c>
@@ -30416,7 +30416,7 @@
       <c r="E7" s="360"/>
       <c r="F7" s="360"/>
     </row>
-    <row r="8" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="12.75" customHeight="1">
       <c r="A8" s="371" t="s">
         <v>131</v>
       </c>
@@ -30426,7 +30426,7 @@
       <c r="E8" s="371"/>
       <c r="F8" s="371"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="A9" s="371" t="s">
         <v>130</v>
       </c>
@@ -30455,7 +30455,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.7109375" style="89" customWidth="1"/>
     <col min="2" max="2" width="13.7109375" style="89" bestFit="1" customWidth="1"/>
@@ -30467,12 +30467,12 @@
     <col min="10" max="16384" width="11.42578125" style="89"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14">
       <c r="A1" s="199" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" ht="16.5" thickBot="1">
       <c r="A2" s="374"/>
       <c r="B2" s="374"/>
       <c r="C2" s="374"/>
@@ -30483,7 +30483,7 @@
       <c r="H2" s="374"/>
       <c r="I2" s="374"/>
     </row>
-    <row r="3" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="15" customHeight="1">
       <c r="A3" s="373" t="s">
         <v>9</v>
       </c>
@@ -30504,7 +30504,7 @@
       <c r="M3" s="96"/>
       <c r="N3" s="96"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14">
       <c r="A4" s="373"/>
       <c r="B4" s="77" t="s">
         <v>340</v>
@@ -30535,7 +30535,7 @@
       <c r="M4" s="77"/>
       <c r="N4" s="55"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14">
       <c r="A5" s="375"/>
       <c r="B5" s="66" t="s">
         <v>124</v>
@@ -30566,7 +30566,7 @@
       <c r="M5" s="77"/>
       <c r="N5" s="55"/>
     </row>
-    <row r="6" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="45">
       <c r="A6" s="67" t="s">
         <v>149</v>
       </c>
@@ -30599,7 +30599,7 @@
       <c r="M6" s="96"/>
       <c r="N6" s="96"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14">
       <c r="A7" s="67" t="s">
         <v>150</v>
       </c>
@@ -30628,7 +30628,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14">
       <c r="A8" s="69" t="s">
         <v>142</v>
       </c>
@@ -30657,7 +30657,7 @@
         <v>51.5</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" ht="30">
       <c r="A9" s="67" t="s">
         <v>143</v>
       </c>
@@ -30686,7 +30686,7 @@
         <v>67.099999999999994</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14">
       <c r="A10" s="69" t="s">
         <v>144</v>
       </c>
@@ -30715,7 +30715,7 @@
         <v>45.3</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14">
       <c r="A11" s="70" t="s">
         <v>145</v>
       </c>
@@ -30744,7 +30744,7 @@
         <v>32.799999999999997</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" ht="15.75" thickBot="1">
       <c r="A12" s="71" t="s">
         <v>10</v>
       </c>
@@ -30773,7 +30773,7 @@
         <v>29.3</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" ht="12.75" customHeight="1">
       <c r="A13" s="97" t="s">
         <v>147</v>
       </c>
@@ -30783,7 +30783,7 @@
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
     </row>
-    <row r="14" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" ht="12" customHeight="1">
       <c r="A14" s="97" t="s">
         <v>148</v>
       </c>
@@ -30793,7 +30793,7 @@
       <c r="E14" s="10"/>
       <c r="F14" s="10"/>
     </row>
-    <row r="15" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" ht="12" customHeight="1">
       <c r="A15" s="97" t="s">
         <v>407</v>
       </c>
@@ -30803,7 +30803,7 @@
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14">
       <c r="A16" s="97" t="s">
         <v>134</v>
       </c>
@@ -30827,7 +30827,7 @@
       <selection activeCell="A18" sqref="A18:G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="28.28515625" style="89" customWidth="1"/>
     <col min="2" max="3" width="11.42578125" style="89"/>
@@ -30835,18 +30835,18 @@
     <col min="5" max="16384" width="11.42578125" style="89"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1">
       <c r="A1" s="199" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" ht="15.75">
       <c r="A3" s="100" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="9.75" customHeight="1"/>
+    <row r="18" spans="1:7">
       <c r="A18" s="371" t="s">
         <v>212</v>
       </c>
@@ -30857,7 +30857,7 @@
       <c r="F18" s="371"/>
       <c r="G18" s="371"/>
     </row>
-    <row r="19" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="24" customHeight="1">
       <c r="A19" s="376" t="s">
         <v>209</v>
       </c>
@@ -30868,7 +30868,7 @@
       <c r="F19" s="376"/>
       <c r="G19" s="376"/>
     </row>
-    <row r="20" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="37.5" customHeight="1">
       <c r="A20" s="376" t="s">
         <v>210</v>
       </c>
@@ -30879,7 +30879,7 @@
       <c r="F20" s="376"/>
       <c r="G20" s="376"/>
     </row>
-    <row r="21" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="37.5" customHeight="1">
       <c r="A21" s="101"/>
       <c r="B21" s="101"/>
       <c r="C21" s="101"/>
@@ -30888,7 +30888,7 @@
       <c r="F21" s="101"/>
       <c r="G21" s="101"/>
     </row>
-    <row r="23" spans="1:7" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" ht="32.25" customHeight="1" thickBot="1">
       <c r="A23" s="102"/>
       <c r="B23" s="65" t="s">
         <v>205</v>
@@ -30900,7 +30900,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7">
       <c r="A24" s="104" t="s">
         <v>201</v>
       </c>
@@ -30914,7 +30914,7 @@
         <v>0.59699999999999998</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7">
       <c r="A25" s="105" t="s">
         <v>211</v>
       </c>
@@ -30928,7 +30928,7 @@
         <v>0.20200000000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="30">
       <c r="A26" s="105" t="s">
         <v>202</v>
       </c>
@@ -30942,7 +30942,7 @@
         <v>9.8000000000000004E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7">
       <c r="A27" s="104" t="s">
         <v>203</v>
       </c>
@@ -30956,7 +30956,7 @@
         <v>6.2E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="30.75" customHeight="1">
       <c r="A28" s="105" t="s">
         <v>204</v>
       </c>
@@ -30970,7 +30970,7 @@
         <v>4.1000000000000002E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7">
       <c r="B29" s="99"/>
       <c r="C29" s="99"/>
       <c r="D29" s="99"/>
@@ -30995,20 +30995,20 @@
       <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="20" width="11.42578125" style="89"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1">
       <c r="A1" s="199" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1">
       <c r="A2" s="302"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7">
       <c r="A26" s="371" t="s">
         <v>409</v>
       </c>
@@ -31034,7 +31034,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="33.85546875" style="10" customWidth="1"/>
     <col min="2" max="2" width="13.42578125" style="10" customWidth="1"/>
@@ -31042,17 +31042,17 @@
     <col min="4" max="16384" width="9.140625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="199" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="16.5" thickBot="1">
       <c r="A2" s="21"/>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" s="47" t="s">
         <v>63</v>
       </c>
@@ -31063,7 +31063,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" s="48" t="s">
         <v>65</v>
       </c>
@@ -31074,7 +31074,7 @@
         <v>43.212192535400391</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" s="48" t="s">
         <v>66</v>
       </c>
@@ -31085,7 +31085,7 @@
         <v>11.851516723632813</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" s="48" t="s">
         <v>284</v>
       </c>
@@ -31096,7 +31096,7 @@
         <v>40.1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="15.75" thickBot="1">
       <c r="A7" s="49" t="s">
         <v>106</v>
       </c>
@@ -31107,12 +31107,12 @@
         <v>40.816764831542969</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" s="20" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" s="20" t="s">
         <v>122</v>
       </c>
@@ -31131,7 +31131,7 @@
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15" style="1" customWidth="1"/>
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
@@ -31143,12 +31143,12 @@
     <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" s="199" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="16.5" thickBot="1">
       <c r="A2" s="74"/>
       <c r="B2" s="75"/>
       <c r="C2" s="75"/>
@@ -31159,7 +31159,7 @@
       <c r="H2" s="377"/>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15.75">
       <c r="A3" s="107"/>
       <c r="B3" s="378" t="s">
         <v>11</v>
@@ -31174,7 +31174,7 @@
       <c r="H3" s="73"/>
       <c r="I3" s="53"/>
     </row>
-    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15.75">
       <c r="A4" s="108"/>
       <c r="B4" s="132">
         <v>2010</v>
@@ -31193,7 +31193,7 @@
       <c r="H4" s="73"/>
       <c r="I4" s="53"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5" s="89" t="s">
         <v>286</v>
       </c>
@@ -31210,7 +31210,7 @@
         <v>11.1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6" s="89" t="s">
         <v>3</v>
       </c>
@@ -31227,7 +31227,7 @@
         <v>22.2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="A7" s="89" t="s">
         <v>4</v>
       </c>
@@ -31244,7 +31244,7 @@
         <v>42.4</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="A8" s="89" t="s">
         <v>5</v>
       </c>
@@ -31261,7 +31261,7 @@
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9">
       <c r="A9" s="89" t="s">
         <v>6</v>
       </c>
@@ -31278,7 +31278,7 @@
         <v>13.8</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="A10" s="244" t="s">
         <v>42</v>
       </c>
@@ -31295,7 +31295,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="15.75" thickBot="1">
       <c r="A11" s="46" t="s">
         <v>10</v>
       </c>
@@ -31312,7 +31312,7 @@
         <v>99.999999999999986</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="12.75" customHeight="1">
       <c r="A12" s="23" t="s">
         <v>122</v>
       </c>
@@ -31340,7 +31340,7 @@
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="27.7109375" style="221" customWidth="1"/>
     <col min="2" max="2" width="9.7109375" style="221" bestFit="1" customWidth="1"/>
@@ -31350,21 +31350,21 @@
     <col min="6" max="16384" width="11.42578125" style="221"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="199" t="s">
         <v>412</v>
       </c>
       <c r="B1" s="199"/>
       <c r="C1" s="199"/>
     </row>
-    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="15.75" thickBot="1">
       <c r="A2" s="222"/>
       <c r="B2" s="222"/>
       <c r="C2" s="222"/>
       <c r="D2" s="222"/>
       <c r="E2" s="222"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" s="365" t="s">
         <v>9</v>
       </c>
@@ -31377,7 +31377,7 @@
       </c>
       <c r="E3" s="380"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" s="363"/>
       <c r="B4" s="251">
         <v>2010</v>
@@ -31392,7 +31392,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5" s="221" t="s">
         <v>287</v>
       </c>
@@ -31409,7 +31409,7 @@
         <v>11.1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6" s="221" t="s">
         <v>288</v>
       </c>
@@ -31426,7 +31426,7 @@
         <v>22.2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="A7" s="221" t="s">
         <v>142</v>
       </c>
@@ -31443,7 +31443,7 @@
         <v>42.4</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7">
       <c r="A8" s="221" t="s">
         <v>289</v>
       </c>
@@ -31460,7 +31460,7 @@
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="A9" s="221" t="s">
         <v>144</v>
       </c>
@@ -31477,7 +31477,7 @@
         <v>13.8</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7">
       <c r="A10" s="228" t="s">
         <v>145</v>
       </c>
@@ -31494,7 +31494,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="15.75" thickBot="1">
       <c r="A11" s="222" t="s">
         <v>10</v>
       </c>
@@ -31511,7 +31511,7 @@
         <v>99.999999999999986</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="317" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" s="317" customFormat="1">
       <c r="A12" s="23" t="s">
         <v>283</v>
       </c>
@@ -31520,7 +31520,7 @@
       <c r="D12" s="23"/>
       <c r="E12" s="23"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7">
       <c r="A13" s="54" t="s">
         <v>290</v>
       </c>
@@ -31529,7 +31529,7 @@
       <c r="D13" s="54"/>
       <c r="E13" s="54"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7">
       <c r="A14" s="361"/>
       <c r="B14" s="361"/>
       <c r="C14" s="361"/>
@@ -31538,11 +31538,11 @@
       <c r="F14" s="225"/>
       <c r="G14" s="225"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7">
       <c r="F15" s="225"/>
       <c r="G15" s="225"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7">
       <c r="F16" s="225"/>
       <c r="G16" s="225"/>
     </row>
@@ -31565,19 +31565,19 @@
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="26" style="89" customWidth="1"/>
     <col min="2" max="16384" width="11.42578125" style="89"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="199" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="15.75" thickBot="1"/>
+    <row r="3" spans="1:3" ht="15" customHeight="1">
       <c r="A3" s="368" t="s">
         <v>11</v>
       </c>
@@ -31586,7 +31586,7 @@
       </c>
       <c r="C3" s="370"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" s="369"/>
       <c r="B4" s="131">
         <v>2010</v>
@@ -31595,7 +31595,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" s="128" t="s">
         <v>28</v>
       </c>
@@ -31606,7 +31606,7 @@
         <v>29.1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" s="91" t="s">
         <v>12</v>
       </c>
@@ -31617,7 +31617,7 @@
         <v>94.8</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" s="91" t="s">
         <v>29</v>
       </c>
@@ -31628,7 +31628,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" s="91" t="s">
         <v>13</v>
       </c>
@@ -31639,7 +31639,7 @@
         <v>17.2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" s="91" t="s">
         <v>30</v>
       </c>
@@ -31650,7 +31650,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" s="91" t="s">
         <v>31</v>
       </c>
@@ -31661,7 +31661,7 @@
         <v>27.5</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" s="91" t="s">
         <v>43</v>
       </c>
@@ -31672,7 +31672,7 @@
         <v>21.1</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12" s="91" t="s">
         <v>127</v>
       </c>
@@ -31683,7 +31683,7 @@
         <v>21.1</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="30">
       <c r="A13" s="91" t="s">
         <v>14</v>
       </c>
@@ -31694,7 +31694,7 @@
         <v>33.299999999999997</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14" s="91" t="s">
         <v>128</v>
       </c>
@@ -31705,7 +31705,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="30">
       <c r="A15" s="91" t="s">
         <v>129</v>
       </c>
@@ -31716,7 +31716,7 @@
         <v>9.4</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3">
       <c r="A16" s="91" t="s">
         <v>97</v>
       </c>
@@ -31727,7 +31727,7 @@
         <v>7.3</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3">
       <c r="A17" s="93" t="s">
         <v>33</v>
       </c>
@@ -31738,7 +31738,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" ht="15.75" thickBot="1">
       <c r="A18" s="94" t="s">
         <v>90</v>
       </c>
@@ -31749,14 +31749,14 @@
         <v>18.600000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3">
       <c r="A19" s="381" t="s">
         <v>130</v>
       </c>
       <c r="B19" s="381"/>
       <c r="C19" s="381"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="A20" s="371"/>
       <c r="B20" s="371"/>
       <c r="C20" s="371"/>
@@ -31780,7 +31780,7 @@
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="7.140625" style="89" customWidth="1"/>
     <col min="2" max="2" width="8.42578125" style="89" bestFit="1" customWidth="1"/>
@@ -31793,12 +31793,12 @@
     <col min="9" max="16384" width="11.42578125" style="89"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="199" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="15.75" customHeight="1" thickBot="1">
       <c r="A2" s="382"/>
       <c r="B2" s="382"/>
       <c r="C2" s="382"/>
@@ -31808,7 +31808,7 @@
       <c r="G2" s="382"/>
       <c r="H2" s="382"/>
     </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="15" customHeight="1">
       <c r="A3" s="391" t="s">
         <v>153</v>
       </c>
@@ -31824,7 +31824,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4" s="379"/>
       <c r="B4" s="135"/>
       <c r="C4" s="385" t="s">
@@ -31840,7 +31840,7 @@
       <c r="G4" s="385"/>
       <c r="H4" s="388"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5" s="392"/>
       <c r="B5" s="133"/>
       <c r="C5" s="386"/>
@@ -31856,7 +31856,7 @@
       </c>
       <c r="H5" s="389"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6" s="393">
         <v>2010</v>
       </c>
@@ -31882,7 +31882,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7" s="379"/>
       <c r="B7" s="135" t="s">
         <v>64</v>
@@ -31906,7 +31906,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="A8" s="379">
         <v>2015</v>
       </c>
@@ -31932,7 +31932,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="15.75" thickBot="1">
       <c r="A9" s="394"/>
       <c r="B9" s="135" t="s">
         <v>64</v>
@@ -31956,7 +31956,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8">
       <c r="A10" s="384" t="s">
         <v>173</v>
       </c>
@@ -31968,7 +31968,7 @@
       <c r="G10" s="384"/>
       <c r="H10" s="384"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8">
       <c r="A11" s="383"/>
       <c r="B11" s="383"/>
       <c r="C11" s="383"/>
@@ -32000,11 +32000,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U36"/>
   <sheetViews>
-    <sheetView showWhiteSpace="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="40" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="40" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="5.85546875" style="145" customWidth="1"/>
     <col min="2" max="2" width="10.42578125" style="145" customWidth="1"/>
@@ -32013,7 +32013,7 @@
     <col min="5" max="16384" width="9.140625" style="145"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" ht="15.75">
       <c r="A1" s="214" t="s">
         <v>339</v>
       </c>
@@ -32025,13 +32025,13 @@
       <c r="H1" s="144"/>
       <c r="I1" s="144"/>
     </row>
-    <row r="2" spans="1:21" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" ht="13.5" thickBot="1">
       <c r="A2" s="146"/>
       <c r="B2" s="146"/>
       <c r="C2" s="146"/>
       <c r="D2" s="146"/>
     </row>
-    <row r="3" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" ht="12.75" customHeight="1">
       <c r="A3" s="147" t="s">
         <v>153</v>
       </c>
@@ -32047,7 +32047,7 @@
       <c r="E3" s="149"/>
       <c r="H3" s="150"/>
     </row>
-    <row r="4" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" ht="12.75" customHeight="1">
       <c r="A4" s="335">
         <v>2008</v>
       </c>
@@ -32069,7 +32069,7 @@
       <c r="T4" s="198"/>
       <c r="U4" s="198"/>
     </row>
-    <row r="5" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" ht="12.75" customHeight="1">
       <c r="A5" s="336"/>
       <c r="B5" s="151" t="str">
         <f>'[1]Hoja 01'!B3</f>
@@ -32082,7 +32082,7 @@
         <v>956610</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21">
       <c r="A6" s="336"/>
       <c r="B6" s="151" t="str">
         <f>'[1]Hoja 01'!B4</f>
@@ -32095,7 +32095,7 @@
         <v>965251</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21">
       <c r="A7" s="337"/>
       <c r="B7" s="154" t="str">
         <f>'[1]Hoja 01'!B5</f>
@@ -32108,7 +32108,7 @@
         <v>973891</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21">
       <c r="A8" s="335">
         <v>2009</v>
       </c>
@@ -32123,7 +32123,7 @@
         <v>982531</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21">
       <c r="A9" s="336"/>
       <c r="B9" s="151" t="str">
         <f>'[1]Hoja 01'!B7</f>
@@ -32136,7 +32136,7 @@
         <v>991172</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21">
       <c r="A10" s="336"/>
       <c r="B10" s="151" t="str">
         <f>'[1]Hoja 01'!B8</f>
@@ -32149,7 +32149,7 @@
         <v>999812</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21">
       <c r="A11" s="337"/>
       <c r="B11" s="154" t="str">
         <f>'[1]Hoja 01'!B9</f>
@@ -32162,7 +32162,7 @@
         <v>1008453</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21">
       <c r="A12" s="335">
         <v>2010</v>
       </c>
@@ -32177,7 +32177,7 @@
         <v>1017093</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21">
       <c r="A13" s="336"/>
       <c r="B13" s="151" t="str">
         <f>'[1]Hoja 01'!B11</f>
@@ -32190,7 +32190,7 @@
         <v>1025733</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21">
       <c r="A14" s="336"/>
       <c r="B14" s="151" t="str">
         <f>'[1]Hoja 01'!B12</f>
@@ -32203,7 +32203,7 @@
         <v>1034374</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21">
       <c r="A15" s="337"/>
       <c r="B15" s="154" t="str">
         <f>'[1]Hoja 01'!B13</f>
@@ -32216,7 +32216,7 @@
         <v>1043014</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21">
       <c r="A16" s="335">
         <v>2011</v>
       </c>
@@ -32231,7 +32231,7 @@
         <v>1051655</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14">
       <c r="A17" s="336"/>
       <c r="B17" s="151" t="str">
         <f>'[1]Hoja 01'!B15</f>
@@ -32244,7 +32244,7 @@
         <v>1060295</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14">
       <c r="A18" s="336"/>
       <c r="B18" s="151" t="str">
         <f>'[1]Hoja 01'!B16</f>
@@ -32257,7 +32257,7 @@
         <v>1068936</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14">
       <c r="A19" s="337"/>
       <c r="B19" s="154" t="str">
         <f>'[1]Hoja 01'!B17</f>
@@ -32280,7 +32280,7 @@
       <c r="M19" s="156"/>
       <c r="N19" s="157"/>
     </row>
-    <row r="20" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" ht="12.75" customHeight="1">
       <c r="A20" s="335">
         <v>2012</v>
       </c>
@@ -32306,7 +32306,7 @@
       <c r="M20" s="144"/>
       <c r="N20" s="157"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14">
       <c r="A21" s="336"/>
       <c r="B21" s="151" t="str">
         <f>'[1]Hoja 01'!B19</f>
@@ -32329,7 +32329,7 @@
       <c r="L21" s="159"/>
       <c r="M21" s="159"/>
     </row>
-    <row r="22" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" ht="12.75" customHeight="1">
       <c r="A22" s="336"/>
       <c r="B22" s="151" t="str">
         <f>'[1]Hoja 01'!B20</f>
@@ -32352,7 +32352,7 @@
       <c r="L22" s="159"/>
       <c r="M22" s="159"/>
     </row>
-    <row r="23" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" ht="12.75" customHeight="1">
       <c r="A23" s="337"/>
       <c r="B23" s="154" t="str">
         <f>'[1]Hoja 01'!B21</f>
@@ -32365,7 +32365,7 @@
         <v>1112138</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14">
       <c r="A24" s="335">
         <v>2013</v>
       </c>
@@ -32380,7 +32380,7 @@
         <v>1120778</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" ht="12.75" customHeight="1">
       <c r="A25" s="336"/>
       <c r="B25" s="151" t="str">
         <f>'[1]Hoja 01'!B23</f>
@@ -32393,7 +32393,7 @@
         <v>1129418</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14">
       <c r="A26" s="336"/>
       <c r="B26" s="151" t="str">
         <f>'[1]Hoja 01'!B24</f>
@@ -32406,7 +32406,7 @@
         <v>1138059</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14">
       <c r="A27" s="337"/>
       <c r="B27" s="154" t="str">
         <f>'[1]Hoja 01'!B25</f>
@@ -32419,7 +32419,7 @@
         <v>1146699</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14">
       <c r="A28" s="335">
         <v>2014</v>
       </c>
@@ -32434,7 +32434,7 @@
         <v>1155340</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14">
       <c r="A29" s="336"/>
       <c r="B29" s="151" t="str">
         <f>'[1]Hoja 01'!B27</f>
@@ -32447,7 +32447,7 @@
         <v>1163980</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14">
       <c r="A30" s="336"/>
       <c r="B30" s="151" t="str">
         <f>'[1]Hoja 01'!B28</f>
@@ -32460,7 +32460,7 @@
         <v>1172621</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14">
       <c r="A31" s="337"/>
       <c r="B31" s="154" t="str">
         <f>'[1]Hoja 01'!B29</f>
@@ -32473,7 +32473,7 @@
         <v>1181261</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14">
       <c r="A32" s="335">
         <v>2015</v>
       </c>
@@ -32488,7 +32488,7 @@
         <v>1189901</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4">
       <c r="A33" s="336"/>
       <c r="B33" s="151" t="str">
         <f>'[1]Hoja 01'!B31</f>
@@ -32501,7 +32501,7 @@
         <v>1198542</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4">
       <c r="A34" s="336"/>
       <c r="B34" s="151" t="str">
         <f>'[1]Hoja 01'!B32</f>
@@ -32514,7 +32514,7 @@
         <v>1207182</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" ht="13.5" thickBot="1">
       <c r="A35" s="338"/>
       <c r="B35" s="160" t="str">
         <f>'[1]Hoja 01'!B33</f>
@@ -32527,7 +32527,7 @@
         <v>1215823</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4">
       <c r="D36" s="162"/>
     </row>
   </sheetData>
@@ -32555,7 +32555,7 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.42578125" style="89" customWidth="1"/>
     <col min="2" max="2" width="14" style="89" bestFit="1" customWidth="1"/>
@@ -32568,12 +32568,12 @@
     <col min="9" max="16384" width="11.42578125" style="89"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="199" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="15.75" thickBot="1">
       <c r="A2" s="245"/>
       <c r="B2" s="245"/>
       <c r="C2" s="245"/>
@@ -32583,7 +32583,7 @@
       <c r="G2" s="245"/>
       <c r="H2" s="245"/>
     </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="15" customHeight="1">
       <c r="A3" s="396"/>
       <c r="B3" s="385" t="s">
         <v>153</v>
@@ -32599,7 +32599,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4" s="396"/>
       <c r="B4" s="385"/>
       <c r="C4" s="385" t="s">
@@ -32615,7 +32615,7 @@
       <c r="G4" s="385"/>
       <c r="H4" s="388"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5" s="396"/>
       <c r="B5" s="385"/>
       <c r="C5" s="385"/>
@@ -32631,7 +32631,7 @@
       </c>
       <c r="H5" s="388"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6" s="396"/>
       <c r="B6" s="385"/>
       <c r="C6" s="136" t="s">
@@ -32653,7 +32653,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7" s="393" t="s">
         <v>152</v>
       </c>
@@ -32679,7 +32679,7 @@
         <v>736536</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="A8" s="379"/>
       <c r="B8" s="136">
         <v>2015</v>
@@ -32703,7 +32703,7 @@
         <v>275702</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="A9" s="379" t="s">
         <v>64</v>
       </c>
@@ -32729,7 +32729,7 @@
         <v>736536</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="15.75" thickBot="1">
       <c r="A10" s="379"/>
       <c r="B10" s="136">
         <v>2015</v>
@@ -32753,7 +32753,7 @@
         <v>275702</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8">
       <c r="A11" s="384" t="s">
         <v>414</v>
       </c>
@@ -32765,7 +32765,7 @@
       <c r="G11" s="384"/>
       <c r="H11" s="384"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8">
       <c r="A12" s="395" t="s">
         <v>174</v>
       </c>
@@ -32803,7 +32803,7 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="51.28515625" style="89" customWidth="1"/>
     <col min="2" max="2" width="10.140625" style="89" customWidth="1"/>
@@ -32813,19 +32813,19 @@
     <col min="6" max="16384" width="11.42578125" style="89"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="199" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="16.5" thickBot="1">
       <c r="A2" s="372"/>
       <c r="B2" s="372"/>
       <c r="C2" s="372"/>
       <c r="D2" s="372"/>
       <c r="E2" s="372"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="116" t="s">
         <v>133</v>
       </c>
@@ -32838,7 +32838,7 @@
       </c>
       <c r="E3" s="390"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="109"/>
       <c r="B4" s="82">
         <v>2010</v>
@@ -32853,7 +32853,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="10" t="s">
         <v>135</v>
       </c>
@@ -32870,7 +32870,7 @@
         <v>29.3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="10" t="s">
         <v>175</v>
       </c>
@@ -32887,7 +32887,7 @@
         <v>29.3</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="10" t="s">
         <v>137</v>
       </c>
@@ -32904,7 +32904,7 @@
         <v>29.3</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" s="10" t="s">
         <v>138</v>
       </c>
@@ -32921,7 +32921,7 @@
         <v>29.3</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" s="10" t="s">
         <v>139</v>
       </c>
@@ -32938,7 +32938,7 @@
         <v>29.3</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="10" t="s">
         <v>140</v>
       </c>
@@ -32955,7 +32955,7 @@
         <v>29.3</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="15.75" thickBot="1">
       <c r="A11" s="10" t="s">
         <v>141</v>
       </c>
@@ -32972,7 +32972,7 @@
         <v>29.3</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" s="381" t="s">
         <v>134</v>
       </c>
@@ -32981,50 +32981,50 @@
       <c r="D12" s="381"/>
       <c r="E12" s="381"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="371"/>
       <c r="B13" s="371"/>
       <c r="C13" s="371"/>
       <c r="D13" s="371"/>
       <c r="E13" s="371"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4">
       <c r="A19" s="10"/>
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4">
       <c r="A20" s="10"/>
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
       <c r="D20" s="10"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4">
       <c r="A21" s="10"/>
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
       <c r="D21" s="10"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4">
       <c r="A22" s="10"/>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4">
       <c r="A23" s="10"/>
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
       <c r="D23" s="10"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4">
       <c r="A24" s="10"/>
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
       <c r="D24" s="10"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4">
       <c r="A25" s="10"/>
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
@@ -33051,7 +33051,7 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="23.5703125" style="89" customWidth="1"/>
     <col min="2" max="2" width="10" style="89" bestFit="1" customWidth="1"/>
@@ -33061,13 +33061,13 @@
     <col min="6" max="16384" width="11.42578125" style="89"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="199" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="15.75" thickBot="1"/>
+    <row r="3" spans="1:5">
       <c r="A3" s="387" t="s">
         <v>176</v>
       </c>
@@ -33078,7 +33078,7 @@
       <c r="D3" s="390"/>
       <c r="E3" s="390"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="388"/>
       <c r="B4" s="396" t="s">
         <v>11</v>
@@ -33089,7 +33089,7 @@
       </c>
       <c r="E4" s="385"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="389"/>
       <c r="B5" s="138" t="s">
         <v>107</v>
@@ -33104,7 +33104,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="30">
       <c r="A6" s="91" t="s">
         <v>223</v>
       </c>
@@ -33121,7 +33121,7 @@
         <v>29.3</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="90" t="s">
         <v>177</v>
       </c>
@@ -33138,7 +33138,7 @@
         <v>29.3</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="15.75" thickBot="1">
       <c r="A8" s="117" t="s">
         <v>178</v>
       </c>
@@ -33155,7 +33155,7 @@
         <v>29.3</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="12" customHeight="1">
       <c r="A9" s="118" t="s">
         <v>224</v>
       </c>
@@ -33164,7 +33164,7 @@
       <c r="D9" s="118"/>
       <c r="E9" s="118"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="118" t="s">
         <v>225</v>
       </c>
@@ -33189,20 +33189,20 @@
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.42578125" style="89"/>
     <col min="2" max="2" width="9.28515625" style="89" customWidth="1"/>
     <col min="3" max="16384" width="11.42578125" style="89"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16">
       <c r="A1" s="199" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:16" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" ht="15.75" thickBot="1"/>
+    <row r="3" spans="1:16" ht="45.75" customHeight="1">
       <c r="A3" s="287"/>
       <c r="B3" s="288" t="s">
         <v>153</v>
@@ -33235,7 +33235,7 @@
       <c r="O3" s="397"/>
       <c r="P3" s="397"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16">
       <c r="A4" s="379" t="s">
         <v>11</v>
       </c>
@@ -33264,7 +33264,7 @@
         <v>53432</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16">
       <c r="A5" s="379"/>
       <c r="B5" s="111">
         <v>2015</v>
@@ -33291,7 +33291,7 @@
         <v>53432</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16">
       <c r="A6" s="379" t="s">
         <v>64</v>
       </c>
@@ -33320,7 +33320,7 @@
         <v>53432</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" ht="15.75" thickBot="1">
       <c r="A7" s="394"/>
       <c r="B7" s="286">
         <v>2015</v>
@@ -33347,17 +33347,17 @@
         <v>53432</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" ht="10.5" customHeight="1">
       <c r="A8" s="97" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" ht="12" customHeight="1">
       <c r="A9" s="97" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16">
       <c r="A10" s="97" t="s">
         <v>146</v>
       </c>
@@ -33380,7 +33380,7 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="8.28515625" style="89" customWidth="1"/>
     <col min="2" max="2" width="18.5703125" style="89" customWidth="1"/>
@@ -33393,15 +33393,15 @@
     <col min="9" max="16384" width="11.42578125" style="89"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="199" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="15.75" thickBot="1">
       <c r="B2" s="245"/>
     </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="15" customHeight="1">
       <c r="A3" s="391"/>
       <c r="B3" s="387"/>
       <c r="C3" s="390" t="s">
@@ -33415,7 +33415,7 @@
       <c r="G3" s="390"/>
       <c r="H3" s="390"/>
     </row>
-    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="30">
       <c r="A4" s="392"/>
       <c r="B4" s="389"/>
       <c r="C4" s="131" t="s">
@@ -33437,7 +33437,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5" s="393">
         <v>2010</v>
       </c>
@@ -33463,7 +33463,7 @@
         <v>29.3</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6" s="379"/>
       <c r="B6" s="119" t="s">
         <v>180</v>
@@ -33487,7 +33487,7 @@
         <v>29.3</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7" s="379">
         <v>2015</v>
       </c>
@@ -33513,7 +33513,7 @@
         <v>29.3</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="15.75" thickBot="1">
       <c r="A8" s="394"/>
       <c r="B8" s="283" t="s">
         <v>180</v>
@@ -33537,7 +33537,7 @@
         <v>29.3</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="A9" s="395" t="s">
         <v>226</v>
       </c>
@@ -33549,7 +33549,7 @@
       <c r="G9" s="395"/>
       <c r="H9" s="395"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8">
       <c r="A10" s="395" t="s">
         <v>227</v>
       </c>
@@ -33561,7 +33561,7 @@
       <c r="G10" s="395"/>
       <c r="H10" s="395"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8">
       <c r="A11" s="395" t="s">
         <v>173</v>
       </c>
@@ -33595,7 +33595,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="43.140625" style="89" customWidth="1"/>
     <col min="2" max="2" width="7" style="89" bestFit="1" customWidth="1"/>
@@ -33605,13 +33605,13 @@
     <col min="6" max="16384" width="11.42578125" style="89"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" s="199" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="15.75" thickBot="1"/>
+    <row r="3" spans="1:9">
       <c r="A3" s="352" t="s">
         <v>8</v>
       </c>
@@ -33624,7 +33624,7 @@
       </c>
       <c r="E3" s="355"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="A4" s="354"/>
       <c r="B4" s="86">
         <v>2010</v>
@@ -33639,7 +33639,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="45">
       <c r="A5" s="44" t="s">
         <v>93</v>
       </c>
@@ -33660,7 +33660,7 @@
       <c r="H5" s="319"/>
       <c r="I5" s="319"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6" s="44" t="s">
         <v>94</v>
       </c>
@@ -33681,7 +33681,7 @@
       <c r="H6" s="319"/>
       <c r="I6" s="319"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="A7" s="44" t="s">
         <v>36</v>
       </c>
@@ -33702,7 +33702,7 @@
       <c r="H7" s="319"/>
       <c r="I7" s="319"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="A8" s="44" t="s">
         <v>37</v>
       </c>
@@ -33723,7 +33723,7 @@
       <c r="H8" s="319"/>
       <c r="I8" s="319"/>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="15" customHeight="1">
       <c r="A9" s="44" t="s">
         <v>38</v>
       </c>
@@ -33744,7 +33744,7 @@
       <c r="H9" s="319"/>
       <c r="I9" s="319"/>
     </row>
-    <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="30">
       <c r="A10" s="44" t="s">
         <v>39</v>
       </c>
@@ -33765,7 +33765,7 @@
       <c r="H10" s="319"/>
       <c r="I10" s="319"/>
     </row>
-    <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="30">
       <c r="A11" s="44" t="s">
         <v>40</v>
       </c>
@@ -33786,7 +33786,7 @@
       <c r="H11" s="319"/>
       <c r="I11" s="319"/>
     </row>
-    <row r="12" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="30">
       <c r="A12" s="44" t="s">
         <v>95</v>
       </c>
@@ -33807,7 +33807,7 @@
       <c r="H12" s="319"/>
       <c r="I12" s="319"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9">
       <c r="A13" s="44" t="s">
         <v>41</v>
       </c>
@@ -33828,7 +33828,7 @@
       <c r="H13" s="319"/>
       <c r="I13" s="319"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9">
       <c r="A14" s="52" t="s">
         <v>110</v>
       </c>
@@ -33849,7 +33849,7 @@
       <c r="H14" s="319"/>
       <c r="I14" s="319"/>
     </row>
-    <row r="15" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="15.75" thickBot="1">
       <c r="A15" s="85" t="s">
         <v>10</v>
       </c>
@@ -33870,7 +33870,7 @@
       <c r="H15" s="319"/>
       <c r="I15" s="319"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9">
       <c r="A16" s="54" t="s">
         <v>252</v>
       </c>
@@ -33895,7 +33895,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="45.85546875" style="89" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" style="89" bestFit="1" customWidth="1"/>
@@ -33906,13 +33906,13 @@
     <col min="7" max="16384" width="11.42578125" style="89"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="A1" s="199" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="15.75" thickBot="1"/>
+    <row r="3" spans="1:11" ht="60">
       <c r="A3" s="305" t="s">
         <v>8</v>
       </c>
@@ -33932,7 +33932,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="45">
       <c r="A4" s="44" t="s">
         <v>347</v>
       </c>
@@ -33957,7 +33957,7 @@
       <c r="J4" s="319"/>
       <c r="K4" s="319"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11">
       <c r="A5" s="44" t="s">
         <v>94</v>
       </c>
@@ -33982,7 +33982,7 @@
       <c r="J5" s="319"/>
       <c r="K5" s="319"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
       <c r="A6" s="44" t="s">
         <v>36</v>
       </c>
@@ -34007,7 +34007,7 @@
       <c r="J6" s="319"/>
       <c r="K6" s="319"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11">
       <c r="A7" s="44" t="s">
         <v>37</v>
       </c>
@@ -34032,7 +34032,7 @@
       <c r="J7" s="319"/>
       <c r="K7" s="319"/>
     </row>
-    <row r="8" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="30">
       <c r="A8" s="44" t="s">
         <v>38</v>
       </c>
@@ -34057,7 +34057,7 @@
       <c r="J8" s="319"/>
       <c r="K8" s="319"/>
     </row>
-    <row r="9" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="30">
       <c r="A9" s="44" t="s">
         <v>39</v>
       </c>
@@ -34082,7 +34082,7 @@
       <c r="J9" s="319"/>
       <c r="K9" s="319"/>
     </row>
-    <row r="10" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="30">
       <c r="A10" s="44" t="s">
         <v>40</v>
       </c>
@@ -34107,7 +34107,7 @@
       <c r="J10" s="319"/>
       <c r="K10" s="319"/>
     </row>
-    <row r="11" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="30">
       <c r="A11" s="44" t="s">
         <v>95</v>
       </c>
@@ -34132,7 +34132,7 @@
       <c r="J11" s="319"/>
       <c r="K11" s="319"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11">
       <c r="A12" s="44" t="s">
         <v>41</v>
       </c>
@@ -34157,7 +34157,7 @@
       <c r="J12" s="319"/>
       <c r="K12" s="319"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11">
       <c r="A13" s="52" t="s">
         <v>110</v>
       </c>
@@ -34182,7 +34182,7 @@
       <c r="J13" s="319"/>
       <c r="K13" s="319"/>
     </row>
-    <row r="14" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="15.75" thickBot="1">
       <c r="A14" s="122" t="s">
         <v>181</v>
       </c>
@@ -34207,7 +34207,7 @@
       <c r="J14" s="319"/>
       <c r="K14" s="319"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11">
       <c r="A15" s="54" t="s">
         <v>346</v>
       </c>
@@ -34230,7 +34230,7 @@
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="49.42578125" style="221" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.5703125" style="221" bestFit="1" customWidth="1"/>
@@ -34243,12 +34243,12 @@
     <col min="9" max="16384" width="11.42578125" style="221"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="A1" s="199" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="15.75" thickBot="1">
       <c r="A2" s="233"/>
       <c r="B2" s="222"/>
       <c r="C2" s="222"/>
@@ -34258,7 +34258,7 @@
       <c r="G2" s="222"/>
       <c r="H2" s="222"/>
     </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="15" customHeight="1">
       <c r="A3" s="398" t="s">
         <v>342</v>
       </c>
@@ -34272,7 +34272,7 @@
       <c r="G3" s="364"/>
       <c r="H3" s="364"/>
     </row>
-    <row r="4" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="45">
       <c r="A4" s="399"/>
       <c r="B4" s="298" t="s">
         <v>287</v>
@@ -34296,7 +34296,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="45">
       <c r="A5" s="256" t="s">
         <v>343</v>
       </c>
@@ -34322,7 +34322,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
       <c r="A6" s="221" t="s">
         <v>94</v>
       </c>
@@ -34349,7 +34349,7 @@
       </c>
       <c r="K6" s="253"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11">
       <c r="A7" s="221" t="s">
         <v>36</v>
       </c>
@@ -34375,7 +34375,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="A8" s="221" t="s">
         <v>37</v>
       </c>
@@ -34401,7 +34401,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11">
       <c r="A9" s="221" t="s">
         <v>38</v>
       </c>
@@ -34427,7 +34427,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11">
       <c r="A10" s="221" t="s">
         <v>39</v>
       </c>
@@ -34453,7 +34453,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11">
       <c r="A11" s="221" t="s">
         <v>40</v>
       </c>
@@ -34479,7 +34479,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11">
       <c r="A12" s="221" t="s">
         <v>344</v>
       </c>
@@ -34505,7 +34505,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11">
       <c r="A13" s="225" t="s">
         <v>41</v>
       </c>
@@ -34531,7 +34531,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="15.75" thickBot="1">
       <c r="A14" s="231" t="s">
         <v>64</v>
       </c>
@@ -34557,7 +34557,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="33" customHeight="1">
       <c r="A15" s="360" t="s">
         <v>345</v>
       </c>
@@ -34569,7 +34569,7 @@
       <c r="G15" s="360"/>
       <c r="H15" s="360"/>
     </row>
-    <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="15" customHeight="1">
       <c r="A16" s="400" t="s">
         <v>283</v>
       </c>
@@ -34600,7 +34600,7 @@
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="62.7109375" style="221" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.5703125" style="221" bestFit="1" customWidth="1"/>
@@ -34612,12 +34612,12 @@
     <col min="8" max="16384" width="11.42578125" style="221"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="199" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" s="228"/>
       <c r="B2" s="228"/>
       <c r="C2" s="228"/>
@@ -34626,7 +34626,7 @@
       <c r="F2" s="228"/>
       <c r="G2" s="228"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" s="401" t="s">
         <v>342</v>
       </c>
@@ -34645,7 +34645,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" s="399"/>
       <c r="B4" s="234"/>
       <c r="C4" s="234"/>
@@ -34660,7 +34660,7 @@
       </c>
       <c r="G4" s="234"/>
     </row>
-    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="30">
       <c r="A5" s="256" t="s">
         <v>343</v>
       </c>
@@ -34683,7 +34683,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6" s="221" t="s">
         <v>94</v>
       </c>
@@ -34706,7 +34706,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="A7" s="221" t="s">
         <v>36</v>
       </c>
@@ -34729,7 +34729,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7">
       <c r="A8" s="221" t="s">
         <v>37</v>
       </c>
@@ -34752,7 +34752,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="A9" s="221" t="s">
         <v>38</v>
       </c>
@@ -34775,7 +34775,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7">
       <c r="A10" s="221" t="s">
         <v>39</v>
       </c>
@@ -34798,7 +34798,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7">
       <c r="A11" s="221" t="s">
         <v>40</v>
       </c>
@@ -34821,7 +34821,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7">
       <c r="A12" s="221" t="s">
         <v>344</v>
       </c>
@@ -34844,7 +34844,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7">
       <c r="A13" s="225" t="s">
         <v>41</v>
       </c>
@@ -34867,7 +34867,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="15.75" thickBot="1">
       <c r="A14" s="231" t="s">
         <v>64</v>
       </c>
@@ -34890,7 +34890,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7">
       <c r="A15" s="400" t="s">
         <v>283</v>
       </c>
@@ -34915,7 +34915,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="47.5703125" style="89" customWidth="1"/>
     <col min="2" max="2" width="10.85546875" style="89" customWidth="1"/>
@@ -34925,12 +34925,12 @@
     <col min="8" max="16384" width="11.42578125" style="89"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="199" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15.75" thickBot="1">
       <c r="A2" s="10"/>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -34938,7 +34938,7 @@
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
     </row>
-    <row r="3" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="60">
       <c r="A3" s="307" t="s">
         <v>185</v>
       </c>
@@ -34958,7 +34958,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" s="124" t="s">
         <v>111</v>
       </c>
@@ -34978,7 +34978,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" s="125" t="s">
         <v>112</v>
       </c>
@@ -34998,7 +34998,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" s="125" t="s">
         <v>113</v>
       </c>
@@ -35018,7 +35018,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" s="125" t="s">
         <v>114</v>
       </c>
@@ -35038,7 +35038,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" s="125" t="s">
         <v>115</v>
       </c>
@@ -35058,7 +35058,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" s="125" t="s">
         <v>116</v>
       </c>
@@ -35078,7 +35078,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" s="125" t="s">
         <v>117</v>
       </c>
@@ -35098,7 +35098,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" s="125" t="s">
         <v>118</v>
       </c>
@@ -35118,7 +35118,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" s="126" t="s">
         <v>120</v>
       </c>
@@ -35138,7 +35138,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="15.75" thickBot="1">
       <c r="A13" s="127" t="s">
         <v>119</v>
       </c>
@@ -35158,7 +35158,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14" s="87" t="s">
         <v>182</v>
       </c>
@@ -35182,7 +35182,7 @@
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="5.85546875" style="145" customWidth="1"/>
     <col min="2" max="2" width="10.42578125" style="145" customWidth="1"/>
@@ -35191,7 +35191,7 @@
     <col min="5" max="16384" width="9.140625" style="145"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" ht="15.75">
       <c r="A1" s="214" t="s">
         <v>315</v>
       </c>
@@ -35207,7 +35207,7 @@
       <c r="O1" s="150"/>
       <c r="P1" s="150"/>
     </row>
-    <row r="2" spans="1:24" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" ht="13.5" thickBot="1">
       <c r="A2" s="146"/>
       <c r="B2" s="146"/>
       <c r="C2" s="146"/>
@@ -35217,7 +35217,7 @@
       <c r="O2" s="150"/>
       <c r="P2" s="150"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24">
       <c r="A3" s="163" t="s">
         <v>153</v>
       </c>
@@ -35242,7 +35242,7 @@
       <c r="W3" s="215"/>
       <c r="X3" s="215"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24">
       <c r="A4" s="339">
         <f>'[1]Hoja 02'!A2</f>
         <v>2009</v>
@@ -35262,7 +35262,7 @@
       <c r="O4" s="150"/>
       <c r="P4" s="150"/>
     </row>
-    <row r="5" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" ht="12.75" customHeight="1">
       <c r="A5" s="340"/>
       <c r="B5" s="164" t="str">
         <f>'[1]Hoja 02'!B3</f>
@@ -35279,7 +35279,7 @@
       <c r="O5" s="150"/>
       <c r="P5" s="150"/>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24">
       <c r="A6" s="340"/>
       <c r="B6" s="164" t="str">
         <f>'[1]Hoja 02'!B4</f>
@@ -35296,7 +35296,7 @@
       <c r="O6" s="150"/>
       <c r="P6" s="150"/>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24">
       <c r="A7" s="341"/>
       <c r="B7" s="165" t="str">
         <f>'[1]Hoja 02'!B5</f>
@@ -35313,7 +35313,7 @@
       <c r="O7" s="150"/>
       <c r="P7" s="150"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24">
       <c r="A8" s="339">
         <f>'[1]Hoja 02'!A6</f>
         <v>2010</v>
@@ -35333,7 +35333,7 @@
       <c r="O8" s="150"/>
       <c r="P8" s="150"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24">
       <c r="A9" s="340"/>
       <c r="B9" s="164" t="str">
         <f>'[1]Hoja 02'!B7</f>
@@ -35350,7 +35350,7 @@
       <c r="O9" s="150"/>
       <c r="P9" s="150"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24">
       <c r="A10" s="340"/>
       <c r="B10" s="164" t="str">
         <f>'[1]Hoja 02'!B8</f>
@@ -35367,7 +35367,7 @@
       <c r="O10" s="150"/>
       <c r="P10" s="150"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24">
       <c r="A11" s="341"/>
       <c r="B11" s="165" t="str">
         <f>'[1]Hoja 02'!B9</f>
@@ -35384,7 +35384,7 @@
       <c r="O11" s="150"/>
       <c r="P11" s="150"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:24">
       <c r="A12" s="339">
         <f>'[1]Hoja 02'!A10</f>
         <v>2011</v>
@@ -35404,7 +35404,7 @@
       <c r="O12" s="150"/>
       <c r="P12" s="150"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24">
       <c r="A13" s="340"/>
       <c r="B13" s="164" t="str">
         <f>'[1]Hoja 02'!B11</f>
@@ -35421,7 +35421,7 @@
       <c r="O13" s="150"/>
       <c r="P13" s="150"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:24">
       <c r="A14" s="340"/>
       <c r="B14" s="164" t="str">
         <f>'[1]Hoja 02'!B12</f>
@@ -35438,7 +35438,7 @@
       <c r="O14" s="150"/>
       <c r="P14" s="150"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24">
       <c r="A15" s="341"/>
       <c r="B15" s="165" t="str">
         <f>'[1]Hoja 02'!B13</f>
@@ -35455,7 +35455,7 @@
       <c r="O15" s="150"/>
       <c r="P15" s="150"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24">
       <c r="A16" s="339">
         <f>'[1]Hoja 02'!A14</f>
         <v>2012</v>
@@ -35475,7 +35475,7 @@
       <c r="O16" s="150"/>
       <c r="P16" s="150"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16">
       <c r="A17" s="340"/>
       <c r="B17" s="164" t="str">
         <f>'[1]Hoja 02'!B15</f>
@@ -35492,7 +35492,7 @@
       <c r="O17" s="150"/>
       <c r="P17" s="150"/>
     </row>
-    <row r="18" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" ht="12.75" customHeight="1">
       <c r="A18" s="340"/>
       <c r="B18" s="164" t="str">
         <f>'[1]Hoja 02'!B16</f>
@@ -35518,7 +35518,7 @@
       <c r="N18" s="144"/>
       <c r="P18" s="150"/>
     </row>
-    <row r="19" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" ht="12.75" customHeight="1">
       <c r="A19" s="341"/>
       <c r="B19" s="165" t="str">
         <f>'[1]Hoja 02'!B17</f>
@@ -35543,7 +35543,7 @@
       <c r="N19" s="159"/>
       <c r="P19" s="150"/>
     </row>
-    <row r="20" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" ht="12.75" customHeight="1">
       <c r="A20" s="339">
         <f>'[1]Hoja 02'!A18</f>
         <v>2013</v>
@@ -35570,7 +35570,7 @@
       <c r="M20" s="159"/>
       <c r="N20" s="159"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16">
       <c r="A21" s="340"/>
       <c r="B21" s="164" t="str">
         <f>'[1]Hoja 02'!B19</f>
@@ -35587,7 +35587,7 @@
       <c r="O21" s="150"/>
       <c r="P21" s="150"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16">
       <c r="A22" s="340"/>
       <c r="B22" s="164" t="str">
         <f>'[1]Hoja 02'!B20</f>
@@ -35604,7 +35604,7 @@
       <c r="O22" s="150"/>
       <c r="P22" s="150"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16">
       <c r="A23" s="341"/>
       <c r="B23" s="165" t="str">
         <f>'[1]Hoja 02'!B21</f>
@@ -35626,7 +35626,7 @@
       <c r="O23" s="150"/>
       <c r="P23" s="150"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16">
       <c r="A24" s="339">
         <f>'[1]Hoja 02'!A22</f>
         <v>2014</v>
@@ -35653,7 +35653,7 @@
       <c r="O24" s="150"/>
       <c r="P24" s="150"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16">
       <c r="A25" s="340"/>
       <c r="B25" s="164" t="str">
         <f>'[1]Hoja 02'!B23</f>
@@ -35670,7 +35670,7 @@
       <c r="O25" s="150"/>
       <c r="P25" s="150"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16">
       <c r="A26" s="340"/>
       <c r="B26" s="164" t="str">
         <f>'[1]Hoja 02'!B24</f>
@@ -35684,7 +35684,7 @@
       </c>
       <c r="P26" s="150"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16">
       <c r="A27" s="341"/>
       <c r="B27" s="165" t="str">
         <f>'[1]Hoja 02'!B25</f>
@@ -35698,7 +35698,7 @@
       </c>
       <c r="P27" s="150"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16">
       <c r="A28" s="339">
         <f>'[1]Hoja 02'!A26</f>
         <v>2015</v>
@@ -35715,7 +35715,7 @@
       </c>
       <c r="P28" s="150"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16">
       <c r="A29" s="340"/>
       <c r="B29" s="164" t="str">
         <f>'[1]Hoja 02'!B27</f>
@@ -35729,7 +35729,7 @@
       </c>
       <c r="P29" s="150"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16">
       <c r="A30" s="340"/>
       <c r="B30" s="164" t="str">
         <f>'[1]Hoja 02'!B28</f>
@@ -35742,7 +35742,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" ht="13.5" thickBot="1">
       <c r="A31" s="342"/>
       <c r="B31" s="167" t="str">
         <f>'[1]Hoja 02'!B29</f>
@@ -35755,12 +35755,12 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16">
       <c r="B32" s="150"/>
       <c r="C32" s="150"/>
       <c r="D32" s="150"/>
     </row>
-    <row r="37" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="7:7">
       <c r="G37" s="168"/>
     </row>
   </sheetData>
@@ -35787,7 +35787,7 @@
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
@@ -35795,7 +35795,7 @@
     <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>52</v>
       </c>
@@ -35809,7 +35809,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>43.162033081054688</v>
       </c>
@@ -35823,7 +35823,7 @@
         <v>6.7184414863586426</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>43.212192535400391</v>
       </c>
@@ -35837,7 +35837,7 @@
         <v>40.816764831542969</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" t="str">
         <f t="array" ref="A5:C8">TRANSPOSE(A1:D3)</f>
         <v>(mean) edad</v>
@@ -35849,7 +35849,7 @@
         <v>43.212192535400391</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" t="str">
         <v>(mean) esc</v>
       </c>
@@ -35860,7 +35860,7 @@
         <v>11.851516723632813</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" t="str">
         <v>(mean) hombres</v>
       </c>
@@ -35871,7 +35871,7 @@
         <v>59.183235168457031</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" t="str">
         <v>(mean) mujeres</v>
       </c>
@@ -35895,12 +35895,12 @@
       <selection activeCell="A5" sqref="A5:B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>52</v>
       </c>
@@ -35914,7 +35914,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>43.143714904785156</v>
       </c>
@@ -35928,7 +35928,7 @@
         <v>39.06988525390625</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>43.212192535400391</v>
       </c>
@@ -35942,7 +35942,7 @@
         <v>40.816764831542969</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5">
         <f t="array" ref="A5:B8">TRANSPOSE(A2:D3)</f>
         <v>43.143714904785156</v>
@@ -35951,7 +35951,7 @@
         <v>43.212192535400391</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>13.558567047119141</v>
       </c>
@@ -35959,7 +35959,7 @@
         <v>11.851516723632813</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7">
         <v>60.93011474609375</v>
       </c>
@@ -35967,7 +35967,7 @@
         <v>59.183235168457031</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8">
         <v>39.06988525390625</v>
       </c>
@@ -35988,12 +35988,12 @@
       <selection activeCell="J11" sqref="D1:J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="3" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -36004,7 +36004,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -36015,7 +36015,7 @@
         <v>0.25388079881668091</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -36026,7 +36026,7 @@
         <v>2.0232727527618408</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -36037,7 +36037,7 @@
         <v>9.1029796600341797</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -36048,7 +36048,7 @@
         <v>11.041122436523438</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -36059,7 +36059,7 @@
         <v>9.9916715621948242</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -36070,7 +36070,7 @@
         <v>5.8698410987854004</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>42</v>
       </c>
@@ -36094,12 +36094,12 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="5" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>104</v>
       </c>
@@ -36110,7 +36110,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -36121,7 +36121,7 @@
         <v>67202.416371067491</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -36132,7 +36132,7 @@
         <v>787270.34925542644</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -36143,7 +36143,7 @@
         <v>779973.5121953534</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -36154,7 +36154,7 @@
         <v>814482.35816799349</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -36165,7 +36165,7 @@
         <v>125527.26938996502</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -36176,7 +36176,7 @@
         <v>1642171.4537894891</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -36187,7 +36187,7 @@
         <v>989755.83394521778</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -36198,7 +36198,7 @@
         <v>288755.74917012738</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -36209,7 +36209,7 @@
         <v>752502.81948816648</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -36220,7 +36220,7 @@
         <v>449324.62158316554</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -36231,7 +36231,7 @@
         <v>1160584.4632263836</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>58</v>
       </c>
@@ -36242,7 +36242,7 @@
         <v>16200.510342027495</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -36266,12 +36266,12 @@
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="77.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>96</v>
       </c>
@@ -36291,7 +36291,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -36311,7 +36311,7 @@
         <v>0.47644460201263428</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -36331,7 +36331,7 @@
         <v>99.523551940917969</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>29</v>
       </c>
@@ -36348,7 +36348,7 @@
         <v>36.286857604980469</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -36365,7 +36365,7 @@
         <v>1.7243661880493164</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -36382,7 +36382,7 @@
         <v>13.061305046081543</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>31</v>
       </c>
@@ -36399,7 +36399,7 @@
         <v>6.7950811386108398</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>43</v>
       </c>
@@ -36416,7 +36416,7 @@
         <v>0.99360305070877075</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>44</v>
       </c>
@@ -36433,7 +36433,7 @@
         <v>1.3492658138275146</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -36450,7 +36450,7 @@
         <v>3.3316600322723389</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -36467,7 +36467,7 @@
         <v>0.70173227787017822</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>35</v>
       </c>
@@ -36484,7 +36484,7 @@
         <v>2.0295612812042236</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>97</v>
       </c>
@@ -36501,7 +36501,7 @@
         <v>0.77944755554199219</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>33</v>
       </c>
@@ -36531,13 +36531,13 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="40.7109375" style="28" customWidth="1"/>
     <col min="2" max="3" width="20.7109375" style="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" s="36" t="s">
         <v>78</v>
       </c>
@@ -36548,7 +36548,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" s="24" t="s">
         <v>79</v>
       </c>
@@ -36559,7 +36559,7 @@
         <v>446589.3902291847</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" s="24" t="s">
         <v>80</v>
       </c>
@@ -36570,7 +36570,7 @@
         <v>541531.125</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" s="24" t="s">
         <v>81</v>
       </c>
@@ -36581,7 +36581,7 @@
         <v>352540.57790204079</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" s="37" t="s">
         <v>82</v>
       </c>
@@ -36592,7 +36592,7 @@
         <v>3004.333251953125</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" s="24" t="s">
         <v>84</v>
       </c>
@@ -36600,7 +36600,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" s="24" t="s">
         <v>85</v>
       </c>
@@ -36608,7 +36608,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" s="24" t="s">
         <v>86</v>
       </c>
@@ -36616,22 +36616,22 @@
         <v>89</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12" s="24" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13" s="27">
         <v>185.75167846679688</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="A15" s="26" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3">
       <c r="A16" s="35">
         <v>178.95481872558594</v>
       </c>
@@ -36649,7 +36649,7 @@
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="32.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.140625" bestFit="1" customWidth="1"/>
@@ -36658,7 +36658,7 @@
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -36675,7 +36675,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>107</v>
       </c>
@@ -36692,7 +36692,7 @@
         <v>4.1487016677856445</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>73</v>
       </c>
@@ -36709,7 +36709,7 @@
         <v>20.300086975097656</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>74</v>
       </c>
@@ -36726,7 +36726,7 @@
         <v>70.465728759765625</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>109</v>
       </c>
@@ -36743,7 +36743,7 @@
         <v>3.8853487968444824</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>108</v>
       </c>
@@ -36767,14 +36767,14 @@
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="108.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>98</v>
       </c>
@@ -36785,7 +36785,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>93</v>
       </c>
@@ -36796,7 +36796,7 @@
         <v>2.2422564029693604</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>94</v>
       </c>
@@ -36807,7 +36807,7 @@
         <v>11.427674293518066</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>36</v>
       </c>
@@ -36818,7 +36818,7 @@
         <v>11.561286926269531</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>37</v>
       </c>
@@ -36829,7 +36829,7 @@
         <v>9.3214254379272461</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>38</v>
       </c>
@@ -36840,7 +36840,7 @@
         <v>14.338397979736328</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>39</v>
       </c>
@@ -36851,7 +36851,7 @@
         <v>3.8445436954498291</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>40</v>
       </c>
@@ -36862,7 +36862,7 @@
         <v>14.39907169342041</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>95</v>
       </c>
@@ -36873,7 +36873,7 @@
         <v>9.0919170379638672</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>41</v>
       </c>
@@ -36884,7 +36884,7 @@
         <v>22.958400726318359</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>110</v>
       </c>
@@ -36909,7 +36909,7 @@
       <selection activeCell="A10" sqref="A10:D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="109.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
@@ -36917,7 +36917,7 @@
     <col min="4" max="4" width="22.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>98</v>
       </c>
@@ -36931,7 +36931,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>93</v>
       </c>
@@ -36945,7 +36945,7 @@
         <v>54.357379913330078</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>94</v>
       </c>
@@ -36959,7 +36959,7 @@
         <v>51.661746978759766</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>36</v>
       </c>
@@ -36973,7 +36973,7 @@
         <v>55.860935211181641</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>37</v>
       </c>
@@ -36987,7 +36987,7 @@
         <v>53.409366607666016</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>38</v>
       </c>
@@ -37001,7 +37001,7 @@
         <v>68.309165954589844</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>39</v>
       </c>
@@ -37015,7 +37015,7 @@
         <v>50.662826538085938</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>40</v>
       </c>
@@ -37029,7 +37029,7 @@
         <v>36.718719482421875</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>95</v>
       </c>
@@ -37043,7 +37043,7 @@
         <v>62.308773040771484</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>41</v>
       </c>
@@ -37057,7 +37057,7 @@
         <v>41.832683563232422</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>110</v>
       </c>
@@ -37071,7 +37071,7 @@
         <v>96.468162536621094</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>72</v>
       </c>
@@ -37094,7 +37094,7 @@
         <v>269892.51849925</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>71</v>
       </c>
@@ -37121,7 +37121,7 @@
       <selection activeCell="E20" sqref="E20:E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="5.85546875" style="145" customWidth="1"/>
     <col min="2" max="2" width="10.42578125" style="145" customWidth="1"/>
@@ -37131,7 +37131,7 @@
     <col min="6" max="16384" width="9.140625" style="145"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="15.75">
       <c r="A1" s="214" t="s">
         <v>316</v>
       </c>
@@ -37143,13 +37143,13 @@
       <c r="H1" s="144"/>
       <c r="I1" s="169"/>
     </row>
-    <row r="2" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" ht="13.5" thickBot="1">
       <c r="A2" s="146"/>
       <c r="B2" s="146"/>
       <c r="C2" s="146"/>
       <c r="D2" s="146"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16">
       <c r="A3" s="147" t="s">
         <v>153</v>
       </c>
@@ -37167,7 +37167,7 @@
       <c r="O3" s="150"/>
       <c r="P3" s="150"/>
     </row>
-    <row r="4" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" ht="12.75" customHeight="1">
       <c r="A4" s="339">
         <f>'[1]Hoja 03'!A2</f>
         <v>2010</v>
@@ -37195,7 +37195,7 @@
       <c r="O4" s="150"/>
       <c r="P4" s="150"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16">
       <c r="A5" s="340"/>
       <c r="B5" s="164" t="str">
         <f>'[1]Hoja 03'!B3</f>
@@ -37220,7 +37220,7 @@
       <c r="O5" s="150"/>
       <c r="P5" s="150"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16">
       <c r="A6" s="340"/>
       <c r="B6" s="164" t="str">
         <f>'[1]Hoja 03'!B4</f>
@@ -37245,7 +37245,7 @@
       <c r="O6" s="150"/>
       <c r="P6" s="150"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16">
       <c r="A7" s="340"/>
       <c r="B7" s="164" t="str">
         <f>'[1]Hoja 03'!B5</f>
@@ -37270,7 +37270,7 @@
       <c r="O7" s="150"/>
       <c r="P7" s="150"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16">
       <c r="A8" s="340"/>
       <c r="B8" s="164" t="str">
         <f>'[1]Hoja 03'!B6</f>
@@ -37295,7 +37295,7 @@
       <c r="O8" s="150"/>
       <c r="P8" s="150"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16">
       <c r="A9" s="340"/>
       <c r="B9" s="164" t="str">
         <f>'[1]Hoja 03'!B7</f>
@@ -37320,7 +37320,7 @@
       <c r="O9" s="150"/>
       <c r="P9" s="150"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16">
       <c r="A10" s="340"/>
       <c r="B10" s="164" t="str">
         <f>'[1]Hoja 03'!B8</f>
@@ -37345,7 +37345,7 @@
       <c r="O10" s="150"/>
       <c r="P10" s="150"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16">
       <c r="A11" s="340"/>
       <c r="B11" s="164" t="str">
         <f>'[1]Hoja 03'!B9</f>
@@ -37370,7 +37370,7 @@
       <c r="O11" s="150"/>
       <c r="P11" s="150"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16">
       <c r="A12" s="340"/>
       <c r="B12" s="164" t="str">
         <f>'[1]Hoja 03'!B10</f>
@@ -37395,7 +37395,7 @@
       <c r="O12" s="150"/>
       <c r="P12" s="150"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16">
       <c r="A13" s="340"/>
       <c r="B13" s="164" t="str">
         <f>'[1]Hoja 03'!B11</f>
@@ -37420,7 +37420,7 @@
       <c r="O13" s="150"/>
       <c r="P13" s="150"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16">
       <c r="A14" s="341"/>
       <c r="B14" s="165" t="str">
         <f>'[1]Hoja 03'!B12</f>
@@ -37445,7 +37445,7 @@
       <c r="O14" s="150"/>
       <c r="P14" s="150"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16">
       <c r="A15" s="339">
         <f>'[1]Hoja 03'!A13</f>
         <v>2011</v>
@@ -37473,7 +37473,7 @@
       <c r="O15" s="150"/>
       <c r="P15" s="150"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16">
       <c r="A16" s="340"/>
       <c r="B16" s="164" t="str">
         <f>'[1]Hoja 03'!B14</f>
@@ -37498,7 +37498,7 @@
       <c r="O16" s="150"/>
       <c r="P16" s="150"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16">
       <c r="A17" s="340"/>
       <c r="B17" s="164" t="str">
         <f>'[1]Hoja 03'!B15</f>
@@ -37523,7 +37523,7 @@
       <c r="O17" s="150"/>
       <c r="P17" s="150"/>
     </row>
-    <row r="18" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" ht="12.75" customHeight="1">
       <c r="A18" s="340"/>
       <c r="B18" s="164" t="str">
         <f>'[1]Hoja 03'!B16</f>
@@ -37540,7 +37540,7 @@
       <c r="O18" s="150"/>
       <c r="P18" s="150"/>
     </row>
-    <row r="19" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" ht="15.75">
       <c r="A19" s="340"/>
       <c r="B19" s="164" t="str">
         <f>'[1]Hoja 03'!B17</f>
@@ -37564,7 +37564,7 @@
       <c r="O19" s="150"/>
       <c r="P19" s="150"/>
     </row>
-    <row r="20" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" ht="15.75">
       <c r="A20" s="340"/>
       <c r="B20" s="164" t="str">
         <f>'[1]Hoja 03'!B18</f>
@@ -37590,7 +37590,7 @@
       <c r="O20" s="150"/>
       <c r="P20" s="150"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16">
       <c r="A21" s="340"/>
       <c r="B21" s="164" t="str">
         <f>'[1]Hoja 03'!B19</f>
@@ -37617,7 +37617,7 @@
       <c r="O21" s="150"/>
       <c r="P21" s="150"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16">
       <c r="A22" s="340"/>
       <c r="B22" s="164" t="str">
         <f>'[1]Hoja 03'!B20</f>
@@ -37642,7 +37642,7 @@
       <c r="O22" s="150"/>
       <c r="P22" s="150"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16">
       <c r="A23" s="340"/>
       <c r="B23" s="164" t="str">
         <f>'[1]Hoja 03'!B21</f>
@@ -37667,7 +37667,7 @@
       <c r="O23" s="150"/>
       <c r="P23" s="150"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16">
       <c r="A24" s="340"/>
       <c r="B24" s="164" t="str">
         <f>'[1]Hoja 03'!B22</f>
@@ -37692,7 +37692,7 @@
       <c r="O24" s="150"/>
       <c r="P24" s="150"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16">
       <c r="A25" s="340"/>
       <c r="B25" s="164" t="str">
         <f>'[1]Hoja 03'!B23</f>
@@ -37717,7 +37717,7 @@
       <c r="O25" s="150"/>
       <c r="P25" s="150"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16">
       <c r="A26" s="341"/>
       <c r="B26" s="165" t="str">
         <f>'[1]Hoja 03'!B24</f>
@@ -37740,7 +37740,7 @@
       <c r="M26" s="150"/>
       <c r="N26" s="150"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16">
       <c r="A27" s="339">
         <f>'[1]Hoja 03'!A25</f>
         <v>2012</v>
@@ -37758,7 +37758,7 @@
       <c r="E27" s="267"/>
       <c r="F27" s="267"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16">
       <c r="A28" s="340"/>
       <c r="B28" s="164" t="str">
         <f>'[1]Hoja 03'!B26</f>
@@ -37773,7 +37773,7 @@
       <c r="E28" s="267"/>
       <c r="F28" s="267"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16">
       <c r="A29" s="340"/>
       <c r="B29" s="164" t="str">
         <f>'[1]Hoja 03'!B27</f>
@@ -37788,7 +37788,7 @@
       <c r="E29" s="267"/>
       <c r="F29" s="267"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16">
       <c r="A30" s="340"/>
       <c r="B30" s="164" t="str">
         <f>'[1]Hoja 03'!B28</f>
@@ -37803,7 +37803,7 @@
       <c r="E30" s="267"/>
       <c r="F30" s="267"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16">
       <c r="A31" s="340"/>
       <c r="B31" s="164" t="str">
         <f>'[1]Hoja 03'!B29</f>
@@ -37818,7 +37818,7 @@
       <c r="E31" s="267"/>
       <c r="F31" s="267"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16">
       <c r="A32" s="340"/>
       <c r="B32" s="164" t="str">
         <f>'[1]Hoja 03'!B30</f>
@@ -37833,7 +37833,7 @@
       <c r="E32" s="267"/>
       <c r="F32" s="267"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6">
       <c r="A33" s="340"/>
       <c r="B33" s="164" t="str">
         <f>'[1]Hoja 03'!B31</f>
@@ -37848,7 +37848,7 @@
       <c r="E33" s="267"/>
       <c r="F33" s="267"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6">
       <c r="A34" s="340"/>
       <c r="B34" s="164" t="str">
         <f>'[1]Hoja 03'!B32</f>
@@ -37863,7 +37863,7 @@
       <c r="E34" s="267"/>
       <c r="F34" s="267"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6">
       <c r="A35" s="340"/>
       <c r="B35" s="164" t="str">
         <f>'[1]Hoja 03'!B33</f>
@@ -37878,7 +37878,7 @@
       <c r="E35" s="267"/>
       <c r="F35" s="267"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6">
       <c r="A36" s="340"/>
       <c r="B36" s="164" t="str">
         <f>'[1]Hoja 03'!B34</f>
@@ -37893,7 +37893,7 @@
       <c r="E36" s="267"/>
       <c r="F36" s="267"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6">
       <c r="A37" s="340"/>
       <c r="B37" s="164" t="str">
         <f>'[1]Hoja 03'!B35</f>
@@ -37908,7 +37908,7 @@
       <c r="E37" s="267"/>
       <c r="F37" s="267"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6">
       <c r="A38" s="341"/>
       <c r="B38" s="165" t="str">
         <f>'[1]Hoja 03'!B36</f>
@@ -37923,7 +37923,7 @@
       <c r="E38" s="267"/>
       <c r="F38" s="267"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6">
       <c r="A39" s="339">
         <f>'[1]Hoja 03'!A37</f>
         <v>2013</v>
@@ -37941,7 +37941,7 @@
       <c r="E39" s="267"/>
       <c r="F39" s="267"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6">
       <c r="A40" s="340"/>
       <c r="B40" s="164" t="str">
         <f>'[1]Hoja 03'!B38</f>
@@ -37956,7 +37956,7 @@
       <c r="E40" s="267"/>
       <c r="F40" s="267"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6">
       <c r="A41" s="340"/>
       <c r="B41" s="164" t="str">
         <f>'[1]Hoja 03'!B39</f>
@@ -37971,7 +37971,7 @@
       <c r="E41" s="267"/>
       <c r="F41" s="267"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6">
       <c r="A42" s="340"/>
       <c r="B42" s="164" t="str">
         <f>'[1]Hoja 03'!B40</f>
@@ -37986,7 +37986,7 @@
       <c r="E42" s="267"/>
       <c r="F42" s="267"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6">
       <c r="A43" s="340"/>
       <c r="B43" s="164" t="str">
         <f>'[1]Hoja 03'!B41</f>
@@ -38001,7 +38001,7 @@
       <c r="E43" s="267"/>
       <c r="F43" s="267"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6">
       <c r="A44" s="340"/>
       <c r="B44" s="164" t="str">
         <f>'[1]Hoja 03'!B42</f>
@@ -38016,7 +38016,7 @@
       <c r="E44" s="267"/>
       <c r="F44" s="267"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6">
       <c r="A45" s="340"/>
       <c r="B45" s="164" t="str">
         <f>'[1]Hoja 03'!B43</f>
@@ -38031,7 +38031,7 @@
       <c r="E45" s="267"/>
       <c r="F45" s="267"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6">
       <c r="A46" s="340"/>
       <c r="B46" s="164" t="str">
         <f>'[1]Hoja 03'!B44</f>
@@ -38046,7 +38046,7 @@
       <c r="E46" s="267"/>
       <c r="F46" s="267"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6">
       <c r="A47" s="340"/>
       <c r="B47" s="164" t="str">
         <f>'[1]Hoja 03'!B45</f>
@@ -38061,7 +38061,7 @@
       <c r="E47" s="267"/>
       <c r="F47" s="267"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6">
       <c r="A48" s="340"/>
       <c r="B48" s="164" t="str">
         <f>'[1]Hoja 03'!B46</f>
@@ -38076,7 +38076,7 @@
       <c r="E48" s="267"/>
       <c r="F48" s="267"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6">
       <c r="A49" s="340"/>
       <c r="B49" s="164" t="str">
         <f>'[1]Hoja 03'!B47</f>
@@ -38091,7 +38091,7 @@
       <c r="E49" s="267"/>
       <c r="F49" s="267"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6">
       <c r="A50" s="341"/>
       <c r="B50" s="165" t="str">
         <f>'[1]Hoja 03'!B48</f>
@@ -38106,7 +38106,7 @@
       <c r="E50" s="267"/>
       <c r="F50" s="267"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6">
       <c r="A51" s="339">
         <f>'[1]Hoja 03'!A49</f>
         <v>2014</v>
@@ -38124,7 +38124,7 @@
       <c r="E51" s="267"/>
       <c r="F51" s="267"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6">
       <c r="A52" s="340"/>
       <c r="B52" s="164" t="str">
         <f>'[1]Hoja 03'!B50</f>
@@ -38139,7 +38139,7 @@
       <c r="E52" s="267"/>
       <c r="F52" s="267"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6">
       <c r="A53" s="340"/>
       <c r="B53" s="164" t="str">
         <f>'[1]Hoja 03'!B51</f>
@@ -38154,7 +38154,7 @@
       <c r="E53" s="267"/>
       <c r="F53" s="267"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6">
       <c r="A54" s="340"/>
       <c r="B54" s="164" t="str">
         <f>'[1]Hoja 03'!B52</f>
@@ -38169,7 +38169,7 @@
       <c r="E54" s="267"/>
       <c r="F54" s="267"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6">
       <c r="A55" s="340"/>
       <c r="B55" s="164" t="str">
         <f>'[1]Hoja 03'!B53</f>
@@ -38184,7 +38184,7 @@
       <c r="E55" s="267"/>
       <c r="F55" s="267"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6">
       <c r="A56" s="340"/>
       <c r="B56" s="164" t="str">
         <f>'[1]Hoja 03'!B54</f>
@@ -38199,7 +38199,7 @@
       <c r="E56" s="267"/>
       <c r="F56" s="267"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6">
       <c r="A57" s="340"/>
       <c r="B57" s="164" t="str">
         <f>'[1]Hoja 03'!B55</f>
@@ -38214,7 +38214,7 @@
       <c r="E57" s="267"/>
       <c r="F57" s="267"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6">
       <c r="A58" s="340"/>
       <c r="B58" s="164" t="str">
         <f>'[1]Hoja 03'!B56</f>
@@ -38229,7 +38229,7 @@
       <c r="E58" s="267"/>
       <c r="F58" s="267"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6">
       <c r="A59" s="340"/>
       <c r="B59" s="164" t="str">
         <f>'[1]Hoja 03'!B57</f>
@@ -38244,7 +38244,7 @@
       <c r="E59" s="267"/>
       <c r="F59" s="267"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6">
       <c r="A60" s="340"/>
       <c r="B60" s="164" t="str">
         <f>'[1]Hoja 03'!B58</f>
@@ -38259,7 +38259,7 @@
       <c r="E60" s="267"/>
       <c r="F60" s="267"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6">
       <c r="A61" s="340"/>
       <c r="B61" s="164" t="str">
         <f>'[1]Hoja 03'!B59</f>
@@ -38274,7 +38274,7 @@
       <c r="E61" s="267"/>
       <c r="F61" s="267"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6">
       <c r="A62" s="341"/>
       <c r="B62" s="165" t="str">
         <f>'[1]Hoja 03'!B60</f>
@@ -38289,7 +38289,7 @@
       <c r="E62" s="267"/>
       <c r="F62" s="267"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6">
       <c r="A63" s="339">
         <f>'[1]Hoja 03'!A61</f>
         <v>2015</v>
@@ -38307,7 +38307,7 @@
       <c r="E63" s="267"/>
       <c r="F63" s="267"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6">
       <c r="A64" s="340"/>
       <c r="B64" s="164" t="str">
         <f>'[1]Hoja 03'!B62</f>
@@ -38322,7 +38322,7 @@
       <c r="E64" s="267"/>
       <c r="F64" s="267"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6">
       <c r="A65" s="340"/>
       <c r="B65" s="164" t="str">
         <f>'[1]Hoja 03'!B63</f>
@@ -38337,7 +38337,7 @@
       <c r="E65" s="267"/>
       <c r="F65" s="267"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6">
       <c r="A66" s="340"/>
       <c r="B66" s="164" t="str">
         <f>'[1]Hoja 03'!B64</f>
@@ -38352,7 +38352,7 @@
       <c r="E66" s="267"/>
       <c r="F66" s="267"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6">
       <c r="A67" s="340"/>
       <c r="B67" s="164" t="str">
         <f>'[1]Hoja 03'!B65</f>
@@ -38367,7 +38367,7 @@
       <c r="E67" s="267"/>
       <c r="F67" s="267"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6">
       <c r="A68" s="340"/>
       <c r="B68" s="164" t="str">
         <f>'[1]Hoja 03'!B66</f>
@@ -38382,7 +38382,7 @@
       <c r="E68" s="267"/>
       <c r="F68" s="267"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6">
       <c r="A69" s="340"/>
       <c r="B69" s="164" t="str">
         <f>'[1]Hoja 03'!B67</f>
@@ -38397,7 +38397,7 @@
       <c r="E69" s="267"/>
       <c r="F69" s="267"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6">
       <c r="A70" s="340"/>
       <c r="B70" s="164" t="str">
         <f>'[1]Hoja 03'!B68</f>
@@ -38412,7 +38412,7 @@
       <c r="E70" s="267"/>
       <c r="F70" s="267"/>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6">
       <c r="A71" s="340"/>
       <c r="B71" s="164" t="str">
         <f>'[1]Hoja 03'!B69</f>
@@ -38427,7 +38427,7 @@
       <c r="E71" s="267"/>
       <c r="F71" s="267"/>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6">
       <c r="A72" s="340"/>
       <c r="B72" s="164" t="str">
         <f>'[1]Hoja 03'!B70</f>
@@ -38442,7 +38442,7 @@
       <c r="E72" s="267"/>
       <c r="F72" s="267"/>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6">
       <c r="A73" s="340"/>
       <c r="B73" s="164" t="str">
         <f>'[1]Hoja 03'!B71</f>
@@ -38457,7 +38457,7 @@
       <c r="E73" s="267"/>
       <c r="F73" s="267"/>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6">
       <c r="C74" s="170"/>
       <c r="D74" s="170"/>
       <c r="E74" s="170"/>
@@ -38482,7 +38482,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="25.42578125" style="145" customWidth="1"/>
     <col min="2" max="2" width="8" style="145" customWidth="1"/>
@@ -38493,7 +38493,7 @@
     <col min="9" max="16384" width="9.140625" style="145"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" ht="15.75">
       <c r="A1" s="214" t="s">
         <v>317</v>
       </c>
@@ -38505,12 +38505,12 @@
       <c r="H1" s="144"/>
       <c r="I1" s="144"/>
     </row>
-    <row r="2" spans="1:24" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" ht="13.5" thickBot="1">
       <c r="A2" s="146"/>
       <c r="B2" s="146"/>
       <c r="C2" s="146"/>
     </row>
-    <row r="3" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24" ht="12.75" customHeight="1">
       <c r="A3" s="171" t="s">
         <v>11</v>
       </c>
@@ -38522,7 +38522,7 @@
       </c>
       <c r="O3" s="149"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24">
       <c r="A4" s="172" t="s">
         <v>28</v>
       </c>
@@ -38535,7 +38535,7 @@
       <c r="D4" s="267"/>
       <c r="E4" s="267"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24">
       <c r="A5" s="172" t="s">
         <v>12</v>
       </c>
@@ -38548,7 +38548,7 @@
       <c r="D5" s="267"/>
       <c r="E5" s="267"/>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24">
       <c r="A6" s="172" t="s">
         <v>29</v>
       </c>
@@ -38561,7 +38561,7 @@
       <c r="D6" s="267"/>
       <c r="E6" s="267"/>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24">
       <c r="A7" s="172" t="s">
         <v>13</v>
       </c>
@@ -38574,7 +38574,7 @@
       <c r="D7" s="267"/>
       <c r="E7" s="267"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24">
       <c r="A8" s="172" t="s">
         <v>30</v>
       </c>
@@ -38587,7 +38587,7 @@
       <c r="D8" s="267"/>
       <c r="E8" s="267"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24">
       <c r="A9" s="172" t="s">
         <v>31</v>
       </c>
@@ -38609,7 +38609,7 @@
       <c r="W9" s="343"/>
       <c r="X9" s="343"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24">
       <c r="A10" s="172" t="s">
         <v>43</v>
       </c>
@@ -38622,7 +38622,7 @@
       <c r="D10" s="267"/>
       <c r="E10" s="267"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24">
       <c r="A11" s="172" t="s">
         <v>44</v>
       </c>
@@ -38635,7 +38635,7 @@
       <c r="D11" s="267"/>
       <c r="E11" s="267"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:24">
       <c r="A12" s="172" t="s">
         <v>14</v>
       </c>
@@ -38648,7 +38648,7 @@
       <c r="D12" s="267"/>
       <c r="E12" s="267"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24">
       <c r="A13" s="172" t="s">
         <v>32</v>
       </c>
@@ -38661,7 +38661,7 @@
       <c r="D13" s="267"/>
       <c r="E13" s="267"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:24">
       <c r="A14" s="172" t="s">
         <v>319</v>
       </c>
@@ -38674,7 +38674,7 @@
       <c r="D14" s="267"/>
       <c r="E14" s="267"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24">
       <c r="A15" s="172" t="s">
         <v>320</v>
       </c>
@@ -38687,7 +38687,7 @@
       <c r="D15" s="267"/>
       <c r="E15" s="267"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24">
       <c r="A16" s="172" t="s">
         <v>97</v>
       </c>
@@ -38700,7 +38700,7 @@
       <c r="D16" s="267"/>
       <c r="E16" s="267"/>
     </row>
-    <row r="17" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" ht="13.5" thickBot="1">
       <c r="A17" s="173" t="s">
         <v>33</v>
       </c>
@@ -38713,14 +38713,14 @@
       <c r="D17" s="267"/>
       <c r="E17" s="267"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15">
       <c r="B18" s="170"/>
       <c r="C18" s="170"/>
     </row>
-    <row r="20" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" ht="12.75" customHeight="1">
       <c r="A20" s="214"/>
     </row>
-    <row r="23" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" ht="12.75" customHeight="1">
       <c r="E23" s="143" t="s">
         <v>240</v>
       </c>
@@ -38735,7 +38735,7 @@
       <c r="N23" s="144"/>
       <c r="O23" s="158"/>
     </row>
-    <row r="24" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15" ht="12.75" customHeight="1">
       <c r="E24" s="157" t="s">
         <v>241</v>
       </c>
@@ -38749,7 +38749,7 @@
       <c r="M24" s="174"/>
       <c r="N24" s="175"/>
     </row>
-    <row r="25" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15" ht="12.75" customHeight="1">
       <c r="E25" s="157" t="s">
         <v>383</v>
       </c>
@@ -38763,7 +38763,7 @@
       <c r="M25" s="174"/>
       <c r="N25" s="175"/>
     </row>
-    <row r="26" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15" ht="12.75" customHeight="1">
       <c r="E26" s="157" t="s">
         <v>242</v>
       </c>
@@ -38795,14 +38795,14 @@
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="47.7109375" style="145" customWidth="1"/>
     <col min="2" max="3" width="25.7109375" style="145" customWidth="1"/>
     <col min="4" max="16384" width="9.140625" style="145"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="15.75">
       <c r="A1" s="214" t="s">
         <v>384</v>
       </c>
@@ -38819,7 +38819,7 @@
       <c r="M1" s="150"/>
       <c r="N1" s="150"/>
     </row>
-    <row r="2" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="13.5" thickBot="1">
       <c r="A2" s="146"/>
       <c r="B2" s="146"/>
       <c r="C2" s="146"/>
@@ -38828,7 +38828,7 @@
       <c r="M2" s="150"/>
       <c r="N2" s="150"/>
     </row>
-    <row r="3" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" ht="25.5" customHeight="1">
       <c r="A3" s="171" t="s">
         <v>243</v>
       </c>
@@ -38840,7 +38840,7 @@
       </c>
       <c r="E3" s="150"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14">
       <c r="A4" s="172" t="s">
         <v>154</v>
       </c>
@@ -38860,7 +38860,7 @@
       <c r="M4" s="150"/>
       <c r="N4" s="150"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14">
       <c r="A5" s="172" t="s">
         <v>155</v>
       </c>
@@ -38880,7 +38880,7 @@
       <c r="M5" s="150"/>
       <c r="N5" s="150"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14">
       <c r="A6" s="172" t="s">
         <v>156</v>
       </c>
@@ -38900,7 +38900,7 @@
       <c r="M6" s="150"/>
       <c r="N6" s="150"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14">
       <c r="A7" s="172" t="s">
         <v>157</v>
       </c>
@@ -38920,7 +38920,7 @@
       <c r="M7" s="150"/>
       <c r="N7" s="150"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14">
       <c r="A8" s="172" t="s">
         <v>158</v>
       </c>
@@ -38940,7 +38940,7 @@
       <c r="M8" s="150"/>
       <c r="N8" s="150"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14">
       <c r="A9" s="172" t="s">
         <v>159</v>
       </c>
@@ -38960,7 +38960,7 @@
       <c r="M9" s="150"/>
       <c r="N9" s="150"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14">
       <c r="A10" s="172" t="s">
         <v>321</v>
       </c>
@@ -38980,7 +38980,7 @@
       <c r="M10" s="150"/>
       <c r="N10" s="150"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14">
       <c r="A11" s="172" t="s">
         <v>322</v>
       </c>
@@ -39000,7 +39000,7 @@
       <c r="M11" s="150"/>
       <c r="N11" s="150"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14">
       <c r="A12" s="172" t="s">
         <v>164</v>
       </c>
@@ -39020,7 +39020,7 @@
       <c r="M12" s="150"/>
       <c r="N12" s="150"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14">
       <c r="A13" s="172" t="s">
         <v>165</v>
       </c>
@@ -39040,7 +39040,7 @@
       <c r="M13" s="150"/>
       <c r="N13" s="150"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14">
       <c r="A14" s="172" t="s">
         <v>160</v>
       </c>
@@ -39060,7 +39060,7 @@
       <c r="M14" s="150"/>
       <c r="N14" s="150"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14">
       <c r="A15" s="172" t="s">
         <v>161</v>
       </c>
@@ -39080,7 +39080,7 @@
       <c r="M15" s="150"/>
       <c r="N15" s="150"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14">
       <c r="A16" s="172" t="s">
         <v>162</v>
       </c>
@@ -39091,7 +39091,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14">
       <c r="A17" s="172" t="s">
         <v>292</v>
       </c>
@@ -39102,7 +39102,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" ht="13.5" thickBot="1">
       <c r="A18" s="173" t="s">
         <v>323</v>
       </c>
@@ -39113,25 +39113,25 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14">
       <c r="B19" s="308"/>
       <c r="C19" s="308"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14">
       <c r="C28" s="177"/>
     </row>
-    <row r="29" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14" ht="12.75" customHeight="1">
       <c r="C29" s="177"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14">
       <c r="C30" s="177"/>
       <c r="N30" s="150"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14">
       <c r="C31" s="177"/>
       <c r="N31" s="150"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14">
       <c r="C32" s="177"/>
       <c r="G32" s="150"/>
       <c r="H32" s="150"/>
@@ -39142,7 +39142,7 @@
       <c r="M32" s="150"/>
       <c r="N32" s="150"/>
     </row>
-    <row r="33" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:14" ht="15.75">
       <c r="C33" s="177"/>
       <c r="E33" s="178" t="s">
         <v>244</v>
@@ -39157,7 +39157,7 @@
       <c r="M33" s="144"/>
       <c r="N33" s="150"/>
     </row>
-    <row r="34" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:14" ht="15.75">
       <c r="C34" s="177"/>
       <c r="E34" s="158" t="s">
         <v>245</v>
@@ -39172,7 +39172,7 @@
       <c r="M34" s="144"/>
       <c r="N34" s="150"/>
     </row>
-    <row r="35" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="35" spans="3:14">
       <c r="C35" s="177"/>
       <c r="E35" s="158" t="s">
         <v>246</v>
@@ -39187,7 +39187,7 @@
       <c r="M35" s="159"/>
       <c r="N35" s="150"/>
     </row>
-    <row r="36" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="36" spans="3:14">
       <c r="C36" s="177"/>
       <c r="F36" s="159"/>
       <c r="G36" s="159"/>
@@ -39199,7 +39199,7 @@
       <c r="M36" s="159"/>
       <c r="N36" s="179"/>
     </row>
-    <row r="37" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="3:14">
       <c r="C37" s="177"/>
       <c r="E37" s="180"/>
       <c r="F37" s="344"/>
@@ -39212,7 +39212,7 @@
       <c r="M37" s="344"/>
       <c r="N37" s="344"/>
     </row>
-    <row r="38" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:14" ht="15.75">
       <c r="C38" s="177"/>
       <c r="E38" s="178"/>
       <c r="F38" s="150"/>
@@ -39225,7 +39225,7 @@
       <c r="M38" s="150"/>
       <c r="N38" s="150"/>
     </row>
-    <row r="39" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="3:14">
       <c r="C39" s="177"/>
       <c r="E39" s="150"/>
       <c r="F39" s="150"/>
@@ -39238,7 +39238,7 @@
       <c r="M39" s="150"/>
       <c r="N39" s="150"/>
     </row>
-    <row r="40" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="40" spans="3:14">
       <c r="C40" s="177"/>
       <c r="E40" s="150"/>
       <c r="F40" s="150"/>
@@ -39251,172 +39251,172 @@
       <c r="M40" s="150"/>
       <c r="N40" s="150"/>
     </row>
-    <row r="41" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="41" spans="3:14">
       <c r="C41" s="177"/>
       <c r="K41" s="150"/>
       <c r="L41" s="150"/>
       <c r="M41" s="150"/>
       <c r="N41" s="150"/>
     </row>
-    <row r="42" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="3:14">
       <c r="C42" s="177"/>
       <c r="K42" s="150"/>
       <c r="L42" s="150"/>
       <c r="M42" s="150"/>
       <c r="N42" s="150"/>
     </row>
-    <row r="43" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="43" spans="3:14">
       <c r="C43" s="177"/>
       <c r="K43" s="150"/>
       <c r="L43" s="150"/>
       <c r="M43" s="150"/>
       <c r="N43" s="150"/>
     </row>
-    <row r="44" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="3:14">
       <c r="K44" s="150"/>
       <c r="L44" s="150"/>
       <c r="M44" s="150"/>
       <c r="N44" s="150"/>
     </row>
-    <row r="45" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="3:14">
       <c r="K45" s="150"/>
       <c r="L45" s="150"/>
       <c r="M45" s="150"/>
       <c r="N45" s="150"/>
     </row>
-    <row r="46" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="3:14">
       <c r="K46" s="150"/>
       <c r="L46" s="150"/>
       <c r="M46" s="150"/>
       <c r="N46" s="150"/>
     </row>
-    <row r="47" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="3:14">
       <c r="K47" s="150"/>
       <c r="L47" s="150"/>
       <c r="M47" s="150"/>
       <c r="N47" s="150"/>
     </row>
-    <row r="48" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="48" spans="3:14">
       <c r="K48" s="150"/>
       <c r="L48" s="150"/>
       <c r="M48" s="150"/>
       <c r="N48" s="150"/>
     </row>
-    <row r="49" spans="11:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="11:14">
       <c r="K49" s="150"/>
       <c r="L49" s="150"/>
       <c r="M49" s="150"/>
       <c r="N49" s="150"/>
     </row>
-    <row r="50" spans="11:14" x14ac:dyDescent="0.2">
+    <row r="50" spans="11:14">
       <c r="K50" s="150"/>
       <c r="L50" s="150"/>
       <c r="M50" s="150"/>
       <c r="N50" s="150"/>
     </row>
-    <row r="51" spans="11:14" x14ac:dyDescent="0.2">
+    <row r="51" spans="11:14">
       <c r="K51" s="150"/>
       <c r="L51" s="150"/>
       <c r="M51" s="150"/>
       <c r="N51" s="150"/>
     </row>
-    <row r="52" spans="11:14" x14ac:dyDescent="0.2">
+    <row r="52" spans="11:14">
       <c r="K52" s="150"/>
       <c r="L52" s="150"/>
       <c r="M52" s="150"/>
       <c r="N52" s="150"/>
     </row>
-    <row r="53" spans="11:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="11:14">
       <c r="K53" s="150"/>
       <c r="L53" s="150"/>
       <c r="M53" s="150"/>
       <c r="N53" s="150"/>
     </row>
-    <row r="54" spans="11:14" x14ac:dyDescent="0.2">
+    <row r="54" spans="11:14">
       <c r="K54" s="150"/>
       <c r="L54" s="150"/>
       <c r="M54" s="150"/>
       <c r="N54" s="150"/>
     </row>
-    <row r="55" spans="11:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="11:14">
       <c r="K55" s="150"/>
       <c r="L55" s="150"/>
       <c r="M55" s="150"/>
       <c r="N55" s="150"/>
     </row>
-    <row r="56" spans="11:14" x14ac:dyDescent="0.2">
+    <row r="56" spans="11:14">
       <c r="K56" s="150"/>
       <c r="L56" s="150"/>
       <c r="M56" s="150"/>
       <c r="N56" s="150"/>
     </row>
-    <row r="57" spans="11:14" x14ac:dyDescent="0.2">
+    <row r="57" spans="11:14">
       <c r="K57" s="150"/>
       <c r="L57" s="150"/>
       <c r="M57" s="150"/>
       <c r="N57" s="150"/>
     </row>
-    <row r="58" spans="11:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="11:14">
       <c r="K58" s="150"/>
       <c r="L58" s="150"/>
       <c r="M58" s="150"/>
       <c r="N58" s="150"/>
     </row>
-    <row r="59" spans="11:14" x14ac:dyDescent="0.2">
+    <row r="59" spans="11:14">
       <c r="K59" s="150"/>
       <c r="L59" s="150"/>
       <c r="M59" s="150"/>
       <c r="N59" s="150"/>
     </row>
-    <row r="60" spans="11:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="11:14">
       <c r="K60" s="150"/>
       <c r="L60" s="150"/>
       <c r="M60" s="150"/>
       <c r="N60" s="150"/>
     </row>
-    <row r="61" spans="11:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="11:14">
       <c r="K61" s="150"/>
       <c r="L61" s="150"/>
       <c r="M61" s="150"/>
       <c r="N61" s="150"/>
     </row>
-    <row r="62" spans="11:14" x14ac:dyDescent="0.2">
+    <row r="62" spans="11:14">
       <c r="K62" s="150"/>
       <c r="L62" s="150"/>
       <c r="M62" s="150"/>
       <c r="N62" s="150"/>
     </row>
-    <row r="63" spans="11:14" x14ac:dyDescent="0.2">
+    <row r="63" spans="11:14">
       <c r="K63" s="150"/>
       <c r="L63" s="150"/>
       <c r="M63" s="150"/>
       <c r="N63" s="150"/>
     </row>
-    <row r="64" spans="11:14" x14ac:dyDescent="0.2">
+    <row r="64" spans="11:14">
       <c r="K64" s="150"/>
       <c r="L64" s="150"/>
       <c r="M64" s="150"/>
       <c r="N64" s="150"/>
     </row>
-    <row r="65" spans="11:14" x14ac:dyDescent="0.2">
+    <row r="65" spans="11:14">
       <c r="K65" s="150"/>
       <c r="L65" s="150"/>
       <c r="M65" s="150"/>
       <c r="N65" s="150"/>
     </row>
-    <row r="66" spans="11:14" x14ac:dyDescent="0.2">
+    <row r="66" spans="11:14">
       <c r="K66" s="150"/>
       <c r="L66" s="150"/>
       <c r="M66" s="150"/>
       <c r="N66" s="150"/>
     </row>
-    <row r="67" spans="11:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="11:14">
       <c r="K67" s="150"/>
       <c r="L67" s="150"/>
       <c r="M67" s="150"/>
       <c r="N67" s="150"/>
     </row>
-    <row r="68" spans="11:14" x14ac:dyDescent="0.2">
+    <row r="68" spans="11:14">
       <c r="K68" s="150"/>
       <c r="L68" s="150"/>
       <c r="M68" s="150"/>
@@ -39440,14 +39440,14 @@
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="47.85546875" style="145" customWidth="1"/>
     <col min="2" max="3" width="25.7109375" style="145" customWidth="1"/>
     <col min="4" max="16384" width="9.140625" style="145"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="15.75">
       <c r="A1" s="214" t="s">
         <v>388</v>
       </c>
@@ -39461,12 +39461,12 @@
       <c r="I1" s="144"/>
       <c r="J1" s="144"/>
     </row>
-    <row r="2" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="13.5" thickBot="1">
       <c r="A2" s="146"/>
       <c r="B2" s="146"/>
       <c r="C2" s="146"/>
     </row>
-    <row r="3" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="25.5" customHeight="1">
       <c r="A3" s="181" t="s">
         <v>243</v>
       </c>
@@ -39477,7 +39477,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10">
       <c r="A4" s="172" t="s">
         <v>154</v>
       </c>
@@ -39488,7 +39488,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10">
       <c r="A5" s="172" t="s">
         <v>155</v>
       </c>
@@ -39499,7 +39499,7 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10">
       <c r="A6" s="172" t="s">
         <v>156</v>
       </c>
@@ -39510,7 +39510,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10">
       <c r="A7" s="172" t="s">
         <v>157</v>
       </c>
@@ -39521,7 +39521,7 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="12.75" customHeight="1">
       <c r="A8" s="172" t="s">
         <v>158</v>
       </c>
@@ -39532,7 +39532,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10">
       <c r="A9" s="172" t="s">
         <v>159</v>
       </c>
@@ -39543,7 +39543,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10">
       <c r="A10" s="172" t="s">
         <v>321</v>
       </c>
@@ -39554,7 +39554,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10">
       <c r="A11" s="172" t="s">
         <v>324</v>
       </c>
@@ -39565,7 +39565,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10">
       <c r="A12" s="172" t="s">
         <v>164</v>
       </c>
@@ -39576,7 +39576,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10">
       <c r="A13" s="172" t="s">
         <v>165</v>
       </c>
@@ -39587,7 +39587,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10">
       <c r="A14" s="172" t="s">
         <v>160</v>
       </c>
@@ -39598,7 +39598,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10">
       <c r="A15" s="172" t="s">
         <v>161</v>
       </c>
@@ -39609,7 +39609,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10">
       <c r="A16" s="172" t="s">
         <v>162</v>
       </c>
@@ -39620,7 +39620,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3">
       <c r="A17" s="172" t="s">
         <v>292</v>
       </c>
@@ -39631,7 +39631,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="13.5" thickBot="1">
       <c r="A18" s="173" t="s">
         <v>323</v>
       </c>
@@ -39642,12 +39642,12 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3">
       <c r="B19" s="183"/>
       <c r="C19" s="183"/>
     </row>
-    <row r="28" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" spans="5:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" ht="12.75" customHeight="1"/>
+    <row r="33" spans="5:14" ht="15.75">
       <c r="E33" s="184" t="s">
         <v>249</v>
       </c>
@@ -39661,7 +39661,7 @@
       <c r="M33" s="144"/>
       <c r="N33" s="144"/>
     </row>
-    <row r="34" spans="5:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="5:14">
       <c r="E34" s="158" t="s">
         <v>245</v>
       </c>
@@ -39675,7 +39675,7 @@
       <c r="M34" s="159"/>
       <c r="N34" s="159"/>
     </row>
-    <row r="35" spans="5:14" x14ac:dyDescent="0.2">
+    <row r="35" spans="5:14">
       <c r="E35" s="158" t="s">
         <v>250</v>
       </c>
@@ -39689,7 +39689,7 @@
       <c r="M35" s="159"/>
       <c r="N35" s="159"/>
     </row>
-    <row r="37" spans="5:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="5:14" ht="15.75">
       <c r="E37" s="184" t="s">
         <v>251</v>
       </c>
@@ -39704,11 +39704,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P75"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="5.85546875" style="145" customWidth="1"/>
     <col min="2" max="2" width="10.42578125" style="145" customWidth="1"/>
@@ -39717,7 +39717,7 @@
     <col min="5" max="16384" width="9.140625" style="145"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="15.75">
       <c r="A1" s="214" t="s">
         <v>318</v>
       </c>
@@ -39730,7 +39730,7 @@
       <c r="H1" s="144"/>
       <c r="I1" s="144"/>
     </row>
-    <row r="2" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" ht="13.5" thickBot="1">
       <c r="A2" s="146"/>
       <c r="B2" s="146"/>
       <c r="C2" s="146"/>
@@ -39747,7 +39747,7 @@
       <c r="O2" s="150"/>
       <c r="P2" s="150"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16">
       <c r="A3" s="147" t="s">
         <v>153</v>
       </c>
@@ -39763,7 +39763,7 @@
       <c r="F3" s="150"/>
       <c r="P3" s="150"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16">
       <c r="A4" s="339">
         <v>2010</v>
       </c>
@@ -39789,7 +39789,7 @@
       <c r="O4" s="150"/>
       <c r="P4" s="150"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16">
       <c r="A5" s="340"/>
       <c r="B5" s="164" t="s">
         <v>265</v>
@@ -39812,7 +39812,7 @@
       <c r="N5" s="150"/>
       <c r="O5" s="150"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16">
       <c r="A6" s="340"/>
       <c r="B6" s="164" t="s">
         <v>266</v>
@@ -39836,7 +39836,7 @@
       <c r="O6" s="150"/>
       <c r="P6" s="150"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16">
       <c r="A7" s="340"/>
       <c r="B7" s="164" t="s">
         <v>258</v>
@@ -39860,7 +39860,7 @@
       <c r="O7" s="150"/>
       <c r="P7" s="150"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16">
       <c r="A8" s="340"/>
       <c r="B8" s="164" t="s">
         <v>267</v>
@@ -39884,7 +39884,7 @@
       <c r="O8" s="150"/>
       <c r="P8" s="150"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16">
       <c r="A9" s="340"/>
       <c r="B9" s="164" t="s">
         <v>268</v>
@@ -39908,7 +39908,7 @@
       <c r="O9" s="150"/>
       <c r="P9" s="150"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16">
       <c r="A10" s="340"/>
       <c r="B10" s="164" t="s">
         <v>259</v>
@@ -39932,7 +39932,7 @@
       <c r="O10" s="150"/>
       <c r="P10" s="150"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16">
       <c r="A11" s="340"/>
       <c r="B11" s="164" t="s">
         <v>269</v>
@@ -39956,7 +39956,7 @@
       <c r="O11" s="150"/>
       <c r="P11" s="150"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16">
       <c r="A12" s="340"/>
       <c r="B12" s="164" t="s">
         <v>270</v>
@@ -39980,7 +39980,7 @@
       <c r="O12" s="150"/>
       <c r="P12" s="150"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16">
       <c r="A13" s="340"/>
       <c r="B13" s="164" t="s">
         <v>260</v>
@@ -40004,7 +40004,7 @@
       <c r="O13" s="150"/>
       <c r="P13" s="150"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16">
       <c r="A14" s="341"/>
       <c r="B14" s="165" t="s">
         <v>271</v>
@@ -40028,7 +40028,7 @@
       <c r="O14" s="150"/>
       <c r="P14" s="150"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16">
       <c r="A15" s="345">
         <v>2011</v>
       </c>
@@ -40054,7 +40054,7 @@
       <c r="O15" s="150"/>
       <c r="P15" s="150"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16">
       <c r="A16" s="346"/>
       <c r="B16" s="185" t="s">
         <v>257</v>
@@ -40078,7 +40078,7 @@
       <c r="O16" s="150"/>
       <c r="P16" s="150"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16">
       <c r="A17" s="346"/>
       <c r="B17" s="185" t="s">
         <v>265</v>
@@ -40102,7 +40102,7 @@
       <c r="O17" s="150"/>
       <c r="P17" s="150"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16">
       <c r="A18" s="346"/>
       <c r="B18" s="185" t="s">
         <v>266</v>
@@ -40117,7 +40117,7 @@
       <c r="F18" s="268"/>
       <c r="G18" s="150"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16">
       <c r="A19" s="346"/>
       <c r="B19" s="185" t="s">
         <v>258</v>
@@ -40132,7 +40132,7 @@
       <c r="F19" s="268"/>
       <c r="G19" s="150"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16">
       <c r="A20" s="346"/>
       <c r="B20" s="185" t="s">
         <v>267</v>
@@ -40147,7 +40147,7 @@
       <c r="F20" s="268"/>
       <c r="G20" s="150"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16">
       <c r="A21" s="346"/>
       <c r="B21" s="185" t="s">
         <v>268</v>
@@ -40162,7 +40162,7 @@
       <c r="F21" s="268"/>
       <c r="G21" s="150"/>
     </row>
-    <row r="22" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" ht="12.75" customHeight="1">
       <c r="A22" s="346"/>
       <c r="B22" s="185" t="s">
         <v>259</v>
@@ -40186,7 +40186,7 @@
       <c r="M22" s="144"/>
       <c r="N22" s="144"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16">
       <c r="A23" s="346"/>
       <c r="B23" s="185" t="s">
         <v>269</v>
@@ -40210,7 +40210,7 @@
       <c r="M23" s="159"/>
       <c r="N23" s="159"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16">
       <c r="A24" s="346"/>
       <c r="B24" s="185" t="s">
         <v>270</v>
@@ -40225,7 +40225,7 @@
       <c r="F24" s="268"/>
       <c r="G24" s="150"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16">
       <c r="A25" s="346"/>
       <c r="B25" s="185" t="s">
         <v>260</v>
@@ -40240,7 +40240,7 @@
       <c r="F25" s="268"/>
       <c r="G25" s="150"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16">
       <c r="A26" s="347"/>
       <c r="B26" s="187" t="s">
         <v>271</v>
@@ -40255,7 +40255,7 @@
       <c r="F26" s="268"/>
       <c r="G26" s="150"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16">
       <c r="A27" s="345">
         <v>2012</v>
       </c>
@@ -40272,7 +40272,7 @@
       <c r="F27" s="268"/>
       <c r="G27" s="150"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16">
       <c r="A28" s="346"/>
       <c r="B28" s="185" t="s">
         <v>257</v>
@@ -40287,7 +40287,7 @@
       <c r="F28" s="268"/>
       <c r="G28" s="150"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16">
       <c r="A29" s="346"/>
       <c r="B29" s="185" t="s">
         <v>265</v>
@@ -40302,7 +40302,7 @@
       <c r="F29" s="268"/>
       <c r="G29" s="150"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16">
       <c r="A30" s="346"/>
       <c r="B30" s="185" t="s">
         <v>266</v>
@@ -40317,7 +40317,7 @@
       <c r="F30" s="268"/>
       <c r="G30" s="150"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16">
       <c r="A31" s="346"/>
       <c r="B31" s="185" t="s">
         <v>258</v>
@@ -40332,7 +40332,7 @@
       <c r="F31" s="268"/>
       <c r="G31" s="150"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16">
       <c r="A32" s="346"/>
       <c r="B32" s="185" t="s">
         <v>267</v>
@@ -40347,7 +40347,7 @@
       <c r="F32" s="268"/>
       <c r="G32" s="150"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:16">
       <c r="A33" s="346"/>
       <c r="B33" s="185" t="s">
         <v>268</v>
@@ -40362,7 +40362,7 @@
       <c r="F33" s="268"/>
       <c r="G33" s="150"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:16">
       <c r="A34" s="346"/>
       <c r="B34" s="185" t="s">
         <v>259</v>
@@ -40377,7 +40377,7 @@
       <c r="F34" s="268"/>
       <c r="G34" s="150"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:16">
       <c r="A35" s="346"/>
       <c r="B35" s="185" t="s">
         <v>269</v>
@@ -40392,7 +40392,7 @@
       <c r="F35" s="268"/>
       <c r="G35" s="150"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:16">
       <c r="A36" s="346"/>
       <c r="B36" s="185" t="s">
         <v>270</v>
@@ -40416,7 +40416,7 @@
       <c r="O36" s="150"/>
       <c r="P36" s="150"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:16">
       <c r="A37" s="346"/>
       <c r="B37" s="185" t="s">
         <v>260</v>
@@ -40440,7 +40440,7 @@
       <c r="O37" s="150"/>
       <c r="P37" s="150"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:16">
       <c r="A38" s="347"/>
       <c r="B38" s="187" t="s">
         <v>271</v>
@@ -40464,7 +40464,7 @@
       <c r="O38" s="150"/>
       <c r="P38" s="150"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:16">
       <c r="A39" s="339">
         <v>2013</v>
       </c>
@@ -40490,7 +40490,7 @@
       <c r="O39" s="150"/>
       <c r="P39" s="150"/>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:16">
       <c r="A40" s="340"/>
       <c r="B40" s="164" t="s">
         <v>257</v>
@@ -40514,7 +40514,7 @@
       <c r="O40" s="150"/>
       <c r="P40" s="150"/>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:16">
       <c r="A41" s="340"/>
       <c r="B41" s="164" t="s">
         <v>265</v>
@@ -40538,7 +40538,7 @@
       <c r="O41" s="150"/>
       <c r="P41" s="150"/>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:16">
       <c r="A42" s="340"/>
       <c r="B42" s="164" t="s">
         <v>266</v>
@@ -40562,7 +40562,7 @@
       <c r="O42" s="150"/>
       <c r="P42" s="150"/>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:16">
       <c r="A43" s="340"/>
       <c r="B43" s="164" t="s">
         <v>258</v>
@@ -40586,7 +40586,7 @@
       <c r="O43" s="150"/>
       <c r="P43" s="150"/>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:16">
       <c r="A44" s="340"/>
       <c r="B44" s="164" t="s">
         <v>267</v>
@@ -40610,7 +40610,7 @@
       <c r="O44" s="150"/>
       <c r="P44" s="150"/>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:16">
       <c r="A45" s="340"/>
       <c r="B45" s="164" t="s">
         <v>268</v>
@@ -40634,7 +40634,7 @@
       <c r="O45" s="150"/>
       <c r="P45" s="150"/>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:16">
       <c r="A46" s="340"/>
       <c r="B46" s="164" t="s">
         <v>259</v>
@@ -40658,7 +40658,7 @@
       <c r="O46" s="150"/>
       <c r="P46" s="150"/>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:16">
       <c r="A47" s="340"/>
       <c r="B47" s="164" t="s">
         <v>269</v>
@@ -40682,7 +40682,7 @@
       <c r="O47" s="150"/>
       <c r="P47" s="150"/>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:16">
       <c r="A48" s="340"/>
       <c r="B48" s="164" t="s">
         <v>270</v>
@@ -40706,7 +40706,7 @@
       <c r="O48" s="150"/>
       <c r="P48" s="150"/>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:16">
       <c r="A49" s="340"/>
       <c r="B49" s="164" t="s">
         <v>260</v>
@@ -40730,7 +40730,7 @@
       <c r="O49" s="150"/>
       <c r="P49" s="150"/>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:16">
       <c r="A50" s="341"/>
       <c r="B50" s="165" t="s">
         <v>271</v>
@@ -40754,7 +40754,7 @@
       <c r="O50" s="150"/>
       <c r="P50" s="150"/>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:16">
       <c r="A51" s="339">
         <v>2014</v>
       </c>
@@ -40779,7 +40779,7 @@
       <c r="N51" s="150"/>
       <c r="O51" s="150"/>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:16">
       <c r="A52" s="340"/>
       <c r="B52" s="164" t="s">
         <v>257</v>
@@ -40793,7 +40793,7 @@
       <c r="E52" s="268"/>
       <c r="F52" s="268"/>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:16">
       <c r="A53" s="340"/>
       <c r="B53" s="164" t="s">
         <v>265</v>
@@ -40807,7 +40807,7 @@
       <c r="E53" s="268"/>
       <c r="F53" s="268"/>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:16">
       <c r="A54" s="340"/>
       <c r="B54" s="164" t="s">
         <v>266</v>
@@ -40821,7 +40821,7 @@
       <c r="E54" s="268"/>
       <c r="F54" s="268"/>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:16">
       <c r="A55" s="340"/>
       <c r="B55" s="164" t="s">
         <v>258</v>
@@ -40835,7 +40835,7 @@
       <c r="E55" s="268"/>
       <c r="F55" s="268"/>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:16">
       <c r="A56" s="340"/>
       <c r="B56" s="164" t="s">
         <v>267</v>
@@ -40849,7 +40849,7 @@
       <c r="E56" s="268"/>
       <c r="F56" s="268"/>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:16">
       <c r="A57" s="340"/>
       <c r="B57" s="164" t="s">
         <v>268</v>
@@ -40863,7 +40863,7 @@
       <c r="E57" s="268"/>
       <c r="F57" s="268"/>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:16">
       <c r="A58" s="340"/>
       <c r="B58" s="164" t="s">
         <v>259</v>
@@ -40877,7 +40877,7 @@
       <c r="E58" s="268"/>
       <c r="F58" s="268"/>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:16">
       <c r="A59" s="340"/>
       <c r="B59" s="164" t="s">
         <v>269</v>
@@ -40891,7 +40891,7 @@
       <c r="E59" s="268"/>
       <c r="F59" s="268"/>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:16">
       <c r="A60" s="340"/>
       <c r="B60" s="164" t="s">
         <v>270</v>
@@ -40905,7 +40905,7 @@
       <c r="E60" s="268"/>
       <c r="F60" s="268"/>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:16">
       <c r="A61" s="340"/>
       <c r="B61" s="164" t="s">
         <v>260</v>
@@ -40919,7 +40919,7 @@
       <c r="E61" s="268"/>
       <c r="F61" s="268"/>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:16">
       <c r="A62" s="341"/>
       <c r="B62" s="165" t="s">
         <v>271</v>
@@ -40933,7 +40933,7 @@
       <c r="E62" s="268"/>
       <c r="F62" s="268"/>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:16">
       <c r="A63" s="339">
         <v>2015</v>
       </c>
@@ -40949,7 +40949,7 @@
       <c r="E63" s="268"/>
       <c r="F63" s="268"/>
     </row>
-    <row r="64" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:16" ht="15" customHeight="1">
       <c r="A64" s="340"/>
       <c r="B64" s="164" t="s">
         <v>257</v>
@@ -40963,7 +40963,7 @@
       <c r="E64" s="268"/>
       <c r="F64" s="268"/>
     </row>
-    <row r="65" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6" ht="15" customHeight="1">
       <c r="A65" s="340"/>
       <c r="B65" s="164" t="s">
         <v>265</v>
@@ -40977,7 +40977,7 @@
       <c r="E65" s="268"/>
       <c r="F65" s="268"/>
     </row>
-    <row r="66" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6" ht="15" customHeight="1">
       <c r="A66" s="340"/>
       <c r="B66" s="164" t="s">
         <v>266</v>
@@ -40991,7 +40991,7 @@
       <c r="E66" s="268"/>
       <c r="F66" s="268"/>
     </row>
-    <row r="67" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6" ht="15" customHeight="1">
       <c r="A67" s="340"/>
       <c r="B67" s="164" t="s">
         <v>258</v>
@@ -41005,7 +41005,7 @@
       <c r="E67" s="268"/>
       <c r="F67" s="268"/>
     </row>
-    <row r="68" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6" ht="15" customHeight="1">
       <c r="A68" s="340"/>
       <c r="B68" s="164" t="s">
         <v>267</v>
@@ -41019,7 +41019,7 @@
       <c r="E68" s="268"/>
       <c r="F68" s="268"/>
     </row>
-    <row r="69" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6" ht="15" customHeight="1">
       <c r="A69" s="340"/>
       <c r="B69" s="164" t="s">
         <v>268</v>
@@ -41033,7 +41033,7 @@
       <c r="E69" s="268"/>
       <c r="F69" s="268"/>
     </row>
-    <row r="70" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6" ht="15" customHeight="1">
       <c r="A70" s="340"/>
       <c r="B70" s="164" t="s">
         <v>259</v>
@@ -41047,7 +41047,7 @@
       <c r="E70" s="268"/>
       <c r="F70" s="268"/>
     </row>
-    <row r="71" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6" ht="15" customHeight="1">
       <c r="A71" s="340"/>
       <c r="B71" s="164" t="s">
         <v>269</v>
@@ -41061,7 +41061,7 @@
       <c r="E71" s="268"/>
       <c r="F71" s="268"/>
     </row>
-    <row r="72" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6" ht="15" customHeight="1">
       <c r="A72" s="340"/>
       <c r="B72" s="164" t="s">
         <v>270</v>
@@ -41075,7 +41075,7 @@
       <c r="E72" s="268"/>
       <c r="F72" s="268"/>
     </row>
-    <row r="73" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6" ht="15" customHeight="1">
       <c r="A73" s="340"/>
       <c r="B73" s="164" t="s">
         <v>260</v>
@@ -41089,7 +41089,7 @@
       <c r="E73" s="268"/>
       <c r="F73" s="268"/>
     </row>
-    <row r="74" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
       <c r="A74" s="342"/>
       <c r="B74" s="167" t="s">
         <v>271</v>
@@ -41103,7 +41103,7 @@
       <c r="E74" s="268"/>
       <c r="F74" s="268"/>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6">
       <c r="C75" s="145">
         <v>828</v>
       </c>
@@ -41277,18 +41277,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -41310,14 +41310,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84E9B3FC-BC50-47F1-889E-FFC0E53B90F3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E1B02A05-038E-43EB-BB87-BC2D44E0F4BD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -41331,4 +41323,12 @@
     <ds:schemaRef ds:uri="9ed0e8e1-aabc-4adb-a3c5-52e6530bbe04"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84E9B3FC-BC50-47F1-889E-FFC0E53B90F3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>